--- a/barcode/Data path barcode.xlsx
+++ b/barcode/Data path barcode.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -548,6 +548,228 @@
   </si>
   <si>
     <t xml:space="preserve">OZN1325164077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Дисней мальчики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1054600320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Дисней девочки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1054576404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Спанч боб, Соник ежик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1054572723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Котята</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1158935807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Человек-Паук</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1214578624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Щенячий патруль</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1214740252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Майнкрафт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1214823094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки белые 30шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1215540233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Хаги Ваги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1235284831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Транспорт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1235362594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Единороги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1244859383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Пиксар Дисней</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1244873167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Гарри Поттер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1244897302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки белые рамка 30шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1244912967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Леди Баг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1275573417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Фея</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1335436121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Котята. Кот в ванной</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1336883090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Котята. День рождения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1336886951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Котята. Кот с пиццей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1336985571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Девочки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1336986276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Ежик праздник</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1336986150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Кот единорог</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1336985761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Динозавры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1336985573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Зайчики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1336986004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мишка с сердечками</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1336985639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Собачки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1336985689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Единорог и балерина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1336986278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Бабочки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1336986212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мишка моряк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1336985806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Единороги набор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1336986092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мишка пилот</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1336985420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Минни Маус улыбка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1336986360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Крокодил серфинг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1336985658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Котята. Кот в кружке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1336986476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Минни Маус Единорог</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1336986435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Минни Маус Набор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1336986249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Крокодил футбол</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1336986298</t>
   </si>
 </sst>
 </file>
@@ -740,16 +962,16 @@
   </sheetPr>
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D124" activeCellId="0" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="72.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="99.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="12.63"/>
   </cols>
   <sheetData>
@@ -1801,43 +2023,450 @@
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Данил.pdf</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="D88" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A88, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Дисней мальчики.pdf</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D89" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A89, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Дисней девочки.pdf</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D90" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A90, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Спанч боб, Соник ежик.pdf</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D91" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A91, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Котята.pdf</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D92" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A92, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Человек-Паук.pdf</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D93" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A93, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Щенячий патруль.pdf</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D94" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A94, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Майнкрафт.pdf</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D95" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A95, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки белые 30шт.pdf</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="D96" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A96, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Хаги Ваги.pdf</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D97" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A97, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Транспорт.pdf</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="D98" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A98, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Единороги.pdf</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D99" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A99, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Пиксар Дисней.pdf</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D100" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A100, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Гарри Поттер.pdf</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="D101" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A101, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки белые рамка 30шт.pdf</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D102" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A102, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Леди Баг.pdf</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="D103" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A103, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Фея.pdf</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D104" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A104, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Котята. Кот в ванной.pdf</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="D105" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A105, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Котята. День рождения.pdf</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="D106" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A106, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Котята. Кот с пиццей.pdf</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="D107" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A107, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Девочки.pdf</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="D108" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A108, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Ежик праздник.pdf</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="D109" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A109, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Кот единорог.pdf</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="D110" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A110, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Динозавры.pdf</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="D111" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A111, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Зайчики.pdf</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="D112" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A112, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Мишка с сердечками.pdf</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="D113" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A113, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Собачки.pdf</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="D114" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A114, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Единорог и балерина.pdf</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="D115" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A115, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Бабочки.pdf</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="D116" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A116, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Мишка моряк.pdf</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="D117" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A117, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Единороги набор.pdf</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="D118" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A118, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Мишка пилот.pdf</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="D119" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A119, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Минни Маус улыбка.pdf</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="D120" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A120, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Крокодил серфинг.pdf</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="D121" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A121, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Котята. Кот в кружке.pdf</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D122" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A122, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Минни Маус Единорог.pdf</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D123" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A123, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Минни Маус Набор.pdf</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D124" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A124, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Крокодил футбол.pdf</v>
+      </c>
+    </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/barcode/Data path barcode.xlsx
+++ b/barcode/Data path barcode.xlsx
@@ -963,7 +963,7 @@
   <dimension ref="A1:D130"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D124" activeCellId="0" sqref="D124"/>
+      <selection pane="topLeft" activeCell="E104" activeCellId="0" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/barcode/Data path barcode.xlsx
+++ b/barcode/Data path barcode.xlsx
@@ -962,8 +962,8 @@
   </sheetPr>
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E104" activeCellId="0" sqref="E104"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/barcode/Data path barcode.xlsx
+++ b/barcode/Data path barcode.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -34,6 +34,15 @@
     <t xml:space="preserve">Local_PDF_Path_Column_Name</t>
   </si>
   <si>
+    <t xml:space="preserve">путь к печати</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Раскладка в ширину</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термобирки Михаил</t>
   </si>
   <si>
@@ -574,6 +583,9 @@
     <t xml:space="preserve">OZN1158935807</t>
   </si>
   <si>
+    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\FINAL\Термобирки Котята.encode('utf-8').tif</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термобирки Человек-Паук</t>
   </si>
   <si>
@@ -712,6 +724,9 @@
     <t xml:space="preserve">OZN1336986278</t>
   </si>
   <si>
+    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Единорог и балерина.tif</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Бабочки</t>
   </si>
   <si>
@@ -740,6 +755,9 @@
   </si>
   <si>
     <t xml:space="preserve">OZN1336986360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Минни Маус улыбка.tif</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Крокодил серфинг</t>
@@ -779,7 +797,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -811,6 +829,13 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -866,7 +891,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -880,6 +905,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -960,18 +989,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="H103" activeCellId="0" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="99.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="98.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="12.63"/>
   </cols>
   <sheetData>
@@ -988,13 +1017,22 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="0" t="str">
@@ -1004,10 +1042,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="0" t="str">
@@ -1017,10 +1055,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A4, ".pdf")</f>
@@ -1029,10 +1067,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A5, ".pdf")</f>
@@ -1041,10 +1079,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D6" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A6, ".pdf")</f>
@@ -1053,10 +1091,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A7, ".pdf")</f>
@@ -1065,10 +1103,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D8" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A8, ".pdf")</f>
@@ -1077,10 +1115,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D9" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A9, ".pdf")</f>
@@ -1089,10 +1127,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D10" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A10, ".pdf")</f>
@@ -1101,10 +1139,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D11" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A11, ".pdf")</f>
@@ -1113,10 +1151,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D12" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A12, ".pdf")</f>
@@ -1125,10 +1163,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D13" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A13, ".pdf")</f>
@@ -1137,10 +1175,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D14" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A14, ".pdf")</f>
@@ -1149,10 +1187,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D15" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A15, ".pdf")</f>
@@ -1161,10 +1199,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D16" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A16, ".pdf")</f>
@@ -1173,10 +1211,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D17" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A17, ".pdf")</f>
@@ -1185,10 +1223,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D18" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A18, ".pdf")</f>
@@ -1197,10 +1235,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D19" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A19, ".pdf")</f>
@@ -1209,10 +1247,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D20" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A20, ".pdf")</f>
@@ -1221,10 +1259,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D21" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A21, ".pdf")</f>
@@ -1233,10 +1271,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D22" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A22, ".pdf")</f>
@@ -1245,10 +1283,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D23" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A23, ".pdf")</f>
@@ -1257,10 +1295,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D24" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A24, ".pdf")</f>
@@ -1269,10 +1307,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D25" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A25, ".pdf")</f>
@@ -1281,10 +1319,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D26" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A26, ".pdf")</f>
@@ -1293,10 +1331,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D27" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A27, ".pdf")</f>
@@ -1305,10 +1343,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D28" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A28, ".pdf")</f>
@@ -1317,10 +1355,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D29" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A29, ".pdf")</f>
@@ -1329,10 +1367,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D30" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A30, ".pdf")</f>
@@ -1341,10 +1379,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D31" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A31, ".pdf")</f>
@@ -1353,10 +1391,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D32" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A32, ".pdf")</f>
@@ -1365,10 +1403,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D33" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A33, ".pdf")</f>
@@ -1377,10 +1415,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D34" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A34, ".pdf")</f>
@@ -1389,10 +1427,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D35" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A35, ".pdf")</f>
@@ -1401,10 +1439,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D36" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A36, ".pdf")</f>
@@ -1413,10 +1451,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D37" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A37, ".pdf")</f>
@@ -1425,10 +1463,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D38" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A38, ".pdf")</f>
@@ -1437,10 +1475,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D39" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A39, ".pdf")</f>
@@ -1449,10 +1487,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D40" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A40, ".pdf")</f>
@@ -1461,10 +1499,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D41" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A41, ".pdf")</f>
@@ -1473,10 +1511,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D42" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A42, ".pdf")</f>
@@ -1485,10 +1523,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D43" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A43, ".pdf")</f>
@@ -1497,10 +1535,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D44" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A44, ".pdf")</f>
@@ -1509,10 +1547,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D45" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A45, ".pdf")</f>
@@ -1521,10 +1559,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D46" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A46, ".pdf")</f>
@@ -1533,10 +1571,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D47" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A47, ".pdf")</f>
@@ -1545,10 +1583,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D48" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A48, ".pdf")</f>
@@ -1557,10 +1595,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D49" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A49, ".pdf")</f>
@@ -1569,10 +1607,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D50" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A50, ".pdf")</f>
@@ -1581,10 +1619,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D51" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A51, ".pdf")</f>
@@ -1593,10 +1631,10 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D52" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A52, ".pdf")</f>
@@ -1605,10 +1643,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D53" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A53, ".pdf")</f>
@@ -1617,10 +1655,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D54" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A54, ".pdf")</f>
@@ -1629,10 +1667,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D55" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A55, ".pdf")</f>
@@ -1641,10 +1679,10 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D56" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A56, ".pdf")</f>
@@ -1653,10 +1691,10 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D57" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A57, ".pdf")</f>
@@ -1665,10 +1703,10 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D58" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A58, ".pdf")</f>
@@ -1677,10 +1715,10 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D59" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A59, ".pdf")</f>
@@ -1689,10 +1727,10 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D60" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A60, ".pdf")</f>
@@ -1701,10 +1739,10 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D61" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A61, ".pdf")</f>
@@ -1713,10 +1751,10 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D62" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A62, ".pdf")</f>
@@ -1725,10 +1763,10 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D63" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A63, ".pdf")</f>
@@ -1737,10 +1775,10 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D64" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A64, ".pdf")</f>
@@ -1749,10 +1787,10 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D65" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A65, ".pdf")</f>
@@ -1761,10 +1799,10 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D66" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A66, ".pdf")</f>
@@ -1773,10 +1811,10 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D67" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A67, ".pdf")</f>
@@ -1785,10 +1823,10 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D68" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A68, ".pdf")</f>
@@ -1797,10 +1835,10 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D69" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A69, ".pdf")</f>
@@ -1809,10 +1847,10 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D70" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A70, ".pdf")</f>
@@ -1821,10 +1859,10 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D71" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A71, ".pdf")</f>
@@ -1833,10 +1871,10 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D72" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A72, ".pdf")</f>
@@ -1845,10 +1883,10 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D73" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A73, ".pdf")</f>
@@ -1857,10 +1895,10 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D74" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A74, ".pdf")</f>
@@ -1869,10 +1907,10 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D75" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A75, ".pdf")</f>
@@ -1881,10 +1919,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D76" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A76, ".pdf")</f>
@@ -1893,10 +1931,10 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D77" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A77, ".pdf")</f>
@@ -1905,10 +1943,10 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D78" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A78, ".pdf")</f>
@@ -1917,10 +1955,10 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D79" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A79, ".pdf")</f>
@@ -1929,10 +1967,10 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D80" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A80, ".pdf")</f>
@@ -1941,10 +1979,10 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D81" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A81, ".pdf")</f>
@@ -1953,10 +1991,10 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D82" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A82, ".pdf")</f>
@@ -1965,10 +2003,10 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D83" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A83, ".pdf")</f>
@@ -1977,10 +2015,10 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D84" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A84, ".pdf")</f>
@@ -1989,10 +2027,10 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D85" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A85, ".pdf")</f>
@@ -2001,10 +2039,10 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D86" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A86, ".pdf")</f>
@@ -2013,10 +2051,10 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D87" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A87, ".pdf")</f>
@@ -2025,10 +2063,10 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D88" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A88, ".pdf")</f>
@@ -2037,10 +2075,10 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D89" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A89, ".pdf")</f>
@@ -2049,10 +2087,10 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D90" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A90, ".pdf")</f>
@@ -2061,22 +2099,31 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D91" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A91, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Котята.pdf</v>
       </c>
+      <c r="E91" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D92" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A92, ".pdf")</f>
@@ -2085,10 +2132,10 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D93" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A93, ".pdf")</f>
@@ -2097,10 +2144,10 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D94" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A94, ".pdf")</f>
@@ -2109,10 +2156,10 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D95" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A95, ".pdf")</f>
@@ -2121,10 +2168,10 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D96" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A96, ".pdf")</f>
@@ -2133,10 +2180,10 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D97" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A97, ".pdf")</f>
@@ -2145,10 +2192,10 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D98" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A98, ".pdf")</f>
@@ -2157,10 +2204,10 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D99" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A99, ".pdf")</f>
@@ -2169,10 +2216,10 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D100" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A100, ".pdf")</f>
@@ -2181,10 +2228,10 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D101" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A101, ".pdf")</f>
@@ -2193,10 +2240,10 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D102" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A102, ".pdf")</f>
@@ -2205,10 +2252,10 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D103" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A103, ".pdf")</f>
@@ -2217,10 +2264,10 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D104" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A104, ".pdf")</f>
@@ -2229,10 +2276,10 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D105" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A105, ".pdf")</f>
@@ -2241,10 +2288,10 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D106" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A106, ".pdf")</f>
@@ -2253,10 +2300,10 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D107" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A107, ".pdf")</f>
@@ -2265,10 +2312,10 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D108" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A108, ".pdf")</f>
@@ -2277,10 +2324,10 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D109" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A109, ".pdf")</f>
@@ -2289,10 +2336,10 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D110" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A110, ".pdf")</f>
@@ -2301,10 +2348,10 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D111" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A111, ".pdf")</f>
@@ -2313,10 +2360,10 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D112" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A112, ".pdf")</f>
@@ -2325,10 +2372,10 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D113" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A113, ".pdf")</f>
@@ -2337,22 +2384,31 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D114" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A114, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Единорог и балерина.pdf</v>
       </c>
+      <c r="E114" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F114" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G114" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D115" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A115, ".pdf")</f>
@@ -2361,10 +2417,10 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D116" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A116, ".pdf")</f>
@@ -2373,10 +2429,10 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D117" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A117, ".pdf")</f>
@@ -2385,10 +2441,10 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D118" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A118, ".pdf")</f>
@@ -2397,22 +2453,31 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D119" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A119, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Минни Маус улыбка.pdf</v>
       </c>
+      <c r="E119" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="F119" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D120" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A120, ".pdf")</f>
@@ -2421,10 +2486,10 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D121" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A121, ".pdf")</f>
@@ -2433,10 +2498,10 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D122" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A122, ".pdf")</f>
@@ -2445,10 +2510,10 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D123" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A123, ".pdf")</f>
@@ -2457,10 +2522,10 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D124" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A124, ".pdf")</f>

--- a/barcode/Data path barcode.xlsx
+++ b/barcode/Data path barcode.xlsx
@@ -991,8 +991,8 @@
   </sheetPr>
   <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H103" activeCellId="0" sqref="H103"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/barcode/Data path barcode.xlsx
+++ b/barcode/Data path barcode.xlsx
@@ -991,8 +991,8 @@
   </sheetPr>
   <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1:G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/barcode/Data path barcode.xlsx
+++ b/barcode/Data path barcode.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -682,6 +682,9 @@
     <t xml:space="preserve">OZN1336986276</t>
   </si>
   <si>
+    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Девочки.encode('utf-8').tif</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Ежик праздник</t>
   </si>
   <si>
@@ -704,6 +707,9 @@
   </si>
   <si>
     <t xml:space="preserve">OZN1336986004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Зайчики.encode('utf-8').tif</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Мишка с сердечками</t>
@@ -991,8 +997,8 @@
   </sheetPr>
   <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E107" activeCellId="0" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1000,8 +1006,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="98.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="45.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="64.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1039,6 +1046,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A2, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Михаил.pdf</v>
       </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -1052,6 +1068,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A3, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Александр.pdf</v>
       </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -1064,6 +1089,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A4, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Максим.pdf</v>
       </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
@@ -1076,6 +1110,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A5, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Артем.pdf</v>
       </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
@@ -1088,6 +1131,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A6, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Марк.pdf</v>
       </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
@@ -1100,6 +1152,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A7, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Лев.pdf</v>
       </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
@@ -1112,6 +1173,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A8, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Иван.pdf</v>
       </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
@@ -1124,6 +1194,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A9, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Матвей.pdf</v>
       </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
@@ -1136,6 +1215,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A10, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Даниил.pdf</v>
       </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
@@ -1148,6 +1236,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A11, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Дмитрий.pdf</v>
       </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
@@ -1160,6 +1257,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A12, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Тимофей.pdf</v>
       </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
@@ -1172,6 +1278,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A13, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Роман.pdf</v>
       </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
@@ -1184,6 +1299,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A14, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Мирон.pdf</v>
       </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
@@ -1196,6 +1320,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A15, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Мухаммад.pdf</v>
       </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
@@ -1208,6 +1341,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A16, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Кирилл.pdf</v>
       </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
@@ -1220,6 +1362,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A17, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Егор.pdf</v>
       </c>
+      <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
@@ -1232,6 +1383,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A18, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Илья.pdf</v>
       </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
@@ -1244,6 +1404,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A19, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Алексей.pdf</v>
       </c>
+      <c r="E19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
@@ -1256,6 +1425,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A20, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Константин.pdf</v>
       </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
@@ -1268,6 +1446,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A21, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Фёдор.pdf</v>
       </c>
+      <c r="E21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
@@ -1280,6 +1467,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A22, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Евгений.pdf</v>
       </c>
+      <c r="E22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
@@ -1292,6 +1488,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A23, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Денис.pdf</v>
       </c>
+      <c r="E23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
@@ -1304,6 +1509,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A24, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Антон.pdf</v>
       </c>
+      <c r="E24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
@@ -1316,6 +1530,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A25, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Игорь.pdf</v>
       </c>
+      <c r="E25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
@@ -1328,6 +1551,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A26, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Юрий.pdf</v>
       </c>
+      <c r="E26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
@@ -1340,6 +1572,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A27, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Олег.pdf</v>
       </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
@@ -1352,6 +1593,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A28, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Вячеслав.pdf</v>
       </c>
+      <c r="E28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
@@ -1364,6 +1614,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A29, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Станислав.pdf</v>
       </c>
+      <c r="E29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
@@ -1376,6 +1635,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A30, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Василий.pdf</v>
       </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
@@ -1388,6 +1656,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A31, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Вадим.pdf</v>
       </c>
+      <c r="E31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
@@ -1400,6 +1677,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A32, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Макар.pdf</v>
       </c>
+      <c r="E32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
@@ -1412,6 +1698,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A33, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Адам.pdf</v>
       </c>
+      <c r="E33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
@@ -1424,6 +1719,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A34, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Богдан.pdf</v>
       </c>
+      <c r="E34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
@@ -1436,6 +1740,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A35, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Платон.pdf</v>
       </c>
+      <c r="E35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
@@ -1448,6 +1761,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A36, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Леон.pdf</v>
       </c>
+      <c r="E36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
@@ -1460,6 +1782,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A37, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Савелий.pdf</v>
       </c>
+      <c r="E37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
@@ -1472,6 +1803,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A38, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Демид.pdf</v>
       </c>
+      <c r="E38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
@@ -1484,6 +1824,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A39, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Лука.pdf</v>
       </c>
+      <c r="E39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
@@ -1496,6 +1845,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A40, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Савва.pdf</v>
       </c>
+      <c r="E40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
@@ -1508,6 +1866,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A41, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Мирослав.pdf</v>
       </c>
+      <c r="E41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
@@ -1520,6 +1887,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A42, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки София.pdf</v>
       </c>
+      <c r="E42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
@@ -1532,6 +1908,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A43, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Анна.pdf</v>
       </c>
+      <c r="E43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
@@ -1544,6 +1929,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A44, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Мария.pdf</v>
       </c>
+      <c r="E44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
@@ -1556,6 +1950,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A45, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Ева.pdf</v>
       </c>
+      <c r="E45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
@@ -1568,6 +1971,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A46, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Алиса.pdf</v>
       </c>
+      <c r="E46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
@@ -1580,6 +1992,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A47, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Есения.pdf</v>
       </c>
+      <c r="E47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
@@ -1592,6 +2013,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A48, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Екатерина.pdf</v>
       </c>
+      <c r="E48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
@@ -1604,6 +2034,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A49, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Светлана.pdf</v>
       </c>
+      <c r="E49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
@@ -1616,6 +2055,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A50, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Полина.pdf</v>
       </c>
+      <c r="E50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
@@ -1628,6 +2076,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A51, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Оливия.pdf</v>
       </c>
+      <c r="E51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
@@ -1640,6 +2097,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A52, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Агата.pdf</v>
       </c>
+      <c r="E52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
@@ -1652,6 +2118,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A53, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Милана.pdf</v>
       </c>
+      <c r="E53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
@@ -1664,6 +2139,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A54, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Амалия.pdf</v>
       </c>
+      <c r="E54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
@@ -1676,6 +2160,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A55, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Виктория.pdf</v>
       </c>
+      <c r="E55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
@@ -1688,6 +2181,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A56, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Ясмина.pdf</v>
       </c>
+      <c r="E56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
@@ -1700,6 +2202,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A57, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Дарья.pdf</v>
       </c>
+      <c r="E57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
@@ -1712,6 +2223,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A58, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Александра.pdf</v>
       </c>
+      <c r="E58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
@@ -1724,6 +2244,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A59, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Любовь.pdf</v>
       </c>
+      <c r="E59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
@@ -1736,6 +2265,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A60, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Ольга.pdf</v>
       </c>
+      <c r="E60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
@@ -1748,6 +2286,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A61, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Татьяна.pdf</v>
       </c>
+      <c r="E61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
@@ -1760,6 +2307,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A62, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Аврора.pdf</v>
       </c>
+      <c r="E62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
@@ -1772,6 +2328,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A63, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Ксения.pdf</v>
       </c>
+      <c r="E63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
@@ -1784,6 +2349,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A64, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Варвара.pdf</v>
       </c>
+      <c r="E64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
@@ -1796,6 +2370,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A65, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Наталья.pdf</v>
       </c>
+      <c r="E65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
@@ -1808,6 +2391,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A66, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Анастасия.pdf</v>
       </c>
+      <c r="E66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
@@ -1820,6 +2412,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A67, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Марина.pdf</v>
       </c>
+      <c r="E67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
@@ -1832,6 +2433,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A68, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Елена.pdf</v>
       </c>
+      <c r="E68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
@@ -1844,6 +2454,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A69, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Надежда.pdf</v>
       </c>
+      <c r="E69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
@@ -1856,6 +2475,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A70, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Эмилия.pdf</v>
       </c>
+      <c r="E70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
@@ -1868,6 +2496,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A71, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Арина.pdf</v>
       </c>
+      <c r="E71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
@@ -1880,6 +2517,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A72, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Мирослава.pdf</v>
       </c>
+      <c r="E72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
@@ -1892,6 +2538,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A73, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Ирина.pdf</v>
       </c>
+      <c r="E73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
@@ -1904,6 +2559,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A74, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Агния.pdf</v>
       </c>
+      <c r="E74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
@@ -1916,6 +2580,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A75, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Кира.pdf</v>
       </c>
+      <c r="E75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
@@ -1928,6 +2601,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A76, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Вероника.pdf</v>
       </c>
+      <c r="E76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
@@ -1940,6 +2622,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A77, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Василиса.pdf</v>
       </c>
+      <c r="E77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
@@ -1952,6 +2643,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A78, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Елизавета.pdf</v>
       </c>
+      <c r="E78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
@@ -1964,6 +2664,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A79, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Юлия.pdf</v>
       </c>
+      <c r="E79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
@@ -1976,6 +2685,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A80, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Мира.pdf</v>
       </c>
+      <c r="E80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
@@ -1988,6 +2706,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A81, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Аделина.pdf</v>
       </c>
+      <c r="E81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
@@ -2000,6 +2727,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A82, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Владимир.pdf</v>
       </c>
+      <c r="E82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
@@ -2012,6 +2748,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A83, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Ярослав.pdf</v>
       </c>
+      <c r="E83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
@@ -2024,6 +2769,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A84, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Семён.pdf</v>
       </c>
+      <c r="E84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
@@ -2036,6 +2790,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A85, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Сергей.pdf</v>
       </c>
+      <c r="E85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
@@ -2048,6 +2811,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A86, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Степан.pdf</v>
       </c>
+      <c r="E86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
@@ -2060,6 +2832,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A87, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Данил.pdf</v>
       </c>
+      <c r="E87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
@@ -2072,6 +2853,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A88, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Дисней мальчики.pdf</v>
       </c>
+      <c r="E88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
@@ -2084,6 +2874,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A89, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Дисней девочки.pdf</v>
       </c>
+      <c r="E89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
@@ -2096,6 +2895,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A90, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Спанч боб, Соник ежик.pdf</v>
       </c>
+      <c r="E90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
@@ -2129,6 +2937,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A92, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Человек-Паук.pdf</v>
       </c>
+      <c r="E92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
@@ -2141,6 +2958,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A93, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Щенячий патруль.pdf</v>
       </c>
+      <c r="E93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
@@ -2153,6 +2979,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A94, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Майнкрафт.pdf</v>
       </c>
+      <c r="E94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
@@ -2165,6 +3000,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A95, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки белые 30шт.pdf</v>
       </c>
+      <c r="E95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
@@ -2177,6 +3021,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A96, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Хаги Ваги.pdf</v>
       </c>
+      <c r="E96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
@@ -2189,6 +3042,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A97, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Транспорт.pdf</v>
       </c>
+      <c r="E97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
@@ -2201,6 +3063,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A98, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Единороги.pdf</v>
       </c>
+      <c r="E98" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
@@ -2213,6 +3084,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A99, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Пиксар Дисней.pdf</v>
       </c>
+      <c r="E99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
@@ -2225,6 +3105,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A100, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Гарри Поттер.pdf</v>
       </c>
+      <c r="E100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
@@ -2237,6 +3126,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A101, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки белые рамка 30шт.pdf</v>
       </c>
+      <c r="E101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
@@ -2249,6 +3147,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A102, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Леди Баг.pdf</v>
       </c>
+      <c r="E102" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="s">
@@ -2261,6 +3168,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A103, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Фея.pdf</v>
       </c>
+      <c r="E103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
@@ -2273,6 +3189,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A104, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Котята. Кот в ванной.pdf</v>
       </c>
+      <c r="E104" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
@@ -2285,6 +3210,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A105, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Котята. День рождения.pdf</v>
       </c>
+      <c r="E105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G105" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
@@ -2297,6 +3231,15 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A106, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Котята. Кот с пиццей.pdf</v>
       </c>
+      <c r="E106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
@@ -2309,92 +3252,155 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A107, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Девочки.pdf</v>
       </c>
+      <c r="E107" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="F107" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G107" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D108" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A108, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Ежик праздник.pdf</v>
       </c>
+      <c r="E108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G108" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D109" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A109, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Кот единорог.pdf</v>
       </c>
+      <c r="E109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G109" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D110" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A110, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Динозавры.pdf</v>
       </c>
+      <c r="E110" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G110" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D111" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A111, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Зайчики.pdf</v>
       </c>
+      <c r="E111" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="F111" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D112" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A112, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Мишка с сердечками.pdf</v>
       </c>
+      <c r="E112" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G112" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D113" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A113, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Собачки.pdf</v>
       </c>
+      <c r="E113" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G113" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D114" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A114, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Единорог и балерина.pdf</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F114" s="0" t="n">
         <v>1</v>
@@ -2405,65 +3411,101 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D115" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A115, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Бабочки.pdf</v>
       </c>
+      <c r="E115" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D116" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A116, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Мишка моряк.pdf</v>
       </c>
+      <c r="E116" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G116" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D117" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A117, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Единороги набор.pdf</v>
       </c>
+      <c r="E117" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D118" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A118, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Мишка пилот.pdf</v>
       </c>
+      <c r="E118" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G118" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D119" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A119, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Минни Маус улыбка.pdf</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F119" s="0" t="n">
         <v>0</v>
@@ -2474,62 +3516,107 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D120" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A120, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Крокодил серфинг.pdf</v>
       </c>
+      <c r="E120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G120" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D121" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A121, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Котята. Кот в кружке.pdf</v>
       </c>
+      <c r="E121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G121" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D122" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A122, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Минни Маус Единорог.pdf</v>
       </c>
+      <c r="E122" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D123" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A123, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Минни Маус Набор.pdf</v>
       </c>
+      <c r="E123" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D124" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A124, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Крокодил футбол.pdf</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G124" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/barcode/Data path barcode.xlsx
+++ b/barcode/Data path barcode.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -583,9 +583,6 @@
     <t xml:space="preserve">OZN1158935807</t>
   </si>
   <si>
-    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\FINAL\Термобирки Котята.encode('utf-8').tif</t>
-  </si>
-  <si>
     <t xml:space="preserve">Термобирки Человек-Паук</t>
   </si>
   <si>
@@ -682,9 +679,6 @@
     <t xml:space="preserve">OZN1336986276</t>
   </si>
   <si>
-    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Девочки.encode('utf-8').tif</t>
-  </si>
-  <si>
     <t xml:space="preserve">Термонаклейка Ежик праздник</t>
   </si>
   <si>
@@ -709,9 +703,6 @@
     <t xml:space="preserve">OZN1336986004</t>
   </si>
   <si>
-    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Зайчики.encode('utf-8').tif</t>
-  </si>
-  <si>
     <t xml:space="preserve">Термонаклейка Мишка с сердечками</t>
   </si>
   <si>
@@ -730,9 +721,6 @@
     <t xml:space="preserve">OZN1336986278</t>
   </si>
   <si>
-    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Единорог и балерина.tif</t>
-  </si>
-  <si>
     <t xml:space="preserve">Термонаклейка Бабочки</t>
   </si>
   <si>
@@ -761,9 +749,6 @@
   </si>
   <si>
     <t xml:space="preserve">OZN1336986360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Минни Маус улыбка.tif</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Крокодил серфинг</t>
@@ -803,7 +788,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -835,13 +820,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -897,7 +875,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -911,10 +889,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -997,8 +971,8 @@
   </sheetPr>
   <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E107" activeCellId="0" sqref="E107"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E100" activeCellId="0" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1007,7 +981,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="45.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="64.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="94.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="12.63"/>
   </cols>
   <sheetData>
@@ -2853,8 +2827,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A88, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Дисней мальчики.pdf</v>
       </c>
-      <c r="E88" s="0" t="n">
-        <v>0</v>
+      <c r="E88" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\FINAL\",A88,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Дисней мальчики_img.tif</v>
       </c>
       <c r="F88" s="0" t="n">
         <v>1</v>
@@ -2874,8 +2849,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A89, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Дисней девочки.pdf</v>
       </c>
-      <c r="E89" s="0" t="n">
-        <v>0</v>
+      <c r="E89" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\FINAL\",A89,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Дисней девочки_img.tif</v>
       </c>
       <c r="F89" s="0" t="n">
         <v>1</v>
@@ -2895,8 +2871,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A90, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Спанч боб, Соник ежик.pdf</v>
       </c>
-      <c r="E90" s="0" t="n">
-        <v>0</v>
+      <c r="E90" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\FINAL\",A90,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Спанч боб, Соник ежик_img.tif</v>
       </c>
       <c r="F90" s="0" t="n">
         <v>1</v>
@@ -2916,8 +2893,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A91, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Котята.pdf</v>
       </c>
-      <c r="E91" s="0" t="s">
-        <v>187</v>
+      <c r="E91" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\FINAL\",A91,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Котята_img.tif</v>
       </c>
       <c r="F91" s="0" t="n">
         <v>1</v>
@@ -2928,17 +2906,18 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B92" s="0" t="s">
         <v>188</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>189</v>
       </c>
       <c r="D92" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A92, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Человек-Паук.pdf</v>
       </c>
-      <c r="E92" s="0" t="n">
-        <v>0</v>
+      <c r="E92" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\FINAL\",A92,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Человек-Паук_img.tif</v>
       </c>
       <c r="F92" s="0" t="n">
         <v>1</v>
@@ -2949,17 +2928,18 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B93" s="0" t="s">
         <v>190</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>191</v>
       </c>
       <c r="D93" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A93, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Щенячий патруль.pdf</v>
       </c>
-      <c r="E93" s="0" t="n">
-        <v>0</v>
+      <c r="E93" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\FINAL\",A93,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Щенячий патруль_img.tif</v>
       </c>
       <c r="F93" s="0" t="n">
         <v>1</v>
@@ -2970,17 +2950,18 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B94" s="0" t="s">
         <v>192</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>193</v>
       </c>
       <c r="D94" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A94, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Майнкрафт.pdf</v>
       </c>
-      <c r="E94" s="0" t="n">
-        <v>0</v>
+      <c r="E94" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\FINAL\",A94,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Майнкрафт_img.tif</v>
       </c>
       <c r="F94" s="0" t="n">
         <v>1</v>
@@ -2991,17 +2972,18 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B95" s="0" t="s">
         <v>194</v>
-      </c>
-      <c r="B95" s="0" t="s">
-        <v>195</v>
       </c>
       <c r="D95" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A95, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки белые 30шт.pdf</v>
       </c>
-      <c r="E95" s="0" t="n">
-        <v>0</v>
+      <c r="E95" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\FINAL\",A95,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки белые 30шт_img.tif</v>
       </c>
       <c r="F95" s="0" t="n">
         <v>1</v>
@@ -3012,17 +2994,18 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B96" s="0" t="s">
         <v>196</v>
-      </c>
-      <c r="B96" s="0" t="s">
-        <v>197</v>
       </c>
       <c r="D96" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A96, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Хаги Ваги.pdf</v>
       </c>
-      <c r="E96" s="0" t="n">
-        <v>0</v>
+      <c r="E96" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\FINAL\",A96,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Хаги Ваги_img.tif</v>
       </c>
       <c r="F96" s="0" t="n">
         <v>1</v>
@@ -3033,17 +3016,18 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B97" s="0" t="s">
         <v>198</v>
-      </c>
-      <c r="B97" s="0" t="s">
-        <v>199</v>
       </c>
       <c r="D97" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A97, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Транспорт.pdf</v>
       </c>
-      <c r="E97" s="0" t="n">
-        <v>0</v>
+      <c r="E97" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\FINAL\",A97,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Транспорт_img.tif</v>
       </c>
       <c r="F97" s="0" t="n">
         <v>1</v>
@@ -3054,17 +3038,18 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B98" s="0" t="s">
         <v>200</v>
-      </c>
-      <c r="B98" s="0" t="s">
-        <v>201</v>
       </c>
       <c r="D98" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A98, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Единороги.pdf</v>
       </c>
-      <c r="E98" s="0" t="n">
-        <v>0</v>
+      <c r="E98" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\FINAL\",A98,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Единороги_img.tif</v>
       </c>
       <c r="F98" s="0" t="n">
         <v>1</v>
@@ -3075,17 +3060,18 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B99" s="0" t="s">
         <v>202</v>
-      </c>
-      <c r="B99" s="0" t="s">
-        <v>203</v>
       </c>
       <c r="D99" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A99, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Пиксар Дисней.pdf</v>
       </c>
-      <c r="E99" s="0" t="n">
-        <v>0</v>
+      <c r="E99" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\FINAL\",A99,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Пиксар Дисней_img.tif</v>
       </c>
       <c r="F99" s="0" t="n">
         <v>1</v>
@@ -3096,17 +3082,18 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B100" s="0" t="s">
         <v>204</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>205</v>
       </c>
       <c r="D100" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A100, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Гарри Поттер.pdf</v>
       </c>
-      <c r="E100" s="0" t="n">
-        <v>0</v>
+      <c r="E100" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\FINAL\",A100,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Гарри Поттер_img.tif</v>
       </c>
       <c r="F100" s="0" t="n">
         <v>1</v>
@@ -3117,17 +3104,18 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B101" s="0" t="s">
         <v>206</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>207</v>
       </c>
       <c r="D101" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A101, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки белые рамка 30шт.pdf</v>
       </c>
-      <c r="E101" s="0" t="n">
-        <v>0</v>
+      <c r="E101" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\FINAL\",A101,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки белые рамка 30шт_img.tif</v>
       </c>
       <c r="F101" s="0" t="n">
         <v>1</v>
@@ -3138,17 +3126,18 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B102" s="0" t="s">
         <v>208</v>
-      </c>
-      <c r="B102" s="0" t="s">
-        <v>209</v>
       </c>
       <c r="D102" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A102, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Леди Баг.pdf</v>
       </c>
-      <c r="E102" s="0" t="n">
-        <v>0</v>
+      <c r="E102" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\FINAL\",A102,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Леди Баг_img.tif</v>
       </c>
       <c r="F102" s="0" t="n">
         <v>1</v>
@@ -3159,17 +3148,18 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B103" s="0" t="s">
         <v>210</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>211</v>
       </c>
       <c r="D103" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A103, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Фея.pdf</v>
       </c>
-      <c r="E103" s="0" t="n">
-        <v>0</v>
+      <c r="E103" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A103,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Фея_img.tif</v>
       </c>
       <c r="F103" s="0" t="n">
         <v>1</v>
@@ -3180,17 +3170,18 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B104" s="0" t="s">
         <v>212</v>
-      </c>
-      <c r="B104" s="0" t="s">
-        <v>213</v>
       </c>
       <c r="D104" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A104, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Котята. Кот в ванной.pdf</v>
       </c>
-      <c r="E104" s="0" t="n">
-        <v>0</v>
+      <c r="E104" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A104,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Котята. Кот в ванной_img.tif</v>
       </c>
       <c r="F104" s="0" t="n">
         <v>1</v>
@@ -3201,17 +3192,18 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B105" s="0" t="s">
         <v>214</v>
-      </c>
-      <c r="B105" s="0" t="s">
-        <v>215</v>
       </c>
       <c r="D105" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A105, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Котята. День рождения.pdf</v>
       </c>
-      <c r="E105" s="0" t="n">
-        <v>0</v>
+      <c r="E105" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A105,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Котята. День рождения_img.tif</v>
       </c>
       <c r="F105" s="0" t="n">
         <v>1</v>
@@ -3222,17 +3214,18 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B106" s="0" t="s">
         <v>216</v>
-      </c>
-      <c r="B106" s="0" t="s">
-        <v>217</v>
       </c>
       <c r="D106" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A106, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Котята. Кот с пиццей.pdf</v>
       </c>
-      <c r="E106" s="0" t="n">
-        <v>0</v>
+      <c r="E106" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A106,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Котята. Кот с пиццей_img.tif</v>
       </c>
       <c r="F106" s="0" t="n">
         <v>1</v>
@@ -3243,17 +3236,18 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B107" s="0" t="s">
         <v>218</v>
-      </c>
-      <c r="B107" s="0" t="s">
-        <v>219</v>
       </c>
       <c r="D107" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A107, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Девочки.pdf</v>
       </c>
-      <c r="E107" s="0" t="s">
-        <v>220</v>
+      <c r="E107" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A107,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Девочки_img.tif</v>
       </c>
       <c r="F107" s="0" t="n">
         <v>1</v>
@@ -3264,17 +3258,18 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D108" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A108, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Ежик праздник.pdf</v>
       </c>
-      <c r="E108" s="0" t="n">
-        <v>0</v>
+      <c r="E108" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A108,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Ежик праздник_img.tif</v>
       </c>
       <c r="F108" s="0" t="n">
         <v>1</v>
@@ -3285,17 +3280,18 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D109" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A109, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Кот единорог.pdf</v>
       </c>
-      <c r="E109" s="0" t="n">
-        <v>0</v>
+      <c r="E109" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A109,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Кот единорог_img.tif</v>
       </c>
       <c r="F109" s="0" t="n">
         <v>1</v>
@@ -3306,17 +3302,18 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D110" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A110, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Динозавры.pdf</v>
       </c>
-      <c r="E110" s="0" t="n">
-        <v>0</v>
+      <c r="E110" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A110,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Динозавры_img.tif</v>
       </c>
       <c r="F110" s="0" t="n">
         <v>1</v>
@@ -3327,17 +3324,18 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D111" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A111, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Зайчики.pdf</v>
       </c>
-      <c r="E111" s="0" t="s">
-        <v>229</v>
+      <c r="E111" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A111,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Зайчики_img.tif</v>
       </c>
       <c r="F111" s="0" t="n">
         <v>1</v>
@@ -3348,17 +3346,18 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D112" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A112, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Мишка с сердечками.pdf</v>
       </c>
-      <c r="E112" s="0" t="n">
-        <v>0</v>
+      <c r="E112" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A112,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Мишка с сердечками_img.tif</v>
       </c>
       <c r="F112" s="0" t="n">
         <v>1</v>
@@ -3369,17 +3368,18 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D113" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A113, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Собачки.pdf</v>
       </c>
-      <c r="E113" s="0" t="n">
-        <v>0</v>
+      <c r="E113" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A113,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Собачки_img.tif</v>
       </c>
       <c r="F113" s="0" t="n">
         <v>1</v>
@@ -3390,17 +3390,18 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D114" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A114, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Единорог и балерина.pdf</v>
       </c>
-      <c r="E114" s="4" t="s">
-        <v>236</v>
+      <c r="E114" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A114,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Единорог и балерина_img.tif</v>
       </c>
       <c r="F114" s="0" t="n">
         <v>1</v>
@@ -3411,17 +3412,18 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D115" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A115, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Бабочки.pdf</v>
       </c>
-      <c r="E115" s="0" t="n">
-        <v>0</v>
+      <c r="E115" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A115,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Бабочки_img.tif</v>
       </c>
       <c r="F115" s="0" t="n">
         <v>0</v>
@@ -3432,17 +3434,18 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D116" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A116, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Мишка моряк.pdf</v>
       </c>
-      <c r="E116" s="0" t="n">
-        <v>0</v>
+      <c r="E116" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A116,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Мишка моряк_img.tif</v>
       </c>
       <c r="F116" s="0" t="n">
         <v>1</v>
@@ -3453,17 +3456,18 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D117" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A117, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Единороги набор.pdf</v>
       </c>
-      <c r="E117" s="0" t="n">
-        <v>0</v>
+      <c r="E117" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A117,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Единороги набор_img.tif</v>
       </c>
       <c r="F117" s="0" t="n">
         <v>1</v>
@@ -3474,17 +3478,18 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D118" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A118, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Мишка пилот.pdf</v>
       </c>
-      <c r="E118" s="0" t="n">
-        <v>0</v>
+      <c r="E118" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A118,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Мишка пилот_img.tif</v>
       </c>
       <c r="F118" s="0" t="n">
         <v>1</v>
@@ -3495,17 +3500,18 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D119" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A119, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Минни Маус улыбка.pdf</v>
       </c>
-      <c r="E119" s="0" t="s">
-        <v>247</v>
+      <c r="E119" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A119,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Минни Маус улыбка_img.tif</v>
       </c>
       <c r="F119" s="0" t="n">
         <v>0</v>
@@ -3516,17 +3522,18 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D120" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A120, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Крокодил серфинг.pdf</v>
       </c>
-      <c r="E120" s="0" t="n">
-        <v>0</v>
+      <c r="E120" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A120,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Крокодил серфинг_img.tif</v>
       </c>
       <c r="F120" s="0" t="n">
         <v>1</v>
@@ -3537,17 +3544,18 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D121" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A121, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Котята. Кот в кружке.pdf</v>
       </c>
-      <c r="E121" s="0" t="n">
-        <v>0</v>
+      <c r="E121" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A121,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Котята. Кот в кружке_img.tif</v>
       </c>
       <c r="F121" s="0" t="n">
         <v>1</v>
@@ -3558,17 +3566,18 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D122" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A122, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Минни Маус Единорог.pdf</v>
       </c>
-      <c r="E122" s="0" t="n">
-        <v>0</v>
+      <c r="E122" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A122,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Минни Маус Единорог_img.tif</v>
       </c>
       <c r="F122" s="0" t="n">
         <v>0</v>
@@ -3579,17 +3588,18 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D123" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A123, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Минни Маус Набор.pdf</v>
       </c>
-      <c r="E123" s="0" t="n">
-        <v>0</v>
+      <c r="E123" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A123,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Минни Маус Набор_img.tif</v>
       </c>
       <c r="F123" s="0" t="n">
         <v>0</v>
@@ -3600,17 +3610,18 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D124" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A124, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Крокодил футбол.pdf</v>
       </c>
-      <c r="E124" s="0" t="n">
-        <v>0</v>
+      <c r="E124" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A124,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Крокодил футбол_img.tif</v>
       </c>
       <c r="F124" s="0" t="n">
         <v>1</v>

--- a/barcode/Data path barcode.xlsx
+++ b/barcode/Data path barcode.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -41,6 +41,79 @@
   </si>
   <si>
     <t xml:space="preserve">Раскладка в ширину</t>
+  </si>
+  <si>
+    <t xml:space="preserve">путь папки в облако</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бренд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цвет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пол</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Артикул продавца</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Артикул WB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Баркод товара</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цена</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Состав</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Описание</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Высота упаковки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Длина упаковки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ширина упаковки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вес товара с упаковкой (г)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Страна производства</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Медиафайлы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Девушка волосы облако Тест</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN129588TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Punky Monkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полимерный материал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка на одежду. Приклеивается на любую ткань. Выдерживают многократную стирку. Бережная стирка при 30º градусах. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.
+Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. Так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термостикеры идеально подходит для детской и взрослой одежды. Все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. Аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись или номера. Термозаплатки или переводка может использоваться для ремонта одежды для дырок. Термотрансфер служит для термозаплаток. Самоклейки это как переводки или термо наклейки. Термоклеевая наклейка устойчива к стирке. Термонаклейка - это прекрасный способ добавить индивидуальность и стиль вашей одежде. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Россия</t>
   </si>
   <si>
     <t xml:space="preserve">Термобирки Михаил</t>
@@ -788,7 +861,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -820,6 +893,13 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -875,7 +955,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -886,6 +966,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -969,20 +1053,35 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G130"/>
+  <dimension ref="A1:X130"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E100" activeCellId="0" sqref="E100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="45.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="83.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="94.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="49.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="40.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="25.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="51.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="22.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="18" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="24.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="20.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="25" style="0" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1007,40 +1106,133 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
+      <c r="A2" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A2, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Михаил.pdf</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="0" t="str">
+        <f aca="false">A2</f>
+        <v>Термонаклейка Девушка волосы облако Тест</v>
+      </c>
+      <c r="L2" s="0" t="str">
+        <f aca="false">A2</f>
+        <v>Термонаклейка Девушка волосы облако Тест</v>
+      </c>
+      <c r="N2" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A2, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Девушка волосы облако Тест</v>
+      </c>
+      <c r="O2" s="0" t="str">
+        <f aca="false">B2</f>
+        <v>OZN129588TEST</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="3" t="str">
+        <f aca="false">CONCATENATE(SUBSTITUTE(CONCATENATE(H2,A2,"_1.jpg;")," ","%20"),SUBSTITUTE(CONCATENATE(H2,A2,"_2.jpg;")," ","%20"),SUBSTITUTE(CONCATENATE(H2,A2,"_3.jpg;")," ","%20"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Термонаклейка%20Девушка%20волосы%20облако%20Тест_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Термонаклейка%20Девушка%20волосы%20облако%20Тест_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Термонаклейка%20Девушка%20волосы%20облако%20Тест_3.jpg;</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
+      <c r="A3" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A3, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Александр.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Михаил.pdf</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
@@ -1052,16 +1244,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A4, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Максим.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Александр.pdf</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>0</v>
@@ -1074,15 +1267,15 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
+      <c r="A5" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D5" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A5, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Артем.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Максим.pdf</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0</v>
@@ -1095,15 +1288,15 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
+      <c r="A6" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D6" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A6, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Марк.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Артем.pdf</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
@@ -1116,15 +1309,15 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
+      <c r="A7" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D7" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A7, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Лев.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Марк.pdf</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
@@ -1137,15 +1330,15 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>19</v>
+      <c r="A8" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D8" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A8, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Иван.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Лев.pdf</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>0</v>
@@ -1158,15 +1351,15 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
+      <c r="A9" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D9" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A9, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Матвей.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Иван.pdf</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
@@ -1179,15 +1372,15 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>23</v>
+      <c r="A10" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D10" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A10, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Даниил.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Матвей.pdf</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0</v>
@@ -1200,15 +1393,15 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>25</v>
+      <c r="A11" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D11" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A11, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Дмитрий.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Даниил.pdf</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>0</v>
@@ -1221,15 +1414,15 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>27</v>
+      <c r="A12" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D12" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A12, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Тимофей.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Дмитрий.pdf</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0</v>
@@ -1242,15 +1435,15 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>29</v>
+      <c r="A13" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D13" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A13, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Роман.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Тимофей.pdf</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>0</v>
@@ -1263,15 +1456,15 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>31</v>
+      <c r="A14" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D14" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A14, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Мирон.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Роман.pdf</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>0</v>
@@ -1284,15 +1477,15 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>33</v>
+      <c r="A15" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D15" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A15, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Мухаммад.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Мирон.pdf</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>0</v>
@@ -1305,15 +1498,15 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>35</v>
+      <c r="A16" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D16" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A16, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Кирилл.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Мухаммад.pdf</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0</v>
@@ -1326,15 +1519,15 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>37</v>
+      <c r="A17" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D17" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A17, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Егор.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Кирилл.pdf</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>0</v>
@@ -1347,15 +1540,15 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>39</v>
+      <c r="A18" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D18" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A18, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Илья.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Егор.pdf</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>0</v>
@@ -1368,15 +1561,15 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>41</v>
+      <c r="A19" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D19" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A19, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Алексей.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Илья.pdf</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>0</v>
@@ -1389,15 +1582,15 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>43</v>
+      <c r="A20" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D20" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A20, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Константин.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Алексей.pdf</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>0</v>
@@ -1410,15 +1603,15 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>45</v>
+      <c r="A21" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D21" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A21, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Фёдор.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Константин.pdf</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>0</v>
@@ -1431,15 +1624,15 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>47</v>
+      <c r="A22" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="D22" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A22, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Евгений.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Фёдор.pdf</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>0</v>
@@ -1452,15 +1645,15 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>49</v>
+      <c r="A23" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D23" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A23, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Денис.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Евгений.pdf</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>0</v>
@@ -1473,15 +1666,15 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>51</v>
+      <c r="A24" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D24" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A24, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Антон.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Денис.pdf</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>0</v>
@@ -1494,15 +1687,15 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
-        <v>53</v>
+      <c r="A25" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="D25" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A25, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Игорь.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Антон.pdf</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>0</v>
@@ -1515,15 +1708,15 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
-        <v>55</v>
+      <c r="A26" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="D26" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A26, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Юрий.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Игорь.pdf</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>0</v>
@@ -1536,15 +1729,15 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>57</v>
+      <c r="A27" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="D27" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A27, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Олег.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Юрий.pdf</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>0</v>
@@ -1557,15 +1750,15 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
-        <v>59</v>
+      <c r="A28" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="D28" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A28, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Вячеслав.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Олег.pdf</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>0</v>
@@ -1578,15 +1771,15 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
-        <v>61</v>
+      <c r="A29" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="D29" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A29, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Станислав.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Вячеслав.pdf</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>0</v>
@@ -1599,15 +1792,15 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
-        <v>63</v>
+      <c r="A30" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D30" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A30, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Василий.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Станислав.pdf</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>0</v>
@@ -1620,15 +1813,15 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
-        <v>65</v>
+      <c r="A31" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="D31" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A31, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Вадим.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Василий.pdf</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>0</v>
@@ -1641,15 +1834,15 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
-        <v>67</v>
+      <c r="A32" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D32" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A32, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Макар.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Вадим.pdf</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>0</v>
@@ -1662,15 +1855,15 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
-        <v>69</v>
+      <c r="A33" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="D33" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A33, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Адам.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Макар.pdf</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>0</v>
@@ -1683,15 +1876,15 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
-        <v>71</v>
+      <c r="A34" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D34" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A34, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Богдан.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Адам.pdf</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>0</v>
@@ -1704,15 +1897,15 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
-        <v>73</v>
+      <c r="A35" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D35" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A35, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Платон.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Богдан.pdf</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>0</v>
@@ -1725,15 +1918,15 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
-        <v>75</v>
+      <c r="A36" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="D36" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A36, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Леон.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Платон.pdf</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>0</v>
@@ -1746,15 +1939,15 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
-        <v>77</v>
+      <c r="A37" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D37" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A37, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Савелий.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Леон.pdf</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>0</v>
@@ -1767,15 +1960,15 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
-        <v>79</v>
+      <c r="A38" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="D38" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A38, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Демид.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Савелий.pdf</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>0</v>
@@ -1788,15 +1981,15 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
-        <v>81</v>
+      <c r="A39" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D39" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A39, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Лука.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Демид.pdf</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>0</v>
@@ -1809,15 +2002,15 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
-        <v>83</v>
+      <c r="A40" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="D40" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A40, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Савва.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Лука.pdf</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>0</v>
@@ -1830,37 +2023,37 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
-        <v>85</v>
+      <c r="A41" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="D41" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A41, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Савва.pdf</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A42, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Мирослав.pdf</v>
       </c>
-      <c r="E41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A42, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки София.pdf</v>
-      </c>
       <c r="E42" s="0" t="n">
         <v>0</v>
       </c>
@@ -1872,15 +2065,15 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
-        <v>89</v>
+      <c r="A43" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="D43" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A43, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Анна.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки София.pdf</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>0</v>
@@ -1893,15 +2086,15 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
-        <v>91</v>
+      <c r="A44" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="D44" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A44, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Мария.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Анна.pdf</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>0</v>
@@ -1914,15 +2107,15 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
-        <v>93</v>
+      <c r="A45" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="D45" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A45, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Ева.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Мария.pdf</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>0</v>
@@ -1935,15 +2128,15 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
-        <v>95</v>
+      <c r="A46" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="D46" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A46, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Алиса.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Ева.pdf</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>0</v>
@@ -1956,15 +2149,15 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
-        <v>97</v>
+      <c r="A47" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="D47" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A47, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Есения.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Алиса.pdf</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>0</v>
@@ -1977,15 +2170,15 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
-        <v>99</v>
+      <c r="A48" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="D48" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A48, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Екатерина.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Есения.pdf</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>0</v>
@@ -1998,15 +2191,15 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
-        <v>101</v>
+      <c r="A49" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="D49" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A49, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Светлана.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Екатерина.pdf</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>0</v>
@@ -2019,15 +2212,15 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
-        <v>103</v>
+      <c r="A50" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="D50" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A50, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Полина.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Светлана.pdf</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>0</v>
@@ -2040,15 +2233,15 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
-        <v>105</v>
+      <c r="A51" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="D51" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A51, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Оливия.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Полина.pdf</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>0</v>
@@ -2061,15 +2254,15 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="s">
-        <v>107</v>
+      <c r="A52" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="D52" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A52, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Агата.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Оливия.pdf</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>0</v>
@@ -2082,15 +2275,15 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
-        <v>109</v>
+      <c r="A53" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="D53" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A53, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Милана.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Агата.pdf</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>0</v>
@@ -2103,15 +2296,15 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="s">
-        <v>111</v>
+      <c r="A54" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="D54" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A54, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Амалия.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Милана.pdf</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>0</v>
@@ -2124,15 +2317,15 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
-        <v>113</v>
+      <c r="A55" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="D55" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A55, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Виктория.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Амалия.pdf</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>0</v>
@@ -2145,15 +2338,15 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="s">
-        <v>115</v>
+      <c r="A56" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="D56" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A56, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Ясмина.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Виктория.pdf</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>0</v>
@@ -2166,15 +2359,15 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="s">
-        <v>117</v>
+      <c r="A57" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D57" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A57, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Дарья.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Ясмина.pdf</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>0</v>
@@ -2187,15 +2380,15 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="s">
-        <v>119</v>
+      <c r="A58" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D58" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A58, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Александра.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Дарья.pdf</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>0</v>
@@ -2208,15 +2401,15 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="s">
-        <v>121</v>
+      <c r="A59" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="D59" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A59, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Любовь.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Александра.pdf</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>0</v>
@@ -2229,15 +2422,15 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="s">
-        <v>123</v>
+      <c r="A60" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="D60" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A60, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Ольга.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Любовь.pdf</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>0</v>
@@ -2250,15 +2443,15 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="s">
-        <v>125</v>
+      <c r="A61" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D61" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A61, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Татьяна.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Ольга.pdf</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>0</v>
@@ -2271,15 +2464,15 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="s">
-        <v>127</v>
+      <c r="A62" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="D62" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A62, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Аврора.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Татьяна.pdf</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>0</v>
@@ -2292,15 +2485,15 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="s">
-        <v>129</v>
+      <c r="A63" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="D63" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A63, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Ксения.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Аврора.pdf</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>0</v>
@@ -2313,15 +2506,15 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="s">
-        <v>131</v>
+      <c r="A64" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="D64" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A64, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Варвара.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Ксения.pdf</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>0</v>
@@ -2334,15 +2527,15 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="s">
-        <v>133</v>
+      <c r="A65" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="D65" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A65, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Наталья.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Варвара.pdf</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>0</v>
@@ -2355,15 +2548,15 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="s">
-        <v>135</v>
+      <c r="A66" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="D66" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A66, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Анастасия.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Наталья.pdf</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>0</v>
@@ -2376,15 +2569,15 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="s">
-        <v>137</v>
+      <c r="A67" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="D67" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A67, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Марина.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Анастасия.pdf</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>0</v>
@@ -2397,15 +2590,15 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="s">
-        <v>139</v>
+      <c r="A68" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="D68" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A68, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Елена.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Марина.pdf</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>0</v>
@@ -2418,15 +2611,15 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="s">
-        <v>141</v>
+      <c r="A69" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="D69" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A69, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Надежда.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Елена.pdf</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>0</v>
@@ -2439,15 +2632,15 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="s">
-        <v>143</v>
+      <c r="A70" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="D70" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A70, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Эмилия.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Надежда.pdf</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>0</v>
@@ -2460,15 +2653,15 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="s">
-        <v>145</v>
+      <c r="A71" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="D71" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A71, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Арина.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Эмилия.pdf</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>0</v>
@@ -2481,15 +2674,15 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="s">
-        <v>147</v>
+      <c r="A72" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="D72" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A72, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Мирослава.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Арина.pdf</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>0</v>
@@ -2502,15 +2695,15 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="s">
-        <v>149</v>
+      <c r="A73" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="D73" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A73, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Ирина.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Мирослава.pdf</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>0</v>
@@ -2523,15 +2716,15 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="s">
-        <v>151</v>
+      <c r="A74" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="D74" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A74, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Агния.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Ирина.pdf</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>0</v>
@@ -2544,15 +2737,15 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="s">
-        <v>153</v>
+      <c r="A75" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="D75" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A75, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Кира.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Агния.pdf</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>0</v>
@@ -2565,15 +2758,15 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="s">
-        <v>155</v>
+      <c r="A76" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D76" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A76, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Вероника.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Кира.pdf</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>0</v>
@@ -2586,15 +2779,15 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="s">
-        <v>157</v>
+      <c r="A77" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="D77" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A77, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Василиса.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Вероника.pdf</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>0</v>
@@ -2607,15 +2800,15 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3" t="s">
-        <v>159</v>
+      <c r="A78" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="D78" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A78, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Елизавета.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Василиса.pdf</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>0</v>
@@ -2628,15 +2821,15 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3" t="s">
-        <v>161</v>
+      <c r="A79" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="D79" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A79, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Юлия.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Елизавета.pdf</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>0</v>
@@ -2649,15 +2842,15 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3" t="s">
-        <v>163</v>
+      <c r="A80" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="D80" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A80, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Мира.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Юлия.pdf</v>
       </c>
       <c r="E80" s="0" t="n">
         <v>0</v>
@@ -2670,37 +2863,37 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3" t="s">
-        <v>165</v>
+      <c r="A81" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="D81" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A81, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Мира.pdf</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="D82" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A82, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Аделина.pdf</v>
       </c>
-      <c r="E81" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G81" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="D82" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A82, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Владимир.pdf</v>
-      </c>
       <c r="E82" s="0" t="n">
         <v>0</v>
       </c>
@@ -2712,15 +2905,15 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3" t="s">
-        <v>169</v>
+      <c r="A83" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="D83" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A83, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Ярослав.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Владимир.pdf</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>0</v>
@@ -2733,15 +2926,15 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="s">
-        <v>171</v>
+      <c r="A84" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="D84" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A84, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Семён.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Ярослав.pdf</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>0</v>
@@ -2754,15 +2947,15 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="3" t="s">
-        <v>173</v>
+      <c r="A85" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="D85" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A85, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Сергей.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Семён.pdf</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>0</v>
@@ -2775,15 +2968,15 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="3" t="s">
-        <v>175</v>
+      <c r="A86" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="D86" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A86, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Степан.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Сергей.pdf</v>
       </c>
       <c r="E86" s="0" t="n">
         <v>0</v>
@@ -2796,62 +2989,61 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="3" t="s">
-        <v>177</v>
+      <c r="A87" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="D87" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A87, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Степан.pdf</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="D88" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A88, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Данил.pdf</v>
       </c>
-      <c r="E87" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F87" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G87" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D88" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A88, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Дисней мальчики.pdf</v>
-      </c>
-      <c r="E88" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\FINAL\",A88,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Дисней мальчики_img.tif</v>
+      <c r="E88" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="F88" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="3" t="s">
-        <v>181</v>
+      <c r="A89" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="D89" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A89, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Дисней девочки.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Дисней мальчики.pdf</v>
       </c>
       <c r="E89" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\FINAL\",A89,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Дисней девочки_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Дисней мальчики_img.tif</v>
       </c>
       <c r="F89" s="0" t="n">
         <v>1</v>
@@ -2861,19 +3053,19 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3" t="s">
-        <v>183</v>
+      <c r="A90" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="D90" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A90, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Спанч боб, Соник ежик.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Дисней девочки.pdf</v>
       </c>
       <c r="E90" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\FINAL\",A90,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Спанч боб, Соник ежик_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Дисней девочки_img.tif</v>
       </c>
       <c r="F90" s="0" t="n">
         <v>1</v>
@@ -2883,19 +3075,19 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="3" t="s">
-        <v>185</v>
+      <c r="A91" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="D91" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A91, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Котята.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Спанч боб, Соник ежик.pdf</v>
       </c>
       <c r="E91" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\FINAL\",A91,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Котята_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Спанч боб, Соник ежик_img.tif</v>
       </c>
       <c r="F91" s="0" t="n">
         <v>1</v>
@@ -2905,19 +3097,19 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="3" t="s">
-        <v>187</v>
+      <c r="A92" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="D92" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A92, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Человек-Паук.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Котята.pdf</v>
       </c>
       <c r="E92" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\FINAL\",A92,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Человек-Паук_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Котята_img.tif</v>
       </c>
       <c r="F92" s="0" t="n">
         <v>1</v>
@@ -2927,19 +3119,19 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="3" t="s">
-        <v>189</v>
+      <c r="A93" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="D93" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A93, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Щенячий патруль.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Человек-Паук.pdf</v>
       </c>
       <c r="E93" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\FINAL\",A93,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Щенячий патруль_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Человек-Паук_img.tif</v>
       </c>
       <c r="F93" s="0" t="n">
         <v>1</v>
@@ -2949,19 +3141,19 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="3" t="s">
-        <v>191</v>
+      <c r="A94" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="D94" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A94, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Майнкрафт.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Щенячий патруль.pdf</v>
       </c>
       <c r="E94" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\FINAL\",A94,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Майнкрафт_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Щенячий патруль_img.tif</v>
       </c>
       <c r="F94" s="0" t="n">
         <v>1</v>
@@ -2971,19 +3163,19 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="3" t="s">
-        <v>193</v>
+      <c r="A95" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="D95" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A95, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки белые 30шт.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Майнкрафт.pdf</v>
       </c>
       <c r="E95" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\FINAL\",A95,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки белые 30шт_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Майнкрафт_img.tif</v>
       </c>
       <c r="F95" s="0" t="n">
         <v>1</v>
@@ -2993,19 +3185,19 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="3" t="s">
-        <v>195</v>
+      <c r="A96" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="D96" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A96, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Хаги Ваги.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки белые 30шт.pdf</v>
       </c>
       <c r="E96" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\FINAL\",A96,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Хаги Ваги_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки белые 30шт_img.tif</v>
       </c>
       <c r="F96" s="0" t="n">
         <v>1</v>
@@ -3015,19 +3207,19 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="3" t="s">
-        <v>197</v>
+      <c r="A97" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="D97" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A97, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Транспорт.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Хаги Ваги.pdf</v>
       </c>
       <c r="E97" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\FINAL\",A97,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Транспорт_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Хаги Ваги_img.tif</v>
       </c>
       <c r="F97" s="0" t="n">
         <v>1</v>
@@ -3037,19 +3229,19 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="3" t="s">
-        <v>199</v>
+      <c r="A98" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="D98" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A98, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Единороги.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Транспорт.pdf</v>
       </c>
       <c r="E98" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\FINAL\",A98,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Единороги_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Транспорт_img.tif</v>
       </c>
       <c r="F98" s="0" t="n">
         <v>1</v>
@@ -3059,19 +3251,19 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="3" t="s">
-        <v>201</v>
+      <c r="A99" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="D99" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A99, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Пиксар Дисней.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Единороги.pdf</v>
       </c>
       <c r="E99" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\FINAL\",A99,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Пиксар Дисней_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Единороги_img.tif</v>
       </c>
       <c r="F99" s="0" t="n">
         <v>1</v>
@@ -3081,19 +3273,19 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="3" t="s">
-        <v>203</v>
+      <c r="A100" s="4" t="s">
+        <v>225</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="D100" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A100, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Гарри Поттер.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Пиксар Дисней.pdf</v>
       </c>
       <c r="E100" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\FINAL\",A100,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Гарри Поттер_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Пиксар Дисней_img.tif</v>
       </c>
       <c r="F100" s="0" t="n">
         <v>1</v>
@@ -3103,19 +3295,19 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="3" t="s">
-        <v>205</v>
+      <c r="A101" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="D101" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A101, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки белые рамка 30шт.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Гарри Поттер.pdf</v>
       </c>
       <c r="E101" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\FINAL\",A101,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки белые рамка 30шт_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Гарри Поттер_img.tif</v>
       </c>
       <c r="F101" s="0" t="n">
         <v>1</v>
@@ -3125,63 +3317,63 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="3" t="s">
-        <v>207</v>
+      <c r="A102" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="D102" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A102, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Леди Баг.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки белые рамка 30шт.pdf</v>
       </c>
       <c r="E102" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\FINAL\",A102,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки белые рамка 30шт_img.tif</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="D103" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A103, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\Термобирки Леди Баг.pdf</v>
+      </c>
+      <c r="E103" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\FINAL\",A103,"_img.tif")</f>
         <v>C:\work\baby prints\MainTop\tif\FINAL\Термобирки Леди Баг_img.tif</v>
       </c>
-      <c r="F102" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G102" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="D103" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A103, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Фея.pdf</v>
-      </c>
-      <c r="E103" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A103,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Фея_img.tif</v>
-      </c>
       <c r="F103" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="3" t="s">
-        <v>211</v>
+      <c r="A104" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="D104" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A104, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Котята. Кот в ванной.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Фея.pdf</v>
       </c>
       <c r="E104" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A104,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Котята. Кот в ванной_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Фея_img.tif</v>
       </c>
       <c r="F104" s="0" t="n">
         <v>1</v>
@@ -3191,19 +3383,19 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="3" t="s">
-        <v>213</v>
+      <c r="A105" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="D105" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A105, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Котята. День рождения.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Котята. Кот в ванной.pdf</v>
       </c>
       <c r="E105" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A105,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Котята. День рождения_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Котята. Кот в ванной_img.tif</v>
       </c>
       <c r="F105" s="0" t="n">
         <v>1</v>
@@ -3213,19 +3405,19 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="3" t="s">
-        <v>215</v>
+      <c r="A106" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="D106" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A106, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Котята. Кот с пиццей.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Котята. День рождения.pdf</v>
       </c>
       <c r="E106" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A106,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Котята. Кот с пиццей_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Котята. День рождения_img.tif</v>
       </c>
       <c r="F106" s="0" t="n">
         <v>1</v>
@@ -3235,19 +3427,19 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="3" t="s">
-        <v>217</v>
+      <c r="A107" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="D107" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A107, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Девочки.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Котята. Кот с пиццей.pdf</v>
       </c>
       <c r="E107" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A107,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Девочки_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Котята. Кот с пиццей_img.tif</v>
       </c>
       <c r="F107" s="0" t="n">
         <v>1</v>
@@ -3257,19 +3449,19 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="3" t="s">
-        <v>219</v>
+      <c r="A108" s="4" t="s">
+        <v>241</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="D108" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A108, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Ежик праздник.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Девочки.pdf</v>
       </c>
       <c r="E108" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A108,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Ежик праздник_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Девочки_img.tif</v>
       </c>
       <c r="F108" s="0" t="n">
         <v>1</v>
@@ -3279,19 +3471,19 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="3" t="s">
-        <v>221</v>
+      <c r="A109" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="D109" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A109, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Кот единорог.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Ежик праздник.pdf</v>
       </c>
       <c r="E109" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A109,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Кот единорог_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Ежик праздник_img.tif</v>
       </c>
       <c r="F109" s="0" t="n">
         <v>1</v>
@@ -3301,19 +3493,19 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="3" t="s">
-        <v>223</v>
+      <c r="A110" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="D110" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A110, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Динозавры.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Кот единорог.pdf</v>
       </c>
       <c r="E110" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A110,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Динозавры_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Кот единорог_img.tif</v>
       </c>
       <c r="F110" s="0" t="n">
         <v>1</v>
@@ -3323,19 +3515,19 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="3" t="s">
-        <v>225</v>
+      <c r="A111" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="D111" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A111, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Зайчики.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Динозавры.pdf</v>
       </c>
       <c r="E111" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A111,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Зайчики_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Динозавры_img.tif</v>
       </c>
       <c r="F111" s="0" t="n">
         <v>1</v>
@@ -3345,19 +3537,19 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="3" t="s">
-        <v>227</v>
+      <c r="A112" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="D112" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A112, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Мишка с сердечками.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Зайчики.pdf</v>
       </c>
       <c r="E112" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A112,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Мишка с сердечками_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Зайчики_img.tif</v>
       </c>
       <c r="F112" s="0" t="n">
         <v>1</v>
@@ -3367,19 +3559,19 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="3" t="s">
-        <v>229</v>
+      <c r="A113" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="D113" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A113, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Собачки.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Мишка с сердечками.pdf</v>
       </c>
       <c r="E113" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A113,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Собачки_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Мишка с сердечками_img.tif</v>
       </c>
       <c r="F113" s="0" t="n">
         <v>1</v>
@@ -3389,19 +3581,19 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="3" t="s">
-        <v>231</v>
+      <c r="A114" s="4" t="s">
+        <v>253</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="D114" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A114, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Единорог и балерина.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Собачки.pdf</v>
       </c>
       <c r="E114" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A114,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Единорог и балерина_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Собачки_img.tif</v>
       </c>
       <c r="F114" s="0" t="n">
         <v>1</v>
@@ -3411,63 +3603,63 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="3" t="s">
-        <v>233</v>
+      <c r="A115" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="D115" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A115, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Бабочки.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Единорог и балерина.pdf</v>
       </c>
       <c r="E115" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A115,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Бабочки_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Единорог и балерина_img.tif</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="3" t="s">
-        <v>235</v>
+      <c r="A116" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="D116" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A116, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Мишка моряк.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Бабочки.pdf</v>
       </c>
       <c r="E116" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A116,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Мишка моряк_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Бабочки_img.tif</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="3" t="s">
-        <v>237</v>
+      <c r="A117" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="D117" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A117, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Единороги набор.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Мишка моряк.pdf</v>
       </c>
       <c r="E117" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A117,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Единороги набор_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Мишка моряк_img.tif</v>
       </c>
       <c r="F117" s="0" t="n">
         <v>1</v>
@@ -3477,19 +3669,19 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="3" t="s">
-        <v>239</v>
+      <c r="A118" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="D118" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A118, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Мишка пилот.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Единороги набор.pdf</v>
       </c>
       <c r="E118" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A118,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Мишка пилот_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Единороги набор_img.tif</v>
       </c>
       <c r="F118" s="0" t="n">
         <v>1</v>
@@ -3499,63 +3691,63 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="3" t="s">
-        <v>241</v>
+      <c r="A119" s="4" t="s">
+        <v>263</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="D119" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A119, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Минни Маус улыбка.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Мишка пилот.pdf</v>
       </c>
       <c r="E119" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A119,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Минни Маус улыбка_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Мишка пилот_img.tif</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="3" t="s">
-        <v>243</v>
+      <c r="A120" s="4" t="s">
+        <v>265</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="D120" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A120, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Крокодил серфинг.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Минни Маус улыбка.pdf</v>
       </c>
       <c r="E120" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A120,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Крокодил серфинг_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Минни Маус улыбка_img.tif</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="3" t="s">
-        <v>245</v>
+      <c r="A121" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="D121" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A121, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Котята. Кот в кружке.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Крокодил серфинг.pdf</v>
       </c>
       <c r="E121" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A121,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Котята. Кот в кружке_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Крокодил серфинг_img.tif</v>
       </c>
       <c r="F121" s="0" t="n">
         <v>1</v>
@@ -3565,41 +3757,41 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="3" t="s">
-        <v>247</v>
+      <c r="A122" s="4" t="s">
+        <v>269</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="D122" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A122, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Минни Маус Единорог.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Котята. Кот в кружке.pdf</v>
       </c>
       <c r="E122" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A122,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Минни Маус Единорог_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Котята. Кот в кружке_img.tif</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="3" t="s">
-        <v>249</v>
+      <c r="A123" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="D123" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A123, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Минни Маус Набор.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Минни Маус Единорог.pdf</v>
       </c>
       <c r="E123" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A123,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Минни Маус Набор_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Минни Маус Единорог_img.tif</v>
       </c>
       <c r="F123" s="0" t="n">
         <v>0</v>
@@ -3609,32 +3801,56 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="3" t="s">
-        <v>251</v>
+      <c r="A124" s="4" t="s">
+        <v>273</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="D124" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A124, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Крокодил футбол.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Минни Маус Набор.pdf</v>
       </c>
       <c r="E124" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A124,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Минни Маус Набор_img.tif</v>
+      </c>
+      <c r="F124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="D125" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A125, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Крокодил футбол.pdf</v>
+      </c>
+      <c r="E125" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A125,"_img.tif")</f>
         <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Крокодил футбол_img.tif</v>
       </c>
-      <c r="F124" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G124" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F125" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G125" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/barcode/Data path barcode.xlsx
+++ b/barcode/Data path barcode.xlsx
@@ -1055,8 +1055,8 @@
   </sheetPr>
   <dimension ref="A1:X130"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1171,7 +1171,7 @@
       <c r="G2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="0" t="s">
         <v>26</v>
       </c>
       <c r="I2" s="0" t="s">
@@ -3848,9 +3848,6 @@
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/barcode/Data path barcode.xlsx
+++ b/barcode/Data path barcode.xlsx
@@ -1055,8 +1055,8 @@
   </sheetPr>
   <dimension ref="A1:X130"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/barcode/Data path barcode.xlsx
+++ b/barcode/Data path barcode.xlsx
@@ -1055,8 +1055,8 @@
   </sheetPr>
   <dimension ref="A1:X130"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/barcode/Data path barcode.xlsx
+++ b/barcode/Data path barcode.xlsx
@@ -19,8 +19,261 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="AA1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:Укажите ставку НДС. Если товар не облагается НДС или вы не платите НДС, укажите Не облагается. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Выберите «Да», чтобы покупатели видели ваш товар чаще. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Вы можете загрузить товары в xls-шаблоне и API без фото, а потом загрузить фото через карточку товара или раздел «Обновить изображения»
+Требования к изображениям
+- формат: jpeg, jpg, png;
+- разрешение: от 200px на 200px до 4320px на 7680px;
+- размер: не привышает 10МБ;
+- фон: белый или светлый. Для белых или прозрачных товаров допустим черный фон. Для категории товаров Одежда, обувь и аксессуары фон серый (#f2f3f5);
+название: не может содержать символы «/» и «_».Нельзя использовать
+- изображения алкоголя;
+- эскизы товара (например, 3D-модели);
+- любые надписи (цены, логотипы, водяные знаки, контакты и пр);
+- чёрно-белые фото, фото с рамками и полосками;
+- размытые, нерезкие, некачественные фото;
+- фотографии сделанные в «домашних условиях»: на фоне ковра, мебели с тенями от других предметов.
+Требования к фото 18+
+На изображениях должны быть размыты или скрыты другим образом интимные части тела.
+Краткое требование к ссылкам
+Для загрузки главного фото можно добавить только одну ссылку, лишние ссылки не будут использованы.
+Прямая ссылка на изображение
+По ссылкам должны открываться и скачиваться только сами изображения. Обычно такие ссылки заканчиваются символами: *.jpeg, *.jpg, *.png, но есть исключение – ссылки на Яндекс.Диск. Они доступны в формате https://yadi.sk/i/qUXcCwzmryWINw или https://disk.yandex.ru/i/qUXcCwzmryWINw
+Правильная ссылка:
+- не содержит дополнительных портов;
+- не ведет на HTML-страницу с изображением. Например, нельзя указывать ссылку на обзор товара, в котором есть фотографии;
+- не требует авторизации для доступа к изображению.
+Подробнее о требованиях можно узнать в https://seller-edu.ozon.ru/work-with-goods/trebovaniya-k-kartochkam-tovarov/media/foto-i-video-tovara</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:Вы можете загрузить товары в xls-шаблоне и API без фото, а потом загрузить фото через карточку товара или раздел «Обновить изображения»
+Требования к изображениям
+- формат: jpeg, jpg, png;
+- разрешение: от 200px на 200px до 4320px на 7680px;
+- размер: не превышает 10МБ;
+- фон: белый или светлый. Для белых или прозрачных товаров допустим черный фон. Для категории товаров Одежда, обувь и аксессуары фон серый (#f2f3f5).
+- название: не может содержать символ «/».Нельзя использовать
+- изображения алкоголя;
+- эскизы товара (например, 3D-модели);
+- любые надписи (цены, логотипы, водяные знаки, контакты и пр);
+- чёрно-белые фото, фото с рамками и полосками;
+- размытые, нерезкие, некачественные фото;
+- фотографии сделанные в «домашних условиях»: на фоне ковра, мебели с тенями от других предметов.
+Требования к фото 18+
+На изображениях должны быть размыты или скрыты другим образом интимные части тела.
+Краткое требование к ссылкам
+Прямая ссылка на изображение
+Если загружаете дополнительные фотографии по отдельности, поочерёдно прикрепите ссылки для каждого изображения. Ограничение по количеству – 14 штук. По ссылкам должны открываться и скачиваться только сами изображения. Обычно такие ссылки заканчиваются символами: *.jpeg, *.jpg, *.png, но есть исключение – ссылки на Яндекс.Диск. Они доступны в формате https://yadi.sk/i/qUXcCwzmryWINw или https://disk.yandex.ru/i/qUXcCwzmryWINw. Разделите ссылки пробелом или знаком переноса строки.
+Правильная ссылка:
+- не содержит дополнительных портов;
+- не ведет на HTML-страницу с изображением. Например, нельзя указывать ссылку на обзор товара, в котором есть фотографии;
+- не требует авторизации для доступа к изображению.
+Ссылка на папку с изображениями
+Можно использовать ссылку на папку с изображениями на Я.Диске. Например, https://yadi.sk/d/qUXcCwzmryWINw или https://disk.yandex.ru/d/qUXcCwzmryWINw
+В качестве дополнительных фото будут использованы 14 изображений из папки.  Если вы хотите, чтобы картинки загрузились в нужном порядке, пронумеруйте их названия. Например, «1», «2», «3» или «фото1», «фото2», «фото3».
+Подробнее о требованиях можно узнать в https://seller-edu.ozon.ru/work-with-goods/trebovaniya-k-kartochkam-tovarov/media/foto-i-video-tovara</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:Укажите название модели товара. Не указывайте в этом поле тип и бренд. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Укажите базовый или доминирующий цвет вашего товара, выбрав значение из списка. Если точного соответствия вы не находите, используйте ближайшие похожие цвета. 
+Сложные цвета нужно описывать перечислением простых цветов. Например, если вы описываете шмеля, и у него, очевидно, преобладают чёрный, жёлтый и белый цвета, то укажите их все простым перечислением. 
+Помните, что атрибут Цвет товара - это базовый цвет, все любые другие цвета вы можете прописать в атрибуте Название цвета.
+ </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Укажите словесное описание цвета вашего товара. Если товар имеет красивое название цвета от поставщика, не ограничивайте себя, укажите его. Для косметики смело пишите номера тонов и оттенков, и даже "Нежная голубая лазурь" будет уместна. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Выберите наиболее подходящий тип товара. По типам товары распределяются по категориям на сайте Ozon. Если тип указан неправильно, товар попадет в неверную категорию. Чтобы правильно указать тип, найдите на сайте Ozon товары, похожие на ваш, и посмотрите, какой тип у них указан. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Описание товара, маркетинговый текст. Необходимо заполнять на русском языке. </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="296">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -28,7 +281,7 @@
     <t xml:space="preserve">штрихкод</t>
   </si>
   <si>
-    <t xml:space="preserve">Num_Copies</t>
+    <t xml:space="preserve">Имя файла картинки для карточки</t>
   </si>
   <si>
     <t xml:space="preserve">Local_PDF_Path_Column_Name</t>
@@ -46,6 +299,9 @@
     <t xml:space="preserve">путь папки в облако</t>
   </si>
   <si>
+    <t xml:space="preserve">Предмет</t>
+  </si>
+  <si>
     <t xml:space="preserve">Бренд</t>
   </si>
   <si>
@@ -94,13 +350,49 @@
     <t xml:space="preserve">Медиафайлы</t>
   </si>
   <si>
+    <t xml:space="preserve">OZON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НДС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Включить продвижение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ссылка на главное фото*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ссылки на дополнительные фото</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Название модели (для объединения в одну карточку)*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цвет товара</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Название цвета</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тип*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аннотация</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Девушка волосы облако Тест</t>
   </si>
   <si>
     <t xml:space="preserve">OZN129588TEST</t>
   </si>
   <si>
+    <t xml:space="preserve">girl_hair_cloud</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Декор для одежды</t>
   </si>
   <si>
     <t xml:space="preserve">Punky Monkey</t>
@@ -114,6 +406,24 @@
   </si>
   <si>
     <t xml:space="preserve">Россия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не облагается</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTF A5 set1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#NAME?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наши детские термонаклейки для одежды помогут сделать любую вещь уникальной и неповторимой! Вам понадобится только горячий утюг, декор для одежды, инструкция и пара минут. Принт яркий, сочный и стойкий к износу и стирке. Термотрансферы хорошо тянутся, не трескаются и не отклеиваются при стирке. Термоаппликация - это оригинальный способ украсить или пометить новую одежду, спрятать пятна, мелкие дефекты и повреждения. Легко клеится обычным утюгом и подходит для большинства типов тканей. Наши аппликации можно наносить как на натуральный, синтетический, так и смесовый текстиль, хлопок, джинсу, кожу, экокожу. Отлично подойдут для украшения кукольной одежды. Все наклейки для одежды изготовлены из современного качественного материала. Мы гарантируем отличное приклеивание принта на однотонные или цветные ткани.Наклейки очень просты в применении: нужно просто вырезать наклейку (если используете только часть рисунка), приложить к ткани и пройти утюгом.Главное сделать все по инструкции, которая вместе с тестером прилагается в каждом наборе, ничего сложного в переносе нет, 10 секунд Вашего времени и красотища!Размер наклейки 12см*12см.По всем вопросам пишите нам в карточку, с радостью Вам поможем! Приятного творчества!</t>
   </si>
   <si>
     <t xml:space="preserve">Термобирки Михаил</t>
@@ -858,10 +1168,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -895,19 +1206,82 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFFDFDFD"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF216BFF"/>
+        <bgColor rgb="FF0066CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF44A9E3"/>
+        <bgColor rgb="FF339966"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -955,7 +1329,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -964,15 +1338,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -988,7 +1394,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFDFDFD"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -1028,7 +1434,7 @@
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF216BFF"/>
-      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF44A9E3"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
@@ -1053,10 +1459,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X130"/>
+  <dimension ref="A1:AI130"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA1" activeCellId="0" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1064,34 +1470,44 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="83.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="94.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="83.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="50.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="49.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="40.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="49.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="25.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="51.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="18" style="0" width="12.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="24.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="20.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="25" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="27.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="21.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="36" style="0" width="12.63"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1109,7 +1525,7 @@
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="0" t="s">
@@ -1157,13 +1573,49 @@
       <c r="X1" s="0" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -1172,62 +1624,91 @@
         <v>1</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="0" t="str">
+        <v>39</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="0" t="str">
         <f aca="false">A2</f>
         <v>Термонаклейка Девушка волосы облако Тест</v>
       </c>
-      <c r="L2" s="0" t="str">
-        <f aca="false">A2</f>
-        <v>Термонаклейка Девушка волосы облако Тест</v>
-      </c>
-      <c r="N2" s="0" t="str">
+      <c r="O2" s="0" t="str">
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A2, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Девушка волосы облако Тест</v>
       </c>
-      <c r="O2" s="0" t="str">
+      <c r="P2" s="0" t="str">
         <f aca="false">B2</f>
         <v>OZN129588TEST</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="Q2" s="0" t="n">
         <v>285</v>
       </c>
-      <c r="Q2" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>1</v>
+      <c r="R2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="T2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="V2" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="W2" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="W2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="X2" s="3" t="str">
-        <f aca="false">CONCATENATE(SUBSTITUTE(CONCATENATE(H2,A2,"_1.jpg;")," ","%20"),SUBSTITUTE(CONCATENATE(H2,A2,"_2.jpg;")," ","%20"),SUBSTITUTE(CONCATENATE(H2,A2,"_3.jpg;")," ","%20"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Термонаклейка%20Девушка%20волосы%20облако%20Тест_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Термонаклейка%20Девушка%20волосы%20облако%20Тест_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Термонаклейка%20Девушка%20волосы%20облако%20Тест_3.jpg;</v>
+      <c r="X2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" s="7" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H2,C2,"_1.jpg;"),CONCATENATE(H2,C2,"_2.jpg;"),CONCATENATE(H2,C2,"_3.jpg;"),CONCATENATE(H2,C2,"_4.jpg;"),CONCATENATE(H2,C2,"_5.jpg;"),CONCATENATE(H2,C2,"_6.jpg;"),CONCATENATE(H2,C2,"_7.jpg;"),CONCATENATE(H2,C2,"_8.jpg;"),CONCATENATE(H2,C2,"_9.jpg;"),CONCATENATE(H2,C2,"_10.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_10.jpg;</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC2" s="0" t="str">
+        <f aca="false">CONCATENATE(H2,C2,"_1.jpg;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_1.jpg;</v>
+      </c>
+      <c r="AD2" s="0" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H2,C2,"_2.jpg;"),CONCATENATE(H2,C2,"_3.jpg;"),CONCATENATE(H2,C2,"_4.jpg;"),CONCATENATE(H2,C2,"_5.jpg;"),CONCATENATE(H2,C2,"_6.jpg;"),CONCATENATE(H2,C2,"_7.jpg;"),CONCATENATE(H2,C2,"_8.jpg;"),CONCATENATE(H2,C2,"_9.jpg;"),CONCATENATE(H2,C2,"_10.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_10.jpg;</v>
+      </c>
+      <c r="AE2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG2" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A2,"Термонаклейка ","")</f>
+        <v>Девушка волосы облако Тест</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI2" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>31</v>
+      <c r="A3" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="0" t="str">
@@ -1243,13 +1724,17 @@
       <c r="G3" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="X3" s="12"/>
+      <c r="AA3" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>33</v>
+      <c r="A4" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="0" t="str">
@@ -1265,13 +1750,16 @@
       <c r="G4" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA4" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>35</v>
+      <c r="A5" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D5" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A5, ".pdf")</f>
@@ -1286,13 +1774,16 @@
       <c r="G5" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA5" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>37</v>
+      <c r="A6" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D6" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A6, ".pdf")</f>
@@ -1307,13 +1798,16 @@
       <c r="G6" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA6" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>39</v>
+      <c r="A7" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D7" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A7, ".pdf")</f>
@@ -1328,13 +1822,16 @@
       <c r="G7" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA7" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>41</v>
+      <c r="A8" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D8" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A8, ".pdf")</f>
@@ -1349,13 +1846,16 @@
       <c r="G8" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA8" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>43</v>
+      <c r="A9" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D9" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A9, ".pdf")</f>
@@ -1370,13 +1870,16 @@
       <c r="G9" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA9" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>45</v>
+      <c r="A10" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D10" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A10, ".pdf")</f>
@@ -1391,13 +1894,16 @@
       <c r="G10" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA10" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>47</v>
+      <c r="A11" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D11" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A11, ".pdf")</f>
@@ -1412,13 +1918,16 @@
       <c r="G11" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA11" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>49</v>
+      <c r="A12" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D12" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A12, ".pdf")</f>
@@ -1433,13 +1942,16 @@
       <c r="G12" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA12" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>51</v>
+      <c r="A13" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D13" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A13, ".pdf")</f>
@@ -1454,13 +1966,16 @@
       <c r="G13" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA13" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>53</v>
+      <c r="A14" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="D14" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A14, ".pdf")</f>
@@ -1475,13 +1990,16 @@
       <c r="G14" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA14" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>55</v>
+      <c r="A15" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D15" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A15, ".pdf")</f>
@@ -1496,13 +2014,16 @@
       <c r="G15" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA15" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>57</v>
+      <c r="A16" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D16" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A16, ".pdf")</f>
@@ -1517,13 +2038,16 @@
       <c r="G16" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA16" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>59</v>
+      <c r="A17" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D17" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A17, ".pdf")</f>
@@ -1538,13 +2062,16 @@
       <c r="G17" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA17" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>61</v>
+      <c r="A18" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D18" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A18, ".pdf")</f>
@@ -1559,13 +2086,16 @@
       <c r="G18" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA18" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>63</v>
+      <c r="A19" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D19" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A19, ".pdf")</f>
@@ -1580,13 +2110,16 @@
       <c r="G19" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA19" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>65</v>
+      <c r="A20" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D20" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A20, ".pdf")</f>
@@ -1601,13 +2134,16 @@
       <c r="G20" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA20" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>67</v>
+      <c r="A21" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D21" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A21, ".pdf")</f>
@@ -1622,13 +2158,16 @@
       <c r="G21" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA21" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>69</v>
+      <c r="A22" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D22" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A22, ".pdf")</f>
@@ -1643,13 +2182,16 @@
       <c r="G22" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA22" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>71</v>
+      <c r="A23" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D23" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A23, ".pdf")</f>
@@ -1664,13 +2206,16 @@
       <c r="G23" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA23" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>73</v>
+      <c r="A24" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D24" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A24, ".pdf")</f>
@@ -1685,13 +2230,16 @@
       <c r="G24" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA24" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>75</v>
+      <c r="A25" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D25" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A25, ".pdf")</f>
@@ -1706,13 +2254,16 @@
       <c r="G25" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA25" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>77</v>
+      <c r="A26" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D26" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A26, ".pdf")</f>
@@ -1727,13 +2278,16 @@
       <c r="G26" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA26" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>79</v>
+      <c r="A27" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D27" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A27, ".pdf")</f>
@@ -1748,13 +2302,16 @@
       <c r="G27" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA27" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>81</v>
+      <c r="A28" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D28" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A28, ".pdf")</f>
@@ -1769,13 +2326,16 @@
       <c r="G28" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA28" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>83</v>
+      <c r="A29" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D29" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A29, ".pdf")</f>
@@ -1790,13 +2350,16 @@
       <c r="G29" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA29" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>85</v>
+      <c r="A30" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="D30" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A30, ".pdf")</f>
@@ -1811,13 +2374,16 @@
       <c r="G30" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA30" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>87</v>
+      <c r="A31" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D31" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A31, ".pdf")</f>
@@ -1832,13 +2398,16 @@
       <c r="G31" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA31" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>89</v>
+      <c r="A32" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="D32" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A32, ".pdf")</f>
@@ -1853,13 +2422,16 @@
       <c r="G32" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA32" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
-        <v>91</v>
+      <c r="A33" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D33" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A33, ".pdf")</f>
@@ -1874,13 +2446,16 @@
       <c r="G33" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA33" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>93</v>
+      <c r="A34" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="D34" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A34, ".pdf")</f>
@@ -1895,13 +2470,16 @@
       <c r="G34" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA34" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>95</v>
+      <c r="A35" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="D35" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A35, ".pdf")</f>
@@ -1916,13 +2494,16 @@
       <c r="G35" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA35" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
-        <v>97</v>
+      <c r="A36" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D36" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A36, ".pdf")</f>
@@ -1937,13 +2518,16 @@
       <c r="G36" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA36" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
-        <v>99</v>
+      <c r="A37" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="D37" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A37, ".pdf")</f>
@@ -1958,13 +2542,16 @@
       <c r="G37" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA37" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
-        <v>101</v>
+      <c r="A38" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="D38" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A38, ".pdf")</f>
@@ -1979,13 +2566,16 @@
       <c r="G38" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA38" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
-        <v>103</v>
+      <c r="A39" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D39" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A39, ".pdf")</f>
@@ -2000,13 +2590,16 @@
       <c r="G39" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA39" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
-        <v>105</v>
+      <c r="A40" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="D40" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A40, ".pdf")</f>
@@ -2021,13 +2614,16 @@
       <c r="G40" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA40" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
-        <v>107</v>
+      <c r="A41" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="D41" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A41, ".pdf")</f>
@@ -2042,13 +2638,16 @@
       <c r="G41" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA41" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
-        <v>109</v>
+      <c r="A42" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="D42" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A42, ".pdf")</f>
@@ -2063,13 +2662,16 @@
       <c r="G42" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA42" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
-        <v>111</v>
+      <c r="A43" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="D43" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A43, ".pdf")</f>
@@ -2084,13 +2686,16 @@
       <c r="G43" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA43" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
-        <v>113</v>
+      <c r="A44" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="D44" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A44, ".pdf")</f>
@@ -2105,13 +2710,16 @@
       <c r="G44" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA44" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="s">
-        <v>115</v>
+      <c r="A45" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="D45" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A45, ".pdf")</f>
@@ -2126,13 +2734,16 @@
       <c r="G45" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA45" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="s">
-        <v>117</v>
+      <c r="A46" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D46" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A46, ".pdf")</f>
@@ -2147,13 +2758,16 @@
       <c r="G46" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AA46" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
-        <v>119</v>
+      <c r="A47" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="D47" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A47, ".pdf")</f>
@@ -2170,11 +2784,11 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="s">
-        <v>121</v>
+      <c r="A48" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="D48" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A48, ".pdf")</f>
@@ -2191,11 +2805,11 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="s">
-        <v>123</v>
+      <c r="A49" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="D49" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A49, ".pdf")</f>
@@ -2212,11 +2826,11 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="s">
-        <v>125</v>
+      <c r="A50" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="D50" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A50, ".pdf")</f>
@@ -2233,11 +2847,11 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="s">
-        <v>127</v>
+      <c r="A51" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="D51" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A51, ".pdf")</f>
@@ -2254,11 +2868,11 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
-        <v>129</v>
+      <c r="A52" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="D52" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A52, ".pdf")</f>
@@ -2275,11 +2889,11 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
-        <v>131</v>
+      <c r="A53" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="D53" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A53, ".pdf")</f>
@@ -2296,11 +2910,11 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="s">
-        <v>133</v>
+      <c r="A54" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="D54" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A54, ".pdf")</f>
@@ -2317,11 +2931,11 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
-        <v>135</v>
+      <c r="A55" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="D55" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A55, ".pdf")</f>
@@ -2338,11 +2952,11 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="s">
-        <v>137</v>
+      <c r="A56" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="D56" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A56, ".pdf")</f>
@@ -2359,11 +2973,11 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="s">
-        <v>139</v>
+      <c r="A57" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="D57" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A57, ".pdf")</f>
@@ -2380,11 +2994,11 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="s">
-        <v>141</v>
+      <c r="A58" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="D58" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A58, ".pdf")</f>
@@ -2401,11 +3015,11 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="s">
-        <v>143</v>
+      <c r="A59" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="D59" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A59, ".pdf")</f>
@@ -2422,11 +3036,11 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="s">
-        <v>145</v>
+      <c r="A60" s="11" t="s">
+        <v>164</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="D60" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A60, ".pdf")</f>
@@ -2443,11 +3057,11 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="s">
-        <v>147</v>
+      <c r="A61" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="D61" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A61, ".pdf")</f>
@@ -2464,11 +3078,11 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
-        <v>149</v>
+      <c r="A62" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="D62" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A62, ".pdf")</f>
@@ -2485,11 +3099,11 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
-        <v>151</v>
+      <c r="A63" s="11" t="s">
+        <v>170</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="D63" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A63, ".pdf")</f>
@@ -2506,11 +3120,11 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="s">
-        <v>153</v>
+      <c r="A64" s="11" t="s">
+        <v>172</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="D64" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A64, ".pdf")</f>
@@ -2527,11 +3141,11 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="s">
-        <v>155</v>
+      <c r="A65" s="11" t="s">
+        <v>174</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="D65" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A65, ".pdf")</f>
@@ -2548,11 +3162,11 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="s">
-        <v>157</v>
+      <c r="A66" s="11" t="s">
+        <v>176</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="D66" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A66, ".pdf")</f>
@@ -2569,11 +3183,11 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="s">
-        <v>159</v>
+      <c r="A67" s="11" t="s">
+        <v>178</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="D67" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A67, ".pdf")</f>
@@ -2590,11 +3204,11 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="s">
-        <v>161</v>
+      <c r="A68" s="11" t="s">
+        <v>180</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="D68" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A68, ".pdf")</f>
@@ -2611,11 +3225,11 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="s">
-        <v>163</v>
+      <c r="A69" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="D69" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A69, ".pdf")</f>
@@ -2632,11 +3246,11 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="s">
-        <v>165</v>
+      <c r="A70" s="11" t="s">
+        <v>184</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="D70" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A70, ".pdf")</f>
@@ -2653,11 +3267,11 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="s">
-        <v>167</v>
+      <c r="A71" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="D71" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A71, ".pdf")</f>
@@ -2674,11 +3288,11 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="s">
-        <v>169</v>
+      <c r="A72" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="D72" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A72, ".pdf")</f>
@@ -2695,11 +3309,11 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="s">
-        <v>171</v>
+      <c r="A73" s="11" t="s">
+        <v>190</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="D73" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A73, ".pdf")</f>
@@ -2716,11 +3330,11 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="s">
-        <v>173</v>
+      <c r="A74" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="D74" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A74, ".pdf")</f>
@@ -2737,11 +3351,11 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="s">
-        <v>175</v>
+      <c r="A75" s="11" t="s">
+        <v>194</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="D75" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A75, ".pdf")</f>
@@ -2758,11 +3372,11 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="s">
-        <v>177</v>
+      <c r="A76" s="11" t="s">
+        <v>196</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="D76" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A76, ".pdf")</f>
@@ -2779,11 +3393,11 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="s">
-        <v>179</v>
+      <c r="A77" s="11" t="s">
+        <v>198</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="D77" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A77, ".pdf")</f>
@@ -2800,11 +3414,11 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="s">
-        <v>181</v>
+      <c r="A78" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="D78" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A78, ".pdf")</f>
@@ -2821,11 +3435,11 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="s">
-        <v>183</v>
+      <c r="A79" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D79" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A79, ".pdf")</f>
@@ -2842,11 +3456,11 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="s">
-        <v>185</v>
+      <c r="A80" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="D80" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A80, ".pdf")</f>
@@ -2863,11 +3477,11 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4" t="s">
-        <v>187</v>
+      <c r="A81" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="D81" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A81, ".pdf")</f>
@@ -2884,11 +3498,11 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="s">
-        <v>189</v>
+      <c r="A82" s="11" t="s">
+        <v>208</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="D82" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A82, ".pdf")</f>
@@ -2905,11 +3519,11 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4" t="s">
-        <v>191</v>
+      <c r="A83" s="11" t="s">
+        <v>210</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="D83" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A83, ".pdf")</f>
@@ -2926,11 +3540,11 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4" t="s">
-        <v>193</v>
+      <c r="A84" s="11" t="s">
+        <v>212</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="D84" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A84, ".pdf")</f>
@@ -2947,11 +3561,11 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4" t="s">
-        <v>195</v>
+      <c r="A85" s="11" t="s">
+        <v>214</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="D85" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A85, ".pdf")</f>
@@ -2968,11 +3582,11 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4" t="s">
-        <v>197</v>
+      <c r="A86" s="11" t="s">
+        <v>216</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="D86" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A86, ".pdf")</f>
@@ -2989,11 +3603,11 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4" t="s">
-        <v>199</v>
+      <c r="A87" s="11" t="s">
+        <v>218</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="D87" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A87, ".pdf")</f>
@@ -3010,11 +3624,11 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4" t="s">
-        <v>201</v>
+      <c r="A88" s="11" t="s">
+        <v>220</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="D88" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A88, ".pdf")</f>
@@ -3031,11 +3645,11 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="4" t="s">
-        <v>203</v>
+      <c r="A89" s="11" t="s">
+        <v>222</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="D89" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A89, ".pdf")</f>
@@ -3053,11 +3667,11 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="4" t="s">
-        <v>205</v>
+      <c r="A90" s="11" t="s">
+        <v>224</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="D90" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A90, ".pdf")</f>
@@ -3075,11 +3689,11 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4" t="s">
-        <v>207</v>
+      <c r="A91" s="11" t="s">
+        <v>226</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="D91" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A91, ".pdf")</f>
@@ -3097,11 +3711,11 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="4" t="s">
-        <v>209</v>
+      <c r="A92" s="11" t="s">
+        <v>228</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="D92" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A92, ".pdf")</f>
@@ -3119,11 +3733,11 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4" t="s">
-        <v>211</v>
+      <c r="A93" s="11" t="s">
+        <v>230</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="D93" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A93, ".pdf")</f>
@@ -3141,11 +3755,11 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="4" t="s">
-        <v>213</v>
+      <c r="A94" s="11" t="s">
+        <v>232</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="D94" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A94, ".pdf")</f>
@@ -3163,11 +3777,11 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="4" t="s">
-        <v>215</v>
+      <c r="A95" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="D95" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A95, ".pdf")</f>
@@ -3185,11 +3799,11 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="4" t="s">
-        <v>217</v>
+      <c r="A96" s="11" t="s">
+        <v>236</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="D96" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A96, ".pdf")</f>
@@ -3207,11 +3821,11 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="4" t="s">
-        <v>219</v>
+      <c r="A97" s="11" t="s">
+        <v>238</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="D97" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A97, ".pdf")</f>
@@ -3229,11 +3843,11 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="4" t="s">
-        <v>221</v>
+      <c r="A98" s="11" t="s">
+        <v>240</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="D98" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A98, ".pdf")</f>
@@ -3251,11 +3865,11 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="4" t="s">
-        <v>223</v>
+      <c r="A99" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="D99" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A99, ".pdf")</f>
@@ -3273,11 +3887,11 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="4" t="s">
-        <v>225</v>
+      <c r="A100" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="D100" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A100, ".pdf")</f>
@@ -3295,11 +3909,11 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="4" t="s">
-        <v>227</v>
+      <c r="A101" s="11" t="s">
+        <v>246</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="D101" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A101, ".pdf")</f>
@@ -3317,11 +3931,11 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="4" t="s">
-        <v>229</v>
+      <c r="A102" s="11" t="s">
+        <v>248</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="D102" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A102, ".pdf")</f>
@@ -3339,11 +3953,11 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="4" t="s">
-        <v>231</v>
+      <c r="A103" s="11" t="s">
+        <v>250</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="D103" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A103, ".pdf")</f>
@@ -3361,11 +3975,11 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="4" t="s">
-        <v>233</v>
+      <c r="A104" s="11" t="s">
+        <v>252</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="D104" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A104, ".pdf")</f>
@@ -3383,11 +3997,11 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="4" t="s">
-        <v>235</v>
+      <c r="A105" s="11" t="s">
+        <v>254</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="D105" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A105, ".pdf")</f>
@@ -3405,11 +4019,11 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="4" t="s">
-        <v>237</v>
+      <c r="A106" s="11" t="s">
+        <v>256</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="D106" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A106, ".pdf")</f>
@@ -3427,11 +4041,11 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="4" t="s">
-        <v>239</v>
+      <c r="A107" s="11" t="s">
+        <v>258</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="D107" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A107, ".pdf")</f>
@@ -3449,11 +4063,11 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="4" t="s">
-        <v>241</v>
+      <c r="A108" s="11" t="s">
+        <v>260</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="D108" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A108, ".pdf")</f>
@@ -3471,11 +4085,11 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="4" t="s">
-        <v>243</v>
+      <c r="A109" s="11" t="s">
+        <v>262</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="D109" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A109, ".pdf")</f>
@@ -3493,11 +4107,11 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="4" t="s">
-        <v>245</v>
+      <c r="A110" s="11" t="s">
+        <v>264</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="D110" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A110, ".pdf")</f>
@@ -3515,11 +4129,11 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="4" t="s">
-        <v>247</v>
+      <c r="A111" s="11" t="s">
+        <v>266</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="D111" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A111, ".pdf")</f>
@@ -3537,11 +4151,11 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="4" t="s">
-        <v>249</v>
+      <c r="A112" s="11" t="s">
+        <v>268</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="D112" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A112, ".pdf")</f>
@@ -3559,11 +4173,11 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="4" t="s">
-        <v>251</v>
+      <c r="A113" s="11" t="s">
+        <v>270</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="D113" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A113, ".pdf")</f>
@@ -3581,11 +4195,11 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="4" t="s">
-        <v>253</v>
+      <c r="A114" s="11" t="s">
+        <v>272</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="D114" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A114, ".pdf")</f>
@@ -3603,11 +4217,11 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="4" t="s">
-        <v>255</v>
+      <c r="A115" s="11" t="s">
+        <v>274</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="D115" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A115, ".pdf")</f>
@@ -3625,11 +4239,11 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="4" t="s">
-        <v>257</v>
+      <c r="A116" s="11" t="s">
+        <v>276</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="D116" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A116, ".pdf")</f>
@@ -3647,11 +4261,11 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="4" t="s">
-        <v>259</v>
+      <c r="A117" s="11" t="s">
+        <v>278</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="D117" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A117, ".pdf")</f>
@@ -3669,11 +4283,11 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="4" t="s">
-        <v>261</v>
+      <c r="A118" s="11" t="s">
+        <v>280</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="D118" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A118, ".pdf")</f>
@@ -3691,11 +4305,11 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="4" t="s">
-        <v>263</v>
+      <c r="A119" s="11" t="s">
+        <v>282</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="D119" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A119, ".pdf")</f>
@@ -3713,11 +4327,11 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="4" t="s">
-        <v>265</v>
+      <c r="A120" s="11" t="s">
+        <v>284</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="D120" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A120, ".pdf")</f>
@@ -3735,11 +4349,11 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="4" t="s">
-        <v>267</v>
+      <c r="A121" s="11" t="s">
+        <v>286</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="D121" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A121, ".pdf")</f>
@@ -3757,11 +4371,11 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="4" t="s">
-        <v>269</v>
+      <c r="A122" s="11" t="s">
+        <v>288</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="D122" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A122, ".pdf")</f>
@@ -3779,11 +4393,11 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="4" t="s">
-        <v>271</v>
+      <c r="A123" s="11" t="s">
+        <v>290</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="D123" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A123, ".pdf")</f>
@@ -3801,11 +4415,11 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="4" t="s">
-        <v>273</v>
+      <c r="A124" s="11" t="s">
+        <v>292</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="D124" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A124, ".pdf")</f>
@@ -3823,11 +4437,11 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="4" t="s">
-        <v>275</v>
+      <c r="A125" s="11" t="s">
+        <v>294</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="D125" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A125, ".pdf")</f>
@@ -3848,6 +4462,20 @@
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA2:AA46" type="list">
+      <formula1>#NAME?</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AF2" type="list">
+      <formula1>#NAME?</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AH2" type="list">
+      <formula1>#name?</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3855,5 +4483,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/barcode/Data path barcode.xlsx
+++ b/barcode/Data path barcode.xlsx
@@ -35,7 +35,17 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">OZON:Укажите ставку НДС. Если товар не облагается НДС или вы не платите НДС, укажите Не облагается. </t>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Укажите ставку НДС. Если товар не облагается НДС или вы не платите НДС, укажите Не облагается. </t>
         </r>
       </text>
     </comment>
@@ -268,12 +278,113 @@
         </r>
       </text>
     </comment>
+    <comment ref="AJ1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Если цвет вашего товара настолько привлекателен, что заслуживает показа на сайте в виде маленькой миниатюры - загружайте сюда его образец. Это может быть крупный фрагмент товара, мазок краски или помады. Главное помните, что это всего лишь миниатюра, не заливайте изображения, содержащие текст или какие-либо пояснительные рисунки, наш сайт сделает его очень маленьким. Проще говоря, если вместо стандартных кружочков простых цветов выбора варианта товара вы желаете показать клиенту реальный цвет, смело заливайте сюда изображение </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Через точку с запятой укажите ключевые слова и словосочетания, которые описывают ваш товар. Используйте только соответствующие фактическому товару значения. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:Измерьте в миллиметрах любую сторону товара в заводской упаковке. Если упаковки нет, то сам товар.
+Изделие неправильной формы измерьте от одного края до другого.
+Комплект из нескольких позиций сложите вместе стопкой.
+Одежду, текстиль, наборы для вышивания сложите пополам в упаковке. https://seller-edu.ozon.ru/docs/work-with-goods/trebovaniya-k-kartochkam-tovarov/ovh.html#как-правильно-измерить-длину-ширину-и-высоту</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:Измерьте в миллиметрах любую сторону товара в заводской упаковке. Если упаковки нет, то сам товар.
+Изделие неправильной формы измерьте от одного края до другого.
+Комплект из нескольких позиций сложите вместе стопкой.
+Одежду, текстиль, наборы для вышивания сложите пополам в упаковке. https://seller-edu.ozon.ru/docs/work-with-goods/trebovaniya-k-kartochkam-tovarov/ovh.html#как-правильно-измерить-длину-ширину-и-высоту</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:Измерьте в миллиметрах любую сторону товара в заводской упаковке. Если упаковки нет, то сам товар.
+Изделие неправильной формы измерьте от одного края до другого.
+Комплект из нескольких позиций сложите вместе стопкой.
+Одежду, текстиль, наборы для вышивания сложите пополам в упаковке. https://seller-edu.ozon.ru/docs/work-with-goods/trebovaniya-k-kartochkam-tovarov/ovh.html#как-правильно-измерить-длину-ширину-и-высоту</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="301">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -353,7 +464,7 @@
     <t xml:space="preserve">OZON</t>
   </si>
   <si>
-    <t xml:space="preserve">НДС</t>
+    <t xml:space="preserve">НДС, %*</t>
   </si>
   <si>
     <t xml:space="preserve">Включить продвижение</t>
@@ -378,6 +489,21 @@
   </si>
   <si>
     <t xml:space="preserve">Аннотация</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Образец цвета</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ключевые слова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ширина упаковки, мм*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Высота упаковки, мм*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Длина упаковки, мм*</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Девушка волосы облако Тест</t>
@@ -417,7 +543,7 @@
     <t xml:space="preserve">DTF A5 set1</t>
   </si>
   <si>
-    <t xml:space="preserve">#NAME?</t>
+    <t xml:space="preserve">белый</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка</t>
@@ -1249,7 +1375,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1257,6 +1382,7 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1459,10 +1585,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI130"/>
+  <dimension ref="A1:AN130"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA1" activeCellId="0" sqref="AA1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1479,15 +1605,20 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="25.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="51.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="44.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="22.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="18" style="0" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="24.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="20.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="30.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="22.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="25.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="12.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="18.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="16.94"/>
@@ -1606,16 +1737,31 @@
       <c r="AI1" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="AJ1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -1624,13 +1770,13 @@
         <v>1</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M2" s="0" t="str">
         <f aca="false">A2</f>
@@ -1648,10 +1794,10 @@
         <v>285</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="T2" s="0" t="n">
         <v>1</v>
@@ -1666,17 +1812,17 @@
         <v>12</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Y2" s="7" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H2,C2,"_1.jpg;"),CONCATENATE(H2,C2,"_2.jpg;"),CONCATENATE(H2,C2,"_3.jpg;"),CONCATENATE(H2,C2,"_4.jpg;"),CONCATENATE(H2,C2,"_5.jpg;"),CONCATENATE(H2,C2,"_6.jpg;"),CONCATENATE(H2,C2,"_7.jpg;"),CONCATENATE(H2,C2,"_8.jpg;"),CONCATENATE(H2,C2,"_9.jpg;"),CONCATENATE(H2,C2,"_10.jpg;"))</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_10.jpg;</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="AB2" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AC2" s="0" t="str">
         <f aca="false">CONCATENATE(H2,C2,"_1.jpg;")</f>
@@ -1687,28 +1833,37 @@
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_10.jpg;</v>
       </c>
       <c r="AE2" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AG2" s="0" t="str">
         <f aca="false">SUBSTITUTE(A2,"Термонаклейка ","")</f>
         <v>Девушка волосы облако Тест</v>
       </c>
       <c r="AH2" s="10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="AI2" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="AL2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM2" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN2" s="0" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="0" t="str">
@@ -1726,15 +1881,15 @@
       </c>
       <c r="X3" s="12"/>
       <c r="AA3" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="0" t="str">
@@ -1751,15 +1906,15 @@
         <v>2</v>
       </c>
       <c r="AA4" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D5" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A5, ".pdf")</f>
@@ -1775,15 +1930,15 @@
         <v>2</v>
       </c>
       <c r="AA5" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D6" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A6, ".pdf")</f>
@@ -1799,15 +1954,15 @@
         <v>2</v>
       </c>
       <c r="AA6" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D7" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A7, ".pdf")</f>
@@ -1823,15 +1978,15 @@
         <v>2</v>
       </c>
       <c r="AA7" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D8" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A8, ".pdf")</f>
@@ -1847,15 +2002,15 @@
         <v>2</v>
       </c>
       <c r="AA8" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D9" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A9, ".pdf")</f>
@@ -1871,15 +2026,15 @@
         <v>2</v>
       </c>
       <c r="AA9" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D10" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A10, ".pdf")</f>
@@ -1895,15 +2050,15 @@
         <v>2</v>
       </c>
       <c r="AA10" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D11" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A11, ".pdf")</f>
@@ -1919,15 +2074,15 @@
         <v>2</v>
       </c>
       <c r="AA11" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D12" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A12, ".pdf")</f>
@@ -1943,15 +2098,15 @@
         <v>2</v>
       </c>
       <c r="AA12" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D13" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A13, ".pdf")</f>
@@ -1967,15 +2122,15 @@
         <v>2</v>
       </c>
       <c r="AA13" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D14" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A14, ".pdf")</f>
@@ -1991,15 +2146,15 @@
         <v>2</v>
       </c>
       <c r="AA14" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D15" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A15, ".pdf")</f>
@@ -2015,15 +2170,15 @@
         <v>2</v>
       </c>
       <c r="AA15" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D16" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A16, ".pdf")</f>
@@ -2039,15 +2194,15 @@
         <v>2</v>
       </c>
       <c r="AA16" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D17" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A17, ".pdf")</f>
@@ -2062,16 +2217,14 @@
       <c r="G17" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AA17" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D18" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A18, ".pdf")</f>
@@ -2086,16 +2239,14 @@
       <c r="G18" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AA18" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D19" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A19, ".pdf")</f>
@@ -2110,16 +2261,14 @@
       <c r="G19" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AA19" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D20" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A20, ".pdf")</f>
@@ -2134,16 +2283,14 @@
       <c r="G20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AA20" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D21" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A21, ".pdf")</f>
@@ -2158,16 +2305,14 @@
       <c r="G21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AA21" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D22" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A22, ".pdf")</f>
@@ -2182,16 +2327,14 @@
       <c r="G22" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AA22" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D23" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A23, ".pdf")</f>
@@ -2206,16 +2349,14 @@
       <c r="G23" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AA23" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D24" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A24, ".pdf")</f>
@@ -2230,16 +2371,14 @@
       <c r="G24" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AA24" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D25" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A25, ".pdf")</f>
@@ -2254,16 +2393,14 @@
       <c r="G25" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AA25" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D26" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A26, ".pdf")</f>
@@ -2278,16 +2415,14 @@
       <c r="G26" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AA26" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D27" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A27, ".pdf")</f>
@@ -2302,16 +2437,14 @@
       <c r="G27" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AA27" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D28" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A28, ".pdf")</f>
@@ -2326,16 +2459,14 @@
       <c r="G28" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AA28" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D29" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A29, ".pdf")</f>
@@ -2350,16 +2481,14 @@
       <c r="G29" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AA29" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D30" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A30, ".pdf")</f>
@@ -2374,16 +2503,14 @@
       <c r="G30" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AA30" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D31" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A31, ".pdf")</f>
@@ -2398,16 +2525,14 @@
       <c r="G31" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AA31" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D32" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A32, ".pdf")</f>
@@ -2422,16 +2547,14 @@
       <c r="G32" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AA32" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D33" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A33, ".pdf")</f>
@@ -2446,16 +2569,14 @@
       <c r="G33" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AA33" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D34" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A34, ".pdf")</f>
@@ -2470,16 +2591,14 @@
       <c r="G34" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AA34" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D35" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A35, ".pdf")</f>
@@ -2494,16 +2613,14 @@
       <c r="G35" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AA35" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D36" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A36, ".pdf")</f>
@@ -2518,16 +2635,14 @@
       <c r="G36" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AA36" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D37" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A37, ".pdf")</f>
@@ -2542,16 +2657,14 @@
       <c r="G37" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AA37" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA37" s="8"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D38" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A38, ".pdf")</f>
@@ -2566,16 +2679,14 @@
       <c r="G38" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AA38" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D39" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A39, ".pdf")</f>
@@ -2590,16 +2701,14 @@
       <c r="G39" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AA39" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D40" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A40, ".pdf")</f>
@@ -2614,16 +2723,14 @@
       <c r="G40" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AA40" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D41" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A41, ".pdf")</f>
@@ -2638,16 +2745,14 @@
       <c r="G41" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AA41" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D42" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A42, ".pdf")</f>
@@ -2662,16 +2767,14 @@
       <c r="G42" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AA42" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA42" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D43" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A43, ".pdf")</f>
@@ -2686,16 +2789,14 @@
       <c r="G43" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AA43" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA43" s="8"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D44" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A44, ".pdf")</f>
@@ -2710,16 +2811,14 @@
       <c r="G44" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AA44" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D45" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A45, ".pdf")</f>
@@ -2734,16 +2833,14 @@
       <c r="G45" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AA45" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D46" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A46, ".pdf")</f>
@@ -2758,16 +2855,14 @@
       <c r="G46" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AA46" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D47" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A47, ".pdf")</f>
@@ -2785,10 +2880,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D48" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A48, ".pdf")</f>
@@ -2806,10 +2901,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D49" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A49, ".pdf")</f>
@@ -2827,10 +2922,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D50" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A50, ".pdf")</f>
@@ -2848,10 +2943,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D51" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A51, ".pdf")</f>
@@ -2869,10 +2964,10 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="11" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D52" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A52, ".pdf")</f>
@@ -2890,10 +2985,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="11" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D53" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A53, ".pdf")</f>
@@ -2911,10 +3006,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="11" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D54" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A54, ".pdf")</f>
@@ -2932,10 +3027,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="11" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D55" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A55, ".pdf")</f>
@@ -2953,10 +3048,10 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="11" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D56" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A56, ".pdf")</f>
@@ -2974,10 +3069,10 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="11" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D57" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A57, ".pdf")</f>
@@ -2995,10 +3090,10 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="11" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D58" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A58, ".pdf")</f>
@@ -3016,10 +3111,10 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="11" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D59" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A59, ".pdf")</f>
@@ -3037,10 +3132,10 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="11" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D60" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A60, ".pdf")</f>
@@ -3058,10 +3153,10 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="11" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D61" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A61, ".pdf")</f>
@@ -3079,10 +3174,10 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="11" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D62" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A62, ".pdf")</f>
@@ -3100,10 +3195,10 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="11" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D63" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A63, ".pdf")</f>
@@ -3121,10 +3216,10 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="11" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D64" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A64, ".pdf")</f>
@@ -3142,10 +3237,10 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="11" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D65" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A65, ".pdf")</f>
@@ -3163,10 +3258,10 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="11" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D66" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A66, ".pdf")</f>
@@ -3184,10 +3279,10 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="11" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D67" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A67, ".pdf")</f>
@@ -3205,10 +3300,10 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="11" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D68" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A68, ".pdf")</f>
@@ -3226,10 +3321,10 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="11" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D69" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A69, ".pdf")</f>
@@ -3247,10 +3342,10 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="11" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D70" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A70, ".pdf")</f>
@@ -3268,10 +3363,10 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="11" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D71" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A71, ".pdf")</f>
@@ -3289,10 +3384,10 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="11" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D72" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A72, ".pdf")</f>
@@ -3310,10 +3405,10 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="11" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D73" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A73, ".pdf")</f>
@@ -3331,10 +3426,10 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="11" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D74" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A74, ".pdf")</f>
@@ -3352,10 +3447,10 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="11" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D75" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A75, ".pdf")</f>
@@ -3373,10 +3468,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="11" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D76" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A76, ".pdf")</f>
@@ -3394,10 +3489,10 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="11" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D77" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A77, ".pdf")</f>
@@ -3415,10 +3510,10 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D78" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A78, ".pdf")</f>
@@ -3436,10 +3531,10 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="11" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D79" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A79, ".pdf")</f>
@@ -3457,10 +3552,10 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="11" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D80" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A80, ".pdf")</f>
@@ -3478,10 +3573,10 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="11" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D81" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A81, ".pdf")</f>
@@ -3499,10 +3594,10 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="11" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D82" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A82, ".pdf")</f>
@@ -3520,10 +3615,10 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="11" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D83" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A83, ".pdf")</f>
@@ -3541,10 +3636,10 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="11" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D84" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A84, ".pdf")</f>
@@ -3562,10 +3657,10 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="11" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D85" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A85, ".pdf")</f>
@@ -3583,10 +3678,10 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="11" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D86" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A86, ".pdf")</f>
@@ -3604,10 +3699,10 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="11" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D87" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A87, ".pdf")</f>
@@ -3625,10 +3720,10 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="11" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D88" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A88, ".pdf")</f>
@@ -3646,10 +3741,10 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="11" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D89" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A89, ".pdf")</f>
@@ -3668,10 +3763,10 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="11" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D90" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A90, ".pdf")</f>
@@ -3690,10 +3785,10 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="11" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D91" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A91, ".pdf")</f>
@@ -3712,10 +3807,10 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="11" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D92" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A92, ".pdf")</f>
@@ -3734,10 +3829,10 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="11" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D93" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A93, ".pdf")</f>
@@ -3756,10 +3851,10 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="11" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D94" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A94, ".pdf")</f>
@@ -3778,10 +3873,10 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="11" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D95" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A95, ".pdf")</f>
@@ -3800,10 +3895,10 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="11" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D96" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A96, ".pdf")</f>
@@ -3822,10 +3917,10 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D97" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A97, ".pdf")</f>
@@ -3844,10 +3939,10 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="11" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D98" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A98, ".pdf")</f>
@@ -3866,10 +3961,10 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="11" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D99" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A99, ".pdf")</f>
@@ -3888,10 +3983,10 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="11" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D100" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A100, ".pdf")</f>
@@ -3910,10 +4005,10 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="11" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D101" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A101, ".pdf")</f>
@@ -3932,10 +4027,10 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="11" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D102" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A102, ".pdf")</f>
@@ -3954,10 +4049,10 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="11" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D103" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A103, ".pdf")</f>
@@ -3976,10 +4071,10 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="11" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D104" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A104, ".pdf")</f>
@@ -3998,10 +4093,10 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="11" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D105" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A105, ".pdf")</f>
@@ -4020,10 +4115,10 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="11" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D106" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A106, ".pdf")</f>
@@ -4042,10 +4137,10 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="11" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D107" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A107, ".pdf")</f>
@@ -4064,10 +4159,10 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D108" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A108, ".pdf")</f>
@@ -4086,10 +4181,10 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="11" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D109" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A109, ".pdf")</f>
@@ -4108,10 +4203,10 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="11" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D110" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A110, ".pdf")</f>
@@ -4130,10 +4225,10 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="11" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D111" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A111, ".pdf")</f>
@@ -4152,10 +4247,10 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="11" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D112" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A112, ".pdf")</f>
@@ -4174,10 +4269,10 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="11" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D113" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A113, ".pdf")</f>
@@ -4196,10 +4291,10 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="11" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D114" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A114, ".pdf")</f>
@@ -4218,10 +4313,10 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="11" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D115" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A115, ".pdf")</f>
@@ -4240,10 +4335,10 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="11" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D116" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A116, ".pdf")</f>
@@ -4262,10 +4357,10 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="11" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D117" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A117, ".pdf")</f>
@@ -4284,10 +4379,10 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="11" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D118" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A118, ".pdf")</f>
@@ -4306,10 +4401,10 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="11" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D119" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A119, ".pdf")</f>
@@ -4328,10 +4423,10 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="11" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D120" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A120, ".pdf")</f>
@@ -4350,10 +4445,10 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="11" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D121" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A121, ".pdf")</f>
@@ -4372,10 +4467,10 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="11" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D122" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A122, ".pdf")</f>
@@ -4394,10 +4489,10 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="11" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D123" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A123, ".pdf")</f>
@@ -4416,10 +4511,10 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="11" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D124" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A124, ".pdf")</f>
@@ -4438,10 +4533,10 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="11" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D125" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A125, ".pdf")</f>
@@ -4464,11 +4559,11 @@
   </sheetData>
   <dataValidations count="3">
     <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA2:AA46" type="list">
-      <formula1>#NAME?</formula1>
+      <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AF2" type="list">
-      <formula1>#NAME?</formula1>
+      <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AH2" type="list">

--- a/barcode/Data path barcode.xlsx
+++ b/barcode/Data path barcode.xlsx
@@ -384,7 +384,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="313">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -1288,6 +1288,42 @@
   </si>
   <si>
     <t xml:space="preserve">OZN1336986298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Человек паук Spiderman р92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1137414937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Человек паук Spiderman р98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1137418791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Человек паук Spiderman р104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1137421126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Человек паук Spiderman р110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1137422959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Человек паук Spiderman р116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1137425483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Человек паук Spiderman р122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1137427457</t>
   </si>
 </sst>
 </file>
@@ -1585,10 +1621,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN130"/>
+  <dimension ref="A1:AN131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A105" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E132" activeCellId="0" sqref="E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1616,7 +1652,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="18.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="20.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="25.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="19.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="12.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="17.78"/>
@@ -4553,9 +4589,78 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D126" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A126, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Человек паук Spiderman р92.pdf</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D127" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A127, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Человек паук Spiderman р98.pdf</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="D128" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A128, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Человек паук Spiderman р104.pdf</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D129" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A129, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Человек паук Spiderman р110.pdf</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="D130" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A130, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Человек паук Spiderman р116.pdf</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="D131" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A131, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Человек паук Spiderman р122.pdf</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="3">
     <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA2:AA46" type="list">

--- a/barcode/Data path barcode.xlsx
+++ b/barcode/Data path barcode.xlsx
@@ -384,7 +384,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="337">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -1324,6 +1324,78 @@
   </si>
   <si>
     <t xml:space="preserve">OZN1137427457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Русалочка с надписью. Крылышко. р92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1407682142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Русалочка с надписью. Крылышко. р104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1407655063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Русалочка с надписью. Крылышко. р122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1407654857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Русалочка с надписью. Крылышко. р98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1407684701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Русалочка с надписью. Крылышко. р116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1407655127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Русалочка с надписью. Крылышко. р110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1407655164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Девочка с лошадью. Рукав крылышко. р92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1138519825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Девочка с лошадью. Рукав крылышко. р98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1138530248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Девочка с лошадью. Рукав крылышко. р104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1138543501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Девочка с лошадью. Рукав крылышко. р110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1138541329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Девочка с лошадью. Рукав крылышко. р116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1138546521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Девочка с лошадью. Рукав крылышко. р122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1138548149</t>
   </si>
 </sst>
 </file>
@@ -1621,10 +1693,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN131"/>
+  <dimension ref="A1:AN143"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A105" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E132" activeCellId="0" sqref="E132"/>
+      <selection pane="topLeft" activeCell="C140" activeCellId="0" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4661,6 +4733,150 @@
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Человек паук Spiderman р122.pdf</v>
       </c>
     </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="D132" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A132, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Русалочка с надписью. Крылышко. р92.pdf</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="D133" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A133, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Русалочка с надписью. Крылышко. р104.pdf</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D134" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A134, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Русалочка с надписью. Крылышко. р122.pdf</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="D135" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A135, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Русалочка с надписью. Крылышко. р98.pdf</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="D136" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A136, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Русалочка с надписью. Крылышко. р116.pdf</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="D137" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A137, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Русалочка с надписью. Крылышко. р110.pdf</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="D138" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A138, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Девочка с лошадью. Рукав крылышко. р92.pdf</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="D139" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A139, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Девочка с лошадью. Рукав крылышко. р98.pdf</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="D140" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A140, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Девочка с лошадью. Рукав крылышко. р104.pdf</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D141" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A141, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Девочка с лошадью. Рукав крылышко. р110.pdf</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="D142" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A142, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Девочка с лошадью. Рукав крылышко. р116.pdf</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="D143" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A143, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Девочка с лошадью. Рукав крылышко. р122.pdf</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="3">
     <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA2:AA46" type="list">

--- a/barcode/Data path barcode.xlsx
+++ b/barcode/Data path barcode.xlsx
@@ -1695,13 +1695,13 @@
   </sheetPr>
   <dimension ref="A1:AN143"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A105" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C140" activeCellId="0" sqref="C140"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D84" activeCellId="0" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="83.8"/>

--- a/barcode/Data path barcode.xlsx
+++ b/barcode/Data path barcode.xlsx
@@ -384,7 +384,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="435">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -1396,6 +1396,473 @@
   </si>
   <si>
     <t xml:space="preserve">OZN1138548149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Девушка волосы облако</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425245752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Девушка очки с краской розовой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425243566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мэрилин Монро поп арт вырезки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Африканская Девушка черный силуэт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Кот Шанель Chanel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Кот выглядывает радуга</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Кот картина Ван Гог</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка мультяшный Кот картина Ван Гог</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Женщина кошка ест вишинку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Красные перцы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250634</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Термонаклейка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Dior Диор </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Девушка курит облако</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Dior Диор Цветы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Vogue Вог Эйфелева башня</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Бюст статуи Feelings скрыты глаза</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425266743</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Термонаклейка Р</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">ыба паттерн </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">яркая красивая</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Розовый Фламинго цветок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Дали Ван Гог Фрида Кало в машине</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Женщина кошка пьет молоко из стакана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Африка Девушка разнацветные воосы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425266611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Леопардовая блондинка девушка mood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Цветы Черный Силуэт Девушки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Леопардовое сердце поцелуй губ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Девушка с чупа чупсом I dont care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Аниме девочка с мечом розовые волосы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Аниме девочка в куртке со стикерами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Сейлор Мун в куртке Sailor Moon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425275426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Аниме Девочка с чупа чупсом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250629</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Термонаклейка Аниме Девочка с </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">черным </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">капюшоном</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425266666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Аниме Девочка в розовый капюшоном</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425266747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Девушка Блондинка с котом на голове</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Поцелуй берега и реки картина маслом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка картина Поцелуй Густава Климта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Поцелуй в космосе картина маслом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Губы с чупа чупсом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250874</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Термонаклейка D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">olce Gabbana Дольче Габбана лимоны</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250776</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Термонаклейка надпись love любовь </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">3 раза</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка надпись love любовь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мэрилин Монро Supreme Суприм глаза</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Микки Маус надписи на фоне</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250758</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Термонаклейка картина Д</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">евушка с сережкой Билли</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425266670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Play Boy губы обложка губы марка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425266577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Змеи Змея на розовом фоне паттерн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425266721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Солнце Цветок в ретро</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425275399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Тигр розовый крупный план</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Леопард розовый крупный план</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Кит в море картина маслом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Бокал красного вина сердце</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Джокер поп арт Joker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250735</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Термонаклейка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Одри Хепбёрн </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">поп арт</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250637</t>
   </si>
 </sst>
 </file>
@@ -1563,7 +2030,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1616,6 +2083,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1625,6 +2104,29 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="false" diagonalDown="false">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <diagonal/>
+      </border>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1693,10 +2195,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN143"/>
+  <dimension ref="A1:AN192"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D84" activeCellId="0" sqref="D84"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A157" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D193" activeCellId="0" sqref="D193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1704,7 +2206,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="83.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="104.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="50.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.3"/>
@@ -4877,7 +5379,796 @@
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Девочка с лошадью. Рукав крылышко. р122.pdf</v>
       </c>
     </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="D144" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A144, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Девушка волосы облако.pdf</v>
+      </c>
+      <c r="E144" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A144,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Девушка волосы облако_img.tif</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="D145" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A145, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Девушка очки с краской розовой.pdf</v>
+      </c>
+      <c r="E145" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A145,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Девушка очки с краской розовой_img.tif</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="D146" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A146, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Мэрилин Монро поп арт вырезки.pdf</v>
+      </c>
+      <c r="E146" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A146,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Мэрилин Монро поп арт вырезки_img.tif</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="D147" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A147, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Африканская Девушка черный силуэт.pdf</v>
+      </c>
+      <c r="E147" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A147,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Африканская Девушка черный силуэт_img.tif</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="D148" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A148, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Кот Шанель Chanel.pdf</v>
+      </c>
+      <c r="E148" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A148,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Кот Шанель Chanel_img.tif</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="D149" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A149, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Кот выглядывает радуга.pdf</v>
+      </c>
+      <c r="E149" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A149,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Кот выглядывает радуга_img.tif</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="D150" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A150, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Кот картина Ван Гог.pdf</v>
+      </c>
+      <c r="E150" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A150,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Кот картина Ван Гог_img.tif</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="D151" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A151, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка мультяшный Кот картина Ван Гог.pdf</v>
+      </c>
+      <c r="E151" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A151,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка мультяшный Кот картина Ван Гог_img.tif</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="D152" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A152, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Женщина кошка ест вишинку.pdf</v>
+      </c>
+      <c r="E152" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A152,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Женщина кошка ест вишинку_img.tif</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="D153" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A153, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Красные перцы.pdf</v>
+      </c>
+      <c r="E153" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A153,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Красные перцы_img.tif</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="D154" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A154, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Dior Диор Девушка курит облако.pdf</v>
+      </c>
+      <c r="E154" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A154,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Dior Диор Девушка курит облако_img.tif</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="D155" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A155, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Dior Диор Цветы.pdf</v>
+      </c>
+      <c r="E155" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A155,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Dior Диор Цветы_img.tif</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="D156" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A156, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Vogue Вог Эйфелева башня.pdf</v>
+      </c>
+      <c r="E156" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A156,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Vogue Вог Эйфелева башня_img.tif</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="D157" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A157, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Бюст статуи Feelings скрыты глаза.pdf</v>
+      </c>
+      <c r="E157" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A157,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Бюст статуи Feelings скрыты глаза_img.tif</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="D158" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A158, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Рыба паттерн яркая красивая.pdf</v>
+      </c>
+      <c r="E158" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A158,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Рыба паттерн яркая красивая_img.tif</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="D159" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A159, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Розовый Фламинго цветок.pdf</v>
+      </c>
+      <c r="E159" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A159,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Розовый Фламинго цветок_img.tif</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D160" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A160, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Дали Ван Гог Фрида Кало в машине.pdf</v>
+      </c>
+      <c r="E160" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A160,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Дали Ван Гог Фрида Кало в машине_img.tif</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D161" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A161, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Женщина кошка пьет молоко из стакана.pdf</v>
+      </c>
+      <c r="E161" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A161,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Женщина кошка пьет молоко из стакана_img.tif</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="D162" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A162, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Африка Девушка разнацветные воосы.pdf</v>
+      </c>
+      <c r="E162" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A162,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Африка Девушка разнацветные воосы_img.tif</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="D163" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A163, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Леопардовая блондинка девушка mood.pdf</v>
+      </c>
+      <c r="E163" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A163,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Леопардовая блондинка девушка mood_img.tif</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="D164" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A164, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Цветы Черный Силуэт Девушки.pdf</v>
+      </c>
+      <c r="E164" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A164,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Цветы Черный Силуэт Девушки_img.tif</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="D165" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A165, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Леопардовое сердце поцелуй губ.pdf</v>
+      </c>
+      <c r="E165" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A165,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Леопардовое сердце поцелуй губ_img.tif</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D166" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A166, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Девушка с чупа чупсом I dont care.pdf</v>
+      </c>
+      <c r="E166" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A166,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Девушка с чупа чупсом I dont care_img.tif</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="D167" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A167, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Аниме девочка с мечом розовые волосы.pdf</v>
+      </c>
+      <c r="E167" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A167,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Аниме девочка с мечом розовые волосы_img.tif</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="D168" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A168, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Аниме девочка в куртке со стикерами.pdf</v>
+      </c>
+      <c r="E168" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A168,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Аниме девочка в куртке со стикерами_img.tif</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="D169" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A169, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Сейлор Мун в куртке Sailor Moon.pdf</v>
+      </c>
+      <c r="E169" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A169,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Сейлор Мун в куртке Sailor Moon_img.tif</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="D170" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A170, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Аниме Девочка с чупа чупсом.pdf</v>
+      </c>
+      <c r="E170" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A170,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Аниме Девочка с чупа чупсом_img.tif</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="D171" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A171, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Аниме Девочка с черным капюшоном.pdf</v>
+      </c>
+      <c r="E171" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A171,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Аниме Девочка с черным капюшоном_img.tif</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="D172" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A172, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Аниме Девочка в розовый капюшоном.pdf</v>
+      </c>
+      <c r="E172" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A172,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Аниме Девочка в розовый капюшоном_img.tif</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="D173" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A173, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Девушка Блондинка с котом на голове.pdf</v>
+      </c>
+      <c r="E173" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A173,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Девушка Блондинка с котом на голове_img.tif</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="D174" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A174, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Поцелуй берега и реки картина маслом.pdf</v>
+      </c>
+      <c r="E174" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A174,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Поцелуй берега и реки картина маслом_img.tif</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="D175" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A175, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка картина Поцелуй Густава Климта.pdf</v>
+      </c>
+      <c r="E175" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A175,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка картина Поцелуй Густава Климта_img.tif</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="D176" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A176, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Поцелуй в космосе картина маслом.pdf</v>
+      </c>
+      <c r="E176" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A176,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Поцелуй в космосе картина маслом_img.tif</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="D177" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A177, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Губы с чупа чупсом.pdf</v>
+      </c>
+      <c r="E177" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A177,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Губы с чупа чупсом_img.tif</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="D178" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A178, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Dolce Gabbana Дольче Габбана лимоны.pdf</v>
+      </c>
+      <c r="E178" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A178,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Dolce Gabbana Дольче Габбана лимоны_img.tif</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="D179" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A179, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка надпись love любовь 3 раза.pdf</v>
+      </c>
+      <c r="E179" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A179,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка надпись love любовь 3 раза_img.tif</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="D180" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A180, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка надпись love любовь.pdf</v>
+      </c>
+      <c r="E180" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A180,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка надпись love любовь_img.tif</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="D181" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A181, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Мэрилин Монро Supreme Суприм глаза.pdf</v>
+      </c>
+      <c r="E181" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A181,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Мэрилин Монро Supreme Суприм глаза_img.tif</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="D182" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A182, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Микки Маус надписи на фоне.pdf</v>
+      </c>
+      <c r="E182" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A182,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Микки Маус надписи на фоне_img.tif</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="D183" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A183, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка картина Девушка с сережкой Билли.pdf</v>
+      </c>
+      <c r="E183" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A183,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка картина Девушка с сережкой Билли_img.tif</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="D184" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A184, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Play Boy губы обложка губы марка.pdf</v>
+      </c>
+      <c r="E184" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A184,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Play Boy губы обложка губы марка_img.tif</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D185" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A185, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Змеи Змея на розовом фоне паттерн.pdf</v>
+      </c>
+      <c r="E185" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A185,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Змеи Змея на розовом фоне паттерн_img.tif</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="D186" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A186, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Солнце Цветок в ретро.pdf</v>
+      </c>
+      <c r="E186" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A186,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Солнце Цветок в ретро_img.tif</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="D187" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A187, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Тигр розовый крупный план.pdf</v>
+      </c>
+      <c r="E187" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A187,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Тигр розовый крупный план_img.tif</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="D188" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A188, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Леопард розовый крупный план.pdf</v>
+      </c>
+      <c r="E188" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A188,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Леопард розовый крупный план_img.tif</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="D189" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A189, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Кит в море картина маслом.pdf</v>
+      </c>
+      <c r="E189" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A189,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Кит в море картина маслом_img.tif</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="D190" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A190, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Бокал красного вина сердце.pdf</v>
+      </c>
+      <c r="E190" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A190,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Бокал красного вина сердце_img.tif</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="D191" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A191, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Джокер поп арт Joker.pdf</v>
+      </c>
+      <c r="E191" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A191,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Джокер поп арт Joker_img.tif</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="D192" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A192, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Одри Хепбёрн поп арт.pdf</v>
+      </c>
+      <c r="E192" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A192,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Одри Хепбёрн поп арт_img.tif</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A144">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>LEN(#ref!!$b$4) &gt;50</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA2:AA46" type="list">
       <formula1>#name?</formula1>

--- a/barcode/Data path barcode.xlsx
+++ b/barcode/Data path barcode.xlsx
@@ -2030,7 +2030,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2080,10 +2080,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2197,8 +2193,8 @@
   </sheetPr>
   <dimension ref="A1:AN192"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A157" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D193" activeCellId="0" sqref="D193"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A150" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B145" activeCellId="0" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5396,7 +5392,7 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="13" t="s">
+      <c r="A145" s="9" t="s">
         <v>339</v>
       </c>
       <c r="B145" s="0" t="s">
@@ -5540,7 +5536,7 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="13" t="s">
+      <c r="A154" s="9" t="s">
         <v>357</v>
       </c>
       <c r="B154" s="0" t="s">
@@ -5604,7 +5600,7 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="13" t="s">
+      <c r="A158" s="9" t="s">
         <v>365</v>
       </c>
       <c r="B158" s="0" t="s">
@@ -5684,7 +5680,7 @@
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="13" t="s">
+      <c r="A163" s="9" t="s">
         <v>375</v>
       </c>
       <c r="B163" s="0" t="s">
@@ -5700,7 +5696,7 @@
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="13" t="s">
+      <c r="A164" s="9" t="s">
         <v>377</v>
       </c>
       <c r="B164" s="0" t="s">
@@ -5716,7 +5712,7 @@
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="13" t="s">
+      <c r="A165" s="9" t="s">
         <v>379</v>
       </c>
       <c r="B165" s="0" t="s">
@@ -5732,7 +5728,7 @@
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="13" t="s">
+      <c r="A166" s="9" t="s">
         <v>381</v>
       </c>
       <c r="B166" s="0" t="s">
@@ -5748,7 +5744,7 @@
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="13" t="s">
+      <c r="A167" s="9" t="s">
         <v>383</v>
       </c>
       <c r="B167" s="0" t="s">
@@ -5796,7 +5792,7 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="14" t="s">
+      <c r="A170" s="13" t="s">
         <v>389</v>
       </c>
       <c r="B170" s="0" t="s">
@@ -5812,7 +5808,7 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="14" t="s">
+      <c r="A171" s="13" t="s">
         <v>391</v>
       </c>
       <c r="B171" s="0" t="s">
@@ -5828,7 +5824,7 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="14" t="s">
+      <c r="A172" s="13" t="s">
         <v>393</v>
       </c>
       <c r="B172" s="0" t="s">
@@ -5844,7 +5840,7 @@
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="14" t="s">
+      <c r="A173" s="13" t="s">
         <v>395</v>
       </c>
       <c r="B173" s="0" t="s">
@@ -5860,7 +5856,7 @@
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="14" t="s">
+      <c r="A174" s="13" t="s">
         <v>397</v>
       </c>
       <c r="B174" s="0" t="s">
@@ -5876,7 +5872,7 @@
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="14" t="s">
+      <c r="A175" s="13" t="s">
         <v>399</v>
       </c>
       <c r="B175" s="0" t="s">
@@ -5892,7 +5888,7 @@
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="15" t="s">
+      <c r="A176" s="14" t="s">
         <v>401</v>
       </c>
       <c r="B176" s="0" t="s">
@@ -5908,7 +5904,7 @@
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="14" t="s">
+      <c r="A177" s="13" t="s">
         <v>403</v>
       </c>
       <c r="B177" s="0" t="s">
@@ -5924,7 +5920,7 @@
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="15" t="s">
+      <c r="A178" s="14" t="s">
         <v>405</v>
       </c>
       <c r="B178" s="0" t="s">
@@ -5940,7 +5936,7 @@
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="14" t="s">
+      <c r="A179" s="13" t="s">
         <v>407</v>
       </c>
       <c r="B179" s="6" t="s">
@@ -5956,7 +5952,7 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="15" t="s">
+      <c r="A180" s="14" t="s">
         <v>409</v>
       </c>
       <c r="B180" s="0" t="s">
@@ -5972,7 +5968,7 @@
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="15" t="s">
+      <c r="A181" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B181" s="0" t="s">
@@ -5988,7 +5984,7 @@
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="15" t="s">
+      <c r="A182" s="14" t="s">
         <v>413</v>
       </c>
       <c r="B182" s="0" t="s">
@@ -6004,7 +6000,7 @@
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="15" t="s">
+      <c r="A183" s="14" t="s">
         <v>415</v>
       </c>
       <c r="B183" s="0" t="s">
@@ -6020,7 +6016,7 @@
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="15" t="s">
+      <c r="A184" s="14" t="s">
         <v>417</v>
       </c>
       <c r="B184" s="0" t="s">
@@ -6036,7 +6032,7 @@
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="15" t="s">
+      <c r="A185" s="14" t="s">
         <v>419</v>
       </c>
       <c r="B185" s="0" t="s">
@@ -6052,7 +6048,7 @@
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="15" t="s">
+      <c r="A186" s="14" t="s">
         <v>421</v>
       </c>
       <c r="B186" s="0" t="s">
@@ -6068,7 +6064,7 @@
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="14" t="s">
+      <c r="A187" s="13" t="s">
         <v>423</v>
       </c>
       <c r="B187" s="0" t="s">
@@ -6084,7 +6080,7 @@
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="15" t="s">
+      <c r="A188" s="14" t="s">
         <v>425</v>
       </c>
       <c r="B188" s="0" t="s">
@@ -6100,7 +6096,7 @@
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="15" t="s">
+      <c r="A189" s="14" t="s">
         <v>427</v>
       </c>
       <c r="B189" s="0" t="s">
@@ -6116,7 +6112,7 @@
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="15" t="s">
+      <c r="A190" s="14" t="s">
         <v>429</v>
       </c>
       <c r="B190" s="0" t="s">
@@ -6132,7 +6128,7 @@
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="15" t="s">
+      <c r="A191" s="14" t="s">
         <v>431</v>
       </c>
       <c r="B191" s="0" t="s">
@@ -6148,7 +6144,7 @@
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="15" t="s">
+      <c r="A192" s="14" t="s">
         <v>433</v>
       </c>
       <c r="B192" s="0" t="s">

--- a/barcode/Data path barcode.xlsx
+++ b/barcode/Data path barcode.xlsx
@@ -384,7 +384,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="492">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -1404,58 +1404,88 @@
     <t xml:space="preserve">OZN1425245752</t>
   </si>
   <si>
+    <t xml:space="preserve">1_girl_with_cloud_hair</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Девушка очки с краской розовой</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425243566</t>
   </si>
   <si>
+    <t xml:space="preserve">2_girl_pink_glasses</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Мэрилин Монро поп арт вырезки</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425250627</t>
   </si>
   <si>
+    <t xml:space="preserve">3_merlin_monroe_popart</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Африканская Девушка черный силуэт</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425250669</t>
   </si>
   <si>
+    <t xml:space="preserve">4_blackgirl1_250</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Кот Шанель Chanel</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425250687</t>
   </si>
   <si>
+    <t xml:space="preserve">5_cat_channel_250</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Кот выглядывает радуга</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425250595</t>
   </si>
   <si>
+    <t xml:space="preserve">6_cat_face_250</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Кот картина Ван Гог</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425250644</t>
   </si>
   <si>
+    <t xml:space="preserve">7_cat250</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка мультяшный Кот картина Ван Гог</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425250751</t>
   </si>
   <si>
+    <t xml:space="preserve">8_cat250_1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Женщина кошка ест вишинку</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425250714</t>
   </si>
   <si>
+    <t xml:space="preserve">9_cherry_250</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Красные перцы</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425250634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10_chillis</t>
   </si>
   <si>
     <r>
@@ -1493,22 +1523,34 @@
     <t xml:space="preserve">OZN1425250643</t>
   </si>
   <si>
+    <t xml:space="preserve">11_dior2_260</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Dior Диор Цветы</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425250773</t>
   </si>
   <si>
+    <t xml:space="preserve">12_dior250</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Vogue Вог Эйфелева башня</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425250607</t>
   </si>
   <si>
+    <t xml:space="preserve">13_efel250</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Бюст статуи Feelings скрыты глаза</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425266743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14_feelings_250</t>
   </si>
   <si>
     <r>
@@ -1546,76 +1588,115 @@
     <t xml:space="preserve">OZN1425250727</t>
   </si>
   <si>
+    <t xml:space="preserve">15_fish250</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Розовый Фламинго цветок</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425250716</t>
   </si>
   <si>
+    <t xml:space="preserve">16_flamingo250</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Дали Ван Гог Фрида Кало в машине</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425250740</t>
   </si>
   <si>
+    <t xml:space="preserve">17_freands1_250</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Женщина кошка пьет молоко из стакана</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425250766</t>
   </si>
   <si>
+    <t xml:space="preserve">18_girl_drink_250</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Африка Девушка разнацветные воосы</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425266611</t>
   </si>
   <si>
+    <t xml:space="preserve">19_girl_hair_250</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Леопардовая блондинка девушка mood</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425250726</t>
   </si>
   <si>
+    <t xml:space="preserve">20_girl1_260</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Цветы Черный Силуэт Девушки</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425250712</t>
   </si>
   <si>
+    <t xml:space="preserve">21_head250</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Леопардовое сердце поцелуй губ</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425250774</t>
   </si>
   <si>
+    <t xml:space="preserve">22_heart2_20</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Девушка с чупа чупсом I dont care</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425250863</t>
   </si>
   <si>
+    <t xml:space="preserve">24_idontcare_250</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Аниме девочка с мечом розовые волосы</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425250847</t>
   </si>
   <si>
+    <t xml:space="preserve">25_japan1_250</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Аниме девочка в куртке со стикерами</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425250720</t>
   </si>
   <si>
+    <t xml:space="preserve">26_japan2_250</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Сейлор Мун в куртке Sailor Moon</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425275426</t>
   </si>
   <si>
+    <t xml:space="preserve">27_japan3_250</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Аниме Девочка с чупа чупсом</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425250629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28_japan4_250</t>
   </si>
   <si>
     <r>
@@ -1653,40 +1734,61 @@
     <t xml:space="preserve">OZN1425266666</t>
   </si>
   <si>
+    <t xml:space="preserve">29_japan5_250</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Аниме Девочка в розовый капюшоном</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425266747</t>
   </si>
   <si>
+    <t xml:space="preserve">30_japan6_250</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Девушка Блондинка с котом на голове</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425250655</t>
   </si>
   <si>
+    <t xml:space="preserve">31_japan7_250</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Поцелуй берега и реки картина маслом</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425250633</t>
   </si>
   <si>
+    <t xml:space="preserve">32_kiss_art2_250</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка картина Поцелуй Густава Климта</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425250579</t>
   </si>
   <si>
+    <t xml:space="preserve">33_kiss_art3_250</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Поцелуй в космосе картина маслом</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425250606</t>
   </si>
   <si>
+    <t xml:space="preserve">34_kiss250</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Губы с чупа чупсом</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425250874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35_leaps1_250</t>
   </si>
   <si>
     <r>
@@ -1714,6 +1816,9 @@
     <t xml:space="preserve">OZN1425250776</t>
   </si>
   <si>
+    <t xml:space="preserve">36_lemons250</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1739,22 +1844,34 @@
     <t xml:space="preserve">OZN1425250722</t>
   </si>
   <si>
+    <t xml:space="preserve">37_love2_250</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка надпись love любовь</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425250661</t>
   </si>
   <si>
+    <t xml:space="preserve">38_love220</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Мэрилин Монро Supreme Суприм глаза</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425250650</t>
   </si>
   <si>
+    <t xml:space="preserve">39_MERLIN2_250</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Микки Маус надписи на фоне</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425250758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40_mickey1_20</t>
   </si>
   <si>
     <r>
@@ -1782,52 +1899,79 @@
     <t xml:space="preserve">OZN1425266670</t>
   </si>
   <si>
+    <t xml:space="preserve">41_perl_girl_250</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Play Boy губы обложка губы марка</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425266577</t>
   </si>
   <si>
+    <t xml:space="preserve">42_playboy250</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Змеи Змея на розовом фоне паттерн</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425266721</t>
   </si>
   <si>
+    <t xml:space="preserve">43_snake250</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Солнце Цветок в ретро</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425275399</t>
   </si>
   <si>
+    <t xml:space="preserve">44_sun1_250</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Тигр розовый крупный план</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425250805</t>
   </si>
   <si>
+    <t xml:space="preserve">45_tiger_face_260</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Леопард розовый крупный план</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425250781</t>
   </si>
   <si>
+    <t xml:space="preserve">46_tiger_pink250</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Кит в море картина маслом</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425250733</t>
   </si>
   <si>
+    <t xml:space="preserve">47_whale_226</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Бокал красного вина сердце</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425250678</t>
   </si>
   <si>
+    <t xml:space="preserve">48_wine250</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Джокер поп арт Joker</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1425250735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49_ZEE_Why_So_Serious_250</t>
   </si>
   <si>
     <r>
@@ -1863,6 +2007,62 @@
   </si>
   <si>
     <t xml:space="preserve">OZN1425250637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50_Audrey Hepburn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мона Лиза, Фрида Кало свадьба</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51_monalisa_wedding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мона Лиза, Фрида Кало, коктели</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52_monalisa_cocktails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Киллиан Мёрфи Острые козырьки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53_Cillian Murphy_popart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Джон уик john wick дым из глаз</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">54_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">john wick</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_smoke</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2191,10 +2391,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN192"/>
+  <dimension ref="A1:AN196"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A150" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B145" activeCellId="0" sqref="B145"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A163" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E161" activeCellId="0" sqref="E161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2203,7 +2403,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="104.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="50.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="63.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="49.34"/>
@@ -5382,781 +5582,1310 @@
       <c r="B144" s="0" t="s">
         <v>338</v>
       </c>
+      <c r="C144" s="0" t="s">
+        <v>339</v>
+      </c>
       <c r="D144" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A144, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Девушка волосы облако.pdf</v>
       </c>
       <c r="E144" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A144,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Девушка волосы облако_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C144,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\1_girl_with_cloud_hair.tif</v>
+      </c>
+      <c r="F144" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G144" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>342</v>
       </c>
       <c r="D145" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A145, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Девушка очки с краской розовой.pdf</v>
       </c>
       <c r="E145" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A145,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Девушка очки с краской розовой_img.tif</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C145,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\2_girl_pink_glasses.tif</v>
+      </c>
+      <c r="F145" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G145" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="D146" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A146, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Мэрилин Монро поп арт вырезки.pdf</v>
       </c>
       <c r="E146" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A146,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Мэрилин Монро поп арт вырезки_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C146,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\3_merlin_monroe_popart.tif</v>
+      </c>
+      <c r="F146" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G146" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>348</v>
       </c>
       <c r="D147" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A147, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Африканская Девушка черный силуэт.pdf</v>
       </c>
       <c r="E147" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A147,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Африканская Девушка черный силуэт_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C147,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\4_blackgirl1_250.tif</v>
+      </c>
+      <c r="F147" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G147" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>346</v>
+        <v>350</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>351</v>
       </c>
       <c r="D148" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A148, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Кот Шанель Chanel.pdf</v>
       </c>
       <c r="E148" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A148,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Кот Шанель Chanel_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C148,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\5_cat_channel_250.tif</v>
+      </c>
+      <c r="F148" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G148" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>348</v>
+        <v>353</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>354</v>
       </c>
       <c r="D149" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A149, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Кот выглядывает радуга.pdf</v>
       </c>
       <c r="E149" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A149,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Кот выглядывает радуга_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C149,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\6_cat_face_250.tif</v>
+      </c>
+      <c r="F149" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G149" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>350</v>
+        <v>356</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>357</v>
       </c>
       <c r="D150" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A150, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Кот картина Ван Гог.pdf</v>
       </c>
       <c r="E150" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A150,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Кот картина Ван Гог_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C150,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\7_cat250.tif</v>
+      </c>
+      <c r="F150" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G150" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>352</v>
+        <v>359</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>360</v>
       </c>
       <c r="D151" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A151, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка мультяшный Кот картина Ван Гог.pdf</v>
       </c>
       <c r="E151" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A151,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка мультяшный Кот картина Ван Гог_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C151,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\8_cat250_1.tif</v>
+      </c>
+      <c r="F151" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G151" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>354</v>
+        <v>362</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>363</v>
       </c>
       <c r="D152" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A152, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Женщина кошка ест вишинку.pdf</v>
       </c>
       <c r="E152" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A152,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Женщина кошка ест вишинку_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C152,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\9_cherry_250.tif</v>
+      </c>
+      <c r="F152" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G152" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>356</v>
+        <v>365</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>366</v>
       </c>
       <c r="D153" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A153, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Красные перцы.pdf</v>
       </c>
       <c r="E153" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A153,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Красные перцы_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C153,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\10_chillis.tif</v>
+      </c>
+      <c r="F153" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G153" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="9" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>358</v>
+        <v>368</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>369</v>
       </c>
       <c r="D154" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A154, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Dior Диор Девушка курит облако.pdf</v>
       </c>
       <c r="E154" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A154,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Dior Диор Девушка курит облако_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C154,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\11_dior2_260.tif</v>
+      </c>
+      <c r="F154" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G154" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>360</v>
+        <v>371</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>372</v>
       </c>
       <c r="D155" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A155, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Dior Диор Цветы.pdf</v>
       </c>
       <c r="E155" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A155,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Dior Диор Цветы_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C155,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\12_dior250.tif</v>
+      </c>
+      <c r="F155" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G155" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>362</v>
+        <v>374</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>375</v>
       </c>
       <c r="D156" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A156, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Vogue Вог Эйфелева башня.pdf</v>
       </c>
       <c r="E156" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A156,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Vogue Вог Эйфелева башня_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C156,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\13_efel250.tif</v>
+      </c>
+      <c r="F156" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G156" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>364</v>
+        <v>377</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>378</v>
       </c>
       <c r="D157" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A157, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Бюст статуи Feelings скрыты глаза.pdf</v>
       </c>
       <c r="E157" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A157,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Бюст статуи Feelings скрыты глаза_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C157,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\14_feelings_250.tif</v>
+      </c>
+      <c r="F157" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G157" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="9" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>366</v>
+        <v>380</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>381</v>
       </c>
       <c r="D158" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A158, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Рыба паттерн яркая красивая.pdf</v>
       </c>
       <c r="E158" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A158,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Рыба паттерн яркая красивая_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C158,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\15_fish250.tif</v>
+      </c>
+      <c r="F158" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G158" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>368</v>
+        <v>383</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>384</v>
       </c>
       <c r="D159" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A159, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Розовый Фламинго цветок.pdf</v>
       </c>
       <c r="E159" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A159,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Розовый Фламинго цветок_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C159,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\16_flamingo250.tif</v>
+      </c>
+      <c r="F159" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G159" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>370</v>
+        <v>386</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>387</v>
       </c>
       <c r="D160" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A160, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Дали Ван Гог Фрида Кало в машине.pdf</v>
       </c>
       <c r="E160" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A160,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Дали Ван Гог Фрида Кало в машине_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C160,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\17_freands1_250.tif</v>
+      </c>
+      <c r="F160" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G160" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>372</v>
+        <v>389</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>390</v>
       </c>
       <c r="D161" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A161, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Женщина кошка пьет молоко из стакана.pdf</v>
       </c>
       <c r="E161" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A161,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Женщина кошка пьет молоко из стакана_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C161,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\18_girl_drink_250.tif</v>
+      </c>
+      <c r="F161" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G161" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>374</v>
+        <v>392</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>393</v>
       </c>
       <c r="D162" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A162, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Африка Девушка разнацветные воосы.pdf</v>
       </c>
       <c r="E162" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A162,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Африка Девушка разнацветные воосы_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C162,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\19_girl_hair_250.tif</v>
+      </c>
+      <c r="F162" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G162" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="9" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>376</v>
+        <v>395</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>396</v>
       </c>
       <c r="D163" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A163, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Леопардовая блондинка девушка mood.pdf</v>
       </c>
       <c r="E163" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A163,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Леопардовая блондинка девушка mood_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C163,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\20_girl1_260.tif</v>
+      </c>
+      <c r="F163" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G163" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="9" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>378</v>
+        <v>398</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>399</v>
       </c>
       <c r="D164" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A164, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Цветы Черный Силуэт Девушки.pdf</v>
       </c>
       <c r="E164" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A164,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Цветы Черный Силуэт Девушки_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C164,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\21_head250.tif</v>
+      </c>
+      <c r="F164" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G164" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="9" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>380</v>
+        <v>401</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>402</v>
       </c>
       <c r="D165" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A165, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Леопардовое сердце поцелуй губ.pdf</v>
       </c>
       <c r="E165" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A165,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Леопардовое сердце поцелуй губ_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C165,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\22_heart2_20.tif</v>
+      </c>
+      <c r="F165" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G165" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="9" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>382</v>
+        <v>404</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>405</v>
       </c>
       <c r="D166" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A166, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Девушка с чупа чупсом I dont care.pdf</v>
       </c>
       <c r="E166" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A166,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Девушка с чупа чупсом I dont care_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C166,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\24_idontcare_250.tif</v>
+      </c>
+      <c r="F166" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G166" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="9" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>384</v>
+        <v>407</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>408</v>
       </c>
       <c r="D167" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A167, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Аниме девочка с мечом розовые волосы.pdf</v>
       </c>
       <c r="E167" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A167,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Аниме девочка с мечом розовые волосы_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C167,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\25_japan1_250.tif</v>
+      </c>
+      <c r="F167" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G167" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>386</v>
+        <v>410</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>411</v>
       </c>
       <c r="D168" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A168, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Аниме девочка в куртке со стикерами.pdf</v>
       </c>
       <c r="E168" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A168,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Аниме девочка в куртке со стикерами_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C168,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\26_japan2_250.tif</v>
+      </c>
+      <c r="F168" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G168" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>388</v>
+        <v>413</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>414</v>
       </c>
       <c r="D169" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A169, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Сейлор Мун в куртке Sailor Moon.pdf</v>
       </c>
       <c r="E169" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A169,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Сейлор Мун в куртке Sailor Moon_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C169,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\27_japan3_250.tif</v>
+      </c>
+      <c r="F169" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G169" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="13" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>390</v>
+        <v>416</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>417</v>
       </c>
       <c r="D170" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A170, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Аниме Девочка с чупа чупсом.pdf</v>
       </c>
       <c r="E170" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A170,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Аниме Девочка с чупа чупсом_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C170,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\28_japan4_250.tif</v>
+      </c>
+      <c r="F170" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G170" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="13" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>392</v>
+        <v>419</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>420</v>
       </c>
       <c r="D171" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A171, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Аниме Девочка с черным капюшоном.pdf</v>
       </c>
       <c r="E171" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A171,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Аниме Девочка с черным капюшоном_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C171,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\29_japan5_250.tif</v>
+      </c>
+      <c r="F171" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G171" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="13" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>394</v>
+        <v>422</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>423</v>
       </c>
       <c r="D172" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A172, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Аниме Девочка в розовый капюшоном.pdf</v>
       </c>
       <c r="E172" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A172,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Аниме Девочка в розовый капюшоном_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C172,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\30_japan6_250.tif</v>
+      </c>
+      <c r="F172" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G172" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="13" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>396</v>
+        <v>425</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>426</v>
       </c>
       <c r="D173" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A173, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Девушка Блондинка с котом на голове.pdf</v>
       </c>
       <c r="E173" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A173,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Девушка Блондинка с котом на голове_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C173,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\31_japan7_250.tif</v>
+      </c>
+      <c r="F173" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G173" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="13" t="s">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>398</v>
+        <v>428</v>
+      </c>
+      <c r="C174" s="0" t="s">
+        <v>429</v>
       </c>
       <c r="D174" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A174, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Поцелуй берега и реки картина маслом.pdf</v>
       </c>
       <c r="E174" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A174,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Поцелуй берега и реки картина маслом_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C174,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\32_kiss_art2_250.tif</v>
+      </c>
+      <c r="F174" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G174" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="13" t="s">
-        <v>399</v>
+        <v>430</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>400</v>
+        <v>431</v>
+      </c>
+      <c r="C175" s="0" t="s">
+        <v>432</v>
       </c>
       <c r="D175" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A175, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка картина Поцелуй Густава Климта.pdf</v>
       </c>
       <c r="E175" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A175,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка картина Поцелуй Густава Климта_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C175,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\33_kiss_art3_250.tif</v>
+      </c>
+      <c r="F175" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G175" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="14" t="s">
-        <v>401</v>
+        <v>433</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>402</v>
+        <v>434</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>435</v>
       </c>
       <c r="D176" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A176, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Поцелуй в космосе картина маслом.pdf</v>
       </c>
       <c r="E176" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A176,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Поцелуй в космосе картина маслом_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C176,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\34_kiss250.tif</v>
+      </c>
+      <c r="F176" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G176" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="13" t="s">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>404</v>
+        <v>437</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>438</v>
       </c>
       <c r="D177" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A177, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Губы с чупа чупсом.pdf</v>
       </c>
       <c r="E177" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A177,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Губы с чупа чупсом_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C177,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\35_leaps1_250.tif</v>
+      </c>
+      <c r="F177" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G177" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="14" t="s">
-        <v>405</v>
+        <v>439</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>406</v>
+        <v>440</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>441</v>
       </c>
       <c r="D178" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A178, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Dolce Gabbana Дольче Габбана лимоны.pdf</v>
       </c>
       <c r="E178" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A178,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Dolce Gabbana Дольче Габбана лимоны_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C178,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\36_lemons250.tif</v>
+      </c>
+      <c r="F178" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G178" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="13" t="s">
-        <v>407</v>
+        <v>442</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>408</v>
+        <v>443</v>
+      </c>
+      <c r="C179" s="0" t="s">
+        <v>444</v>
       </c>
       <c r="D179" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A179, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка надпись love любовь 3 раза.pdf</v>
       </c>
       <c r="E179" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A179,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка надпись love любовь 3 раза_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C179,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\37_love2_250.tif</v>
+      </c>
+      <c r="F179" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G179" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="14" t="s">
-        <v>409</v>
+        <v>445</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>410</v>
+        <v>446</v>
+      </c>
+      <c r="C180" s="0" t="s">
+        <v>447</v>
       </c>
       <c r="D180" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A180, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка надпись love любовь.pdf</v>
       </c>
       <c r="E180" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A180,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка надпись love любовь_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C180,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\38_love220.tif</v>
+      </c>
+      <c r="F180" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G180" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="14" t="s">
-        <v>411</v>
+        <v>448</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>412</v>
+        <v>449</v>
+      </c>
+      <c r="C181" s="0" t="s">
+        <v>450</v>
       </c>
       <c r="D181" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A181, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Мэрилин Монро Supreme Суприм глаза.pdf</v>
       </c>
       <c r="E181" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A181,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Мэрилин Монро Supreme Суприм глаза_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C181,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\39_MERLIN2_250.tif</v>
+      </c>
+      <c r="F181" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G181" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="14" t="s">
-        <v>413</v>
+        <v>451</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>414</v>
+        <v>452</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>453</v>
       </c>
       <c r="D182" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A182, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Микки Маус надписи на фоне.pdf</v>
       </c>
       <c r="E182" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A182,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Микки Маус надписи на фоне_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C182,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\40_mickey1_20.tif</v>
+      </c>
+      <c r="F182" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G182" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="14" t="s">
-        <v>415</v>
+        <v>454</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>416</v>
+        <v>455</v>
+      </c>
+      <c r="C183" s="0" t="s">
+        <v>456</v>
       </c>
       <c r="D183" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A183, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка картина Девушка с сережкой Билли.pdf</v>
       </c>
       <c r="E183" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A183,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка картина Девушка с сережкой Билли_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C183,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\41_perl_girl_250.tif</v>
+      </c>
+      <c r="F183" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G183" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="14" t="s">
-        <v>417</v>
+        <v>457</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>418</v>
+        <v>458</v>
+      </c>
+      <c r="C184" s="0" t="s">
+        <v>459</v>
       </c>
       <c r="D184" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A184, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Play Boy губы обложка губы марка.pdf</v>
       </c>
       <c r="E184" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A184,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Play Boy губы обложка губы марка_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C184,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\42_playboy250.tif</v>
+      </c>
+      <c r="F184" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G184" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="14" t="s">
-        <v>419</v>
+        <v>460</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>420</v>
+        <v>461</v>
+      </c>
+      <c r="C185" s="0" t="s">
+        <v>462</v>
       </c>
       <c r="D185" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A185, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Змеи Змея на розовом фоне паттерн.pdf</v>
       </c>
       <c r="E185" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A185,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Змеи Змея на розовом фоне паттерн_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C185,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\43_snake250.tif</v>
+      </c>
+      <c r="F185" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G185" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="14" t="s">
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>422</v>
+        <v>464</v>
+      </c>
+      <c r="C186" s="0" t="s">
+        <v>465</v>
       </c>
       <c r="D186" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A186, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Солнце Цветок в ретро.pdf</v>
       </c>
       <c r="E186" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A186,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Солнце Цветок в ретро_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C186,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\44_sun1_250.tif</v>
+      </c>
+      <c r="F186" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G186" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="13" t="s">
-        <v>423</v>
+        <v>466</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>424</v>
+        <v>467</v>
+      </c>
+      <c r="C187" s="0" t="s">
+        <v>468</v>
       </c>
       <c r="D187" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A187, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Тигр розовый крупный план.pdf</v>
       </c>
       <c r="E187" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A187,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Тигр розовый крупный план_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C187,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\45_tiger_face_260.tif</v>
+      </c>
+      <c r="F187" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G187" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="14" t="s">
-        <v>425</v>
+        <v>469</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>426</v>
+        <v>470</v>
+      </c>
+      <c r="C188" s="0" t="s">
+        <v>471</v>
       </c>
       <c r="D188" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A188, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Леопард розовый крупный план.pdf</v>
       </c>
       <c r="E188" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A188,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Леопард розовый крупный план_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C188,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\46_tiger_pink250.tif</v>
+      </c>
+      <c r="F188" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G188" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="14" t="s">
-        <v>427</v>
+        <v>472</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>428</v>
+        <v>473</v>
+      </c>
+      <c r="C189" s="0" t="s">
+        <v>474</v>
       </c>
       <c r="D189" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A189, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Кит в море картина маслом.pdf</v>
       </c>
       <c r="E189" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A189,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Кит в море картина маслом_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C189,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\47_whale_226.tif</v>
+      </c>
+      <c r="F189" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G189" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="14" t="s">
-        <v>429</v>
+        <v>475</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>430</v>
+        <v>476</v>
+      </c>
+      <c r="C190" s="0" t="s">
+        <v>477</v>
       </c>
       <c r="D190" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A190, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Бокал красного вина сердце.pdf</v>
       </c>
       <c r="E190" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A190,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Бокал красного вина сердце_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C190,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\48_wine250.tif</v>
+      </c>
+      <c r="F190" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G190" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="14" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>432</v>
+        <v>479</v>
+      </c>
+      <c r="C191" s="0" t="s">
+        <v>480</v>
       </c>
       <c r="D191" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A191, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Джокер поп арт Joker.pdf</v>
       </c>
       <c r="E191" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A191,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Джокер поп арт Joker_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C191,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\49_ZEE_Why_So_Serious_250.tif</v>
+      </c>
+      <c r="F191" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G191" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="14" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>434</v>
+        <v>482</v>
+      </c>
+      <c r="C192" s="0" t="s">
+        <v>483</v>
       </c>
       <c r="D192" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A192, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Одри Хепбёрн поп арт.pdf</v>
       </c>
       <c r="E192" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A192,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Одри Хепбёрн поп арт_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C192,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\50_Audrey Hepburn.tif</v>
+      </c>
+      <c r="F192" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G192" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="C193" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="D193" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A193, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Мона Лиза, Фрида Кало свадьба.pdf</v>
+      </c>
+      <c r="E193" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C193,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\51_monalisa_wedding.tif</v>
+      </c>
+      <c r="F193" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G193" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="C194" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="D194" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A194, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Мона Лиза, Фрида Кало, коктели.pdf</v>
+      </c>
+      <c r="E194" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C194,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\52_monalisa_cocktails.tif</v>
+      </c>
+      <c r="F194" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G194" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="D195" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A195, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Киллиан Мёрфи Острые козырьки.pdf</v>
+      </c>
+      <c r="E195" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C195,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\53_Cillian Murphy_popart.tif</v>
+      </c>
+      <c r="F195" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G195" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="D196" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A196, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Джон уик john wick дым из глаз.pdf</v>
+      </c>
+      <c r="E196" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C196,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\54_john wick_smoke.tif</v>
+      </c>
+      <c r="F196" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G196" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/barcode/Data path barcode.xlsx
+++ b/barcode/Data path barcode.xlsx
@@ -384,7 +384,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="496">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -2015,22 +2015,34 @@
     <t xml:space="preserve">Термонаклейка Мона Лиза, Фрида Кало свадьба</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1431071314</t>
+  </si>
+  <si>
     <t xml:space="preserve">51_monalisa_wedding</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Мона Лиза, Фрида Кало, коктели</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1431096420</t>
+  </si>
+  <si>
     <t xml:space="preserve">52_monalisa_cocktails</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Киллиан Мёрфи Острые козырьки</t>
   </si>
   <si>
-    <t xml:space="preserve">53_Cillian Murphy_popart</t>
+    <t xml:space="preserve">OZN1431070205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53_Cillian_Murphy_popart</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Джон уик john wick дым из глаз</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1431089549</t>
   </si>
   <si>
     <r>
@@ -2051,7 +2063,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">john wick</t>
+      <t xml:space="preserve">john_wick</t>
     </r>
     <r>
       <rPr>
@@ -2394,7 +2406,7 @@
   <dimension ref="A1:AN196"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A163" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E161" activeCellId="0" sqref="E161"/>
+      <selection pane="topLeft" activeCell="D195" activeCellId="0" sqref="D195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6804,8 +6816,11 @@
       <c r="A193" s="14" t="s">
         <v>484</v>
       </c>
+      <c r="B193" s="0" t="s">
+        <v>485</v>
+      </c>
       <c r="C193" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D193" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A193, ".pdf")</f>
@@ -6824,10 +6839,13 @@
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="14" t="s">
-        <v>486</v>
+        <v>487</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>488</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D194" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A194, ".pdf")</f>
@@ -6846,10 +6864,13 @@
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="14" t="s">
-        <v>488</v>
+        <v>490</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>491</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D195" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A195, ".pdf")</f>
@@ -6857,7 +6878,7 @@
       </c>
       <c r="E195" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C195,".tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\53_Cillian Murphy_popart.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\A4\53_Cillian_Murphy_popart.tif</v>
       </c>
       <c r="F195" s="0" t="n">
         <v>1</v>
@@ -6868,10 +6889,13 @@
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="14" t="s">
-        <v>490</v>
+        <v>493</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>494</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="D196" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A196, ".pdf")</f>
@@ -6879,7 +6903,7 @@
       </c>
       <c r="E196" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",C196,".tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\54_john wick_smoke.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\A4\54_john_wick_smoke.tif</v>
       </c>
       <c r="F196" s="0" t="n">
         <v>1</v>

--- a/barcode/Data path barcode.xlsx
+++ b/barcode/Data path barcode.xlsx
@@ -384,7 +384,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="586">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -2075,6 +2075,440 @@
       </rPr>
       <t xml:space="preserve">_smoke</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Единорог. Рукав крылышко. р92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1442464289</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Футболка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Единорог</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Рукав крылышко. р98</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1442439720</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Футболка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Единорог</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Рукав крылышко. р104</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1442438922</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Футболка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Единорог</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Рукав крылышко. р110</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1442465251</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Футболка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Единорог</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Рукав крылышко. р116</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1442438371</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Футболка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Единорог</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Рукав крылышко. р122</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1442438473</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Термонаклейка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Космонавт на луне ловит звезды</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">astronaut_a_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Кот вцепился сползает вниз</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat_clow_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Котенок выглядывает из стены</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat_wall_a_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Динозавр голова из стены</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dino_a_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Дракон полностью сломал стену</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dino_b_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Собачка с букетом цветов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dog_a_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Эльза холодное сердце</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elsa_a_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Эльза и Анна вместе холодное сердце</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elsa_b_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Том и Джерри в очках</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jerry_a_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Жираф с цветком во рту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jiraph_a_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Марвел супергерои круг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marvel_a_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Марвел супергерои и надпись</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marvel_b_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Русалочка акварелью</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mermaid_a_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Микки Маус руки в стороны надпись</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mickey_a_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Микки Маус подмигивает синий круг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mickey_b_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Микки Маус мультфильмы внутри</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mickey_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Микки Маус надпись Дисней</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mickey_c_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Микки Маус и Минни сердечко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mickey_love_a_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Микки Маус на желтом скейте</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mickey_skater_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Миньоны горкой из 6 штук</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minions_a_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Миньоны горкой из 3 штук</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minions_b_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Минни Маус зайчик в руках</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minni_a_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Минни Маус и Дейзи утка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minni_b_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Минни Маус подмигивает в очках</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minni_c_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мишка в кепке делает селфи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mishka_a_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Пингвины с сердечками шарики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">penguins_a_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Зайчик держит две морковки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rabbit_a_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Зайка в цветах</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rabbit_b_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Ежик Соник Тейлз Наклз Мания</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sonic_b_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Ежик Соник бежит из кольца</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sonic_run_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Человек Паук и Веном половинки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spider_a_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Спанч Боб руки в сторону</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spunchbob_a_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Спанч Боб и Патрик сидят</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spunchbob_b_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Черепашки Ниндзя классика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turtles_a_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Черепашки Ниндзя надпись снизу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turtles_b_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Единорог очки сердечки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unicorn_a_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Единорог в облаках</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unicorn_b_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Единорог и бабочки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unicorn_c_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Единорог корона и надпись внизу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unicorn_d_vert</t>
   </si>
 </sst>
 </file>
@@ -2403,10 +2837,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN196"/>
+  <dimension ref="A1:AN242"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A163" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D195" activeCellId="0" sqref="D195"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A199" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A241" activeCellId="0" sqref="A241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2415,7 +2849,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="104.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="63.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="56.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="49.34"/>
@@ -5057,7 +5491,7 @@
         <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Динозавры_img.tif</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111" s="0" t="n">
         <v>2</v>
@@ -6131,7 +6565,7 @@
         <v>C:\work\baby prints\MainTop\tif\A4\22_heart2_20.tif</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G165" s="0" t="n">
         <v>1</v>
@@ -6912,6 +7346,781 @@
         <v>1</v>
       </c>
     </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D197" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A197, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Рукав крылышко. р92.pdf</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="D198" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A198, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Рукав крылышко. р98.pdf</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="D199" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A199, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Рукав крылышко. р104.pdf</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="D200" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A200, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Рукав крылышко. р110.pdf</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="D201" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A201, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Рукав крылышко. р116.pdf</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="D202" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A202, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Рукав крылышко. р122.pdf</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="C203" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="E203" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C203,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\astronaut_a_horiz.tif</v>
+      </c>
+      <c r="F203" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G203" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="C204" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="E204" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C204,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\cat_clow_vert.tif</v>
+      </c>
+      <c r="F204" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G204" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="C205" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="E205" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C205,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\cat_wall_a_vert.tif</v>
+      </c>
+      <c r="F205" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G205" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="C206" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="E206" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C206,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\dino_a_vert.tif</v>
+      </c>
+      <c r="F206" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G206" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="C207" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="E207" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C207,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\dino_b_vert.tif</v>
+      </c>
+      <c r="F207" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G207" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="C208" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="E208" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C208,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\dog_a_vert.tif</v>
+      </c>
+      <c r="F208" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G208" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="C209" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="E209" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C209,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\elsa_a_horiz.tif</v>
+      </c>
+      <c r="F209" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G209" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="C210" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="E210" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C210,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\elsa_b_horiz.tif</v>
+      </c>
+      <c r="F210" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G210" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="E211" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C211,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\jerry_a_vert.tif</v>
+      </c>
+      <c r="F211" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G211" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="C212" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="E212" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C212,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\jiraph_a_vert.tif</v>
+      </c>
+      <c r="F212" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G212" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="C213" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="E213" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C213,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\marvel_a_vert.tif</v>
+      </c>
+      <c r="F213" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G213" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="C214" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="E214" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C214,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\marvel_b_horiz.tif</v>
+      </c>
+      <c r="F214" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G214" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="C215" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="E215" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C215,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\mermaid_a_vert.tif</v>
+      </c>
+      <c r="F215" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G215" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="C216" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="E216" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C216,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\mickey_a_vert.tif</v>
+      </c>
+      <c r="F216" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G216" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="C217" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E217" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C217,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\mickey_b_vert.tif</v>
+      </c>
+      <c r="F217" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G217" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="C218" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="E218" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C218,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\mickey_c.tif</v>
+      </c>
+      <c r="F218" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G218" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="C219" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="E219" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C219,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\mickey_c_horiz.tif</v>
+      </c>
+      <c r="F219" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G219" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="C220" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="E220" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C220,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\mickey_love_a_horiz.tif</v>
+      </c>
+      <c r="F220" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G220" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="C221" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="E221" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C221,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\mickey_skater_horiz.tif</v>
+      </c>
+      <c r="F221" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G221" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="C222" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="E222" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C222,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\minions_a_vert.tif</v>
+      </c>
+      <c r="F222" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G222" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="C223" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="E223" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C223,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\minions_b_vert.tif</v>
+      </c>
+      <c r="F223" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G223" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="C224" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="E224" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C224,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\minni_a_vert.tif</v>
+      </c>
+      <c r="F224" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G224" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="C225" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="E225" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C225,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\minni_b_vert.tif</v>
+      </c>
+      <c r="F225" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G225" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="C226" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="E226" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C226,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\minni_c_vert.tif</v>
+      </c>
+      <c r="F226" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G226" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="C227" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="E227" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C227,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\mishka_a_vert.tif</v>
+      </c>
+      <c r="F227" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G227" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="C228" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="E228" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C228,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\penguins_a_horiz.tif</v>
+      </c>
+      <c r="F228" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G228" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="C229" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="E229" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C229,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\rabbit_a_vert.tif</v>
+      </c>
+      <c r="F229" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G229" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="C230" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="E230" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C230,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\rabbit_b_vert.tif</v>
+      </c>
+      <c r="F230" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G230" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="C231" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="E231" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C231,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\sonic_b_vert.tif</v>
+      </c>
+      <c r="F231" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G231" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="C232" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="E232" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C232,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\sonic_run_vert.tif</v>
+      </c>
+      <c r="F232" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G232" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="C233" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="E233" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C233,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\spider_a_vert.tif</v>
+      </c>
+      <c r="F233" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G233" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="C234" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="E234" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C234,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\spunchbob_a_horiz.tif</v>
+      </c>
+      <c r="F234" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G234" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="C235" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="E235" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C235,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\spunchbob_b_horiz.tif</v>
+      </c>
+      <c r="F235" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G235" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="C236" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="E236" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C236,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\turtles_a_vert.tif</v>
+      </c>
+      <c r="F236" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G236" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="C237" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="E237" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C237,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\turtles_b_vert.tif</v>
+      </c>
+      <c r="F237" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G237" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="C238" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="E238" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C238,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\unicorn_a_horiz.tif</v>
+      </c>
+      <c r="F238" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G238" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="C239" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="E239" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C239,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\unicorn_b_horiz.tif</v>
+      </c>
+      <c r="F239" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G239" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="C240" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="E240" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C240,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\unicorn_c_horiz.tif</v>
+      </c>
+      <c r="F240" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G240" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="C241" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="E241" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C241,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack2\unicorn_d_vert.tif</v>
+      </c>
+      <c r="F241" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G241" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="A144">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">

--- a/barcode/Data path barcode.xlsx
+++ b/barcode/Data path barcode.xlsx
@@ -384,7 +384,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="625">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -2280,232 +2280,349 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463857418 </t>
+  </si>
+  <si>
     <t xml:space="preserve">astronaut_a_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Кот вцепился сползает вниз</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463858196</t>
+  </si>
+  <si>
     <t xml:space="preserve">cat_clow_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Котенок выглядывает из стены</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463877577</t>
+  </si>
+  <si>
     <t xml:space="preserve">cat_wall_a_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Динозавр голова из стены</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463874053</t>
+  </si>
+  <si>
     <t xml:space="preserve">dino_a_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Дракон полностью сломал стену</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463875645</t>
+  </si>
+  <si>
     <t xml:space="preserve">dino_b_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Собачка с букетом цветов</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463877002</t>
+  </si>
+  <si>
     <t xml:space="preserve">dog_a_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Эльза холодное сердце</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463875013</t>
+  </si>
+  <si>
     <t xml:space="preserve">elsa_a_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Эльза и Анна вместе холодное сердце</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463874283</t>
+  </si>
+  <si>
     <t xml:space="preserve">elsa_b_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Том и Джерри в очках</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463877271</t>
+  </si>
+  <si>
     <t xml:space="preserve">jerry_a_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Жираф с цветком во рту</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463878321</t>
+  </si>
+  <si>
     <t xml:space="preserve">jiraph_a_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Марвел супергерои круг</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463877471</t>
+  </si>
+  <si>
     <t xml:space="preserve">marvel_a_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Марвел супергерои и надпись</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463874965</t>
+  </si>
+  <si>
     <t xml:space="preserve">marvel_b_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Русалочка акварелью</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463877512</t>
+  </si>
+  <si>
     <t xml:space="preserve">mermaid_a_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Микки Маус руки в стороны надпись</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463873843</t>
+  </si>
+  <si>
     <t xml:space="preserve">mickey_a_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Микки Маус подмигивает синий круг</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463877691</t>
+  </si>
+  <si>
     <t xml:space="preserve">mickey_b_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Микки Маус мультфильмы внутри</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463873976</t>
+  </si>
+  <si>
     <t xml:space="preserve">mickey_c</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Микки Маус надпись Дисней</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463876975</t>
+  </si>
+  <si>
     <t xml:space="preserve">mickey_c_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Микки Маус и Минни сердечко</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463877184</t>
+  </si>
+  <si>
     <t xml:space="preserve">mickey_love_a_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Микки Маус на желтом скейте</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463878347</t>
+  </si>
+  <si>
     <t xml:space="preserve">mickey_skater_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Миньоны горкой из 6 штук</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463878336</t>
+  </si>
+  <si>
     <t xml:space="preserve">minions_a_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Миньоны горкой из 3 штук</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463875073</t>
+  </si>
+  <si>
     <t xml:space="preserve">minions_b_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Минни Маус зайчик в руках</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463877135</t>
+  </si>
+  <si>
     <t xml:space="preserve">minni_a_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Минни Маус и Дейзи утка</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463873717</t>
+  </si>
+  <si>
     <t xml:space="preserve">minni_b_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Минни Маус подмигивает в очках</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463874530</t>
+  </si>
+  <si>
     <t xml:space="preserve">minni_c_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Мишка в кепке делает селфи</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463874582</t>
+  </si>
+  <si>
     <t xml:space="preserve">mishka_a_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Пингвины с сердечками шарики</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463874598</t>
+  </si>
+  <si>
     <t xml:space="preserve">penguins_a_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Зайчик держит две морковки</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463877530</t>
+  </si>
+  <si>
     <t xml:space="preserve">rabbit_a_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Зайка в цветах</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463874347</t>
+  </si>
+  <si>
     <t xml:space="preserve">rabbit_b_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Ежик Соник Тейлз Наклз Мания</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463877605</t>
+  </si>
+  <si>
     <t xml:space="preserve">sonic_b_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Ежик Соник бежит из кольца</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463877564</t>
+  </si>
+  <si>
     <t xml:space="preserve">sonic_run_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Человек Паук и Веном половинки</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463877507</t>
+  </si>
+  <si>
     <t xml:space="preserve">spider_a_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Спанч Боб руки в сторону</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463878507</t>
+  </si>
+  <si>
     <t xml:space="preserve">spunchbob_a_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Спанч Боб и Патрик сидят</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463876548</t>
+  </si>
+  <si>
     <t xml:space="preserve">spunchbob_b_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Черепашки Ниндзя классика</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463874673</t>
+  </si>
+  <si>
     <t xml:space="preserve">turtles_a_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Черепашки Ниндзя надпись снизу</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463874152</t>
+  </si>
+  <si>
     <t xml:space="preserve">turtles_b_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Единорог очки сердечки</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463877548</t>
+  </si>
+  <si>
     <t xml:space="preserve">unicorn_a_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Единорог в облаках</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463875075</t>
+  </si>
+  <si>
     <t xml:space="preserve">unicorn_b_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Единорог и бабочки</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1463875930</t>
+  </si>
+  <si>
     <t xml:space="preserve">unicorn_c_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Единорог корона и надпись внизу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1463874991</t>
   </si>
   <si>
     <t xml:space="preserve">unicorn_d_vert</t>
@@ -2839,8 +2956,8 @@
   </sheetPr>
   <dimension ref="A1:AN242"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A199" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A241" activeCellId="0" sqref="A241"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A198" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C238" activeCellId="0" sqref="C238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7422,8 +7539,15 @@
       <c r="A203" s="12" t="s">
         <v>508</v>
       </c>
+      <c r="B203" s="6" t="s">
+        <v>509</v>
+      </c>
       <c r="C203" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
+      </c>
+      <c r="D203" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A203, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Космонавт на луне ловит звезды.pdf</v>
       </c>
       <c r="E203" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C203,".tif")</f>
@@ -7438,10 +7562,17 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="12" t="s">
-        <v>510</v>
+        <v>511</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>512</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>511</v>
+        <v>513</v>
+      </c>
+      <c r="D204" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A204, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Кот вцепился сползает вниз.pdf</v>
       </c>
       <c r="E204" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C204,".tif")</f>
@@ -7456,10 +7587,17 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="12" t="s">
-        <v>512</v>
+        <v>514</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>515</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>513</v>
+        <v>516</v>
+      </c>
+      <c r="D205" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A205, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Котенок выглядывает из стены.pdf</v>
       </c>
       <c r="E205" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C205,".tif")</f>
@@ -7474,10 +7612,17 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="12" t="s">
-        <v>514</v>
+        <v>517</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>518</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>515</v>
+        <v>519</v>
+      </c>
+      <c r="D206" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A206, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Динозавр голова из стены.pdf</v>
       </c>
       <c r="E206" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C206,".tif")</f>
@@ -7492,10 +7637,17 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="12" t="s">
-        <v>516</v>
+        <v>520</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>521</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>517</v>
+        <v>522</v>
+      </c>
+      <c r="D207" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A207, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Дракон полностью сломал стену.pdf</v>
       </c>
       <c r="E207" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C207,".tif")</f>
@@ -7510,10 +7662,17 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="12" t="s">
-        <v>518</v>
+        <v>523</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>524</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>519</v>
+        <v>525</v>
+      </c>
+      <c r="D208" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A208, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Собачка с букетом цветов.pdf</v>
       </c>
       <c r="E208" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C208,".tif")</f>
@@ -7528,10 +7687,17 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="12" t="s">
-        <v>520</v>
+        <v>526</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>527</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>521</v>
+        <v>528</v>
+      </c>
+      <c r="D209" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A209, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Эльза холодное сердце.pdf</v>
       </c>
       <c r="E209" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C209,".tif")</f>
@@ -7546,10 +7712,17 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="12" t="s">
-        <v>522</v>
+        <v>529</v>
+      </c>
+      <c r="B210" s="0" t="s">
+        <v>530</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>523</v>
+        <v>531</v>
+      </c>
+      <c r="D210" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A210, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Эльза и Анна вместе холодное сердце.pdf</v>
       </c>
       <c r="E210" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C210,".tif")</f>
@@ -7564,10 +7737,17 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="12" t="s">
-        <v>524</v>
+        <v>532</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>533</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>525</v>
+        <v>534</v>
+      </c>
+      <c r="D211" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A211, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Том и Джерри в очках.pdf</v>
       </c>
       <c r="E211" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C211,".tif")</f>
@@ -7582,10 +7762,17 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="12" t="s">
-        <v>526</v>
+        <v>535</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>536</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>527</v>
+        <v>537</v>
+      </c>
+      <c r="D212" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A212, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Жираф с цветком во рту.pdf</v>
       </c>
       <c r="E212" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C212,".tif")</f>
@@ -7600,10 +7787,17 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="12" t="s">
-        <v>528</v>
+        <v>538</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>539</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>529</v>
+        <v>540</v>
+      </c>
+      <c r="D213" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A213, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Марвел супергерои круг.pdf</v>
       </c>
       <c r="E213" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C213,".tif")</f>
@@ -7618,10 +7812,17 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="12" t="s">
-        <v>530</v>
+        <v>541</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>542</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>531</v>
+        <v>543</v>
+      </c>
+      <c r="D214" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A214, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Марвел супергерои и надпись.pdf</v>
       </c>
       <c r="E214" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C214,".tif")</f>
@@ -7636,10 +7837,17 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="12" t="s">
-        <v>532</v>
+        <v>544</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>545</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>533</v>
+        <v>546</v>
+      </c>
+      <c r="D215" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A215, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Русалочка акварелью.pdf</v>
       </c>
       <c r="E215" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C215,".tif")</f>
@@ -7654,10 +7862,17 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="12" t="s">
-        <v>534</v>
+        <v>547</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>548</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>535</v>
+        <v>549</v>
+      </c>
+      <c r="D216" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A216, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Микки Маус руки в стороны надпись.pdf</v>
       </c>
       <c r="E216" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C216,".tif")</f>
@@ -7672,10 +7887,17 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="12" t="s">
-        <v>536</v>
+        <v>550</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>551</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>537</v>
+        <v>552</v>
+      </c>
+      <c r="D217" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A217, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Микки Маус подмигивает синий круг.pdf</v>
       </c>
       <c r="E217" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C217,".tif")</f>
@@ -7690,10 +7912,17 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="12" t="s">
-        <v>538</v>
+        <v>553</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>554</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>539</v>
+        <v>555</v>
+      </c>
+      <c r="D218" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A218, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Микки Маус мультфильмы внутри.pdf</v>
       </c>
       <c r="E218" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C218,".tif")</f>
@@ -7708,10 +7937,17 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="12" t="s">
-        <v>540</v>
+        <v>556</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>557</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>541</v>
+        <v>558</v>
+      </c>
+      <c r="D219" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A219, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Микки Маус надпись Дисней.pdf</v>
       </c>
       <c r="E219" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C219,".tif")</f>
@@ -7726,10 +7962,17 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="12" t="s">
-        <v>542</v>
+        <v>559</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>560</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>543</v>
+        <v>561</v>
+      </c>
+      <c r="D220" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A220, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Микки Маус и Минни сердечко.pdf</v>
       </c>
       <c r="E220" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C220,".tif")</f>
@@ -7744,10 +7987,17 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="12" t="s">
-        <v>544</v>
+        <v>562</v>
+      </c>
+      <c r="B221" s="0" t="s">
+        <v>563</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>545</v>
+        <v>564</v>
+      </c>
+      <c r="D221" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A221, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Микки Маус на желтом скейте.pdf</v>
       </c>
       <c r="E221" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C221,".tif")</f>
@@ -7762,10 +8012,17 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="12" t="s">
-        <v>546</v>
+        <v>565</v>
+      </c>
+      <c r="B222" s="0" t="s">
+        <v>566</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>547</v>
+        <v>567</v>
+      </c>
+      <c r="D222" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A222, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Миньоны горкой из 6 штук.pdf</v>
       </c>
       <c r="E222" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C222,".tif")</f>
@@ -7780,10 +8037,17 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="12" t="s">
-        <v>548</v>
+        <v>568</v>
+      </c>
+      <c r="B223" s="0" t="s">
+        <v>569</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>549</v>
+        <v>570</v>
+      </c>
+      <c r="D223" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A223, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Миньоны горкой из 3 штук.pdf</v>
       </c>
       <c r="E223" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C223,".tif")</f>
@@ -7798,10 +8062,17 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="12" t="s">
-        <v>550</v>
+        <v>571</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>572</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>551</v>
+        <v>573</v>
+      </c>
+      <c r="D224" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A224, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Минни Маус зайчик в руках.pdf</v>
       </c>
       <c r="E224" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C224,".tif")</f>
@@ -7816,10 +8087,17 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="12" t="s">
-        <v>552</v>
+        <v>574</v>
+      </c>
+      <c r="B225" s="0" t="s">
+        <v>575</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>553</v>
+        <v>576</v>
+      </c>
+      <c r="D225" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A225, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Минни Маус и Дейзи утка.pdf</v>
       </c>
       <c r="E225" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C225,".tif")</f>
@@ -7834,10 +8112,17 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="12" t="s">
-        <v>554</v>
+        <v>577</v>
+      </c>
+      <c r="B226" s="0" t="s">
+        <v>578</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>555</v>
+        <v>579</v>
+      </c>
+      <c r="D226" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A226, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Минни Маус подмигивает в очках.pdf</v>
       </c>
       <c r="E226" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C226,".tif")</f>
@@ -7852,10 +8137,17 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="12" t="s">
-        <v>556</v>
+        <v>580</v>
+      </c>
+      <c r="B227" s="0" t="s">
+        <v>581</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>557</v>
+        <v>582</v>
+      </c>
+      <c r="D227" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A227, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Мишка в кепке делает селфи.pdf</v>
       </c>
       <c r="E227" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C227,".tif")</f>
@@ -7870,10 +8162,17 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="12" t="s">
-        <v>558</v>
+        <v>583</v>
+      </c>
+      <c r="B228" s="0" t="s">
+        <v>584</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>559</v>
+        <v>585</v>
+      </c>
+      <c r="D228" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A228, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Пингвины с сердечками шарики.pdf</v>
       </c>
       <c r="E228" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C228,".tif")</f>
@@ -7888,10 +8187,17 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="12" t="s">
-        <v>560</v>
+        <v>586</v>
+      </c>
+      <c r="B229" s="0" t="s">
+        <v>587</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>561</v>
+        <v>588</v>
+      </c>
+      <c r="D229" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A229, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Зайчик держит две морковки.pdf</v>
       </c>
       <c r="E229" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C229,".tif")</f>
@@ -7906,10 +8212,17 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="12" t="s">
-        <v>562</v>
+        <v>589</v>
+      </c>
+      <c r="B230" s="0" t="s">
+        <v>590</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>563</v>
+        <v>591</v>
+      </c>
+      <c r="D230" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A230, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Зайка в цветах.pdf</v>
       </c>
       <c r="E230" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C230,".tif")</f>
@@ -7924,10 +8237,17 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="12" t="s">
-        <v>564</v>
+        <v>592</v>
+      </c>
+      <c r="B231" s="0" t="s">
+        <v>593</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>565</v>
+        <v>594</v>
+      </c>
+      <c r="D231" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A231, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Ежик Соник Тейлз Наклз Мания.pdf</v>
       </c>
       <c r="E231" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C231,".tif")</f>
@@ -7942,10 +8262,17 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="12" t="s">
-        <v>566</v>
+        <v>595</v>
+      </c>
+      <c r="B232" s="0" t="s">
+        <v>596</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>567</v>
+        <v>597</v>
+      </c>
+      <c r="D232" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A232, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Ежик Соник бежит из кольца.pdf</v>
       </c>
       <c r="E232" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C232,".tif")</f>
@@ -7960,10 +8287,17 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="12" t="s">
-        <v>568</v>
+        <v>598</v>
+      </c>
+      <c r="B233" s="0" t="s">
+        <v>599</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>569</v>
+        <v>600</v>
+      </c>
+      <c r="D233" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A233, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Человек Паук и Веном половинки.pdf</v>
       </c>
       <c r="E233" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C233,".tif")</f>
@@ -7978,10 +8312,17 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="12" t="s">
-        <v>570</v>
+        <v>601</v>
+      </c>
+      <c r="B234" s="0" t="s">
+        <v>602</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>571</v>
+        <v>603</v>
+      </c>
+      <c r="D234" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A234, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Спанч Боб руки в сторону.pdf</v>
       </c>
       <c r="E234" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C234,".tif")</f>
@@ -7996,10 +8337,17 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="12" t="s">
-        <v>572</v>
+        <v>604</v>
+      </c>
+      <c r="B235" s="0" t="s">
+        <v>605</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>573</v>
+        <v>606</v>
+      </c>
+      <c r="D235" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A235, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Спанч Боб и Патрик сидят.pdf</v>
       </c>
       <c r="E235" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C235,".tif")</f>
@@ -8014,10 +8362,17 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="12" t="s">
-        <v>574</v>
+        <v>607</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>608</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>575</v>
+        <v>609</v>
+      </c>
+      <c r="D236" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A236, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Черепашки Ниндзя классика.pdf</v>
       </c>
       <c r="E236" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C236,".tif")</f>
@@ -8032,10 +8387,17 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="12" t="s">
-        <v>576</v>
+        <v>610</v>
+      </c>
+      <c r="B237" s="0" t="s">
+        <v>611</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>577</v>
+        <v>612</v>
+      </c>
+      <c r="D237" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A237, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Черепашки Ниндзя надпись снизу.pdf</v>
       </c>
       <c r="E237" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C237,".tif")</f>
@@ -8050,10 +8412,17 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="12" t="s">
-        <v>578</v>
+        <v>613</v>
+      </c>
+      <c r="B238" s="0" t="s">
+        <v>614</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>579</v>
+        <v>615</v>
+      </c>
+      <c r="D238" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A238, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Единорог очки сердечки.pdf</v>
       </c>
       <c r="E238" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C238,".tif")</f>
@@ -8068,10 +8437,17 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="12" t="s">
-        <v>580</v>
+        <v>616</v>
+      </c>
+      <c r="B239" s="0" t="s">
+        <v>617</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>581</v>
+        <v>618</v>
+      </c>
+      <c r="D239" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A239, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Единорог в облаках.pdf</v>
       </c>
       <c r="E239" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C239,".tif")</f>
@@ -8086,10 +8462,17 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="12" t="s">
-        <v>582</v>
+        <v>619</v>
+      </c>
+      <c r="B240" s="0" t="s">
+        <v>620</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>583</v>
+        <v>621</v>
+      </c>
+      <c r="D240" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A240, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Единорог и бабочки.pdf</v>
       </c>
       <c r="E240" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C240,".tif")</f>
@@ -8104,10 +8487,17 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="12" t="s">
-        <v>584</v>
+        <v>622</v>
+      </c>
+      <c r="B241" s="0" t="s">
+        <v>623</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>585</v>
+        <v>624</v>
+      </c>
+      <c r="D241" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A241, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\Термонаклейка Единорог корона и надпись внизу.pdf</v>
       </c>
       <c r="E241" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack2\",C241,".tif")</f>

--- a/barcode/Data path barcode.xlsx
+++ b/barcode/Data path barcode.xlsx
@@ -2280,7 +2280,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">OZN1463857418 </t>
+    <t xml:space="preserve">OZN1463857418</t>
   </si>
   <si>
     <t xml:space="preserve">astronaut_a_horiz</t>
@@ -2956,8 +2956,8 @@
   </sheetPr>
   <dimension ref="A1:AN242"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A198" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C238" activeCellId="0" sqref="C238"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A216" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D227" activeCellId="0" sqref="D227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/barcode/Data path barcode.xlsx
+++ b/barcode/Data path barcode.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -384,7 +385,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="636">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -504,6 +505,9 @@
   </si>
   <si>
     <t xml:space="preserve">Длина упаковки, мм*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тип упорядочить</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Девушка волосы облако Тест</t>
@@ -558,6 +562,9 @@
     <t xml:space="preserve">OZN1295887283</t>
   </si>
   <si>
+    <t xml:space="preserve">4_имена</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термобирки Александр</t>
   </si>
   <si>
@@ -1074,6 +1081,9 @@
     <t xml:space="preserve">OZN1054600320</t>
   </si>
   <si>
+    <t xml:space="preserve">3_термобирки</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термобирки Дисней девочки</t>
   </si>
   <si>
@@ -1164,6 +1174,9 @@
     <t xml:space="preserve">OZN1335436121</t>
   </si>
   <si>
+    <t xml:space="preserve">2_а5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Котята. Кот в ванной</t>
   </si>
   <si>
@@ -1296,6 +1309,9 @@
     <t xml:space="preserve">OZN1137414937</t>
   </si>
   <si>
+    <t xml:space="preserve">5_футболка</t>
+  </si>
+  <si>
     <t xml:space="preserve">Футболка Человек паук Spiderman р98</t>
   </si>
   <si>
@@ -1405,6 +1421,9 @@
   </si>
   <si>
     <t xml:space="preserve">1_girl_with_cloud_hair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1_а4</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Девушка очки с краской розовой</t>
@@ -2626,6 +2645,21 @@
   </si>
   <si>
     <t xml:space="preserve">unicorn_d_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">имена</t>
+  </si>
+  <si>
+    <t xml:space="preserve">термобирки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">а5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">футболка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">а4</t>
   </si>
 </sst>
 </file>
@@ -2954,10 +2988,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN242"/>
+  <dimension ref="A1:AO242"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A216" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D227" activeCellId="0" sqref="D227"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AG1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AO3" activeCellId="0" sqref="AO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2997,7 +3031,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="27.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="21.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="36" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="36" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="42" style="0" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3121,16 +3157,19 @@
       <c r="AN1" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AO1" s="0" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -3139,13 +3178,13 @@
         <v>1</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M2" s="0" t="str">
         <f aca="false">A2</f>
@@ -3163,10 +3202,10 @@
         <v>285</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T2" s="0" t="n">
         <v>1</v>
@@ -3181,17 +3220,17 @@
         <v>12</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y2" s="7" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H2,C2,"_1.jpg;"),CONCATENATE(H2,C2,"_2.jpg;"),CONCATENATE(H2,C2,"_3.jpg;"),CONCATENATE(H2,C2,"_4.jpg;"),CONCATENATE(H2,C2,"_5.jpg;"),CONCATENATE(H2,C2,"_6.jpg;"),CONCATENATE(H2,C2,"_7.jpg;"),CONCATENATE(H2,C2,"_8.jpg;"),CONCATENATE(H2,C2,"_9.jpg;"),CONCATENATE(H2,C2,"_10.jpg;"))</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_10.jpg;</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AB2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC2" s="0" t="str">
         <f aca="false">CONCATENATE(H2,C2,"_1.jpg;")</f>
@@ -3202,20 +3241,20 @@
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_10.jpg;</v>
       </c>
       <c r="AE2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG2" s="0" t="str">
         <f aca="false">SUBSTITUTE(A2,"Термонаклейка ","")</f>
         <v>Девушка волосы облако Тест</v>
       </c>
       <c r="AH2" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AI2" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL2" s="0" t="n">
         <v>2</v>
@@ -3229,10 +3268,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="0" t="str">
@@ -3250,15 +3289,18 @@
       </c>
       <c r="X3" s="12"/>
       <c r="AA3" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AO3" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="0" t="str">
@@ -3275,15 +3317,18 @@
         <v>2</v>
       </c>
       <c r="AA4" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AO4" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D5" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A5, ".pdf")</f>
@@ -3299,15 +3344,18 @@
         <v>2</v>
       </c>
       <c r="AA5" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AO5" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D6" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A6, ".pdf")</f>
@@ -3323,15 +3371,18 @@
         <v>2</v>
       </c>
       <c r="AA6" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AO6" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D7" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A7, ".pdf")</f>
@@ -3347,15 +3398,18 @@
         <v>2</v>
       </c>
       <c r="AA7" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AO7" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D8" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A8, ".pdf")</f>
@@ -3371,15 +3425,18 @@
         <v>2</v>
       </c>
       <c r="AA8" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AO8" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D9" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A9, ".pdf")</f>
@@ -3395,15 +3452,18 @@
         <v>2</v>
       </c>
       <c r="AA9" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AO9" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D10" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A10, ".pdf")</f>
@@ -3419,15 +3479,18 @@
         <v>2</v>
       </c>
       <c r="AA10" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AO10" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D11" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A11, ".pdf")</f>
@@ -3443,15 +3506,18 @@
         <v>2</v>
       </c>
       <c r="AA11" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AO11" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D12" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A12, ".pdf")</f>
@@ -3467,15 +3533,18 @@
         <v>2</v>
       </c>
       <c r="AA12" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AO12" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D13" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A13, ".pdf")</f>
@@ -3491,15 +3560,18 @@
         <v>2</v>
       </c>
       <c r="AA13" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AO13" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D14" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A14, ".pdf")</f>
@@ -3515,15 +3587,18 @@
         <v>2</v>
       </c>
       <c r="AA14" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AO14" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D15" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A15, ".pdf")</f>
@@ -3539,15 +3614,18 @@
         <v>2</v>
       </c>
       <c r="AA15" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AO15" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D16" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A16, ".pdf")</f>
@@ -3563,15 +3641,18 @@
         <v>2</v>
       </c>
       <c r="AA16" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AO16" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D17" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A17, ".pdf")</f>
@@ -3587,13 +3668,16 @@
         <v>2</v>
       </c>
       <c r="AA17" s="8"/>
+      <c r="AO17" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D18" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A18, ".pdf")</f>
@@ -3609,13 +3693,16 @@
         <v>2</v>
       </c>
       <c r="AA18" s="8"/>
+      <c r="AO18" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D19" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A19, ".pdf")</f>
@@ -3631,13 +3718,16 @@
         <v>2</v>
       </c>
       <c r="AA19" s="8"/>
+      <c r="AO19" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D20" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A20, ".pdf")</f>
@@ -3653,13 +3743,16 @@
         <v>2</v>
       </c>
       <c r="AA20" s="8"/>
+      <c r="AO20" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D21" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A21, ".pdf")</f>
@@ -3675,13 +3768,16 @@
         <v>2</v>
       </c>
       <c r="AA21" s="8"/>
+      <c r="AO21" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D22" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A22, ".pdf")</f>
@@ -3697,13 +3793,16 @@
         <v>2</v>
       </c>
       <c r="AA22" s="8"/>
+      <c r="AO22" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D23" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A23, ".pdf")</f>
@@ -3719,13 +3818,16 @@
         <v>2</v>
       </c>
       <c r="AA23" s="8"/>
+      <c r="AO23" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D24" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A24, ".pdf")</f>
@@ -3741,13 +3843,16 @@
         <v>2</v>
       </c>
       <c r="AA24" s="8"/>
+      <c r="AO24" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D25" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A25, ".pdf")</f>
@@ -3763,13 +3868,16 @@
         <v>2</v>
       </c>
       <c r="AA25" s="8"/>
+      <c r="AO25" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D26" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A26, ".pdf")</f>
@@ -3785,13 +3893,16 @@
         <v>2</v>
       </c>
       <c r="AA26" s="8"/>
+      <c r="AO26" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D27" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A27, ".pdf")</f>
@@ -3807,13 +3918,16 @@
         <v>2</v>
       </c>
       <c r="AA27" s="8"/>
+      <c r="AO27" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D28" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A28, ".pdf")</f>
@@ -3829,13 +3943,16 @@
         <v>2</v>
       </c>
       <c r="AA28" s="8"/>
+      <c r="AO28" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D29" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A29, ".pdf")</f>
@@ -3851,13 +3968,16 @@
         <v>2</v>
       </c>
       <c r="AA29" s="8"/>
+      <c r="AO29" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D30" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A30, ".pdf")</f>
@@ -3873,13 +3993,16 @@
         <v>2</v>
       </c>
       <c r="AA30" s="8"/>
+      <c r="AO30" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D31" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A31, ".pdf")</f>
@@ -3895,13 +4018,16 @@
         <v>2</v>
       </c>
       <c r="AA31" s="8"/>
+      <c r="AO31" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D32" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A32, ".pdf")</f>
@@ -3917,13 +4043,16 @@
         <v>2</v>
       </c>
       <c r="AA32" s="8"/>
+      <c r="AO32" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D33" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A33, ".pdf")</f>
@@ -3939,13 +4068,16 @@
         <v>2</v>
       </c>
       <c r="AA33" s="8"/>
+      <c r="AO33" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D34" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A34, ".pdf")</f>
@@ -3961,13 +4093,16 @@
         <v>2</v>
       </c>
       <c r="AA34" s="8"/>
+      <c r="AO34" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D35" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A35, ".pdf")</f>
@@ -3983,13 +4118,16 @@
         <v>2</v>
       </c>
       <c r="AA35" s="8"/>
+      <c r="AO35" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D36" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A36, ".pdf")</f>
@@ -4005,13 +4143,16 @@
         <v>2</v>
       </c>
       <c r="AA36" s="8"/>
+      <c r="AO36" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D37" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A37, ".pdf")</f>
@@ -4027,13 +4168,16 @@
         <v>2</v>
       </c>
       <c r="AA37" s="8"/>
+      <c r="AO37" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D38" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A38, ".pdf")</f>
@@ -4049,13 +4193,16 @@
         <v>2</v>
       </c>
       <c r="AA38" s="8"/>
+      <c r="AO38" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D39" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A39, ".pdf")</f>
@@ -4071,13 +4218,16 @@
         <v>2</v>
       </c>
       <c r="AA39" s="8"/>
+      <c r="AO39" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D40" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A40, ".pdf")</f>
@@ -4093,13 +4243,16 @@
         <v>2</v>
       </c>
       <c r="AA40" s="8"/>
+      <c r="AO40" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D41" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A41, ".pdf")</f>
@@ -4115,13 +4268,16 @@
         <v>2</v>
       </c>
       <c r="AA41" s="8"/>
+      <c r="AO41" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D42" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A42, ".pdf")</f>
@@ -4137,13 +4293,16 @@
         <v>2</v>
       </c>
       <c r="AA42" s="8"/>
+      <c r="AO42" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D43" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A43, ".pdf")</f>
@@ -4159,13 +4318,16 @@
         <v>2</v>
       </c>
       <c r="AA43" s="8"/>
+      <c r="AO43" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D44" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A44, ".pdf")</f>
@@ -4181,13 +4343,16 @@
         <v>2</v>
       </c>
       <c r="AA44" s="8"/>
+      <c r="AO44" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D45" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A45, ".pdf")</f>
@@ -4203,13 +4368,16 @@
         <v>2</v>
       </c>
       <c r="AA45" s="8"/>
+      <c r="AO45" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D46" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A46, ".pdf")</f>
@@ -4225,13 +4393,16 @@
         <v>2</v>
       </c>
       <c r="AA46" s="8"/>
+      <c r="AO46" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D47" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A47, ".pdf")</f>
@@ -4246,13 +4417,16 @@
       <c r="G47" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO47" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D48" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A48, ".pdf")</f>
@@ -4267,13 +4441,16 @@
       <c r="G48" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO48" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D49" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A49, ".pdf")</f>
@@ -4288,13 +4465,16 @@
       <c r="G49" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO49" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A50, ".pdf")</f>
@@ -4309,13 +4489,16 @@
       <c r="G50" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO50" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A51, ".pdf")</f>
@@ -4330,13 +4513,16 @@
       <c r="G51" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO51" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A52, ".pdf")</f>
@@ -4351,13 +4537,16 @@
       <c r="G52" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO52" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D53" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A53, ".pdf")</f>
@@ -4372,13 +4561,16 @@
       <c r="G53" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO53" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D54" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A54, ".pdf")</f>
@@ -4393,13 +4585,16 @@
       <c r="G54" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO54" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D55" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A55, ".pdf")</f>
@@ -4414,13 +4609,16 @@
       <c r="G55" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO55" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D56" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A56, ".pdf")</f>
@@ -4435,13 +4633,16 @@
       <c r="G56" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO56" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D57" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A57, ".pdf")</f>
@@ -4456,13 +4657,16 @@
       <c r="G57" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO57" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D58" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A58, ".pdf")</f>
@@ -4477,13 +4681,16 @@
       <c r="G58" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO58" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D59" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A59, ".pdf")</f>
@@ -4498,13 +4705,16 @@
       <c r="G59" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO59" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D60" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A60, ".pdf")</f>
@@ -4519,13 +4729,16 @@
       <c r="G60" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO60" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D61" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A61, ".pdf")</f>
@@ -4540,13 +4753,16 @@
       <c r="G61" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO61" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D62" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A62, ".pdf")</f>
@@ -4561,13 +4777,16 @@
       <c r="G62" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO62" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D63" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A63, ".pdf")</f>
@@ -4582,13 +4801,16 @@
       <c r="G63" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO63" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D64" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A64, ".pdf")</f>
@@ -4603,13 +4825,16 @@
       <c r="G64" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO64" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D65" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A65, ".pdf")</f>
@@ -4624,13 +4849,16 @@
       <c r="G65" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO65" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D66" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A66, ".pdf")</f>
@@ -4645,13 +4873,16 @@
       <c r="G66" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO66" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D67" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A67, ".pdf")</f>
@@ -4666,13 +4897,16 @@
       <c r="G67" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO67" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D68" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A68, ".pdf")</f>
@@ -4687,13 +4921,16 @@
       <c r="G68" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO68" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D69" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A69, ".pdf")</f>
@@ -4708,13 +4945,16 @@
       <c r="G69" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO69" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D70" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A70, ".pdf")</f>
@@ -4729,13 +4969,16 @@
       <c r="G70" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO70" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D71" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A71, ".pdf")</f>
@@ -4750,13 +4993,16 @@
       <c r="G71" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO71" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D72" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A72, ".pdf")</f>
@@ -4771,13 +5017,16 @@
       <c r="G72" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO72" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D73" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A73, ".pdf")</f>
@@ -4792,13 +5041,16 @@
       <c r="G73" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO73" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D74" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A74, ".pdf")</f>
@@ -4813,13 +5065,16 @@
       <c r="G74" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO74" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D75" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A75, ".pdf")</f>
@@ -4834,13 +5089,16 @@
       <c r="G75" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO75" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D76" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A76, ".pdf")</f>
@@ -4855,13 +5113,16 @@
       <c r="G76" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO76" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D77" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A77, ".pdf")</f>
@@ -4876,13 +5137,16 @@
       <c r="G77" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO77" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D78" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A78, ".pdf")</f>
@@ -4897,13 +5161,16 @@
       <c r="G78" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO78" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D79" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A79, ".pdf")</f>
@@ -4918,13 +5185,16 @@
       <c r="G79" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO79" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D80" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A80, ".pdf")</f>
@@ -4939,13 +5209,16 @@
       <c r="G80" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO80" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="11" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D81" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A81, ".pdf")</f>
@@ -4960,13 +5233,16 @@
       <c r="G81" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO81" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D82" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A82, ".pdf")</f>
@@ -4981,13 +5257,16 @@
       <c r="G82" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO82" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D83" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A83, ".pdf")</f>
@@ -5002,13 +5281,16 @@
       <c r="G83" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO83" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D84" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A84, ".pdf")</f>
@@ -5023,13 +5305,16 @@
       <c r="G84" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO84" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="11" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D85" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A85, ".pdf")</f>
@@ -5044,13 +5329,16 @@
       <c r="G85" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO85" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="11" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D86" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A86, ".pdf")</f>
@@ -5065,13 +5353,16 @@
       <c r="G86" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO86" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="11" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D87" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A87, ".pdf")</f>
@@ -5086,13 +5377,16 @@
       <c r="G87" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO87" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D88" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A88, ".pdf")</f>
@@ -5107,13 +5401,16 @@
       <c r="G88" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO88" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="11" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D89" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A89, ".pdf")</f>
@@ -5129,13 +5426,16 @@
       <c r="G89" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO89" s="0" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="11" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D90" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A90, ".pdf")</f>
@@ -5151,13 +5451,16 @@
       <c r="G90" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO90" s="0" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="11" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D91" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A91, ".pdf")</f>
@@ -5173,13 +5476,16 @@
       <c r="G91" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO91" s="0" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="11" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D92" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A92, ".pdf")</f>
@@ -5195,13 +5501,16 @@
       <c r="G92" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO92" s="0" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="11" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D93" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A93, ".pdf")</f>
@@ -5217,13 +5526,16 @@
       <c r="G93" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO93" s="0" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="11" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D94" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A94, ".pdf")</f>
@@ -5239,13 +5551,16 @@
       <c r="G94" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO94" s="0" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="11" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D95" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A95, ".pdf")</f>
@@ -5261,13 +5576,16 @@
       <c r="G95" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO95" s="0" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="11" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D96" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A96, ".pdf")</f>
@@ -5283,13 +5601,16 @@
       <c r="G96" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO96" s="0" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="11" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D97" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A97, ".pdf")</f>
@@ -5305,13 +5626,16 @@
       <c r="G97" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO97" s="0" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="11" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D98" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A98, ".pdf")</f>
@@ -5327,13 +5651,16 @@
       <c r="G98" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO98" s="0" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="11" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D99" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A99, ".pdf")</f>
@@ -5349,13 +5676,16 @@
       <c r="G99" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO99" s="0" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="11" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D100" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A100, ".pdf")</f>
@@ -5371,13 +5701,16 @@
       <c r="G100" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO100" s="0" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="11" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D101" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A101, ".pdf")</f>
@@ -5393,13 +5726,16 @@
       <c r="G101" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO101" s="0" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="11" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D102" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A102, ".pdf")</f>
@@ -5415,13 +5751,16 @@
       <c r="G102" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO102" s="0" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="11" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D103" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термобирки для подписи\", A103, ".pdf")</f>
@@ -5437,13 +5776,16 @@
       <c r="G103" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO103" s="0" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="11" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D104" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A104, ".pdf")</f>
@@ -5459,13 +5801,16 @@
       <c r="G104" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO104" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="11" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D105" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A105, ".pdf")</f>
@@ -5481,13 +5826,16 @@
       <c r="G105" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO105" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="11" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D106" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A106, ".pdf")</f>
@@ -5503,13 +5851,16 @@
       <c r="G106" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO106" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="11" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D107" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A107, ".pdf")</f>
@@ -5525,13 +5876,16 @@
       <c r="G107" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO107" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="11" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D108" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A108, ".pdf")</f>
@@ -5547,13 +5901,16 @@
       <c r="G108" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO108" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="11" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D109" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A109, ".pdf")</f>
@@ -5569,13 +5926,16 @@
       <c r="G109" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO109" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="11" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D110" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A110, ".pdf")</f>
@@ -5591,13 +5951,16 @@
       <c r="G110" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO110" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="11" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D111" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A111, ".pdf")</f>
@@ -5613,13 +5976,16 @@
       <c r="G111" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO111" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="11" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D112" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A112, ".pdf")</f>
@@ -5635,13 +6001,16 @@
       <c r="G112" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO112" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="11" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D113" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A113, ".pdf")</f>
@@ -5657,13 +6026,16 @@
       <c r="G113" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO113" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="11" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D114" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A114, ".pdf")</f>
@@ -5679,13 +6051,16 @@
       <c r="G114" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO114" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="11" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D115" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A115, ".pdf")</f>
@@ -5701,13 +6076,16 @@
       <c r="G115" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO115" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="11" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D116" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A116, ".pdf")</f>
@@ -5723,13 +6101,16 @@
       <c r="G116" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO116" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="11" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D117" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A117, ".pdf")</f>
@@ -5745,13 +6126,16 @@
       <c r="G117" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO117" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="11" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D118" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A118, ".pdf")</f>
@@ -5767,13 +6151,16 @@
       <c r="G118" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO118" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="11" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D119" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A119, ".pdf")</f>
@@ -5789,13 +6176,16 @@
       <c r="G119" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO119" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="11" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D120" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A120, ".pdf")</f>
@@ -5811,13 +6201,16 @@
       <c r="G120" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO120" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="11" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D121" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A121, ".pdf")</f>
@@ -5833,13 +6226,16 @@
       <c r="G121" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO121" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="11" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D122" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A122, ".pdf")</f>
@@ -5855,13 +6251,16 @@
       <c r="G122" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO122" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="11" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D123" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A123, ".pdf")</f>
@@ -5877,13 +6276,16 @@
       <c r="G123" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO123" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="11" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D124" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A124, ".pdf")</f>
@@ -5899,13 +6301,16 @@
       <c r="G124" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO124" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="11" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D125" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A125, ".pdf")</f>
@@ -5921,232 +6326,289 @@
       <c r="G125" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO125" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="11" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D126" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A126, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Человек паук Spiderman р92.pdf</v>
       </c>
+      <c r="AO126" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="11" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D127" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A127, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Человек паук Spiderman р98.pdf</v>
       </c>
+      <c r="AO127" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="11" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D128" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A128, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Человек паук Spiderman р104.pdf</v>
       </c>
+      <c r="AO128" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="11" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D129" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A129, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Человек паук Spiderman р110.pdf</v>
       </c>
+      <c r="AO129" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="11" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D130" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A130, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Человек паук Spiderman р116.pdf</v>
       </c>
+      <c r="AO130" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="11" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D131" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A131, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Человек паук Spiderman р122.pdf</v>
       </c>
+      <c r="AO131" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="11" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D132" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A132, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Русалочка с надписью. Крылышко. р92.pdf</v>
       </c>
+      <c r="AO132" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="11" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D133" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A133, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Русалочка с надписью. Крылышко. р104.pdf</v>
       </c>
+      <c r="AO133" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="11" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D134" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A134, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Русалочка с надписью. Крылышко. р122.pdf</v>
       </c>
+      <c r="AO134" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="11" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D135" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A135, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Русалочка с надписью. Крылышко. р98.pdf</v>
       </c>
+      <c r="AO135" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="11" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D136" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A136, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Русалочка с надписью. Крылышко. р116.pdf</v>
       </c>
+      <c r="AO136" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="11" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D137" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A137, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Русалочка с надписью. Крылышко. р110.pdf</v>
       </c>
+      <c r="AO137" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="11" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D138" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A138, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Девочка с лошадью. Рукав крылышко. р92.pdf</v>
       </c>
+      <c r="AO138" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="11" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D139" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A139, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Девочка с лошадью. Рукав крылышко. р98.pdf</v>
       </c>
+      <c r="AO139" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="11" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D140" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A140, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Девочка с лошадью. Рукав крылышко. р104.pdf</v>
       </c>
+      <c r="AO140" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="11" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D141" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A141, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Девочка с лошадью. Рукав крылышко. р110.pdf</v>
       </c>
+      <c r="AO141" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="11" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="D142" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A142, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Девочка с лошадью. Рукав крылышко. р116.pdf</v>
       </c>
+      <c r="AO142" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="11" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="D143" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A143, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Девочка с лошадью. Рукав крылышко. р122.pdf</v>
       </c>
+      <c r="AO143" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="9" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="D144" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A144, ".pdf")</f>
@@ -6162,16 +6624,19 @@
       <c r="G144" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO144" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="9" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D145" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A145, ".pdf")</f>
@@ -6187,16 +6652,19 @@
       <c r="G145" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO145" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D146" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A146, ".pdf")</f>
@@ -6212,16 +6680,19 @@
       <c r="G146" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO146" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D147" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A147, ".pdf")</f>
@@ -6237,16 +6708,19 @@
       <c r="G147" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO147" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="D148" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A148, ".pdf")</f>
@@ -6262,16 +6736,19 @@
       <c r="G148" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO148" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="D149" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A149, ".pdf")</f>
@@ -6287,16 +6764,19 @@
       <c r="G149" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO149" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D150" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A150, ".pdf")</f>
@@ -6312,16 +6792,19 @@
       <c r="G150" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO150" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D151" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A151, ".pdf")</f>
@@ -6337,16 +6820,19 @@
       <c r="G151" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO151" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="D152" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A152, ".pdf")</f>
@@ -6362,16 +6848,19 @@
       <c r="G152" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO152" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="D153" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A153, ".pdf")</f>
@@ -6387,16 +6876,19 @@
       <c r="G153" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO153" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="9" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="D154" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A154, ".pdf")</f>
@@ -6412,16 +6904,19 @@
       <c r="G154" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO154" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="D155" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A155, ".pdf")</f>
@@ -6437,16 +6932,19 @@
       <c r="G155" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO155" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="D156" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A156, ".pdf")</f>
@@ -6462,16 +6960,19 @@
       <c r="G156" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO156" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="D157" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A157, ".pdf")</f>
@@ -6487,16 +6988,19 @@
       <c r="G157" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO157" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="9" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D158" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A158, ".pdf")</f>
@@ -6512,16 +7016,19 @@
       <c r="G158" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO158" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D159" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A159, ".pdf")</f>
@@ -6537,16 +7044,19 @@
       <c r="G159" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO159" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D160" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A160, ".pdf")</f>
@@ -6562,16 +7072,19 @@
       <c r="G160" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO160" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="D161" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A161, ".pdf")</f>
@@ -6587,16 +7100,19 @@
       <c r="G161" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO161" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D162" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A162, ".pdf")</f>
@@ -6612,16 +7128,19 @@
       <c r="G162" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO162" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="9" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D163" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A163, ".pdf")</f>
@@ -6637,16 +7156,19 @@
       <c r="G163" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO163" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="9" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D164" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A164, ".pdf")</f>
@@ -6662,16 +7184,19 @@
       <c r="G164" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO164" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="9" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D165" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A165, ".pdf")</f>
@@ -6687,16 +7212,19 @@
       <c r="G165" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO165" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="9" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="D166" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A166, ".pdf")</f>
@@ -6712,16 +7240,19 @@
       <c r="G166" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO166" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="9" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="D167" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A167, ".pdf")</f>
@@ -6737,16 +7268,19 @@
       <c r="G167" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO167" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D168" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A168, ".pdf")</f>
@@ -6762,16 +7296,19 @@
       <c r="G168" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO168" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D169" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A169, ".pdf")</f>
@@ -6787,16 +7324,19 @@
       <c r="G169" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO169" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="13" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="D170" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A170, ".pdf")</f>
@@ -6812,16 +7352,19 @@
       <c r="G170" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO170" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="13" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="D171" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A171, ".pdf")</f>
@@ -6837,16 +7380,19 @@
       <c r="G171" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO171" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="13" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="D172" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A172, ".pdf")</f>
@@ -6862,16 +7408,19 @@
       <c r="G172" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO172" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="13" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="D173" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A173, ".pdf")</f>
@@ -6887,16 +7436,19 @@
       <c r="G173" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO173" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="13" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="D174" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A174, ".pdf")</f>
@@ -6912,16 +7464,19 @@
       <c r="G174" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO174" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="13" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="D175" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A175, ".pdf")</f>
@@ -6937,16 +7492,19 @@
       <c r="G175" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO175" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="14" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="D176" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A176, ".pdf")</f>
@@ -6962,16 +7520,19 @@
       <c r="G176" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO176" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="13" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="D177" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A177, ".pdf")</f>
@@ -6987,16 +7548,19 @@
       <c r="G177" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO177" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="14" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="D178" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A178, ".pdf")</f>
@@ -7012,16 +7576,19 @@
       <c r="G178" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO178" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="13" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="D179" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A179, ".pdf")</f>
@@ -7037,16 +7604,19 @@
       <c r="G179" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO179" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="14" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="D180" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A180, ".pdf")</f>
@@ -7062,16 +7632,19 @@
       <c r="G180" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO180" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="14" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D181" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A181, ".pdf")</f>
@@ -7087,16 +7660,19 @@
       <c r="G181" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO181" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="14" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="D182" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A182, ".pdf")</f>
@@ -7112,16 +7688,19 @@
       <c r="G182" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO182" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="14" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D183" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A183, ".pdf")</f>
@@ -7137,16 +7716,19 @@
       <c r="G183" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO183" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="14" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="D184" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A184, ".pdf")</f>
@@ -7162,16 +7744,19 @@
       <c r="G184" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO184" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="14" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="D185" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A185, ".pdf")</f>
@@ -7187,16 +7772,19 @@
       <c r="G185" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO185" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="14" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="D186" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A186, ".pdf")</f>
@@ -7212,16 +7800,19 @@
       <c r="G186" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO186" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="13" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="D187" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A187, ".pdf")</f>
@@ -7237,16 +7828,19 @@
       <c r="G187" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO187" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="14" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D188" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A188, ".pdf")</f>
@@ -7262,16 +7856,19 @@
       <c r="G188" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO188" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="14" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="D189" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A189, ".pdf")</f>
@@ -7287,16 +7884,19 @@
       <c r="G189" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO189" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="14" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="D190" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A190, ".pdf")</f>
@@ -7312,16 +7912,19 @@
       <c r="G190" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO190" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="14" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D191" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A191, ".pdf")</f>
@@ -7337,16 +7940,19 @@
       <c r="G191" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO191" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="14" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="D192" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A192, ".pdf")</f>
@@ -7362,16 +7968,19 @@
       <c r="G192" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO192" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="14" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="D193" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A193, ".pdf")</f>
@@ -7387,16 +7996,19 @@
       <c r="G193" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO193" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="14" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="D194" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A194, ".pdf")</f>
@@ -7412,16 +8024,19 @@
       <c r="G194" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO194" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="14" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="D195" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A195, ".pdf")</f>
@@ -7437,16 +8052,19 @@
       <c r="G195" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO195" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="14" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="D196" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A196, ".pdf")</f>
@@ -7462,88 +8080,109 @@
       <c r="G196" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO196" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="11" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="D197" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A197, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Рукав крылышко. р92.pdf</v>
       </c>
+      <c r="AO197" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="11" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="D198" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A198, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Рукав крылышко. р98.pdf</v>
       </c>
+      <c r="AO198" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="11" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="D199" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A199, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Рукав крылышко. р104.pdf</v>
       </c>
+      <c r="AO199" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="11" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="D200" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A200, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Рукав крылышко. р110.pdf</v>
       </c>
+      <c r="AO200" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="11" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="D201" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A201, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Рукав крылышко. р116.pdf</v>
       </c>
+      <c r="AO201" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="11" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D202" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A202, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Рукав крылышко. р122.pdf</v>
       </c>
+      <c r="AO202" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="12" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="D203" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A203, ".pdf")</f>
@@ -7559,16 +8198,19 @@
       <c r="G203" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO203" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="12" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="D204" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A204, ".pdf")</f>
@@ -7584,16 +8226,19 @@
       <c r="G204" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO204" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="12" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="D205" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A205, ".pdf")</f>
@@ -7609,16 +8254,19 @@
       <c r="G205" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO205" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="12" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="D206" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A206, ".pdf")</f>
@@ -7634,16 +8282,19 @@
       <c r="G206" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO206" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="12" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="D207" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A207, ".pdf")</f>
@@ -7659,16 +8310,19 @@
       <c r="G207" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO207" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="12" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="D208" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A208, ".pdf")</f>
@@ -7684,16 +8338,19 @@
       <c r="G208" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO208" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="12" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="D209" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A209, ".pdf")</f>
@@ -7709,16 +8366,19 @@
       <c r="G209" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO209" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="12" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="D210" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A210, ".pdf")</f>
@@ -7734,16 +8394,19 @@
       <c r="G210" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO210" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="12" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="D211" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A211, ".pdf")</f>
@@ -7759,16 +8422,19 @@
       <c r="G211" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO211" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="12" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="D212" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A212, ".pdf")</f>
@@ -7784,16 +8450,19 @@
       <c r="G212" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO212" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="12" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="D213" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A213, ".pdf")</f>
@@ -7809,16 +8478,19 @@
       <c r="G213" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO213" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="12" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="D214" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A214, ".pdf")</f>
@@ -7834,16 +8506,19 @@
       <c r="G214" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO214" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="12" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="D215" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A215, ".pdf")</f>
@@ -7859,16 +8534,19 @@
       <c r="G215" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO215" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="12" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="D216" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A216, ".pdf")</f>
@@ -7884,16 +8562,19 @@
       <c r="G216" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO216" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="12" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="D217" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A217, ".pdf")</f>
@@ -7909,16 +8590,19 @@
       <c r="G217" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO217" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="12" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="D218" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A218, ".pdf")</f>
@@ -7934,16 +8618,19 @@
       <c r="G218" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO218" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="12" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="D219" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A219, ".pdf")</f>
@@ -7959,16 +8646,19 @@
       <c r="G219" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO219" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="12" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="D220" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A220, ".pdf")</f>
@@ -7984,16 +8674,19 @@
       <c r="G220" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO220" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="12" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="D221" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A221, ".pdf")</f>
@@ -8009,16 +8702,19 @@
       <c r="G221" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO221" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="12" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="D222" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A222, ".pdf")</f>
@@ -8034,16 +8730,19 @@
       <c r="G222" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO222" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="12" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="D223" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A223, ".pdf")</f>
@@ -8059,16 +8758,19 @@
       <c r="G223" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO223" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="12" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="D224" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A224, ".pdf")</f>
@@ -8084,16 +8786,19 @@
       <c r="G224" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO224" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="12" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="D225" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A225, ".pdf")</f>
@@ -8109,16 +8814,19 @@
       <c r="G225" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO225" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="12" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="D226" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A226, ".pdf")</f>
@@ -8134,16 +8842,19 @@
       <c r="G226" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO226" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="12" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="D227" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A227, ".pdf")</f>
@@ -8159,16 +8870,19 @@
       <c r="G227" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO227" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="12" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="D228" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A228, ".pdf")</f>
@@ -8184,16 +8898,19 @@
       <c r="G228" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO228" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="12" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="D229" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A229, ".pdf")</f>
@@ -8209,16 +8926,19 @@
       <c r="G229" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO229" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="12" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="D230" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A230, ".pdf")</f>
@@ -8234,16 +8954,19 @@
       <c r="G230" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO230" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="12" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="D231" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A231, ".pdf")</f>
@@ -8259,16 +8982,19 @@
       <c r="G231" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO231" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="12" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="D232" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A232, ".pdf")</f>
@@ -8284,16 +9010,19 @@
       <c r="G232" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO232" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="12" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="D233" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A233, ".pdf")</f>
@@ -8309,16 +9038,19 @@
       <c r="G233" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO233" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="12" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="D234" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A234, ".pdf")</f>
@@ -8334,16 +9066,19 @@
       <c r="G234" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO234" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="12" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="D235" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A235, ".pdf")</f>
@@ -8359,16 +9094,19 @@
       <c r="G235" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO235" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="12" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="D236" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A236, ".pdf")</f>
@@ -8384,16 +9122,19 @@
       <c r="G236" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO236" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="12" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="D237" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A237, ".pdf")</f>
@@ -8409,16 +9150,19 @@
       <c r="G237" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO237" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="12" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="D238" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A238, ".pdf")</f>
@@ -8434,16 +9178,19 @@
       <c r="G238" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO238" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="12" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="D239" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A239, ".pdf")</f>
@@ -8459,16 +9206,19 @@
       <c r="G239" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO239" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="12" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="D240" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A240, ".pdf")</f>
@@ -8484,16 +9234,19 @@
       <c r="G240" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO240" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="12" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="D241" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A241, ".pdf")</f>
@@ -8508,6 +9261,9 @@
       </c>
       <c r="G241" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="AO241" s="0" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -8540,4 +9296,1954 @@
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:B241"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A206" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="B210" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="B221" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="B222" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="B223" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="B225" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="B226" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="B227" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="B228" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="B229" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="B230" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="B231" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="B232" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="B233" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="B234" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="B235" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="B237" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="B238" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="B239" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="B240" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="B241" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A144">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>LEN(#ref!!$b$4) &gt;50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/barcode/Data path barcode.xlsx
+++ b/barcode/Data path barcode.xlsx
@@ -385,7 +385,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="726">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -2645,6 +2645,276 @@
   </si>
   <si>
     <t xml:space="preserve">unicorn_d_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Эльза и Анна. Рукав крылышко. Р92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1481767706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Эльза и Анна. Рукав крылышко. Р98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1481767841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Эльза и Анна. Рукав крылышко. Р104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1481767391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Эльза и Анна. Рукав крылышко. Р110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1481767588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Эльза и Анна. Рукав крылышко. Р116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1481768711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Эльза и Анна. Рукав крылышко. Р122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1481767363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Эльза. Холодное сердце. Рукав крыл. Р92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1481851351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Эльза. Холодное сердце. Рукав крыл. Р98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1481866608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Эльза. Холодное сердце. Рукав крыл. Р104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1481867431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Эльза. Холодное сердце. Рукав крыл. Р110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1481847268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Эльза. Холодное сердце. Рукав крыл. Р116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1481862401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Эльза. Холодное сердце. Рукав крыл. Р122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1481851778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Единорог. Очки сердечки. Рукав крыл. Р92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1481874040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Единорог. Очки сердечки. Рукав крыл. Р98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1481873104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Единорог. Очки сердечки. Рукав крыл. Р104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1481873864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Единорог. Очки сердечки. Рукав крыл. Р110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1481897681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Единорог. Очки сердечки. Рукав крыл. Р116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1481874334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Единорог. Очки сердечки. Рукав крыл. Р122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1481873467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Минни Маус. Улыбка. Рукав крыл. Р92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1481889602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Минни Маус. Улыбка. Рукав крыл. Р98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1481888396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Минни Маус. Улыбка. Рукав крыл. Р104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1481888974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Минни Маус. Улыбка. Рукав крыл. Р110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1481911342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Минни Маус. Улыбка. Рукав крыл. Р116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1481888092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Футболка Минни Маус. Улыбка. Рукав крыл. Р122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1481912052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Русалочка дисней</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ariel_a_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Барт стоит с скейтом Симпсоны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bart_a_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Барт Прыгает на скейте Симпсоны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bart_b_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Принцессы дисней</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disney_ladies_a_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Холодное сердце 3 Эльза Анна Олаф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elsa_anna_olaf_heart_art_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Эльза Анна Холодное сердце стоят</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elsa_anna_stand_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Эльза обнимает Олафа Холодное сердце</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elsa_olaf_hug_a_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Хаги Ваги ест завтрак</t>
+  </si>
+  <si>
+    <t xml:space="preserve">huggy_a_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Хаги Ваги Голова и надпись</t>
+  </si>
+  <si>
+    <t xml:space="preserve">huggy_b_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Халк зеленый круг фон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hulk_a_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Джерри ест сыр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jerry_and_cheese_a_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Леди Баг сидит</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lady_bug_a_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Король Лев сердце хвосты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lion_king_a_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Май Литл Пони радуга</t>
+  </si>
+  <si>
+    <t xml:space="preserve">little_ponny_a_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Майнкрафт скачет на свинье</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minecraft_a_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Минни Маус сидит сердечки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minni_hearts_a_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Минни Маус фея костюм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minni_hearts_blink_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Шенячий Патруль и Логотип</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paw_patrol_a_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Шенячий Патруль полицеский</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paw_patrol_b_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Шенячий Патруль мальчик главный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paw_patrol_c_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Черепашки Ниндзя фон треугольник</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turtles_a_fighters_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">имена</t>
@@ -2988,10 +3258,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AO242"/>
+  <dimension ref="A1:AO287"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AG1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AO3" activeCellId="0" sqref="AO3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A254" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D273" activeCellId="0" sqref="D273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9266,7 +9536,673 @@
         <v>262</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="B242" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="D242" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A242, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза и Анна. Рукав крылышко. Р92.pdf</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="B243" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="D243" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A243, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза и Анна. Рукав крылышко. Р98.pdf</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="B244" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="D244" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A244, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза и Анна. Рукав крылышко. Р104.pdf</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="B245" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="D245" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A245, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза и Анна. Рукав крылышко. Р110.pdf</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="B246" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="D246" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A246, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза и Анна. Рукав крылышко. Р116.pdf</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="B247" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="D247" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A247, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза и Анна. Рукав крылышко. Р122.pdf</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="B248" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="D248" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A248, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза. Холодное сердце. Рукав крыл. Р92.pdf</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="B249" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="D249" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A249, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза. Холодное сердце. Рукав крыл. Р98.pdf</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="B250" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="D250" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A250, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза. Холодное сердце. Рукав крыл. Р104.pdf</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="B251" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="D251" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A251, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза. Холодное сердце. Рукав крыл. Р110.pdf</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="B252" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="D252" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A252, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза. Холодное сердце. Рукав крыл. Р116.pdf</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="B253" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="D253" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A253, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза. Холодное сердце. Рукав крыл. Р122.pdf</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="B254" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="D254" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A254, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Очки сердечки. Рукав крыл. Р92.pdf</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="B255" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="D255" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A255, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Очки сердечки. Рукав крыл. Р98.pdf</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="B256" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="D256" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A256, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Очки сердечки. Рукав крыл. Р104.pdf</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="B257" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="D257" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A257, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Очки сердечки. Рукав крыл. Р110.pdf</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="B258" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="D258" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A258, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Очки сердечки. Рукав крыл. Р116.pdf</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="B259" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="D259" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A259, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Очки сердечки. Рукав крыл. Р122.pdf</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="B260" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="D260" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A260, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Минни Маус. Улыбка. Рукав крыл. Р92.pdf</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="B261" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="D261" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A261, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Минни Маус. Улыбка. Рукав крыл. Р98.pdf</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="B262" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="D262" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A262, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Минни Маус. Улыбка. Рукав крыл. Р104.pdf</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="B263" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="D263" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A263, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Минни Маус. Улыбка. Рукав крыл. Р110.pdf</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="B264" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="D264" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A264, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Минни Маус. Улыбка. Рукав крыл. Р116.pdf</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="B265" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="D265" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A265, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Минни Маус. Улыбка. Рукав крыл. Р122.pdf</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="C266" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="E266" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C266,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack3\ariel_a_vert.tif</v>
+      </c>
+      <c r="F266" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G266" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="C267" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="E267" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C267,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack3\bart_a_vert.tif</v>
+      </c>
+      <c r="F267" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G267" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="C268" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="E268" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C268,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack3\bart_b_horiz.tif</v>
+      </c>
+      <c r="F268" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G268" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="12" t="s">
+        <v>685</v>
+      </c>
+      <c r="C269" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="E269" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C269,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack3\disney_ladies_a_horiz.tif</v>
+      </c>
+      <c r="F269" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G269" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="C270" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="E270" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C270,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack3\elsa_anna_olaf_heart_art_horiz.tif</v>
+      </c>
+      <c r="F270" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G270" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="C271" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="E271" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C271,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack3\elsa_anna_stand_vert.tif</v>
+      </c>
+      <c r="F271" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G271" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="C272" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="E272" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C272,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack3\elsa_olaf_hug_a_vert.tif</v>
+      </c>
+      <c r="F272" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G272" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="C273" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="E273" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C273,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack3\huggy_a_vert.tif</v>
+      </c>
+      <c r="F273" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G273" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="12" t="s">
+        <v>695</v>
+      </c>
+      <c r="C274" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="E274" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C274,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack3\huggy_b_horiz.tif</v>
+      </c>
+      <c r="F274" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G274" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="C275" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="E275" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C275,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack3\hulk_a_horiz.tif</v>
+      </c>
+      <c r="F275" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G275" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="12" t="s">
+        <v>699</v>
+      </c>
+      <c r="C276" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="E276" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C276,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack3\jerry_and_cheese_a_vert.tif</v>
+      </c>
+      <c r="F276" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G276" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="12" t="s">
+        <v>701</v>
+      </c>
+      <c r="C277" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="E277" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C277,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack3\lady_bug_a_vert.tif</v>
+      </c>
+      <c r="F277" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G277" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="12" t="s">
+        <v>703</v>
+      </c>
+      <c r="C278" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="E278" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C278,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack3\lion_king_a_horiz.tif</v>
+      </c>
+      <c r="F278" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G278" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="C279" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="E279" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C279,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack3\little_ponny_a_vert.tif</v>
+      </c>
+      <c r="F279" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G279" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="12" t="s">
+        <v>707</v>
+      </c>
+      <c r="C280" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="E280" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C280,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack3\minecraft_a_vert.tif</v>
+      </c>
+      <c r="F280" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G280" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="12" t="s">
+        <v>709</v>
+      </c>
+      <c r="C281" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="E281" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C281,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack3\minni_hearts_a_vert.tif</v>
+      </c>
+      <c r="F281" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G281" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="12" t="s">
+        <v>711</v>
+      </c>
+      <c r="C282" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="E282" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C282,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack3\minni_hearts_blink_vert.tif</v>
+      </c>
+      <c r="F282" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G282" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="C283" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="E283" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C283,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack3\paw_patrol_a_vert.tif</v>
+      </c>
+      <c r="F283" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G283" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="C284" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="E284" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C284,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack3\paw_patrol_b_horiz.tif</v>
+      </c>
+      <c r="F284" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G284" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="C285" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="E285" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C285,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack3\paw_patrol_c_horiz.tif</v>
+      </c>
+      <c r="F285" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G285" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="12" t="s">
+        <v>719</v>
+      </c>
+      <c r="C286" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="E286" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C286,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack3\turtles_a_fighters_horiz.tif</v>
+      </c>
+      <c r="F286" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G286" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="A144">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -9325,7 +10261,7 @@
         <v>56</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9333,7 +10269,7 @@
         <v>59</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9341,7 +10277,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9349,7 +10285,7 @@
         <v>63</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9357,7 +10293,7 @@
         <v>65</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9365,7 +10301,7 @@
         <v>67</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9373,7 +10309,7 @@
         <v>69</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9381,7 +10317,7 @@
         <v>71</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9389,7 +10325,7 @@
         <v>73</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9397,7 +10333,7 @@
         <v>75</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9405,7 +10341,7 @@
         <v>77</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9413,7 +10349,7 @@
         <v>79</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9421,7 +10357,7 @@
         <v>81</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9429,7 +10365,7 @@
         <v>83</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9437,7 +10373,7 @@
         <v>85</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9445,7 +10381,7 @@
         <v>87</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9453,7 +10389,7 @@
         <v>89</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9461,7 +10397,7 @@
         <v>91</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9469,7 +10405,7 @@
         <v>93</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9477,7 +10413,7 @@
         <v>95</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9485,7 +10421,7 @@
         <v>97</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9493,7 +10429,7 @@
         <v>99</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9501,7 +10437,7 @@
         <v>101</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9509,7 +10445,7 @@
         <v>103</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9517,7 +10453,7 @@
         <v>105</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9525,7 +10461,7 @@
         <v>107</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9533,7 +10469,7 @@
         <v>109</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9541,7 +10477,7 @@
         <v>111</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9549,7 +10485,7 @@
         <v>113</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9557,7 +10493,7 @@
         <v>115</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9565,7 +10501,7 @@
         <v>117</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9573,7 +10509,7 @@
         <v>119</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9581,7 +10517,7 @@
         <v>121</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9589,7 +10525,7 @@
         <v>123</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9597,7 +10533,7 @@
         <v>125</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9605,7 +10541,7 @@
         <v>127</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9613,7 +10549,7 @@
         <v>129</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9621,7 +10557,7 @@
         <v>131</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9629,7 +10565,7 @@
         <v>133</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9637,7 +10573,7 @@
         <v>135</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9645,7 +10581,7 @@
         <v>137</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9653,7 +10589,7 @@
         <v>139</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9661,7 +10597,7 @@
         <v>141</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9669,7 +10605,7 @@
         <v>143</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9677,7 +10613,7 @@
         <v>145</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9685,7 +10621,7 @@
         <v>147</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9693,7 +10629,7 @@
         <v>149</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9701,7 +10637,7 @@
         <v>151</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9709,7 +10645,7 @@
         <v>153</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9717,7 +10653,7 @@
         <v>155</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9725,7 +10661,7 @@
         <v>157</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9733,7 +10669,7 @@
         <v>159</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9741,7 +10677,7 @@
         <v>161</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9749,7 +10685,7 @@
         <v>163</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9757,7 +10693,7 @@
         <v>165</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9765,7 +10701,7 @@
         <v>167</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9773,7 +10709,7 @@
         <v>169</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9781,7 +10717,7 @@
         <v>171</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9789,7 +10725,7 @@
         <v>173</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9797,7 +10733,7 @@
         <v>175</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9805,7 +10741,7 @@
         <v>177</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9813,7 +10749,7 @@
         <v>179</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9821,7 +10757,7 @@
         <v>181</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9829,7 +10765,7 @@
         <v>183</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9837,7 +10773,7 @@
         <v>185</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9845,7 +10781,7 @@
         <v>187</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9853,7 +10789,7 @@
         <v>189</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9861,7 +10797,7 @@
         <v>191</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9869,7 +10805,7 @@
         <v>193</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9877,7 +10813,7 @@
         <v>195</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9885,7 +10821,7 @@
         <v>197</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9893,7 +10829,7 @@
         <v>199</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9901,7 +10837,7 @@
         <v>201</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9909,7 +10845,7 @@
         <v>203</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9917,7 +10853,7 @@
         <v>205</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9925,7 +10861,7 @@
         <v>207</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9933,7 +10869,7 @@
         <v>209</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9941,7 +10877,7 @@
         <v>211</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9949,7 +10885,7 @@
         <v>213</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9957,7 +10893,7 @@
         <v>215</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9965,7 +10901,7 @@
         <v>217</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9973,7 +10909,7 @@
         <v>219</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9981,7 +10917,7 @@
         <v>221</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9989,7 +10925,7 @@
         <v>223</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9997,7 +10933,7 @@
         <v>225</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10005,7 +10941,7 @@
         <v>227</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10013,7 +10949,7 @@
         <v>229</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>632</v>
+        <v>722</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10021,7 +10957,7 @@
         <v>232</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>632</v>
+        <v>722</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10029,7 +10965,7 @@
         <v>234</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>632</v>
+        <v>722</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10037,7 +10973,7 @@
         <v>236</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>632</v>
+        <v>722</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10045,7 +10981,7 @@
         <v>238</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>632</v>
+        <v>722</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10053,7 +10989,7 @@
         <v>240</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>632</v>
+        <v>722</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10061,7 +10997,7 @@
         <v>242</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>632</v>
+        <v>722</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10069,7 +11005,7 @@
         <v>244</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>632</v>
+        <v>722</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10077,7 +11013,7 @@
         <v>246</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>632</v>
+        <v>722</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10085,7 +11021,7 @@
         <v>248</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>632</v>
+        <v>722</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10093,7 +11029,7 @@
         <v>250</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>632</v>
+        <v>722</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10101,7 +11037,7 @@
         <v>252</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>632</v>
+        <v>722</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10109,7 +11045,7 @@
         <v>254</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>632</v>
+        <v>722</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10117,7 +11053,7 @@
         <v>256</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>632</v>
+        <v>722</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10125,7 +11061,7 @@
         <v>258</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>632</v>
+        <v>722</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10133,7 +11069,7 @@
         <v>260</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10141,7 +11077,7 @@
         <v>263</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10149,7 +11085,7 @@
         <v>265</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10157,7 +11093,7 @@
         <v>267</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10165,7 +11101,7 @@
         <v>269</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10173,7 +11109,7 @@
         <v>271</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10181,7 +11117,7 @@
         <v>273</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10189,7 +11125,7 @@
         <v>275</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10197,7 +11133,7 @@
         <v>277</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10205,7 +11141,7 @@
         <v>279</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10213,7 +11149,7 @@
         <v>281</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10221,7 +11157,7 @@
         <v>283</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10229,7 +11165,7 @@
         <v>285</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10237,7 +11173,7 @@
         <v>287</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10245,7 +11181,7 @@
         <v>289</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10253,7 +11189,7 @@
         <v>291</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10261,7 +11197,7 @@
         <v>293</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10269,7 +11205,7 @@
         <v>295</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10277,7 +11213,7 @@
         <v>297</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10285,7 +11221,7 @@
         <v>299</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10293,7 +11229,7 @@
         <v>301</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10301,7 +11237,7 @@
         <v>303</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10309,7 +11245,7 @@
         <v>305</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>634</v>
+        <v>724</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10317,7 +11253,7 @@
         <v>308</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>634</v>
+        <v>724</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10325,7 +11261,7 @@
         <v>310</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>634</v>
+        <v>724</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10333,7 +11269,7 @@
         <v>312</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>634</v>
+        <v>724</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10341,7 +11277,7 @@
         <v>314</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>634</v>
+        <v>724</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10349,7 +11285,7 @@
         <v>316</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>634</v>
+        <v>724</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10357,7 +11293,7 @@
         <v>318</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>634</v>
+        <v>724</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10365,7 +11301,7 @@
         <v>320</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>634</v>
+        <v>724</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10373,7 +11309,7 @@
         <v>322</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>634</v>
+        <v>724</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10381,7 +11317,7 @@
         <v>324</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>634</v>
+        <v>724</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10389,7 +11325,7 @@
         <v>326</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>634</v>
+        <v>724</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10397,7 +11333,7 @@
         <v>328</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>634</v>
+        <v>724</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10405,7 +11341,7 @@
         <v>330</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>634</v>
+        <v>724</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10413,7 +11349,7 @@
         <v>332</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>634</v>
+        <v>724</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10421,7 +11357,7 @@
         <v>334</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>634</v>
+        <v>724</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10429,7 +11365,7 @@
         <v>336</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>634</v>
+        <v>724</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10437,7 +11373,7 @@
         <v>338</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>634</v>
+        <v>724</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10445,7 +11381,7 @@
         <v>340</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>634</v>
+        <v>724</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10453,7 +11389,7 @@
         <v>342</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10461,7 +11397,7 @@
         <v>346</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10469,7 +11405,7 @@
         <v>349</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10477,7 +11413,7 @@
         <v>352</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10485,7 +11421,7 @@
         <v>355</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10493,7 +11429,7 @@
         <v>358</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10501,7 +11437,7 @@
         <v>361</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10509,7 +11445,7 @@
         <v>364</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10517,7 +11453,7 @@
         <v>367</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10525,7 +11461,7 @@
         <v>370</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10533,7 +11469,7 @@
         <v>373</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10541,7 +11477,7 @@
         <v>376</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10549,7 +11485,7 @@
         <v>379</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10557,7 +11493,7 @@
         <v>382</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10565,7 +11501,7 @@
         <v>385</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10573,7 +11509,7 @@
         <v>388</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10581,7 +11517,7 @@
         <v>391</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10589,7 +11525,7 @@
         <v>394</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10597,7 +11533,7 @@
         <v>397</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10605,7 +11541,7 @@
         <v>400</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10613,7 +11549,7 @@
         <v>403</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10621,7 +11557,7 @@
         <v>406</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10629,7 +11565,7 @@
         <v>409</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10637,7 +11573,7 @@
         <v>412</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10645,7 +11581,7 @@
         <v>415</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10653,7 +11589,7 @@
         <v>418</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10661,7 +11597,7 @@
         <v>421</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10669,7 +11605,7 @@
         <v>424</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10677,7 +11613,7 @@
         <v>427</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10685,7 +11621,7 @@
         <v>430</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10693,7 +11629,7 @@
         <v>433</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10701,7 +11637,7 @@
         <v>436</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10709,7 +11645,7 @@
         <v>439</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10717,7 +11653,7 @@
         <v>442</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10725,7 +11661,7 @@
         <v>445</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10733,7 +11669,7 @@
         <v>448</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10741,7 +11677,7 @@
         <v>451</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10749,7 +11685,7 @@
         <v>454</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10757,7 +11693,7 @@
         <v>457</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10765,7 +11701,7 @@
         <v>460</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10773,7 +11709,7 @@
         <v>463</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10781,7 +11717,7 @@
         <v>466</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10789,7 +11725,7 @@
         <v>469</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10797,7 +11733,7 @@
         <v>472</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10805,7 +11741,7 @@
         <v>475</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10813,7 +11749,7 @@
         <v>478</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10821,7 +11757,7 @@
         <v>481</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10829,7 +11765,7 @@
         <v>484</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10837,7 +11773,7 @@
         <v>487</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10845,7 +11781,7 @@
         <v>490</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10853,7 +11789,7 @@
         <v>493</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10861,7 +11797,7 @@
         <v>496</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10869,7 +11805,7 @@
         <v>499</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10877,7 +11813,7 @@
         <v>502</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>634</v>
+        <v>724</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10885,7 +11821,7 @@
         <v>504</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>634</v>
+        <v>724</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10893,7 +11829,7 @@
         <v>506</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>634</v>
+        <v>724</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10901,7 +11837,7 @@
         <v>508</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>634</v>
+        <v>724</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10909,7 +11845,7 @@
         <v>510</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>634</v>
+        <v>724</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10917,7 +11853,7 @@
         <v>512</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>634</v>
+        <v>724</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10925,7 +11861,7 @@
         <v>514</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10933,7 +11869,7 @@
         <v>517</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10941,7 +11877,7 @@
         <v>520</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10949,7 +11885,7 @@
         <v>523</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10957,7 +11893,7 @@
         <v>526</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10965,7 +11901,7 @@
         <v>529</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10973,7 +11909,7 @@
         <v>532</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10981,7 +11917,7 @@
         <v>535</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10989,7 +11925,7 @@
         <v>538</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10997,7 +11933,7 @@
         <v>541</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11005,7 +11941,7 @@
         <v>544</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11013,7 +11949,7 @@
         <v>547</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11021,7 +11957,7 @@
         <v>550</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11029,7 +11965,7 @@
         <v>553</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11037,7 +11973,7 @@
         <v>556</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11045,7 +11981,7 @@
         <v>559</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11053,7 +11989,7 @@
         <v>562</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11061,7 +11997,7 @@
         <v>565</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11069,7 +12005,7 @@
         <v>568</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11077,7 +12013,7 @@
         <v>571</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11085,7 +12021,7 @@
         <v>574</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11093,7 +12029,7 @@
         <v>577</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11101,7 +12037,7 @@
         <v>580</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11109,7 +12045,7 @@
         <v>583</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11117,7 +12053,7 @@
         <v>586</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11125,7 +12061,7 @@
         <v>589</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11133,7 +12069,7 @@
         <v>592</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11141,7 +12077,7 @@
         <v>595</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11149,7 +12085,7 @@
         <v>598</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11157,7 +12093,7 @@
         <v>601</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11165,7 +12101,7 @@
         <v>604</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11173,7 +12109,7 @@
         <v>607</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11181,7 +12117,7 @@
         <v>610</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11189,7 +12125,7 @@
         <v>613</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11197,7 +12133,7 @@
         <v>616</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11205,7 +12141,7 @@
         <v>619</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11213,7 +12149,7 @@
         <v>622</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11221,7 +12157,7 @@
         <v>625</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11229,7 +12165,7 @@
         <v>628</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>633</v>
+        <v>723</v>
       </c>
     </row>
   </sheetData>

--- a/barcode/Data path barcode.xlsx
+++ b/barcode/Data path barcode.xlsx
@@ -385,7 +385,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="873">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -2794,127 +2794,615 @@
     <t xml:space="preserve">Термонаклейка Русалочка дисней</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489753704</t>
+  </si>
+  <si>
     <t xml:space="preserve">ariel_a_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Барт стоит с скейтом Симпсоны</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489755107</t>
+  </si>
+  <si>
     <t xml:space="preserve">bart_a_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Барт Прыгает на скейте Симпсоны</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489755062</t>
+  </si>
+  <si>
     <t xml:space="preserve">bart_b_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Принцессы дисней</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489755132</t>
+  </si>
+  <si>
     <t xml:space="preserve">disney_ladies_a_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Холодное сердце 3 Эльза Анна Олаф</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489755133</t>
+  </si>
+  <si>
     <t xml:space="preserve">elsa_anna_olaf_heart_art_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Эльза Анна Холодное сердце стоят</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489755038</t>
+  </si>
+  <si>
     <t xml:space="preserve">elsa_anna_stand_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Эльза обнимает Олафа Холодное сердце</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489755557</t>
+  </si>
+  <si>
     <t xml:space="preserve">elsa_olaf_hug_a_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Хаги Ваги ест завтрак</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489755618</t>
+  </si>
+  <si>
     <t xml:space="preserve">huggy_a_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Хаги Ваги Голова и надпись</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489755022</t>
+  </si>
+  <si>
     <t xml:space="preserve">huggy_b_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Халк зеленый круг фон</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489754949</t>
+  </si>
+  <si>
     <t xml:space="preserve">hulk_a_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Джерри ест сыр</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489754898</t>
+  </si>
+  <si>
     <t xml:space="preserve">jerry_and_cheese_a_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Леди Баг сидит</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489755059</t>
+  </si>
+  <si>
     <t xml:space="preserve">lady_bug_a_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Король Лев сердце хвосты</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489754957</t>
+  </si>
+  <si>
     <t xml:space="preserve">lion_king_a_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Май Литл Пони радуга</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489754989</t>
+  </si>
+  <si>
     <t xml:space="preserve">little_ponny_a_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Майнкрафт скачет на свинье</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489755030</t>
+  </si>
+  <si>
     <t xml:space="preserve">minecraft_a_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Минни Маус сидит сердечки</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489755051</t>
+  </si>
+  <si>
     <t xml:space="preserve">minni_hearts_a_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Минни Маус фея костюм</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489754799</t>
+  </si>
+  <si>
     <t xml:space="preserve">minni_hearts_blink_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Шенячий Патруль и Логотип</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489755095</t>
+  </si>
+  <si>
     <t xml:space="preserve">paw_patrol_a_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Шенячий Патруль полицеский</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489755020</t>
+  </si>
+  <si>
     <t xml:space="preserve">paw_patrol_b_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Шенячий Патруль мальчик главный</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489755015</t>
+  </si>
+  <si>
     <t xml:space="preserve">paw_patrol_c_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Черепашки Ниндзя фон треугольник</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489754845</t>
+  </si>
+  <si>
     <t xml:space="preserve">turtles_a_fighters_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Барби фон розовый круг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barbie_ar45_tat_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Барт с рогаткой Симпсоны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bart_df11_tat_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Котенок в розовой кружке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat_fg45_tat_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Котенок с цветами ромашками</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat_sd12_tat_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Котята на качелях</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cats_ds34_tat_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Динозавр в очках ест бургер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dino_as12_tat_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Собачка в шляпе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dog_ff11_tat_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Собачка в очках язык</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dog_little_cute_ac12_tat_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Собачка синий бантик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dog_little_cute_af45_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Собачка красный бантик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dog_sd12_tat_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Эльза Анна Холодное сердце паттерн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elsa_ad11_tat_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Эльза Холодное сердце синий круг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elsa_frozen_disneyfg56_tat_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Жирафвыглядывает замок одежды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giraf_ab11_tat_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Марвел супергерои 4 верт фона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marvel_ag45_tat_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Русалочка поправляет прическу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mermaid_dd11_tat_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Миньоны на банане</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minions_ed12_tat_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Минни Маус Единорог розовый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minni_mouse_ad11_tat_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Сова розовая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">owl_ff11_tat_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Щенячий патруль 2 Маршал Крепыш</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paw_patrol_as12_tat_vert</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Термонаклейка П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">окемоны Пикачу и Эш Кетчум</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">pokemon_gg44_tat_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Винни Пух и друзья на шаре</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pooh_qq11_tat_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Зайчик синий комбинезон шагает</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rabbit_df12_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Зайчик ромашка в руках</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rabbit_we11_tat_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Акула серфинг в очках</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shark_af45_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Соник Ежик бежит пис мир рука</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sonic_df45_tat_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Соник Ежик бежит синий фон краски</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sonic_df46_tat_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Человек Паук Лого позади</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spider_ad12_tat_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Человек Паук Лого круг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spider_as14_tat_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Человек Паук синий желтый круг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spider_cg34_tat_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Человек Паук синий белый круг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spider_df12_tat_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Человек Паук круг надпись желый снизу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spider_df45_tat_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Человек Паук круг красный синий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spider_fg56_tat_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Спанч Боб и друзья</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spunch bob_ab11_tat_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Спанч Боб и друзья Keep Vibes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spunch bob_as12_tat_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Лило и Стич сидят</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stich_as11_tat_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Единороги голубой и розовый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unicorn_af41_tat_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Единорог с ромашкой сердечки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unicorn_er43_tat_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Три Миньона бегут</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minions_ab12_tat_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Котенок с шариком сердечко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat_ag1_tat_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Миньон с бананами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minions_sd12_tat_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Зайка балерина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rabbit_ds34_tat_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Динозавр в очках играет на гитаре</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dino_as22_tat_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Единорог ресницы цветы уши</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unicorn_ad12_tat_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Лисенок с кружкой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fox_as22_tat_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Микки Маус показывает язык</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mickey_df11_tat_vert</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Термонаклейка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Одри Хепбёрн </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">холст Vogue</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Audrey Hepburn_gf11_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Черный Кот Силует астрономия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat_df12_tat_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Аниме девочка белые волосы уши кошки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">girl_anime_gf11_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Аниме девочка черные очки язык</t>
+  </si>
+  <si>
+    <t xml:space="preserve">girl_explicit_gf11_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Девушка гладиолус цветы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">girl_flower_af11_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Девушка холст растут цветы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">girl_flowers_gf11_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Девушка на закате держат руки море</t>
+  </si>
+  <si>
+    <t xml:space="preserve">girl_hold_hands_gf11_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Леопардовое сердце розовое</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heart_ab11_tat_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Сердце отпечаток пальца красный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heart_ff11_tat_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Девушка макияж Хэллоуин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hellowing_q12_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Девушка силует обнимают природа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lady_back_gf11_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Лев Краски Дизайн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lion_dd45_tat_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Губы Язык Краски Дизайн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lips_ss11_tat_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мэрилин Монро Поп арт жвачка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marylin_monroe_af11_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Сейлор Мун Sailor Moon радуется</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sailor_moon_as14_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Сейлор Мун Sailor Moon голубой фон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sailor_moon_q12_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Тигр Краски Дизайн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiger_gg11_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Морская Черепаха Море силует</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turtle_sd12_tat_vert</t>
   </si>
   <si>
     <t xml:space="preserve">имена</t>
@@ -2940,7 +3428,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3017,6 +3505,12 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -3032,7 +3526,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3049,6 +3543,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF44A9E3"/>
         <bgColor rgb="FF339966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -3097,7 +3597,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3158,6 +3658,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3215,7 +3727,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -3258,10 +3770,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AO287"/>
+  <dimension ref="A1:AO363"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A254" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D273" activeCellId="0" sqref="D273"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D63" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E81" activeCellId="0" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3270,7 +3782,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="104.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="56.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="84.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="49.34"/>
@@ -3548,8 +4060,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A3, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Михаил.pdf</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>0</v>
+      <c r="E3" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A3,LEN(A3)-FIND(" ",A3)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Михаил_img.tif</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -3577,8 +4090,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A4, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Александр.pdf</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>0</v>
+      <c r="E4" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A4,LEN(A4)-FIND(" ",A4)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Александр_img.tif</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
@@ -3604,8 +4118,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A5, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Максим.pdf</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>0</v>
+      <c r="E5" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A5,LEN(A5)-FIND(" ",A5)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Максим_img.tif</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
@@ -3631,8 +4146,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A6, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Артем.pdf</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
+      <c r="E6" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A6,LEN(A6)-FIND(" ",A6)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Артем_img.tif</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -3658,8 +4174,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A7, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Марк.pdf</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
+      <c r="E7" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A7,LEN(A7)-FIND(" ",A7)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Марк_img.tif</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -3685,8 +4202,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A8, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Лев.pdf</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
+      <c r="E8" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A8,LEN(A8)-FIND(" ",A8)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Лев_img.tif</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -3712,8 +4230,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A9, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Иван.pdf</v>
       </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
+      <c r="E9" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A9,LEN(A9)-FIND(" ",A9)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Иван_img.tif</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -3739,8 +4258,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A10, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Матвей.pdf</v>
       </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
+      <c r="E10" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A10,LEN(A10)-FIND(" ",A10)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Матвей_img.tif</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>1</v>
@@ -3766,8 +4286,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A11, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Даниил.pdf</v>
       </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
+      <c r="E11" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A11,LEN(A11)-FIND(" ",A11)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Даниил_img.tif</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -3793,8 +4314,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A12, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Дмитрий.pdf</v>
       </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
+      <c r="E12" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A12,LEN(A12)-FIND(" ",A12)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Дмитрий_img.tif</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
@@ -3820,8 +4342,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A13, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Тимофей.pdf</v>
       </c>
-      <c r="E13" s="0" t="n">
-        <v>0</v>
+      <c r="E13" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A13,LEN(A13)-FIND(" ",A13)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Тимофей_img.tif</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>1</v>
@@ -3847,8 +4370,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A14, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Роман.pdf</v>
       </c>
-      <c r="E14" s="0" t="n">
-        <v>0</v>
+      <c r="E14" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A14,LEN(A14)-FIND(" ",A14)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Роман_img.tif</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
@@ -3874,8 +4398,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A15, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Мирон.pdf</v>
       </c>
-      <c r="E15" s="0" t="n">
-        <v>0</v>
+      <c r="E15" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A15,LEN(A15)-FIND(" ",A15)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Мирон_img.tif</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>1</v>
@@ -3901,8 +4426,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A16, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Мухаммад.pdf</v>
       </c>
-      <c r="E16" s="0" t="n">
-        <v>0</v>
+      <c r="E16" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A16,LEN(A16)-FIND(" ",A16)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Мухаммад_img.tif</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -3928,8 +4454,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A17, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Кирилл.pdf</v>
       </c>
-      <c r="E17" s="0" t="n">
-        <v>0</v>
+      <c r="E17" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A17,LEN(A17)-FIND(" ",A17)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Кирилл_img.tif</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -3953,8 +4480,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A18, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Егор.pdf</v>
       </c>
-      <c r="E18" s="0" t="n">
-        <v>0</v>
+      <c r="E18" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A18,LEN(A18)-FIND(" ",A18)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Егор_img.tif</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -3978,8 +4506,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A19, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Илья.pdf</v>
       </c>
-      <c r="E19" s="0" t="n">
-        <v>0</v>
+      <c r="E19" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A19,LEN(A19)-FIND(" ",A19)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Илья_img.tif</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1</v>
@@ -4003,8 +4532,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A20, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Алексей.pdf</v>
       </c>
-      <c r="E20" s="0" t="n">
-        <v>0</v>
+      <c r="E20" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A20,LEN(A20)-FIND(" ",A20)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Алексей_img.tif</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>1</v>
@@ -4028,8 +4558,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A21, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Константин.pdf</v>
       </c>
-      <c r="E21" s="0" t="n">
-        <v>0</v>
+      <c r="E21" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A21,LEN(A21)-FIND(" ",A21)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Константин_img.tif</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -4053,8 +4584,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A22, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Фёдор.pdf</v>
       </c>
-      <c r="E22" s="0" t="n">
-        <v>0</v>
+      <c r="E22" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A22,LEN(A22)-FIND(" ",A22)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Фёдор_img.tif</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>1</v>
@@ -4078,8 +4610,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A23, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Евгений.pdf</v>
       </c>
-      <c r="E23" s="0" t="n">
-        <v>0</v>
+      <c r="E23" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A23,LEN(A23)-FIND(" ",A23)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Евгений_img.tif</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -4103,8 +4636,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A24, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Денис.pdf</v>
       </c>
-      <c r="E24" s="0" t="n">
-        <v>0</v>
+      <c r="E24" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A24,LEN(A24)-FIND(" ",A24)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Денис_img.tif</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>1</v>
@@ -4128,8 +4662,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A25, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Антон.pdf</v>
       </c>
-      <c r="E25" s="0" t="n">
-        <v>0</v>
+      <c r="E25" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A25,LEN(A25)-FIND(" ",A25)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Антон_img.tif</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>1</v>
@@ -4153,8 +4688,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A26, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Игорь.pdf</v>
       </c>
-      <c r="E26" s="0" t="n">
-        <v>0</v>
+      <c r="E26" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A26,LEN(A26)-FIND(" ",A26)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Игорь_img.tif</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>1</v>
@@ -4178,8 +4714,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A27, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Юрий.pdf</v>
       </c>
-      <c r="E27" s="0" t="n">
-        <v>0</v>
+      <c r="E27" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A27,LEN(A27)-FIND(" ",A27)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Юрий_img.tif</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>1</v>
@@ -4203,8 +4740,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A28, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Олег.pdf</v>
       </c>
-      <c r="E28" s="0" t="n">
-        <v>0</v>
+      <c r="E28" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A28,LEN(A28)-FIND(" ",A28)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Олег_img.tif</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>1</v>
@@ -4228,8 +4766,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A29, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Вячеслав.pdf</v>
       </c>
-      <c r="E29" s="0" t="n">
-        <v>0</v>
+      <c r="E29" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A29,LEN(A29)-FIND(" ",A29)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Вячеслав_img.tif</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>1</v>
@@ -4253,8 +4792,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A30, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Станислав.pdf</v>
       </c>
-      <c r="E30" s="0" t="n">
-        <v>0</v>
+      <c r="E30" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A30,LEN(A30)-FIND(" ",A30)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Станислав_img.tif</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>1</v>
@@ -4278,8 +4818,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A31, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Василий.pdf</v>
       </c>
-      <c r="E31" s="0" t="n">
-        <v>0</v>
+      <c r="E31" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A31,LEN(A31)-FIND(" ",A31)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Василий_img.tif</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>1</v>
@@ -4303,8 +4844,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A32, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Вадим.pdf</v>
       </c>
-      <c r="E32" s="0" t="n">
-        <v>0</v>
+      <c r="E32" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A32,LEN(A32)-FIND(" ",A32)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Вадим_img.tif</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>1</v>
@@ -4328,8 +4870,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A33, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Макар.pdf</v>
       </c>
-      <c r="E33" s="0" t="n">
-        <v>0</v>
+      <c r="E33" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A33,LEN(A33)-FIND(" ",A33)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Макар_img.tif</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>1</v>
@@ -4353,8 +4896,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A34, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Адам.pdf</v>
       </c>
-      <c r="E34" s="0" t="n">
-        <v>0</v>
+      <c r="E34" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A34,LEN(A34)-FIND(" ",A34)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Адам_img.tif</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>1</v>
@@ -4378,8 +4922,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A35, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Богдан.pdf</v>
       </c>
-      <c r="E35" s="0" t="n">
-        <v>0</v>
+      <c r="E35" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A35,LEN(A35)-FIND(" ",A35)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Богдан_img.tif</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>1</v>
@@ -4403,8 +4948,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A36, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Платон.pdf</v>
       </c>
-      <c r="E36" s="0" t="n">
-        <v>0</v>
+      <c r="E36" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A36,LEN(A36)-FIND(" ",A36)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Платон_img.tif</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>1</v>
@@ -4428,8 +4974,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A37, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Леон.pdf</v>
       </c>
-      <c r="E37" s="0" t="n">
-        <v>0</v>
+      <c r="E37" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A37,LEN(A37)-FIND(" ",A37)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Леон_img.tif</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>1</v>
@@ -4453,8 +5000,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A38, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Савелий.pdf</v>
       </c>
-      <c r="E38" s="0" t="n">
-        <v>0</v>
+      <c r="E38" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A38,LEN(A38)-FIND(" ",A38)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Савелий_img.tif</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>1</v>
@@ -4478,8 +5026,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A39, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Демид.pdf</v>
       </c>
-      <c r="E39" s="0" t="n">
-        <v>0</v>
+      <c r="E39" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A39,LEN(A39)-FIND(" ",A39)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Демид_img.tif</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>1</v>
@@ -4503,8 +5052,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A40, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Лука.pdf</v>
       </c>
-      <c r="E40" s="0" t="n">
-        <v>0</v>
+      <c r="E40" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A40,LEN(A40)-FIND(" ",A40)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Лука_img.tif</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>1</v>
@@ -4528,8 +5078,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A41, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Савва.pdf</v>
       </c>
-      <c r="E41" s="0" t="n">
-        <v>0</v>
+      <c r="E41" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A41,LEN(A41)-FIND(" ",A41)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Савва_img.tif</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>1</v>
@@ -4553,8 +5104,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A42, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Мирослав.pdf</v>
       </c>
-      <c r="E42" s="0" t="n">
-        <v>0</v>
+      <c r="E42" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A42,LEN(A42)-FIND(" ",A42)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Мирослав_img.tif</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>1</v>
@@ -4578,8 +5130,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A43, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки София.pdf</v>
       </c>
-      <c r="E43" s="0" t="n">
-        <v>0</v>
+      <c r="E43" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A43,LEN(A43)-FIND(" ",A43)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\София_img.tif</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>1</v>
@@ -4603,8 +5156,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A44, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Анна.pdf</v>
       </c>
-      <c r="E44" s="0" t="n">
-        <v>0</v>
+      <c r="E44" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A44,LEN(A44)-FIND(" ",A44)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Анна_img.tif</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>1</v>
@@ -4628,8 +5182,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A45, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Мария.pdf</v>
       </c>
-      <c r="E45" s="0" t="n">
-        <v>0</v>
+      <c r="E45" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A45,LEN(A45)-FIND(" ",A45)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Мария_img.tif</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>1</v>
@@ -4653,8 +5208,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A46, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Ева.pdf</v>
       </c>
-      <c r="E46" s="0" t="n">
-        <v>0</v>
+      <c r="E46" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A46,LEN(A46)-FIND(" ",A46)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Ева_img.tif</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>1</v>
@@ -4678,8 +5234,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A47, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Алиса.pdf</v>
       </c>
-      <c r="E47" s="0" t="n">
-        <v>0</v>
+      <c r="E47" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A47,LEN(A47)-FIND(" ",A47)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Алиса_img.tif</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>1</v>
@@ -4702,8 +5259,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A48, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Есения.pdf</v>
       </c>
-      <c r="E48" s="0" t="n">
-        <v>0</v>
+      <c r="E48" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A48,LEN(A48)-FIND(" ",A48)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Есения_img.tif</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>1</v>
@@ -4726,8 +5284,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A49, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Екатерина.pdf</v>
       </c>
-      <c r="E49" s="0" t="n">
-        <v>0</v>
+      <c r="E49" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A49,LEN(A49)-FIND(" ",A49)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Екатерина_img.tif</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>1</v>
@@ -4750,8 +5309,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A50, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Светлана.pdf</v>
       </c>
-      <c r="E50" s="0" t="n">
-        <v>0</v>
+      <c r="E50" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A50,LEN(A50)-FIND(" ",A50)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Светлана_img.tif</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>1</v>
@@ -4774,8 +5334,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A51, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Полина.pdf</v>
       </c>
-      <c r="E51" s="0" t="n">
-        <v>0</v>
+      <c r="E51" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A51,LEN(A51)-FIND(" ",A51)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Полина_img.tif</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>1</v>
@@ -4798,8 +5359,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A52, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Оливия.pdf</v>
       </c>
-      <c r="E52" s="0" t="n">
-        <v>0</v>
+      <c r="E52" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A52,LEN(A52)-FIND(" ",A52)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Оливия_img.tif</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>1</v>
@@ -4822,8 +5384,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A53, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Агата.pdf</v>
       </c>
-      <c r="E53" s="0" t="n">
-        <v>0</v>
+      <c r="E53" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A53,LEN(A53)-FIND(" ",A53)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Агата_img.tif</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>1</v>
@@ -4846,8 +5409,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A54, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Милана.pdf</v>
       </c>
-      <c r="E54" s="0" t="n">
-        <v>0</v>
+      <c r="E54" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A54,LEN(A54)-FIND(" ",A54)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Милана_img.tif</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>1</v>
@@ -4870,8 +5434,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A55, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Амалия.pdf</v>
       </c>
-      <c r="E55" s="0" t="n">
-        <v>0</v>
+      <c r="E55" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A55,LEN(A55)-FIND(" ",A55)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Амалия_img.tif</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>1</v>
@@ -4894,8 +5459,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A56, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Виктория.pdf</v>
       </c>
-      <c r="E56" s="0" t="n">
-        <v>0</v>
+      <c r="E56" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A56,LEN(A56)-FIND(" ",A56)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Виктория_img.tif</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>1</v>
@@ -4918,8 +5484,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A57, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Ясмина.pdf</v>
       </c>
-      <c r="E57" s="0" t="n">
-        <v>0</v>
+      <c r="E57" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A57,LEN(A57)-FIND(" ",A57)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Ясмина_img.tif</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>1</v>
@@ -4942,8 +5509,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A58, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Дарья.pdf</v>
       </c>
-      <c r="E58" s="0" t="n">
-        <v>0</v>
+      <c r="E58" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A58,LEN(A58)-FIND(" ",A58)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Дарья_img.tif</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>1</v>
@@ -4966,8 +5534,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A59, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Александра.pdf</v>
       </c>
-      <c r="E59" s="0" t="n">
-        <v>0</v>
+      <c r="E59" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A59,LEN(A59)-FIND(" ",A59)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Александра_img.tif</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>1</v>
@@ -4990,8 +5559,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A60, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Любовь.pdf</v>
       </c>
-      <c r="E60" s="0" t="n">
-        <v>0</v>
+      <c r="E60" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A60,LEN(A60)-FIND(" ",A60)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Любовь_img.tif</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>1</v>
@@ -5014,8 +5584,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A61, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Ольга.pdf</v>
       </c>
-      <c r="E61" s="0" t="n">
-        <v>0</v>
+      <c r="E61" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A61,LEN(A61)-FIND(" ",A61)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Ольга_img.tif</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>1</v>
@@ -5038,8 +5609,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A62, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Татьяна.pdf</v>
       </c>
-      <c r="E62" s="0" t="n">
-        <v>0</v>
+      <c r="E62" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A62,LEN(A62)-FIND(" ",A62)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Татьяна_img.tif</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>1</v>
@@ -5062,8 +5634,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A63, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Аврора.pdf</v>
       </c>
-      <c r="E63" s="0" t="n">
-        <v>0</v>
+      <c r="E63" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A63,LEN(A63)-FIND(" ",A63)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Аврора_img.tif</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>1</v>
@@ -5086,8 +5659,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A64, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Ксения.pdf</v>
       </c>
-      <c r="E64" s="0" t="n">
-        <v>0</v>
+      <c r="E64" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A64,LEN(A64)-FIND(" ",A64)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Ксения_img.tif</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>1</v>
@@ -5110,8 +5684,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A65, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Варвара.pdf</v>
       </c>
-      <c r="E65" s="0" t="n">
-        <v>0</v>
+      <c r="E65" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A65,LEN(A65)-FIND(" ",A65)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Варвара_img.tif</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>1</v>
@@ -5134,8 +5709,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A66, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Наталья.pdf</v>
       </c>
-      <c r="E66" s="0" t="n">
-        <v>0</v>
+      <c r="E66" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A66,LEN(A66)-FIND(" ",A66)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Наталья_img.tif</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>1</v>
@@ -5158,8 +5734,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A67, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Анастасия.pdf</v>
       </c>
-      <c r="E67" s="0" t="n">
-        <v>0</v>
+      <c r="E67" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A67,LEN(A67)-FIND(" ",A67)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Анастасия_img.tif</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>1</v>
@@ -5182,8 +5759,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A68, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Марина.pdf</v>
       </c>
-      <c r="E68" s="0" t="n">
-        <v>0</v>
+      <c r="E68" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A68,LEN(A68)-FIND(" ",A68)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Марина_img.tif</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>1</v>
@@ -5206,8 +5784,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A69, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Елена.pdf</v>
       </c>
-      <c r="E69" s="0" t="n">
-        <v>0</v>
+      <c r="E69" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A69,LEN(A69)-FIND(" ",A69)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Елена_img.tif</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>1</v>
@@ -5230,8 +5809,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A70, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Надежда.pdf</v>
       </c>
-      <c r="E70" s="0" t="n">
-        <v>0</v>
+      <c r="E70" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A70,LEN(A70)-FIND(" ",A70)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Надежда_img.tif</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>1</v>
@@ -5254,8 +5834,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A71, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Эмилия.pdf</v>
       </c>
-      <c r="E71" s="0" t="n">
-        <v>0</v>
+      <c r="E71" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A71,LEN(A71)-FIND(" ",A71)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Эмилия_img.tif</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>1</v>
@@ -5278,8 +5859,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A72, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Арина.pdf</v>
       </c>
-      <c r="E72" s="0" t="n">
-        <v>0</v>
+      <c r="E72" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A72,LEN(A72)-FIND(" ",A72)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Арина_img.tif</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>1</v>
@@ -5302,8 +5884,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A73, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Мирослава.pdf</v>
       </c>
-      <c r="E73" s="0" t="n">
-        <v>0</v>
+      <c r="E73" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A73,LEN(A73)-FIND(" ",A73)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Мирослава_img.tif</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>1</v>
@@ -5326,8 +5909,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A74, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Ирина.pdf</v>
       </c>
-      <c r="E74" s="0" t="n">
-        <v>0</v>
+      <c r="E74" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A74,LEN(A74)-FIND(" ",A74)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Ирина_img.tif</v>
       </c>
       <c r="F74" s="0" t="n">
         <v>1</v>
@@ -5350,8 +5934,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A75, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Агния.pdf</v>
       </c>
-      <c r="E75" s="0" t="n">
-        <v>0</v>
+      <c r="E75" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A75,LEN(A75)-FIND(" ",A75)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Агния_img.tif</v>
       </c>
       <c r="F75" s="0" t="n">
         <v>1</v>
@@ -5374,8 +5959,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A76, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Кира.pdf</v>
       </c>
-      <c r="E76" s="0" t="n">
-        <v>0</v>
+      <c r="E76" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A76,LEN(A76)-FIND(" ",A76)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Кира_img.tif</v>
       </c>
       <c r="F76" s="0" t="n">
         <v>1</v>
@@ -5398,8 +5984,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A77, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Вероника.pdf</v>
       </c>
-      <c r="E77" s="0" t="n">
-        <v>0</v>
+      <c r="E77" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A77,LEN(A77)-FIND(" ",A77)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Вероника_img.tif</v>
       </c>
       <c r="F77" s="0" t="n">
         <v>1</v>
@@ -5422,8 +6009,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A78, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Василиса.pdf</v>
       </c>
-      <c r="E78" s="0" t="n">
-        <v>0</v>
+      <c r="E78" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A78,LEN(A78)-FIND(" ",A78)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Василиса_img.tif</v>
       </c>
       <c r="F78" s="0" t="n">
         <v>1</v>
@@ -5446,8 +6034,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A79, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Елизавета.pdf</v>
       </c>
-      <c r="E79" s="0" t="n">
-        <v>0</v>
+      <c r="E79" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A79,LEN(A79)-FIND(" ",A79)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Елизавета_img.tif</v>
       </c>
       <c r="F79" s="0" t="n">
         <v>1</v>
@@ -5470,8 +6059,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A80, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Юлия.pdf</v>
       </c>
-      <c r="E80" s="0" t="n">
-        <v>0</v>
+      <c r="E80" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A80,LEN(A80)-FIND(" ",A80)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Юлия_img.tif</v>
       </c>
       <c r="F80" s="0" t="n">
         <v>1</v>
@@ -5494,8 +6084,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A81, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Мира.pdf</v>
       </c>
-      <c r="E81" s="0" t="n">
-        <v>0</v>
+      <c r="E81" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A81,LEN(A81)-FIND(" ",A81)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Мира_img.tif</v>
       </c>
       <c r="F81" s="0" t="n">
         <v>1</v>
@@ -5518,8 +6109,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A82, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Аделина.pdf</v>
       </c>
-      <c r="E82" s="0" t="n">
-        <v>0</v>
+      <c r="E82" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\девочки\",RIGHT(A82,LEN(A82)-FIND(" ",A82)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\девочки\Аделина_img.tif</v>
       </c>
       <c r="F82" s="0" t="n">
         <v>1</v>
@@ -5542,8 +6134,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A83, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Владимир.pdf</v>
       </c>
-      <c r="E83" s="0" t="n">
-        <v>0</v>
+      <c r="E83" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A83,LEN(A83)-FIND(" ",A83)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Владимир_img.tif</v>
       </c>
       <c r="F83" s="0" t="n">
         <v>1</v>
@@ -5566,8 +6159,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A84, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Ярослав.pdf</v>
       </c>
-      <c r="E84" s="0" t="n">
-        <v>0</v>
+      <c r="E84" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A84,LEN(A84)-FIND(" ",A84)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Ярослав_img.tif</v>
       </c>
       <c r="F84" s="0" t="n">
         <v>1</v>
@@ -5590,8 +6184,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A85, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Семён.pdf</v>
       </c>
-      <c r="E85" s="0" t="n">
-        <v>0</v>
+      <c r="E85" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A85,LEN(A85)-FIND(" ",A85)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Семён_img.tif</v>
       </c>
       <c r="F85" s="0" t="n">
         <v>1</v>
@@ -5614,8 +6209,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A86, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Сергей.pdf</v>
       </c>
-      <c r="E86" s="0" t="n">
-        <v>0</v>
+      <c r="E86" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A86,LEN(A86)-FIND(" ",A86)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Сергей_img.tif</v>
       </c>
       <c r="F86" s="0" t="n">
         <v>1</v>
@@ -5638,8 +6234,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A87, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Степан.pdf</v>
       </c>
-      <c r="E87" s="0" t="n">
-        <v>0</v>
+      <c r="E87" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A87,LEN(A87)-FIND(" ",A87)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Степан_img.tif</v>
       </c>
       <c r="F87" s="0" t="n">
         <v>1</v>
@@ -5662,8 +6259,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A88, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Данил.pdf</v>
       </c>
-      <c r="E88" s="0" t="n">
-        <v>0</v>
+      <c r="E88" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\names\мальчики\",RIGHT(A88,LEN(A88)-FIND(" ",A88)),"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\names\мальчики\Данил_img.tif</v>
       </c>
       <c r="F88" s="0" t="n">
         <v>1</v>
@@ -9828,8 +10426,15 @@
       <c r="A266" s="12" t="s">
         <v>679</v>
       </c>
+      <c r="B266" s="0" t="s">
+        <v>680</v>
+      </c>
       <c r="C266" s="0" t="s">
-        <v>680</v>
+        <v>681</v>
+      </c>
+      <c r="D266" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A266, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\Термонаклейка Русалочка дисней.pdf</v>
       </c>
       <c r="E266" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C266,".tif")</f>
@@ -9844,10 +10449,17 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="12" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="B267" s="0" t="s">
+        <v>683</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
+      </c>
+      <c r="D267" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A267, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\Термонаклейка Барт стоит с скейтом Симпсоны.pdf</v>
       </c>
       <c r="E267" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C267,".tif")</f>
@@ -9862,10 +10474,17 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="12" t="s">
-        <v>683</v>
+        <v>685</v>
+      </c>
+      <c r="B268" s="0" t="s">
+        <v>686</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>684</v>
+        <v>687</v>
+      </c>
+      <c r="D268" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A268, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\Термонаклейка Барт Прыгает на скейте Симпсоны.pdf</v>
       </c>
       <c r="E268" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C268,".tif")</f>
@@ -9880,10 +10499,17 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="12" t="s">
-        <v>685</v>
+        <v>688</v>
+      </c>
+      <c r="B269" s="0" t="s">
+        <v>689</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>686</v>
+        <v>690</v>
+      </c>
+      <c r="D269" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A269, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\Термонаклейка Принцессы дисней.pdf</v>
       </c>
       <c r="E269" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C269,".tif")</f>
@@ -9898,10 +10524,17 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="12" t="s">
-        <v>687</v>
+        <v>691</v>
+      </c>
+      <c r="B270" s="0" t="s">
+        <v>692</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>688</v>
+        <v>693</v>
+      </c>
+      <c r="D270" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A270, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\Термонаклейка Холодное сердце 3 Эльза Анна Олаф.pdf</v>
       </c>
       <c r="E270" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C270,".tif")</f>
@@ -9916,10 +10549,17 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="12" t="s">
-        <v>689</v>
+        <v>694</v>
+      </c>
+      <c r="B271" s="0" t="s">
+        <v>695</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>690</v>
+        <v>696</v>
+      </c>
+      <c r="D271" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A271, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\Термонаклейка Эльза Анна Холодное сердце стоят.pdf</v>
       </c>
       <c r="E271" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C271,".tif")</f>
@@ -9934,10 +10574,17 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="12" t="s">
-        <v>691</v>
+        <v>697</v>
+      </c>
+      <c r="B272" s="0" t="s">
+        <v>698</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>692</v>
+        <v>699</v>
+      </c>
+      <c r="D272" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A272, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\Термонаклейка Эльза обнимает Олафа Холодное сердце.pdf</v>
       </c>
       <c r="E272" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C272,".tif")</f>
@@ -9952,10 +10599,17 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="12" t="s">
-        <v>693</v>
+        <v>700</v>
+      </c>
+      <c r="B273" s="0" t="s">
+        <v>701</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>694</v>
+        <v>702</v>
+      </c>
+      <c r="D273" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A273, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\Термонаклейка Хаги Ваги ест завтрак.pdf</v>
       </c>
       <c r="E273" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C273,".tif")</f>
@@ -9970,10 +10624,17 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="12" t="s">
-        <v>695</v>
+        <v>703</v>
+      </c>
+      <c r="B274" s="0" t="s">
+        <v>704</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>696</v>
+        <v>705</v>
+      </c>
+      <c r="D274" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A274, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\Термонаклейка Хаги Ваги Голова и надпись.pdf</v>
       </c>
       <c r="E274" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C274,".tif")</f>
@@ -9988,10 +10649,17 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="12" t="s">
-        <v>697</v>
+        <v>706</v>
+      </c>
+      <c r="B275" s="0" t="s">
+        <v>707</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>698</v>
+        <v>708</v>
+      </c>
+      <c r="D275" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A275, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\Термонаклейка Халк зеленый круг фон.pdf</v>
       </c>
       <c r="E275" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C275,".tif")</f>
@@ -10006,10 +10674,17 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="12" t="s">
-        <v>699</v>
+        <v>709</v>
+      </c>
+      <c r="B276" s="0" t="s">
+        <v>710</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>700</v>
+        <v>711</v>
+      </c>
+      <c r="D276" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A276, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\Термонаклейка Джерри ест сыр.pdf</v>
       </c>
       <c r="E276" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C276,".tif")</f>
@@ -10024,10 +10699,17 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="12" t="s">
-        <v>701</v>
+        <v>712</v>
+      </c>
+      <c r="B277" s="0" t="s">
+        <v>713</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>702</v>
+        <v>714</v>
+      </c>
+      <c r="D277" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A277, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\Термонаклейка Леди Баг сидит.pdf</v>
       </c>
       <c r="E277" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C277,".tif")</f>
@@ -10042,10 +10724,17 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="12" t="s">
-        <v>703</v>
+        <v>715</v>
+      </c>
+      <c r="B278" s="0" t="s">
+        <v>716</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>704</v>
+        <v>717</v>
+      </c>
+      <c r="D278" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A278, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\Термонаклейка Король Лев сердце хвосты.pdf</v>
       </c>
       <c r="E278" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C278,".tif")</f>
@@ -10060,10 +10749,17 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="12" t="s">
-        <v>705</v>
+        <v>718</v>
+      </c>
+      <c r="B279" s="0" t="s">
+        <v>719</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>706</v>
+        <v>720</v>
+      </c>
+      <c r="D279" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A279, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\Термонаклейка Май Литл Пони радуга.pdf</v>
       </c>
       <c r="E279" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C279,".tif")</f>
@@ -10078,10 +10774,17 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="12" t="s">
-        <v>707</v>
+        <v>721</v>
+      </c>
+      <c r="B280" s="0" t="s">
+        <v>722</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>708</v>
+        <v>723</v>
+      </c>
+      <c r="D280" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A280, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\Термонаклейка Майнкрафт скачет на свинье.pdf</v>
       </c>
       <c r="E280" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C280,".tif")</f>
@@ -10096,10 +10799,17 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="12" t="s">
-        <v>709</v>
+        <v>724</v>
+      </c>
+      <c r="B281" s="0" t="s">
+        <v>725</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>710</v>
+        <v>726</v>
+      </c>
+      <c r="D281" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A281, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\Термонаклейка Минни Маус сидит сердечки.pdf</v>
       </c>
       <c r="E281" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C281,".tif")</f>
@@ -10114,10 +10824,17 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="12" t="s">
-        <v>711</v>
+        <v>727</v>
+      </c>
+      <c r="B282" s="0" t="s">
+        <v>728</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>712</v>
+        <v>729</v>
+      </c>
+      <c r="D282" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A282, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\Термонаклейка Минни Маус фея костюм.pdf</v>
       </c>
       <c r="E282" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C282,".tif")</f>
@@ -10132,10 +10849,17 @@
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="12" t="s">
-        <v>713</v>
+        <v>730</v>
+      </c>
+      <c r="B283" s="0" t="s">
+        <v>731</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>714</v>
+        <v>732</v>
+      </c>
+      <c r="D283" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A283, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\Термонаклейка Шенячий Патруль и Логотип.pdf</v>
       </c>
       <c r="E283" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C283,".tif")</f>
@@ -10150,10 +10874,17 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="12" t="s">
-        <v>715</v>
+        <v>733</v>
+      </c>
+      <c r="B284" s="0" t="s">
+        <v>734</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>716</v>
+        <v>735</v>
+      </c>
+      <c r="D284" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A284, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\Термонаклейка Шенячий Патруль полицеский.pdf</v>
       </c>
       <c r="E284" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C284,".tif")</f>
@@ -10168,10 +10899,17 @@
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="12" t="s">
-        <v>717</v>
+        <v>736</v>
+      </c>
+      <c r="B285" s="0" t="s">
+        <v>737</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>718</v>
+        <v>738</v>
+      </c>
+      <c r="D285" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A285, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\Термонаклейка Шенячий Патруль мальчик главный.pdf</v>
       </c>
       <c r="E285" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C285,".tif")</f>
@@ -10186,10 +10924,17 @@
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="12" t="s">
-        <v>719</v>
+        <v>739</v>
+      </c>
+      <c r="B286" s="0" t="s">
+        <v>740</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>720</v>
+        <v>741</v>
+      </c>
+      <c r="D286" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A286, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\Термонаклейка Черепашки Ниндзя фон треугольник.pdf</v>
       </c>
       <c r="E286" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C286,".tif")</f>
@@ -10202,7 +10947,1154 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="15" t="s">
+        <v>742</v>
+      </c>
+      <c r="C287" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="E287" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C287,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\barbie_ar45_tat_vert.tif</v>
+      </c>
+      <c r="F287" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G287" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="15" t="s">
+        <v>744</v>
+      </c>
+      <c r="C288" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="E288" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C288,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\bart_df11_tat_horiz.tif</v>
+      </c>
+      <c r="F288" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G288" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="15" t="s">
+        <v>746</v>
+      </c>
+      <c r="C289" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="E289" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C289,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\cat_fg45_tat_vert.tif</v>
+      </c>
+      <c r="F289" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G289" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="15" t="s">
+        <v>748</v>
+      </c>
+      <c r="C290" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="E290" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C290,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\cat_sd12_tat_vert.tif</v>
+      </c>
+      <c r="F290" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G290" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="15" t="s">
+        <v>750</v>
+      </c>
+      <c r="C291" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="E291" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C291,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\cats_ds34_tat_horiz.tif</v>
+      </c>
+      <c r="F291" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G291" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="15" t="s">
+        <v>752</v>
+      </c>
+      <c r="C292" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="E292" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C292,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\dino_as12_tat_vert.tif</v>
+      </c>
+      <c r="F292" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G292" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="15" t="s">
+        <v>754</v>
+      </c>
+      <c r="C293" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="E293" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C293,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\dog_ff11_tat_vert.tif</v>
+      </c>
+      <c r="F293" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G293" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="15" t="s">
+        <v>756</v>
+      </c>
+      <c r="C294" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="E294" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C294,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\dog_little_cute_ac12_tat_horiz.tif</v>
+      </c>
+      <c r="F294" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G294" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="15" t="s">
+        <v>758</v>
+      </c>
+      <c r="C295" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="E295" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C295,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\dog_little_cute_af45_vert.tif</v>
+      </c>
+      <c r="F295" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G295" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="15" t="s">
+        <v>760</v>
+      </c>
+      <c r="C296" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="E296" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C296,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\dog_sd12_tat_vert.tif</v>
+      </c>
+      <c r="F296" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G296" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="15" t="s">
+        <v>762</v>
+      </c>
+      <c r="C297" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="E297" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C297,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\elsa_ad11_tat_vert.tif</v>
+      </c>
+      <c r="F297" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G297" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="15" t="s">
+        <v>764</v>
+      </c>
+      <c r="C298" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="E298" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C298,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\elsa_frozen_disneyfg56_tat_vert.tif</v>
+      </c>
+      <c r="F298" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G298" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="15" t="s">
+        <v>766</v>
+      </c>
+      <c r="C299" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="E299" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C299,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\giraf_ab11_tat_vert.tif</v>
+      </c>
+      <c r="F299" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G299" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="15" t="s">
+        <v>768</v>
+      </c>
+      <c r="C300" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="E300" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C300,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\marvel_ag45_tat_horiz.tif</v>
+      </c>
+      <c r="F300" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G300" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="15" t="s">
+        <v>770</v>
+      </c>
+      <c r="C301" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="E301" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C301,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\mermaid_dd11_tat_vert.tif</v>
+      </c>
+      <c r="F301" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G301" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="15" t="s">
+        <v>772</v>
+      </c>
+      <c r="C302" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="E302" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C302,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\minions_ed12_tat_horiz.tif</v>
+      </c>
+      <c r="F302" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G302" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="15" t="s">
+        <v>774</v>
+      </c>
+      <c r="C303" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="E303" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C303,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\minni_mouse_ad11_tat_horiz.tif</v>
+      </c>
+      <c r="F303" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G303" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="C304" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="E304" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C304,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\owl_ff11_tat_vert.tif</v>
+      </c>
+      <c r="F304" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G304" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C305" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="E305" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C305,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\paw_patrol_as12_tat_vert.tif</v>
+      </c>
+      <c r="F305" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G305" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="16" t="s">
+        <v>780</v>
+      </c>
+      <c r="C306" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="E306" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C306,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\pokemon_gg44_tat_vert.tif</v>
+      </c>
+      <c r="F306" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G306" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="15" t="s">
+        <v>782</v>
+      </c>
+      <c r="C307" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="E307" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C307,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\pooh_qq11_tat_horiz.tif</v>
+      </c>
+      <c r="F307" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G307" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="15" t="s">
+        <v>784</v>
+      </c>
+      <c r="C308" s="0" t="s">
+        <v>785</v>
+      </c>
+      <c r="E308" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C308,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\rabbit_df12_vert.tif</v>
+      </c>
+      <c r="F308" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G308" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="C309" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="E309" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C309,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\rabbit_we11_tat_horiz.tif</v>
+      </c>
+      <c r="F309" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G309" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="15" t="s">
+        <v>788</v>
+      </c>
+      <c r="C310" s="0" t="s">
+        <v>789</v>
+      </c>
+      <c r="E310" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C310,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\shark_af45_vert.tif</v>
+      </c>
+      <c r="F310" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G310" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="15" t="s">
+        <v>790</v>
+      </c>
+      <c r="C311" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="E311" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C311,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\sonic_df45_tat_vert.tif</v>
+      </c>
+      <c r="F311" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G311" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="15" t="s">
+        <v>792</v>
+      </c>
+      <c r="C312" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="E312" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C312,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\sonic_df46_tat_horiz.tif</v>
+      </c>
+      <c r="F312" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G312" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="15" t="s">
+        <v>794</v>
+      </c>
+      <c r="C313" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="E313" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C313,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\spider_ad12_tat_vert.tif</v>
+      </c>
+      <c r="F313" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G313" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="C314" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="E314" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C314,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\spider_as14_tat_vert.tif</v>
+      </c>
+      <c r="F314" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G314" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="15" t="s">
+        <v>798</v>
+      </c>
+      <c r="C315" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="E315" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C315,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\spider_cg34_tat_vert.tif</v>
+      </c>
+      <c r="F315" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G315" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="15" t="s">
+        <v>800</v>
+      </c>
+      <c r="C316" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="E316" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C316,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\spider_df12_tat_vert.tif</v>
+      </c>
+      <c r="F316" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G316" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="15" t="s">
+        <v>802</v>
+      </c>
+      <c r="C317" s="0" t="s">
+        <v>803</v>
+      </c>
+      <c r="E317" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C317,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\spider_df45_tat_vert.tif</v>
+      </c>
+      <c r="F317" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G317" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="C318" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="E318" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C318,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\spider_fg56_tat_vert.tif</v>
+      </c>
+      <c r="F318" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G318" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="15" t="s">
+        <v>806</v>
+      </c>
+      <c r="C319" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="E319" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C319,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\spunch bob_ab11_tat_vert.tif</v>
+      </c>
+      <c r="F319" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G319" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="15" t="s">
+        <v>808</v>
+      </c>
+      <c r="C320" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="E320" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C320,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\spunch bob_as12_tat_vert.tif</v>
+      </c>
+      <c r="F320" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G320" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="15" t="s">
+        <v>810</v>
+      </c>
+      <c r="C321" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="E321" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C321,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\stich_as11_tat_horiz.tif</v>
+      </c>
+      <c r="F321" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G321" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="15" t="s">
+        <v>812</v>
+      </c>
+      <c r="C322" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="E322" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C322,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\unicorn_af41_tat_horiz.tif</v>
+      </c>
+      <c r="F322" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G322" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="15" t="s">
+        <v>814</v>
+      </c>
+      <c r="C323" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="E323" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C323,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\unicorn_er43_tat_vert.tif</v>
+      </c>
+      <c r="F323" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G323" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="15" t="s">
+        <v>816</v>
+      </c>
+      <c r="C324" s="0" t="s">
+        <v>817</v>
+      </c>
+      <c r="E324" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C324,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\minions_ab12_tat_horiz.tif</v>
+      </c>
+      <c r="F324" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G324" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="15" t="s">
+        <v>818</v>
+      </c>
+      <c r="C325" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="E325" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C325,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\cat_ag1_tat_horiz.tif</v>
+      </c>
+      <c r="F325" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G325" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="15" t="s">
+        <v>820</v>
+      </c>
+      <c r="C326" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="E326" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C326,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\minions_sd12_tat_horiz.tif</v>
+      </c>
+      <c r="F326" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G326" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="15" t="s">
+        <v>822</v>
+      </c>
+      <c r="C327" s="0" t="s">
+        <v>823</v>
+      </c>
+      <c r="E327" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C327,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\rabbit_ds34_tat_horiz.tif</v>
+      </c>
+      <c r="F327" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G327" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="15" t="s">
+        <v>824</v>
+      </c>
+      <c r="C328" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="E328" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C328,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\dino_as22_tat_vert.tif</v>
+      </c>
+      <c r="F328" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G328" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="15" t="s">
+        <v>826</v>
+      </c>
+      <c r="C329" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="E329" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C329,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\unicorn_ad12_tat_vert.tif</v>
+      </c>
+      <c r="F329" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G329" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="15" t="s">
+        <v>828</v>
+      </c>
+      <c r="C330" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="E330" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C330,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\fox_as22_tat_vert.tif</v>
+      </c>
+      <c r="F330" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G330" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="15" t="s">
+        <v>830</v>
+      </c>
+      <c r="C331" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="E331" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C331,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\mickey_df11_tat_vert.tif</v>
+      </c>
+      <c r="F331" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G331" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="341" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="17" t="s">
+        <v>832</v>
+      </c>
+      <c r="C341" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="E341" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C341,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\Audrey Hepburn_gf11_vert.tif</v>
+      </c>
+      <c r="F341" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G341" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="17" t="s">
+        <v>834</v>
+      </c>
+      <c r="C342" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="E342" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C342,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\cat_df12_tat_vert.tif</v>
+      </c>
+      <c r="F342" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G342" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="17" t="s">
+        <v>836</v>
+      </c>
+      <c r="C343" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="E343" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C343,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\girl_anime_gf11_vert.tif</v>
+      </c>
+      <c r="F343" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G343" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="17" t="s">
+        <v>838</v>
+      </c>
+      <c r="C344" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="E344" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C344,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\girl_explicit_gf11_vert.tif</v>
+      </c>
+      <c r="F344" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G344" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="17" t="s">
+        <v>840</v>
+      </c>
+      <c r="C345" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="E345" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C345,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\girl_flower_af11_vert.tif</v>
+      </c>
+      <c r="F345" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G345" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="17" t="s">
+        <v>842</v>
+      </c>
+      <c r="C346" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="E346" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C346,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\girl_flowers_gf11_vert.tif</v>
+      </c>
+      <c r="F346" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G346" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="17" t="s">
+        <v>844</v>
+      </c>
+      <c r="C347" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="E347" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C347,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\girl_hold_hands_gf11_vert.tif</v>
+      </c>
+      <c r="F347" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G347" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="17" t="s">
+        <v>846</v>
+      </c>
+      <c r="C348" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="E348" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C348,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\heart_ab11_tat_horiz.tif</v>
+      </c>
+      <c r="F348" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G348" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="17" t="s">
+        <v>848</v>
+      </c>
+      <c r="C349" s="0" t="s">
+        <v>849</v>
+      </c>
+      <c r="E349" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C349,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\heart_ff11_tat_horiz.tif</v>
+      </c>
+      <c r="F349" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G349" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="17" t="s">
+        <v>850</v>
+      </c>
+      <c r="C350" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="E350" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C350,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\hellowing_q12_vert.tif</v>
+      </c>
+      <c r="F350" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G350" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="17" t="s">
+        <v>852</v>
+      </c>
+      <c r="C351" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="E351" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C351,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\lady_back_gf11_vert.tif</v>
+      </c>
+      <c r="F351" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G351" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="17" t="s">
+        <v>854</v>
+      </c>
+      <c r="C352" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="E352" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C352,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\lion_dd45_tat_vert.tif</v>
+      </c>
+      <c r="F352" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G352" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="17" t="s">
+        <v>856</v>
+      </c>
+      <c r="C353" s="0" t="s">
+        <v>857</v>
+      </c>
+      <c r="E353" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C353,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\lips_ss11_tat_vert.tif</v>
+      </c>
+      <c r="F353" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G353" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="17" t="s">
+        <v>858</v>
+      </c>
+      <c r="C354" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="E354" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C354,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\marylin_monroe_af11_vert.tif</v>
+      </c>
+      <c r="F354" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G354" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="17" t="s">
+        <v>860</v>
+      </c>
+      <c r="C355" s="0" t="s">
+        <v>861</v>
+      </c>
+      <c r="E355" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C355,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\sailor_moon_as14_vert.tif</v>
+      </c>
+      <c r="F355" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G355" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="17" t="s">
+        <v>862</v>
+      </c>
+      <c r="C356" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="E356" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C356,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\sailor_moon_q12_vert.tif</v>
+      </c>
+      <c r="F356" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G356" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="17" t="s">
+        <v>864</v>
+      </c>
+      <c r="C357" s="0" t="s">
+        <v>865</v>
+      </c>
+      <c r="E357" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C357,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\tiger_gg11_vert.tif</v>
+      </c>
+      <c r="F357" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G357" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="17" t="s">
+        <v>866</v>
+      </c>
+      <c r="C358" s="0" t="s">
+        <v>867</v>
+      </c>
+      <c r="E358" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C358,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\turtle_sd12_tat_vert.tif</v>
+      </c>
+      <c r="F358" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G358" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="A144">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -10261,7 +12153,7 @@
         <v>56</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10269,7 +12161,7 @@
         <v>59</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10277,7 +12169,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10285,7 +12177,7 @@
         <v>63</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10293,7 +12185,7 @@
         <v>65</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10301,7 +12193,7 @@
         <v>67</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10309,7 +12201,7 @@
         <v>69</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10317,7 +12209,7 @@
         <v>71</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10325,7 +12217,7 @@
         <v>73</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10333,7 +12225,7 @@
         <v>75</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10341,7 +12233,7 @@
         <v>77</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10349,7 +12241,7 @@
         <v>79</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10357,7 +12249,7 @@
         <v>81</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10365,7 +12257,7 @@
         <v>83</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10373,7 +12265,7 @@
         <v>85</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10381,7 +12273,7 @@
         <v>87</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10389,7 +12281,7 @@
         <v>89</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10397,7 +12289,7 @@
         <v>91</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10405,7 +12297,7 @@
         <v>93</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10413,7 +12305,7 @@
         <v>95</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10421,7 +12313,7 @@
         <v>97</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10429,7 +12321,7 @@
         <v>99</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10437,7 +12329,7 @@
         <v>101</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10445,7 +12337,7 @@
         <v>103</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10453,7 +12345,7 @@
         <v>105</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10461,7 +12353,7 @@
         <v>107</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10469,7 +12361,7 @@
         <v>109</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10477,7 +12369,7 @@
         <v>111</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10485,7 +12377,7 @@
         <v>113</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10493,7 +12385,7 @@
         <v>115</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10501,7 +12393,7 @@
         <v>117</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10509,7 +12401,7 @@
         <v>119</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10517,7 +12409,7 @@
         <v>121</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10525,7 +12417,7 @@
         <v>123</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10533,7 +12425,7 @@
         <v>125</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10541,7 +12433,7 @@
         <v>127</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10549,7 +12441,7 @@
         <v>129</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10557,7 +12449,7 @@
         <v>131</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10565,7 +12457,7 @@
         <v>133</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10573,7 +12465,7 @@
         <v>135</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10581,7 +12473,7 @@
         <v>137</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10589,7 +12481,7 @@
         <v>139</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10597,7 +12489,7 @@
         <v>141</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10605,7 +12497,7 @@
         <v>143</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10613,7 +12505,7 @@
         <v>145</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10621,7 +12513,7 @@
         <v>147</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10629,7 +12521,7 @@
         <v>149</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10637,7 +12529,7 @@
         <v>151</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10645,7 +12537,7 @@
         <v>153</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10653,7 +12545,7 @@
         <v>155</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10661,7 +12553,7 @@
         <v>157</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10669,7 +12561,7 @@
         <v>159</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10677,7 +12569,7 @@
         <v>161</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10685,7 +12577,7 @@
         <v>163</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10693,7 +12585,7 @@
         <v>165</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10701,7 +12593,7 @@
         <v>167</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10709,7 +12601,7 @@
         <v>169</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10717,7 +12609,7 @@
         <v>171</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10725,7 +12617,7 @@
         <v>173</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10733,7 +12625,7 @@
         <v>175</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10741,7 +12633,7 @@
         <v>177</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10749,7 +12641,7 @@
         <v>179</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10757,7 +12649,7 @@
         <v>181</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10765,7 +12657,7 @@
         <v>183</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10773,7 +12665,7 @@
         <v>185</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10781,7 +12673,7 @@
         <v>187</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10789,7 +12681,7 @@
         <v>189</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10797,7 +12689,7 @@
         <v>191</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10805,7 +12697,7 @@
         <v>193</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10813,7 +12705,7 @@
         <v>195</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10821,7 +12713,7 @@
         <v>197</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10829,7 +12721,7 @@
         <v>199</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10837,7 +12729,7 @@
         <v>201</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10845,7 +12737,7 @@
         <v>203</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10853,7 +12745,7 @@
         <v>205</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10861,7 +12753,7 @@
         <v>207</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10869,7 +12761,7 @@
         <v>209</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10877,7 +12769,7 @@
         <v>211</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10885,7 +12777,7 @@
         <v>213</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10893,7 +12785,7 @@
         <v>215</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10901,7 +12793,7 @@
         <v>217</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10909,7 +12801,7 @@
         <v>219</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10917,7 +12809,7 @@
         <v>221</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10925,7 +12817,7 @@
         <v>223</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10933,7 +12825,7 @@
         <v>225</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10941,7 +12833,7 @@
         <v>227</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>721</v>
+        <v>868</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10949,7 +12841,7 @@
         <v>229</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>722</v>
+        <v>869</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10957,7 +12849,7 @@
         <v>232</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>722</v>
+        <v>869</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10965,7 +12857,7 @@
         <v>234</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>722</v>
+        <v>869</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10973,7 +12865,7 @@
         <v>236</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>722</v>
+        <v>869</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10981,7 +12873,7 @@
         <v>238</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>722</v>
+        <v>869</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10989,7 +12881,7 @@
         <v>240</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>722</v>
+        <v>869</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10997,7 +12889,7 @@
         <v>242</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>722</v>
+        <v>869</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11005,7 +12897,7 @@
         <v>244</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>722</v>
+        <v>869</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11013,7 +12905,7 @@
         <v>246</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>722</v>
+        <v>869</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11021,7 +12913,7 @@
         <v>248</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>722</v>
+        <v>869</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11029,7 +12921,7 @@
         <v>250</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>722</v>
+        <v>869</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11037,7 +12929,7 @@
         <v>252</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>722</v>
+        <v>869</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11045,7 +12937,7 @@
         <v>254</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>722</v>
+        <v>869</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11053,7 +12945,7 @@
         <v>256</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>722</v>
+        <v>869</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11061,7 +12953,7 @@
         <v>258</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>722</v>
+        <v>869</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11069,7 +12961,7 @@
         <v>260</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11077,7 +12969,7 @@
         <v>263</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11085,7 +12977,7 @@
         <v>265</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11093,7 +12985,7 @@
         <v>267</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11101,7 +12993,7 @@
         <v>269</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11109,7 +13001,7 @@
         <v>271</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11117,7 +13009,7 @@
         <v>273</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11125,7 +13017,7 @@
         <v>275</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11133,7 +13025,7 @@
         <v>277</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11141,7 +13033,7 @@
         <v>279</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11149,7 +13041,7 @@
         <v>281</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11157,7 +13049,7 @@
         <v>283</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11165,7 +13057,7 @@
         <v>285</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11173,7 +13065,7 @@
         <v>287</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11181,7 +13073,7 @@
         <v>289</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11189,7 +13081,7 @@
         <v>291</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11197,7 +13089,7 @@
         <v>293</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11205,7 +13097,7 @@
         <v>295</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11213,7 +13105,7 @@
         <v>297</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11221,7 +13113,7 @@
         <v>299</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11229,7 +13121,7 @@
         <v>301</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11237,7 +13129,7 @@
         <v>303</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11245,7 +13137,7 @@
         <v>305</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>724</v>
+        <v>871</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11253,7 +13145,7 @@
         <v>308</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>724</v>
+        <v>871</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11261,7 +13153,7 @@
         <v>310</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>724</v>
+        <v>871</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11269,7 +13161,7 @@
         <v>312</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>724</v>
+        <v>871</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11277,7 +13169,7 @@
         <v>314</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>724</v>
+        <v>871</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11285,7 +13177,7 @@
         <v>316</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>724</v>
+        <v>871</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11293,7 +13185,7 @@
         <v>318</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>724</v>
+        <v>871</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11301,7 +13193,7 @@
         <v>320</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>724</v>
+        <v>871</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11309,7 +13201,7 @@
         <v>322</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>724</v>
+        <v>871</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11317,7 +13209,7 @@
         <v>324</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>724</v>
+        <v>871</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11325,7 +13217,7 @@
         <v>326</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>724</v>
+        <v>871</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11333,7 +13225,7 @@
         <v>328</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>724</v>
+        <v>871</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11341,7 +13233,7 @@
         <v>330</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>724</v>
+        <v>871</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11349,7 +13241,7 @@
         <v>332</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>724</v>
+        <v>871</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11357,7 +13249,7 @@
         <v>334</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>724</v>
+        <v>871</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11365,7 +13257,7 @@
         <v>336</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>724</v>
+        <v>871</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11373,7 +13265,7 @@
         <v>338</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>724</v>
+        <v>871</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11381,7 +13273,7 @@
         <v>340</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>724</v>
+        <v>871</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11389,7 +13281,7 @@
         <v>342</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11397,7 +13289,7 @@
         <v>346</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11405,7 +13297,7 @@
         <v>349</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11413,7 +13305,7 @@
         <v>352</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11421,7 +13313,7 @@
         <v>355</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11429,7 +13321,7 @@
         <v>358</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11437,7 +13329,7 @@
         <v>361</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11445,7 +13337,7 @@
         <v>364</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11453,7 +13345,7 @@
         <v>367</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11461,7 +13353,7 @@
         <v>370</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11469,7 +13361,7 @@
         <v>373</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11477,7 +13369,7 @@
         <v>376</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11485,7 +13377,7 @@
         <v>379</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11493,7 +13385,7 @@
         <v>382</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11501,7 +13393,7 @@
         <v>385</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11509,7 +13401,7 @@
         <v>388</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11517,7 +13409,7 @@
         <v>391</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11525,7 +13417,7 @@
         <v>394</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11533,7 +13425,7 @@
         <v>397</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11541,7 +13433,7 @@
         <v>400</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11549,7 +13441,7 @@
         <v>403</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11557,7 +13449,7 @@
         <v>406</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11565,7 +13457,7 @@
         <v>409</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11573,7 +13465,7 @@
         <v>412</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11581,7 +13473,7 @@
         <v>415</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11589,7 +13481,7 @@
         <v>418</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11597,7 +13489,7 @@
         <v>421</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11605,7 +13497,7 @@
         <v>424</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11613,7 +13505,7 @@
         <v>427</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11621,7 +13513,7 @@
         <v>430</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11629,7 +13521,7 @@
         <v>433</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11637,7 +13529,7 @@
         <v>436</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11645,7 +13537,7 @@
         <v>439</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11653,7 +13545,7 @@
         <v>442</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11661,7 +13553,7 @@
         <v>445</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11669,7 +13561,7 @@
         <v>448</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11677,7 +13569,7 @@
         <v>451</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11685,7 +13577,7 @@
         <v>454</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11693,7 +13585,7 @@
         <v>457</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11701,7 +13593,7 @@
         <v>460</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11709,7 +13601,7 @@
         <v>463</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11717,7 +13609,7 @@
         <v>466</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11725,7 +13617,7 @@
         <v>469</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11733,7 +13625,7 @@
         <v>472</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11741,7 +13633,7 @@
         <v>475</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11749,7 +13641,7 @@
         <v>478</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11757,7 +13649,7 @@
         <v>481</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11765,7 +13657,7 @@
         <v>484</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11773,7 +13665,7 @@
         <v>487</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11781,7 +13673,7 @@
         <v>490</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11789,7 +13681,7 @@
         <v>493</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11797,7 +13689,7 @@
         <v>496</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11805,7 +13697,7 @@
         <v>499</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11813,7 +13705,7 @@
         <v>502</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>724</v>
+        <v>871</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11821,7 +13713,7 @@
         <v>504</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>724</v>
+        <v>871</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11829,7 +13721,7 @@
         <v>506</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>724</v>
+        <v>871</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11837,7 +13729,7 @@
         <v>508</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>724</v>
+        <v>871</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11845,7 +13737,7 @@
         <v>510</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>724</v>
+        <v>871</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11853,7 +13745,7 @@
         <v>512</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>724</v>
+        <v>871</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11861,7 +13753,7 @@
         <v>514</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11869,7 +13761,7 @@
         <v>517</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11877,7 +13769,7 @@
         <v>520</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11885,7 +13777,7 @@
         <v>523</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11893,7 +13785,7 @@
         <v>526</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11901,7 +13793,7 @@
         <v>529</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11909,7 +13801,7 @@
         <v>532</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11917,7 +13809,7 @@
         <v>535</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11925,7 +13817,7 @@
         <v>538</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11933,7 +13825,7 @@
         <v>541</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11941,7 +13833,7 @@
         <v>544</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11949,7 +13841,7 @@
         <v>547</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11957,7 +13849,7 @@
         <v>550</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11965,7 +13857,7 @@
         <v>553</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11973,7 +13865,7 @@
         <v>556</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11981,7 +13873,7 @@
         <v>559</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11989,7 +13881,7 @@
         <v>562</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11997,7 +13889,7 @@
         <v>565</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12005,7 +13897,7 @@
         <v>568</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12013,7 +13905,7 @@
         <v>571</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12021,7 +13913,7 @@
         <v>574</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12029,7 +13921,7 @@
         <v>577</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12037,7 +13929,7 @@
         <v>580</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12045,7 +13937,7 @@
         <v>583</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12053,7 +13945,7 @@
         <v>586</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12061,7 +13953,7 @@
         <v>589</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12069,7 +13961,7 @@
         <v>592</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12077,7 +13969,7 @@
         <v>595</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12085,7 +13977,7 @@
         <v>598</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12093,7 +13985,7 @@
         <v>601</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12101,7 +13993,7 @@
         <v>604</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12109,7 +14001,7 @@
         <v>607</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12117,7 +14009,7 @@
         <v>610</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12125,7 +14017,7 @@
         <v>613</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12133,7 +14025,7 @@
         <v>616</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12141,7 +14033,7 @@
         <v>619</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12149,7 +14041,7 @@
         <v>622</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12157,7 +14049,7 @@
         <v>625</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12165,7 +14057,7 @@
         <v>628</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>723</v>
+        <v>870</v>
       </c>
     </row>
   </sheetData>

--- a/barcode/Data path barcode.xlsx
+++ b/barcode/Data path barcode.xlsx
@@ -385,7 +385,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="936">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -2983,112 +2983,169 @@
     <t xml:space="preserve">Термонаклейка Барби фон розовый круг</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506380691</t>
+  </si>
+  <si>
     <t xml:space="preserve">barbie_ar45_tat_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Барт с рогаткой Симпсоны</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506319410</t>
+  </si>
+  <si>
     <t xml:space="preserve">bart_df11_tat_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Котенок в розовой кружке</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506318769</t>
+  </si>
+  <si>
     <t xml:space="preserve">cat_fg45_tat_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Котенок с цветами ромашками</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506319317</t>
+  </si>
+  <si>
     <t xml:space="preserve">cat_sd12_tat_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Котята на качелях</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506318429</t>
+  </si>
+  <si>
     <t xml:space="preserve">cats_ds34_tat_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Динозавр в очках ест бургер</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506318356</t>
+  </si>
+  <si>
     <t xml:space="preserve">dino_as12_tat_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Собачка в шляпе</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506319095</t>
+  </si>
+  <si>
     <t xml:space="preserve">dog_ff11_tat_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Собачка в очках язык</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506318312</t>
+  </si>
+  <si>
     <t xml:space="preserve">dog_little_cute_ac12_tat_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Собачка синий бантик</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506319427</t>
+  </si>
+  <si>
     <t xml:space="preserve">dog_little_cute_af45_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Собачка красный бантик</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506318949</t>
+  </si>
+  <si>
     <t xml:space="preserve">dog_sd12_tat_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Эльза Анна Холодное сердце паттерн</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506318673</t>
+  </si>
+  <si>
     <t xml:space="preserve">elsa_ad11_tat_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Эльза Холодное сердце синий круг</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506319362</t>
+  </si>
+  <si>
     <t xml:space="preserve">elsa_frozen_disneyfg56_tat_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Жирафвыглядывает замок одежды</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506318334</t>
+  </si>
+  <si>
     <t xml:space="preserve">giraf_ab11_tat_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Марвел супергерои 4 верт фона</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506319337</t>
+  </si>
+  <si>
     <t xml:space="preserve">marvel_ag45_tat_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Русалочка поправляет прическу</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506319227</t>
+  </si>
+  <si>
     <t xml:space="preserve">mermaid_dd11_tat_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Миньоны на банане</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506318961</t>
+  </si>
+  <si>
     <t xml:space="preserve">minions_ed12_tat_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Минни Маус Единорог розовый</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506319322</t>
+  </si>
+  <si>
     <t xml:space="preserve">minni_mouse_ad11_tat_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Сова розовая</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506319456</t>
+  </si>
+  <si>
     <t xml:space="preserve">owl_ff11_tat_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Щенячий патруль 2 Маршал Крепыш</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1506319229</t>
   </si>
   <si>
     <t xml:space="preserve">paw_patrol_as12_tat_vert</t>
@@ -3115,70 +3172,106 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506319309</t>
+  </si>
+  <si>
     <t xml:space="preserve">pokemon_gg44_tat_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Винни Пух и друзья на шаре</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506319209</t>
+  </si>
+  <si>
     <t xml:space="preserve">pooh_qq11_tat_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Зайчик синий комбинезон шагает</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506318654</t>
+  </si>
+  <si>
     <t xml:space="preserve">rabbit_df12_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Зайчик ромашка в руках</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506318053</t>
+  </si>
+  <si>
     <t xml:space="preserve">rabbit_we11_tat_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Акула серфинг в очках</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506319423</t>
+  </si>
+  <si>
     <t xml:space="preserve">shark_af45_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Соник Ежик бежит пис мир рука</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506318830</t>
+  </si>
+  <si>
     <t xml:space="preserve">sonic_df45_tat_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Соник Ежик бежит синий фон краски</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506319590</t>
+  </si>
+  <si>
     <t xml:space="preserve">sonic_df46_tat_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Человек Паук Лого позади</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506318448</t>
+  </si>
+  <si>
     <t xml:space="preserve">spider_ad12_tat_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Человек Паук Лого круг</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506319072</t>
+  </si>
+  <si>
     <t xml:space="preserve">spider_as14_tat_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Человек Паук синий желтый круг</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506319067</t>
+  </si>
+  <si>
     <t xml:space="preserve">spider_cg34_tat_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Человек Паук синий белый круг</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506318681</t>
+  </si>
+  <si>
     <t xml:space="preserve">spider_df12_tat_vert</t>
   </si>
   <si>
-    <t xml:space="preserve">Термонаклейка Человек Паук круг надпись желый снизу</t>
+    <t xml:space="preserve">Термонаклейка Человек Паук круг надпись снизу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1506372679</t>
   </si>
   <si>
     <t xml:space="preserve">spider_df45_tat_vert</t>
@@ -3187,82 +3280,124 @@
     <t xml:space="preserve">Термонаклейка Человек Паук круг красный синий</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506319420</t>
+  </si>
+  <si>
     <t xml:space="preserve">spider_fg56_tat_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Спанч Боб и друзья</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506319347</t>
+  </si>
+  <si>
     <t xml:space="preserve">spunch bob_ab11_tat_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Спанч Боб и друзья Keep Vibes</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506319594</t>
+  </si>
+  <si>
     <t xml:space="preserve">spunch bob_as12_tat_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Лило и Стич сидят</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506319334</t>
+  </si>
+  <si>
     <t xml:space="preserve">stich_as11_tat_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Единороги голубой и розовый</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506319397</t>
+  </si>
+  <si>
     <t xml:space="preserve">unicorn_af41_tat_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Единорог с ромашкой сердечки</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506319032</t>
+  </si>
+  <si>
     <t xml:space="preserve">unicorn_er43_tat_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Три Миньона бегут</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506318642</t>
+  </si>
+  <si>
     <t xml:space="preserve">minions_ab12_tat_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Котенок с шариком сердечко</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506319215</t>
+  </si>
+  <si>
     <t xml:space="preserve">cat_ag1_tat_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Миньон с бананами</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506319088</t>
+  </si>
+  <si>
     <t xml:space="preserve">minions_sd12_tat_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Зайка балерина</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506318852</t>
+  </si>
+  <si>
     <t xml:space="preserve">rabbit_ds34_tat_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Динозавр в очках играет на гитаре</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506319597</t>
+  </si>
+  <si>
     <t xml:space="preserve">dino_as22_tat_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Единорог ресницы цветы уши</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506318496</t>
+  </si>
+  <si>
     <t xml:space="preserve">unicorn_ad12_tat_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Лисенок с кружкой</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506319495</t>
+  </si>
+  <si>
     <t xml:space="preserve">fox_as22_tat_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Микки Маус показывает язык</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1506319200</t>
   </si>
   <si>
     <t xml:space="preserve">mickey_df11_tat_vert</t>
@@ -3300,106 +3435,160 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506332421</t>
+  </si>
+  <si>
     <t xml:space="preserve">Audrey Hepburn_gf11_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Черный Кот Силует астрономия</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506320059</t>
+  </si>
+  <si>
     <t xml:space="preserve">cat_df12_tat_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Аниме девочка белые волосы уши кошки</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506331023</t>
+  </si>
+  <si>
     <t xml:space="preserve">girl_anime_gf11_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Аниме девочка черные очки язык</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506381390</t>
+  </si>
+  <si>
     <t xml:space="preserve">girl_explicit_gf11_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Девушка гладиолус цветы</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506319820</t>
+  </si>
+  <si>
     <t xml:space="preserve">girl_flower_af11_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Девушка холст растут цветы</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506332524</t>
+  </si>
+  <si>
     <t xml:space="preserve">girl_flowers_gf11_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Девушка на закате держат руки море</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506332556</t>
+  </si>
+  <si>
     <t xml:space="preserve">girl_hold_hands_gf11_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Леопардовое сердце розовое</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506320308</t>
+  </si>
+  <si>
     <t xml:space="preserve">heart_ab11_tat_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Сердце отпечаток пальца красный</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506320223</t>
+  </si>
+  <si>
     <t xml:space="preserve">heart_ff11_tat_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Девушка макияж Хэллоуин</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506331665</t>
+  </si>
+  <si>
     <t xml:space="preserve">hellowing_q12_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Девушка силует обнимают природа</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506331474</t>
+  </si>
+  <si>
     <t xml:space="preserve">lady_back_gf11_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Лев Краски Дизайн</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506331166</t>
+  </si>
+  <si>
     <t xml:space="preserve">lion_dd45_tat_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Губы Язык Краски Дизайн</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506333119</t>
+  </si>
+  <si>
     <t xml:space="preserve">lips_ss11_tat_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Мэрилин Монро Поп арт жвачка</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506320005</t>
+  </si>
+  <si>
     <t xml:space="preserve">marylin_monroe_af11_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Сейлор Мун Sailor Moon радуется</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506320185</t>
+  </si>
+  <si>
     <t xml:space="preserve">sailor_moon_as14_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Сейлор Мун Sailor Moon голубой фон</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506331468</t>
+  </si>
+  <si>
     <t xml:space="preserve">sailor_moon_q12_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Тигр Краски Дизайн</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1506331021</t>
+  </si>
+  <si>
     <t xml:space="preserve">tiger_gg11_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Морская Черепаха Море силует</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1506331467</t>
   </si>
   <si>
     <t xml:space="preserve">turtle_sd12_tat_vert</t>
@@ -3772,8 +3961,8 @@
   </sheetPr>
   <dimension ref="A1:AO363"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D63" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E81" activeCellId="0" sqref="E81"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A318" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B287" activeCellId="0" sqref="B287:B349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10951,8 +11140,11 @@
       <c r="A287" s="15" t="s">
         <v>742</v>
       </c>
+      <c r="B287" s="0" t="s">
+        <v>743</v>
+      </c>
       <c r="C287" s="0" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E287" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C287,".tif")</f>
@@ -10967,10 +11159,13 @@
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="15" t="s">
-        <v>744</v>
+        <v>745</v>
+      </c>
+      <c r="B288" s="0" t="s">
+        <v>746</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="E288" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C288,".tif")</f>
@@ -10985,10 +11180,13 @@
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="15" t="s">
-        <v>746</v>
+        <v>748</v>
+      </c>
+      <c r="B289" s="0" t="s">
+        <v>749</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="E289" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C289,".tif")</f>
@@ -11003,10 +11201,13 @@
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="15" t="s">
-        <v>748</v>
+        <v>751</v>
+      </c>
+      <c r="B290" s="0" t="s">
+        <v>752</v>
       </c>
       <c r="C290" s="0" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="E290" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C290,".tif")</f>
@@ -11021,10 +11222,13 @@
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="15" t="s">
-        <v>750</v>
+        <v>754</v>
+      </c>
+      <c r="B291" s="0" t="s">
+        <v>755</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="E291" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C291,".tif")</f>
@@ -11039,10 +11243,13 @@
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="15" t="s">
-        <v>752</v>
+        <v>757</v>
+      </c>
+      <c r="B292" s="0" t="s">
+        <v>758</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="E292" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C292,".tif")</f>
@@ -11057,10 +11264,13 @@
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="15" t="s">
-        <v>754</v>
+        <v>760</v>
+      </c>
+      <c r="B293" s="0" t="s">
+        <v>761</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="E293" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C293,".tif")</f>
@@ -11075,10 +11285,13 @@
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="15" t="s">
-        <v>756</v>
+        <v>763</v>
+      </c>
+      <c r="B294" s="0" t="s">
+        <v>764</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="E294" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C294,".tif")</f>
@@ -11093,10 +11306,13 @@
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="15" t="s">
-        <v>758</v>
+        <v>766</v>
+      </c>
+      <c r="B295" s="0" t="s">
+        <v>767</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="E295" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C295,".tif")</f>
@@ -11111,10 +11327,13 @@
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="15" t="s">
-        <v>760</v>
+        <v>769</v>
+      </c>
+      <c r="B296" s="0" t="s">
+        <v>770</v>
       </c>
       <c r="C296" s="0" t="s">
-        <v>761</v>
+        <v>771</v>
       </c>
       <c r="E296" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C296,".tif")</f>
@@ -11129,10 +11348,13 @@
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="15" t="s">
-        <v>762</v>
+        <v>772</v>
+      </c>
+      <c r="B297" s="0" t="s">
+        <v>773</v>
       </c>
       <c r="C297" s="0" t="s">
-        <v>763</v>
+        <v>774</v>
       </c>
       <c r="E297" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C297,".tif")</f>
@@ -11147,10 +11369,13 @@
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="15" t="s">
-        <v>764</v>
+        <v>775</v>
+      </c>
+      <c r="B298" s="0" t="s">
+        <v>776</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="E298" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C298,".tif")</f>
@@ -11165,10 +11390,13 @@
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="15" t="s">
-        <v>766</v>
+        <v>778</v>
+      </c>
+      <c r="B299" s="0" t="s">
+        <v>779</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
       <c r="E299" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C299,".tif")</f>
@@ -11183,10 +11411,13 @@
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="15" t="s">
-        <v>768</v>
+        <v>781</v>
+      </c>
+      <c r="B300" s="0" t="s">
+        <v>782</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>769</v>
+        <v>783</v>
       </c>
       <c r="E300" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C300,".tif")</f>
@@ -11201,10 +11432,13 @@
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="15" t="s">
-        <v>770</v>
+        <v>784</v>
+      </c>
+      <c r="B301" s="0" t="s">
+        <v>785</v>
       </c>
       <c r="C301" s="0" t="s">
-        <v>771</v>
+        <v>786</v>
       </c>
       <c r="E301" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C301,".tif")</f>
@@ -11219,10 +11453,13 @@
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="15" t="s">
-        <v>772</v>
+        <v>787</v>
+      </c>
+      <c r="B302" s="0" t="s">
+        <v>788</v>
       </c>
       <c r="C302" s="0" t="s">
-        <v>773</v>
+        <v>789</v>
       </c>
       <c r="E302" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C302,".tif")</f>
@@ -11237,10 +11474,13 @@
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="15" t="s">
-        <v>774</v>
+        <v>790</v>
+      </c>
+      <c r="B303" s="0" t="s">
+        <v>791</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>775</v>
+        <v>792</v>
       </c>
       <c r="E303" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C303,".tif")</f>
@@ -11255,10 +11495,13 @@
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="15" t="s">
-        <v>776</v>
+        <v>793</v>
+      </c>
+      <c r="B304" s="0" t="s">
+        <v>794</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>777</v>
+        <v>795</v>
       </c>
       <c r="E304" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C304,".tif")</f>
@@ -11273,10 +11516,13 @@
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="15" t="s">
-        <v>778</v>
+        <v>796</v>
+      </c>
+      <c r="B305" s="0" t="s">
+        <v>797</v>
       </c>
       <c r="C305" s="0" t="s">
-        <v>779</v>
+        <v>798</v>
       </c>
       <c r="E305" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C305,".tif")</f>
@@ -11291,10 +11537,13 @@
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="16" t="s">
-        <v>780</v>
+        <v>799</v>
+      </c>
+      <c r="B306" s="0" t="s">
+        <v>800</v>
       </c>
       <c r="C306" s="0" t="s">
-        <v>781</v>
+        <v>801</v>
       </c>
       <c r="E306" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C306,".tif")</f>
@@ -11309,10 +11558,13 @@
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="15" t="s">
-        <v>782</v>
+        <v>802</v>
+      </c>
+      <c r="B307" s="0" t="s">
+        <v>803</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>783</v>
+        <v>804</v>
       </c>
       <c r="E307" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C307,".tif")</f>
@@ -11327,10 +11579,13 @@
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="15" t="s">
-        <v>784</v>
+        <v>805</v>
+      </c>
+      <c r="B308" s="0" t="s">
+        <v>806</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>785</v>
+        <v>807</v>
       </c>
       <c r="E308" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C308,".tif")</f>
@@ -11345,10 +11600,13 @@
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="15" t="s">
-        <v>786</v>
+        <v>808</v>
+      </c>
+      <c r="B309" s="0" t="s">
+        <v>809</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>787</v>
+        <v>810</v>
       </c>
       <c r="E309" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C309,".tif")</f>
@@ -11363,10 +11621,13 @@
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="15" t="s">
-        <v>788</v>
+        <v>811</v>
+      </c>
+      <c r="B310" s="0" t="s">
+        <v>812</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>789</v>
+        <v>813</v>
       </c>
       <c r="E310" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C310,".tif")</f>
@@ -11381,10 +11642,13 @@
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="15" t="s">
-        <v>790</v>
+        <v>814</v>
+      </c>
+      <c r="B311" s="0" t="s">
+        <v>815</v>
       </c>
       <c r="C311" s="0" t="s">
-        <v>791</v>
+        <v>816</v>
       </c>
       <c r="E311" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C311,".tif")</f>
@@ -11399,10 +11663,13 @@
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="15" t="s">
-        <v>792</v>
+        <v>817</v>
+      </c>
+      <c r="B312" s="0" t="s">
+        <v>818</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>793</v>
+        <v>819</v>
       </c>
       <c r="E312" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C312,".tif")</f>
@@ -11417,10 +11684,13 @@
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="15" t="s">
-        <v>794</v>
+        <v>820</v>
+      </c>
+      <c r="B313" s="0" t="s">
+        <v>821</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>795</v>
+        <v>822</v>
       </c>
       <c r="E313" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C313,".tif")</f>
@@ -11435,10 +11705,13 @@
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="15" t="s">
-        <v>796</v>
+        <v>823</v>
+      </c>
+      <c r="B314" s="0" t="s">
+        <v>824</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>797</v>
+        <v>825</v>
       </c>
       <c r="E314" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C314,".tif")</f>
@@ -11453,10 +11726,13 @@
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="15" t="s">
-        <v>798</v>
+        <v>826</v>
+      </c>
+      <c r="B315" s="0" t="s">
+        <v>827</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>799</v>
+        <v>828</v>
       </c>
       <c r="E315" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C315,".tif")</f>
@@ -11471,10 +11747,13 @@
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="15" t="s">
-        <v>800</v>
+        <v>829</v>
+      </c>
+      <c r="B316" s="0" t="s">
+        <v>830</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="E316" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C316,".tif")</f>
@@ -11489,10 +11768,13 @@
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="15" t="s">
-        <v>802</v>
+        <v>832</v>
+      </c>
+      <c r="B317" s="0" t="s">
+        <v>833</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>803</v>
+        <v>834</v>
       </c>
       <c r="E317" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C317,".tif")</f>
@@ -11507,10 +11789,13 @@
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="15" t="s">
-        <v>804</v>
+        <v>835</v>
+      </c>
+      <c r="B318" s="0" t="s">
+        <v>836</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>805</v>
+        <v>837</v>
       </c>
       <c r="E318" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C318,".tif")</f>
@@ -11525,10 +11810,13 @@
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="15" t="s">
-        <v>806</v>
+        <v>838</v>
+      </c>
+      <c r="B319" s="0" t="s">
+        <v>839</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>807</v>
+        <v>840</v>
       </c>
       <c r="E319" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C319,".tif")</f>
@@ -11543,10 +11831,13 @@
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="15" t="s">
-        <v>808</v>
+        <v>841</v>
+      </c>
+      <c r="B320" s="0" t="s">
+        <v>842</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>809</v>
+        <v>843</v>
       </c>
       <c r="E320" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C320,".tif")</f>
@@ -11561,10 +11852,13 @@
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="15" t="s">
-        <v>810</v>
+        <v>844</v>
+      </c>
+      <c r="B321" s="0" t="s">
+        <v>845</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>811</v>
+        <v>846</v>
       </c>
       <c r="E321" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C321,".tif")</f>
@@ -11579,10 +11873,13 @@
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="15" t="s">
-        <v>812</v>
+        <v>847</v>
+      </c>
+      <c r="B322" s="0" t="s">
+        <v>848</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>813</v>
+        <v>849</v>
       </c>
       <c r="E322" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C322,".tif")</f>
@@ -11597,10 +11894,13 @@
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="15" t="s">
-        <v>814</v>
+        <v>850</v>
+      </c>
+      <c r="B323" s="0" t="s">
+        <v>851</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>815</v>
+        <v>852</v>
       </c>
       <c r="E323" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C323,".tif")</f>
@@ -11615,10 +11915,13 @@
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="15" t="s">
-        <v>816</v>
+        <v>853</v>
+      </c>
+      <c r="B324" s="0" t="s">
+        <v>854</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>817</v>
+        <v>855</v>
       </c>
       <c r="E324" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C324,".tif")</f>
@@ -11633,10 +11936,13 @@
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="15" t="s">
-        <v>818</v>
+        <v>856</v>
+      </c>
+      <c r="B325" s="0" t="s">
+        <v>857</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>819</v>
+        <v>858</v>
       </c>
       <c r="E325" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C325,".tif")</f>
@@ -11651,10 +11957,13 @@
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="15" t="s">
-        <v>820</v>
+        <v>859</v>
+      </c>
+      <c r="B326" s="0" t="s">
+        <v>860</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>821</v>
+        <v>861</v>
       </c>
       <c r="E326" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C326,".tif")</f>
@@ -11669,10 +11978,13 @@
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="15" t="s">
-        <v>822</v>
+        <v>862</v>
+      </c>
+      <c r="B327" s="0" t="s">
+        <v>863</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>823</v>
+        <v>864</v>
       </c>
       <c r="E327" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C327,".tif")</f>
@@ -11687,10 +11999,13 @@
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="15" t="s">
-        <v>824</v>
+        <v>865</v>
+      </c>
+      <c r="B328" s="0" t="s">
+        <v>866</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>825</v>
+        <v>867</v>
       </c>
       <c r="E328" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C328,".tif")</f>
@@ -11705,10 +12020,13 @@
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="15" t="s">
-        <v>826</v>
+        <v>868</v>
+      </c>
+      <c r="B329" s="0" t="s">
+        <v>869</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>827</v>
+        <v>870</v>
       </c>
       <c r="E329" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C329,".tif")</f>
@@ -11723,10 +12041,13 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="15" t="s">
-        <v>828</v>
+        <v>871</v>
+      </c>
+      <c r="B330" s="0" t="s">
+        <v>872</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>829</v>
+        <v>873</v>
       </c>
       <c r="E330" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C330,".tif")</f>
@@ -11741,10 +12062,13 @@
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="15" t="s">
-        <v>830</v>
+        <v>874</v>
+      </c>
+      <c r="B331" s="0" t="s">
+        <v>875</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>831</v>
+        <v>876</v>
       </c>
       <c r="E331" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C331,".tif")</f>
@@ -11757,25 +12081,208 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="341" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="17" t="s">
+        <v>877</v>
+      </c>
+      <c r="B332" s="0" t="s">
+        <v>878</v>
+      </c>
+      <c r="C332" s="0" t="s">
+        <v>879</v>
+      </c>
+      <c r="E332" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C332,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\Audrey Hepburn_gf11_vert.tif</v>
+      </c>
+      <c r="F332" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G332" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="17" t="s">
+        <v>880</v>
+      </c>
+      <c r="B333" s="0" t="s">
+        <v>881</v>
+      </c>
+      <c r="C333" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="E333" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C333,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\cat_df12_tat_vert.tif</v>
+      </c>
+      <c r="F333" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G333" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="17" t="s">
+        <v>883</v>
+      </c>
+      <c r="B334" s="0" t="s">
+        <v>884</v>
+      </c>
+      <c r="C334" s="0" t="s">
+        <v>885</v>
+      </c>
+      <c r="E334" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C334,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\girl_anime_gf11_vert.tif</v>
+      </c>
+      <c r="F334" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G334" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="17" t="s">
+        <v>886</v>
+      </c>
+      <c r="B335" s="0" t="s">
+        <v>887</v>
+      </c>
+      <c r="C335" s="0" t="s">
+        <v>888</v>
+      </c>
+      <c r="E335" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C335,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\girl_explicit_gf11_vert.tif</v>
+      </c>
+      <c r="F335" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G335" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="17" t="s">
+        <v>889</v>
+      </c>
+      <c r="B336" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="C336" s="0" t="s">
+        <v>891</v>
+      </c>
+      <c r="E336" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C336,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\girl_flower_af11_vert.tif</v>
+      </c>
+      <c r="F336" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G336" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="17" t="s">
+        <v>892</v>
+      </c>
+      <c r="B337" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="C337" s="0" t="s">
+        <v>894</v>
+      </c>
+      <c r="E337" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C337,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\girl_flowers_gf11_vert.tif</v>
+      </c>
+      <c r="F337" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G337" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="17" t="s">
+        <v>895</v>
+      </c>
+      <c r="B338" s="0" t="s">
+        <v>896</v>
+      </c>
+      <c r="C338" s="0" t="s">
+        <v>897</v>
+      </c>
+      <c r="E338" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C338,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\girl_hold_hands_gf11_vert.tif</v>
+      </c>
+      <c r="F338" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G338" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="17" t="s">
+        <v>898</v>
+      </c>
+      <c r="B339" s="0" t="s">
+        <v>899</v>
+      </c>
+      <c r="C339" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="E339" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C339,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\heart_ab11_tat_horiz.tif</v>
+      </c>
+      <c r="F339" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G339" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="17" t="s">
+        <v>901</v>
+      </c>
+      <c r="B340" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="C340" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="E340" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C340,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\heart_ff11_tat_horiz.tif</v>
+      </c>
+      <c r="F340" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G340" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="17" t="s">
-        <v>832</v>
+        <v>904</v>
+      </c>
+      <c r="B341" s="0" t="s">
+        <v>905</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>833</v>
+        <v>906</v>
       </c>
       <c r="E341" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C341,".tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\Audrey Hepburn_gf11_vert.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\hellowing_q12_vert.tif</v>
       </c>
       <c r="F341" s="0" t="n">
         <v>1</v>
@@ -11786,14 +12293,17 @@
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="17" t="s">
-        <v>834</v>
+        <v>907</v>
+      </c>
+      <c r="B342" s="0" t="s">
+        <v>908</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>835</v>
+        <v>909</v>
       </c>
       <c r="E342" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C342,".tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\cat_df12_tat_vert.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\lady_back_gf11_vert.tif</v>
       </c>
       <c r="F342" s="0" t="n">
         <v>1</v>
@@ -11804,14 +12314,17 @@
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="17" t="s">
-        <v>836</v>
+        <v>910</v>
+      </c>
+      <c r="B343" s="0" t="s">
+        <v>911</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>837</v>
+        <v>912</v>
       </c>
       <c r="E343" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C343,".tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\girl_anime_gf11_vert.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\lion_dd45_tat_vert.tif</v>
       </c>
       <c r="F343" s="0" t="n">
         <v>1</v>
@@ -11822,17 +12335,20 @@
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="17" t="s">
-        <v>838</v>
+        <v>913</v>
+      </c>
+      <c r="B344" s="0" t="s">
+        <v>914</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>839</v>
+        <v>915</v>
       </c>
       <c r="E344" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C344,".tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\girl_explicit_gf11_vert.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\lips_ss11_tat_vert.tif</v>
       </c>
       <c r="F344" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G344" s="0" t="n">
         <v>1</v>
@@ -11840,14 +12356,17 @@
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="17" t="s">
-        <v>840</v>
+        <v>916</v>
+      </c>
+      <c r="B345" s="0" t="s">
+        <v>917</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>841</v>
+        <v>918</v>
       </c>
       <c r="E345" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C345,".tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\girl_flower_af11_vert.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\marylin_monroe_af11_vert.tif</v>
       </c>
       <c r="F345" s="0" t="n">
         <v>1</v>
@@ -11858,14 +12377,17 @@
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="17" t="s">
-        <v>842</v>
+        <v>919</v>
+      </c>
+      <c r="B346" s="0" t="s">
+        <v>920</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>843</v>
+        <v>921</v>
       </c>
       <c r="E346" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C346,".tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\girl_flowers_gf11_vert.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\sailor_moon_as14_vert.tif</v>
       </c>
       <c r="F346" s="0" t="n">
         <v>1</v>
@@ -11876,14 +12398,17 @@
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="17" t="s">
-        <v>844</v>
+        <v>922</v>
+      </c>
+      <c r="B347" s="0" t="s">
+        <v>923</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>845</v>
+        <v>924</v>
       </c>
       <c r="E347" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C347,".tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\girl_hold_hands_gf11_vert.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\sailor_moon_q12_vert.tif</v>
       </c>
       <c r="F347" s="0" t="n">
         <v>1</v>
@@ -11894,17 +12419,20 @@
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="17" t="s">
-        <v>846</v>
+        <v>925</v>
+      </c>
+      <c r="B348" s="0" t="s">
+        <v>926</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>847</v>
+        <v>927</v>
       </c>
       <c r="E348" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C348,".tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\heart_ab11_tat_horiz.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\tiger_gg11_vert.tif</v>
       </c>
       <c r="F348" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G348" s="0" t="n">
         <v>1</v>
@@ -11912,184 +12440,34 @@
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="17" t="s">
-        <v>848</v>
+        <v>928</v>
+      </c>
+      <c r="B349" s="0" t="s">
+        <v>929</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>849</v>
+        <v>930</v>
       </c>
       <c r="E349" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C349,".tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\heart_ff11_tat_horiz.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\turtle_sd12_tat_vert.tif</v>
       </c>
       <c r="F349" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G349" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="17" t="s">
-        <v>850</v>
-      </c>
-      <c r="C350" s="0" t="s">
-        <v>851</v>
-      </c>
-      <c r="E350" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C350,".tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\hellowing_q12_vert.tif</v>
-      </c>
-      <c r="F350" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G350" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="17" t="s">
-        <v>852</v>
-      </c>
-      <c r="C351" s="0" t="s">
-        <v>853</v>
-      </c>
-      <c r="E351" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C351,".tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\lady_back_gf11_vert.tif</v>
-      </c>
-      <c r="F351" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G351" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="17" t="s">
-        <v>854</v>
-      </c>
-      <c r="C352" s="0" t="s">
-        <v>855</v>
-      </c>
-      <c r="E352" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C352,".tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\lion_dd45_tat_vert.tif</v>
-      </c>
-      <c r="F352" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G352" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="17" t="s">
-        <v>856</v>
-      </c>
-      <c r="C353" s="0" t="s">
-        <v>857</v>
-      </c>
-      <c r="E353" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C353,".tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\lips_ss11_tat_vert.tif</v>
-      </c>
-      <c r="F353" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G353" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="17" t="s">
-        <v>858</v>
-      </c>
-      <c r="C354" s="0" t="s">
-        <v>859</v>
-      </c>
-      <c r="E354" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C354,".tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\marylin_monroe_af11_vert.tif</v>
-      </c>
-      <c r="F354" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G354" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="17" t="s">
-        <v>860</v>
-      </c>
-      <c r="C355" s="0" t="s">
-        <v>861</v>
-      </c>
-      <c r="E355" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C355,".tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\sailor_moon_as14_vert.tif</v>
-      </c>
-      <c r="F355" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G355" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="17" t="s">
-        <v>862</v>
-      </c>
-      <c r="C356" s="0" t="s">
-        <v>863</v>
-      </c>
-      <c r="E356" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C356,".tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\sailor_moon_q12_vert.tif</v>
-      </c>
-      <c r="F356" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G356" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="17" t="s">
-        <v>864</v>
-      </c>
-      <c r="C357" s="0" t="s">
-        <v>865</v>
-      </c>
-      <c r="E357" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C357,".tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\tiger_gg11_vert.tif</v>
-      </c>
-      <c r="F357" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G357" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="17" t="s">
-        <v>866</v>
-      </c>
-      <c r="C358" s="0" t="s">
-        <v>867</v>
-      </c>
-      <c r="E358" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C358,".tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\turtle_sd12_tat_vert.tif</v>
-      </c>
-      <c r="F358" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G358" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -12134,7 +12512,7 @@
   <dimension ref="A2:B241"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A206" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="B287:B349 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12153,7 +12531,7 @@
         <v>56</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12161,7 +12539,7 @@
         <v>59</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12169,7 +12547,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12177,7 +12555,7 @@
         <v>63</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12185,7 +12563,7 @@
         <v>65</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12193,7 +12571,7 @@
         <v>67</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12201,7 +12579,7 @@
         <v>69</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12209,7 +12587,7 @@
         <v>71</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12217,7 +12595,7 @@
         <v>73</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12225,7 +12603,7 @@
         <v>75</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12233,7 +12611,7 @@
         <v>77</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12241,7 +12619,7 @@
         <v>79</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12249,7 +12627,7 @@
         <v>81</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12257,7 +12635,7 @@
         <v>83</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12265,7 +12643,7 @@
         <v>85</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12273,7 +12651,7 @@
         <v>87</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12281,7 +12659,7 @@
         <v>89</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12289,7 +12667,7 @@
         <v>91</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12297,7 +12675,7 @@
         <v>93</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12305,7 +12683,7 @@
         <v>95</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12313,7 +12691,7 @@
         <v>97</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12321,7 +12699,7 @@
         <v>99</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12329,7 +12707,7 @@
         <v>101</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12337,7 +12715,7 @@
         <v>103</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12345,7 +12723,7 @@
         <v>105</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12353,7 +12731,7 @@
         <v>107</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12361,7 +12739,7 @@
         <v>109</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12369,7 +12747,7 @@
         <v>111</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12377,7 +12755,7 @@
         <v>113</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12385,7 +12763,7 @@
         <v>115</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12393,7 +12771,7 @@
         <v>117</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12401,7 +12779,7 @@
         <v>119</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12409,7 +12787,7 @@
         <v>121</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12417,7 +12795,7 @@
         <v>123</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12425,7 +12803,7 @@
         <v>125</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12433,7 +12811,7 @@
         <v>127</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12441,7 +12819,7 @@
         <v>129</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12449,7 +12827,7 @@
         <v>131</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12457,7 +12835,7 @@
         <v>133</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12465,7 +12843,7 @@
         <v>135</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12473,7 +12851,7 @@
         <v>137</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12481,7 +12859,7 @@
         <v>139</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12489,7 +12867,7 @@
         <v>141</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12497,7 +12875,7 @@
         <v>143</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12505,7 +12883,7 @@
         <v>145</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12513,7 +12891,7 @@
         <v>147</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12521,7 +12899,7 @@
         <v>149</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12529,7 +12907,7 @@
         <v>151</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12537,7 +12915,7 @@
         <v>153</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12545,7 +12923,7 @@
         <v>155</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12553,7 +12931,7 @@
         <v>157</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12561,7 +12939,7 @@
         <v>159</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12569,7 +12947,7 @@
         <v>161</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12577,7 +12955,7 @@
         <v>163</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12585,7 +12963,7 @@
         <v>165</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12593,7 +12971,7 @@
         <v>167</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12601,7 +12979,7 @@
         <v>169</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12609,7 +12987,7 @@
         <v>171</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12617,7 +12995,7 @@
         <v>173</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12625,7 +13003,7 @@
         <v>175</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12633,7 +13011,7 @@
         <v>177</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12641,7 +13019,7 @@
         <v>179</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12649,7 +13027,7 @@
         <v>181</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12657,7 +13035,7 @@
         <v>183</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12665,7 +13043,7 @@
         <v>185</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12673,7 +13051,7 @@
         <v>187</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12681,7 +13059,7 @@
         <v>189</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12689,7 +13067,7 @@
         <v>191</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12697,7 +13075,7 @@
         <v>193</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12705,7 +13083,7 @@
         <v>195</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12713,7 +13091,7 @@
         <v>197</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12721,7 +13099,7 @@
         <v>199</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12729,7 +13107,7 @@
         <v>201</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12737,7 +13115,7 @@
         <v>203</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12745,7 +13123,7 @@
         <v>205</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12753,7 +13131,7 @@
         <v>207</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12761,7 +13139,7 @@
         <v>209</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12769,7 +13147,7 @@
         <v>211</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12777,7 +13155,7 @@
         <v>213</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12785,7 +13163,7 @@
         <v>215</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12793,7 +13171,7 @@
         <v>217</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12801,7 +13179,7 @@
         <v>219</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12809,7 +13187,7 @@
         <v>221</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12817,7 +13195,7 @@
         <v>223</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12825,7 +13203,7 @@
         <v>225</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12833,7 +13211,7 @@
         <v>227</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12841,7 +13219,7 @@
         <v>229</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>869</v>
+        <v>932</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12849,7 +13227,7 @@
         <v>232</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>869</v>
+        <v>932</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12857,7 +13235,7 @@
         <v>234</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>869</v>
+        <v>932</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12865,7 +13243,7 @@
         <v>236</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>869</v>
+        <v>932</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12873,7 +13251,7 @@
         <v>238</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>869</v>
+        <v>932</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12881,7 +13259,7 @@
         <v>240</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>869</v>
+        <v>932</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12889,7 +13267,7 @@
         <v>242</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>869</v>
+        <v>932</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12897,7 +13275,7 @@
         <v>244</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>869</v>
+        <v>932</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12905,7 +13283,7 @@
         <v>246</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>869</v>
+        <v>932</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12913,7 +13291,7 @@
         <v>248</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>869</v>
+        <v>932</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12921,7 +13299,7 @@
         <v>250</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>869</v>
+        <v>932</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12929,7 +13307,7 @@
         <v>252</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>869</v>
+        <v>932</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12937,7 +13315,7 @@
         <v>254</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>869</v>
+        <v>932</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12945,7 +13323,7 @@
         <v>256</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>869</v>
+        <v>932</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12953,7 +13331,7 @@
         <v>258</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>869</v>
+        <v>932</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12961,7 +13339,7 @@
         <v>260</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12969,7 +13347,7 @@
         <v>263</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12977,7 +13355,7 @@
         <v>265</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12985,7 +13363,7 @@
         <v>267</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12993,7 +13371,7 @@
         <v>269</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13001,7 +13379,7 @@
         <v>271</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13009,7 +13387,7 @@
         <v>273</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13017,7 +13395,7 @@
         <v>275</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13025,7 +13403,7 @@
         <v>277</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13033,7 +13411,7 @@
         <v>279</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13041,7 +13419,7 @@
         <v>281</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13049,7 +13427,7 @@
         <v>283</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13057,7 +13435,7 @@
         <v>285</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13065,7 +13443,7 @@
         <v>287</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13073,7 +13451,7 @@
         <v>289</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13081,7 +13459,7 @@
         <v>291</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13089,7 +13467,7 @@
         <v>293</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13097,7 +13475,7 @@
         <v>295</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13105,7 +13483,7 @@
         <v>297</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13113,7 +13491,7 @@
         <v>299</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13121,7 +13499,7 @@
         <v>301</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13129,7 +13507,7 @@
         <v>303</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13137,7 +13515,7 @@
         <v>305</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>871</v>
+        <v>934</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13145,7 +13523,7 @@
         <v>308</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>871</v>
+        <v>934</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13153,7 +13531,7 @@
         <v>310</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>871</v>
+        <v>934</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13161,7 +13539,7 @@
         <v>312</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>871</v>
+        <v>934</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13169,7 +13547,7 @@
         <v>314</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>871</v>
+        <v>934</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13177,7 +13555,7 @@
         <v>316</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>871</v>
+        <v>934</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13185,7 +13563,7 @@
         <v>318</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>871</v>
+        <v>934</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13193,7 +13571,7 @@
         <v>320</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>871</v>
+        <v>934</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13201,7 +13579,7 @@
         <v>322</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>871</v>
+        <v>934</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13209,7 +13587,7 @@
         <v>324</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>871</v>
+        <v>934</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13217,7 +13595,7 @@
         <v>326</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>871</v>
+        <v>934</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13225,7 +13603,7 @@
         <v>328</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>871</v>
+        <v>934</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13233,7 +13611,7 @@
         <v>330</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>871</v>
+        <v>934</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13241,7 +13619,7 @@
         <v>332</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>871</v>
+        <v>934</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13249,7 +13627,7 @@
         <v>334</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>871</v>
+        <v>934</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13257,7 +13635,7 @@
         <v>336</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>871</v>
+        <v>934</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13265,7 +13643,7 @@
         <v>338</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>871</v>
+        <v>934</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13273,7 +13651,7 @@
         <v>340</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>871</v>
+        <v>934</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13281,7 +13659,7 @@
         <v>342</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13289,7 +13667,7 @@
         <v>346</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13297,7 +13675,7 @@
         <v>349</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13305,7 +13683,7 @@
         <v>352</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13313,7 +13691,7 @@
         <v>355</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13321,7 +13699,7 @@
         <v>358</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13329,7 +13707,7 @@
         <v>361</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13337,7 +13715,7 @@
         <v>364</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13345,7 +13723,7 @@
         <v>367</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13353,7 +13731,7 @@
         <v>370</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13361,7 +13739,7 @@
         <v>373</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13369,7 +13747,7 @@
         <v>376</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13377,7 +13755,7 @@
         <v>379</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13385,7 +13763,7 @@
         <v>382</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13393,7 +13771,7 @@
         <v>385</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13401,7 +13779,7 @@
         <v>388</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13409,7 +13787,7 @@
         <v>391</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13417,7 +13795,7 @@
         <v>394</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13425,7 +13803,7 @@
         <v>397</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13433,7 +13811,7 @@
         <v>400</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13441,7 +13819,7 @@
         <v>403</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13449,7 +13827,7 @@
         <v>406</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13457,7 +13835,7 @@
         <v>409</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13465,7 +13843,7 @@
         <v>412</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13473,7 +13851,7 @@
         <v>415</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13481,7 +13859,7 @@
         <v>418</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13489,7 +13867,7 @@
         <v>421</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13497,7 +13875,7 @@
         <v>424</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13505,7 +13883,7 @@
         <v>427</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13513,7 +13891,7 @@
         <v>430</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13521,7 +13899,7 @@
         <v>433</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13529,7 +13907,7 @@
         <v>436</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13537,7 +13915,7 @@
         <v>439</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13545,7 +13923,7 @@
         <v>442</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13553,7 +13931,7 @@
         <v>445</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13561,7 +13939,7 @@
         <v>448</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13569,7 +13947,7 @@
         <v>451</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13577,7 +13955,7 @@
         <v>454</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13585,7 +13963,7 @@
         <v>457</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13593,7 +13971,7 @@
         <v>460</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13601,7 +13979,7 @@
         <v>463</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13609,7 +13987,7 @@
         <v>466</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13617,7 +13995,7 @@
         <v>469</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13625,7 +14003,7 @@
         <v>472</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13633,7 +14011,7 @@
         <v>475</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13641,7 +14019,7 @@
         <v>478</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13649,7 +14027,7 @@
         <v>481</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13657,7 +14035,7 @@
         <v>484</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13665,7 +14043,7 @@
         <v>487</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13673,7 +14051,7 @@
         <v>490</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13681,7 +14059,7 @@
         <v>493</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13689,7 +14067,7 @@
         <v>496</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13697,7 +14075,7 @@
         <v>499</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>872</v>
+        <v>935</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13705,7 +14083,7 @@
         <v>502</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>871</v>
+        <v>934</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13713,7 +14091,7 @@
         <v>504</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>871</v>
+        <v>934</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13721,7 +14099,7 @@
         <v>506</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>871</v>
+        <v>934</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13729,7 +14107,7 @@
         <v>508</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>871</v>
+        <v>934</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13737,7 +14115,7 @@
         <v>510</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>871</v>
+        <v>934</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13745,7 +14123,7 @@
         <v>512</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>871</v>
+        <v>934</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13753,7 +14131,7 @@
         <v>514</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13761,7 +14139,7 @@
         <v>517</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13769,7 +14147,7 @@
         <v>520</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13777,7 +14155,7 @@
         <v>523</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13785,7 +14163,7 @@
         <v>526</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13793,7 +14171,7 @@
         <v>529</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13801,7 +14179,7 @@
         <v>532</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13809,7 +14187,7 @@
         <v>535</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13817,7 +14195,7 @@
         <v>538</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13825,7 +14203,7 @@
         <v>541</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13833,7 +14211,7 @@
         <v>544</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13841,7 +14219,7 @@
         <v>547</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13849,7 +14227,7 @@
         <v>550</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13857,7 +14235,7 @@
         <v>553</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13865,7 +14243,7 @@
         <v>556</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13873,7 +14251,7 @@
         <v>559</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13881,7 +14259,7 @@
         <v>562</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13889,7 +14267,7 @@
         <v>565</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13897,7 +14275,7 @@
         <v>568</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13905,7 +14283,7 @@
         <v>571</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13913,7 +14291,7 @@
         <v>574</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13921,7 +14299,7 @@
         <v>577</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13929,7 +14307,7 @@
         <v>580</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13937,7 +14315,7 @@
         <v>583</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13945,7 +14323,7 @@
         <v>586</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13953,7 +14331,7 @@
         <v>589</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13961,7 +14339,7 @@
         <v>592</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13969,7 +14347,7 @@
         <v>595</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13977,7 +14355,7 @@
         <v>598</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13985,7 +14363,7 @@
         <v>601</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13993,7 +14371,7 @@
         <v>604</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14001,7 +14379,7 @@
         <v>607</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14009,7 +14387,7 @@
         <v>610</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14017,7 +14395,7 @@
         <v>613</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14025,7 +14403,7 @@
         <v>616</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14033,7 +14411,7 @@
         <v>619</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14041,7 +14419,7 @@
         <v>622</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14049,7 +14427,7 @@
         <v>625</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14057,7 +14435,7 @@
         <v>628</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
     </row>
   </sheetData>

--- a/barcode/Data path barcode.xlsx
+++ b/barcode/Data path barcode.xlsx
@@ -385,7 +385,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="1024">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -3592,6 +3592,394 @@
   </si>
   <si>
     <t xml:space="preserve">turtle_sd12_tat_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мэрилин Монро буквы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1_vert</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Термонаклейка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Одри Хепбёрн </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">буквы</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мэрилин Монро геометрия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Цветы Желтый Мак</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Цветы Розовые Лилии</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5_vert</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Термонаклейка И</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">нь Янь Кошки</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">6_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Лес Гитара Закат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Девушка лицо крылья</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мэрилин Монро фото буквы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9_vert</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Термонаклейка Девушка месяц В</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ан Гог</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">10_vert</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Термонаклейка Цветы Розовые </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ирис</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">11_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Сердце леопардовое</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Сердце разынй окрас</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Сердце Love is Wild</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Цветы Месяц Лотос</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Медуза Горгона черно-белый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Бабочка you are free to fly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Розовый фламинго цветы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Девушка бабочка Ван Гог</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Котенок розовый закат звезды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Кит хвост из волн море океан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Солнце Луна Звезды Астрология</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Черный Кот Звезды Астрология</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Подсолнух Ван Гог</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28_vert</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Термонаклейка Сердце </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Большая волна в Канагаве</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">30_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Секс в большом городе подруги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31_vert</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Термонаклейка Д</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">авид статуя цветы</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">32_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мэрилин Монро Медуза Горгона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Череп цветы Подсолнух Ван Гог</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Пантера рычит звезды розовый фон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Цветы Пионы надпись</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Девушка силует туман лес птицы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Крылья красочные маслом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Кит прягает из воды закат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Кит моряк волны лодка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Синяя бабочка буквы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Микки Маус бабочки цверы силует</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Тукан цветы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мопс Собачка попа секси</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Губы Язык Леопард Роллинг Стоунз</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Леопард жвачка розовые очки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Леопард в зеленых очках</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Минни Маус сумочка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Девушка крылья глаза круг фон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38_vert</t>
   </si>
   <si>
     <t xml:space="preserve">имена</t>
@@ -3786,7 +4174,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3856,6 +4244,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3959,10 +4359,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AO363"/>
+  <dimension ref="A1:AO1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A318" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B287" activeCellId="0" sqref="B287:B349"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A353" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D393" activeCellId="0" sqref="D393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10334,6 +10734,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A242, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза и Анна. Рукав крылышко. Р92.pdf</v>
       </c>
+      <c r="AO242" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="11" t="s">
@@ -10346,6 +10749,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A243, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза и Анна. Рукав крылышко. Р98.pdf</v>
       </c>
+      <c r="AO243" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="11" t="s">
@@ -10358,6 +10764,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A244, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза и Анна. Рукав крылышко. Р104.pdf</v>
       </c>
+      <c r="AO244" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="11" t="s">
@@ -10370,6 +10779,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A245, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза и Анна. Рукав крылышко. Р110.pdf</v>
       </c>
+      <c r="AO245" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="11" t="s">
@@ -10382,6 +10794,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A246, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза и Анна. Рукав крылышко. Р116.pdf</v>
       </c>
+      <c r="AO246" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="11" t="s">
@@ -10394,6 +10809,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A247, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза и Анна. Рукав крылышко. Р122.pdf</v>
       </c>
+      <c r="AO247" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="11" t="s">
@@ -10406,6 +10824,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A248, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза. Холодное сердце. Рукав крыл. Р92.pdf</v>
       </c>
+      <c r="AO248" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="11" t="s">
@@ -10418,6 +10839,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A249, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза. Холодное сердце. Рукав крыл. Р98.pdf</v>
       </c>
+      <c r="AO249" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="11" t="s">
@@ -10430,6 +10854,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A250, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза. Холодное сердце. Рукав крыл. Р104.pdf</v>
       </c>
+      <c r="AO250" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="11" t="s">
@@ -10442,6 +10869,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A251, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза. Холодное сердце. Рукав крыл. Р110.pdf</v>
       </c>
+      <c r="AO251" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="11" t="s">
@@ -10454,6 +10884,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A252, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза. Холодное сердце. Рукав крыл. Р116.pdf</v>
       </c>
+      <c r="AO252" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="11" t="s">
@@ -10466,6 +10899,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A253, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза. Холодное сердце. Рукав крыл. Р122.pdf</v>
       </c>
+      <c r="AO253" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="11" t="s">
@@ -10478,6 +10914,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A254, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Очки сердечки. Рукав крыл. Р92.pdf</v>
       </c>
+      <c r="AO254" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="11" t="s">
@@ -10490,6 +10929,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A255, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Очки сердечки. Рукав крыл. Р98.pdf</v>
       </c>
+      <c r="AO255" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="11" t="s">
@@ -10502,6 +10944,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A256, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Очки сердечки. Рукав крыл. Р104.pdf</v>
       </c>
+      <c r="AO256" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="11" t="s">
@@ -10514,6 +10959,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A257, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Очки сердечки. Рукав крыл. Р110.pdf</v>
       </c>
+      <c r="AO257" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="11" t="s">
@@ -10526,6 +10974,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A258, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Очки сердечки. Рукав крыл. Р116.pdf</v>
       </c>
+      <c r="AO258" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="11" t="s">
@@ -10538,6 +10989,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A259, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Очки сердечки. Рукав крыл. Р122.pdf</v>
       </c>
+      <c r="AO259" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="11" t="s">
@@ -10550,6 +11004,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A260, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Минни Маус. Улыбка. Рукав крыл. Р92.pdf</v>
       </c>
+      <c r="AO260" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="11" t="s">
@@ -10562,6 +11019,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A261, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Минни Маус. Улыбка. Рукав крыл. Р98.pdf</v>
       </c>
+      <c r="AO261" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="11" t="s">
@@ -10574,6 +11034,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A262, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Минни Маус. Улыбка. Рукав крыл. Р104.pdf</v>
       </c>
+      <c r="AO262" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="11" t="s">
@@ -10586,6 +11049,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A263, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Минни Маус. Улыбка. Рукав крыл. Р110.pdf</v>
       </c>
+      <c r="AO263" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="11" t="s">
@@ -10598,6 +11064,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A264, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Минни Маус. Улыбка. Рукав крыл. Р116.pdf</v>
       </c>
+      <c r="AO264" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="11" t="s">
@@ -10610,6 +11079,9 @@
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A265, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Минни Маус. Улыбка. Рукав крыл. Р122.pdf</v>
       </c>
+      <c r="AO265" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="12" t="s">
@@ -10635,6 +11107,9 @@
       <c r="G266" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO266" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="12" t="s">
@@ -10660,6 +11135,9 @@
       <c r="G267" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO267" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="12" t="s">
@@ -10685,6 +11163,9 @@
       <c r="G268" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO268" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="12" t="s">
@@ -10710,6 +11191,9 @@
       <c r="G269" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO269" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="12" t="s">
@@ -10735,6 +11219,9 @@
       <c r="G270" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO270" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="12" t="s">
@@ -10760,6 +11247,9 @@
       <c r="G271" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO271" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="12" t="s">
@@ -10785,6 +11275,9 @@
       <c r="G272" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO272" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="12" t="s">
@@ -10810,6 +11303,9 @@
       <c r="G273" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO273" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="12" t="s">
@@ -10835,6 +11331,9 @@
       <c r="G274" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO274" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="12" t="s">
@@ -10860,6 +11359,9 @@
       <c r="G275" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO275" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="12" t="s">
@@ -10885,6 +11387,9 @@
       <c r="G276" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO276" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="12" t="s">
@@ -10910,6 +11415,9 @@
       <c r="G277" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO277" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="12" t="s">
@@ -10935,6 +11443,9 @@
       <c r="G278" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO278" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="12" t="s">
@@ -10960,6 +11471,9 @@
       <c r="G279" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO279" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="12" t="s">
@@ -10985,6 +11499,9 @@
       <c r="G280" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO280" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="12" t="s">
@@ -11010,6 +11527,9 @@
       <c r="G281" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO281" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="12" t="s">
@@ -11035,6 +11555,9 @@
       <c r="G282" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO282" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="12" t="s">
@@ -11060,6 +11583,9 @@
       <c r="G283" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO283" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="12" t="s">
@@ -11085,6 +11611,9 @@
       <c r="G284" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO284" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="12" t="s">
@@ -11110,6 +11639,9 @@
       <c r="G285" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO285" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="12" t="s">
@@ -11135,6 +11667,9 @@
       <c r="G286" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO286" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="15" t="s">
@@ -11146,6 +11681,10 @@
       <c r="C287" s="0" t="s">
         <v>744</v>
       </c>
+      <c r="D287" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A287, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Барби фон розовый круг.pdf</v>
+      </c>
       <c r="E287" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C287,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\barbie_ar45_tat_vert.tif</v>
@@ -11156,6 +11695,9 @@
       <c r="G287" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO287" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="15" t="s">
@@ -11167,6 +11709,10 @@
       <c r="C288" s="0" t="s">
         <v>747</v>
       </c>
+      <c r="D288" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A288, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Барт с рогаткой Симпсоны.pdf</v>
+      </c>
       <c r="E288" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C288,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\bart_df11_tat_horiz.tif</v>
@@ -11177,6 +11723,9 @@
       <c r="G288" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO288" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="15" t="s">
@@ -11188,6 +11737,10 @@
       <c r="C289" s="0" t="s">
         <v>750</v>
       </c>
+      <c r="D289" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A289, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Котенок в розовой кружке.pdf</v>
+      </c>
       <c r="E289" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C289,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\cat_fg45_tat_vert.tif</v>
@@ -11198,6 +11751,9 @@
       <c r="G289" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO289" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="15" t="s">
@@ -11209,6 +11765,10 @@
       <c r="C290" s="0" t="s">
         <v>753</v>
       </c>
+      <c r="D290" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A290, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Котенок с цветами ромашками.pdf</v>
+      </c>
       <c r="E290" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C290,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\cat_sd12_tat_vert.tif</v>
@@ -11219,6 +11779,9 @@
       <c r="G290" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO290" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="15" t="s">
@@ -11230,6 +11793,10 @@
       <c r="C291" s="0" t="s">
         <v>756</v>
       </c>
+      <c r="D291" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A291, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Котята на качелях.pdf</v>
+      </c>
       <c r="E291" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C291,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\cats_ds34_tat_horiz.tif</v>
@@ -11240,6 +11807,9 @@
       <c r="G291" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO291" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="15" t="s">
@@ -11251,6 +11821,10 @@
       <c r="C292" s="0" t="s">
         <v>759</v>
       </c>
+      <c r="D292" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A292, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Динозавр в очках ест бургер.pdf</v>
+      </c>
       <c r="E292" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C292,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\dino_as12_tat_vert.tif</v>
@@ -11261,6 +11835,9 @@
       <c r="G292" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO292" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="15" t="s">
@@ -11272,6 +11849,10 @@
       <c r="C293" s="0" t="s">
         <v>762</v>
       </c>
+      <c r="D293" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A293, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Собачка в шляпе.pdf</v>
+      </c>
       <c r="E293" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C293,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\dog_ff11_tat_vert.tif</v>
@@ -11282,6 +11863,9 @@
       <c r="G293" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO293" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="15" t="s">
@@ -11293,6 +11877,10 @@
       <c r="C294" s="0" t="s">
         <v>765</v>
       </c>
+      <c r="D294" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A294, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Собачка в очках язык.pdf</v>
+      </c>
       <c r="E294" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C294,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\dog_little_cute_ac12_tat_horiz.tif</v>
@@ -11303,6 +11891,9 @@
       <c r="G294" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO294" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="15" t="s">
@@ -11314,6 +11905,10 @@
       <c r="C295" s="0" t="s">
         <v>768</v>
       </c>
+      <c r="D295" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A295, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Собачка синий бантик.pdf</v>
+      </c>
       <c r="E295" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C295,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\dog_little_cute_af45_vert.tif</v>
@@ -11324,6 +11919,9 @@
       <c r="G295" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO295" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="15" t="s">
@@ -11335,6 +11933,10 @@
       <c r="C296" s="0" t="s">
         <v>771</v>
       </c>
+      <c r="D296" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A296, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Собачка красный бантик.pdf</v>
+      </c>
       <c r="E296" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C296,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\dog_sd12_tat_vert.tif</v>
@@ -11345,6 +11947,9 @@
       <c r="G296" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO296" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="15" t="s">
@@ -11356,6 +11961,10 @@
       <c r="C297" s="0" t="s">
         <v>774</v>
       </c>
+      <c r="D297" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A297, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Эльза Анна Холодное сердце паттерн.pdf</v>
+      </c>
       <c r="E297" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C297,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\elsa_ad11_tat_vert.tif</v>
@@ -11366,6 +11975,9 @@
       <c r="G297" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO297" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="15" t="s">
@@ -11377,6 +11989,10 @@
       <c r="C298" s="0" t="s">
         <v>777</v>
       </c>
+      <c r="D298" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A298, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Эльза Холодное сердце синий круг.pdf</v>
+      </c>
       <c r="E298" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C298,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\elsa_frozen_disneyfg56_tat_vert.tif</v>
@@ -11387,6 +12003,9 @@
       <c r="G298" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO298" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="15" t="s">
@@ -11398,6 +12017,10 @@
       <c r="C299" s="0" t="s">
         <v>780</v>
       </c>
+      <c r="D299" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A299, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Жирафвыглядывает замок одежды.pdf</v>
+      </c>
       <c r="E299" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C299,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\giraf_ab11_tat_vert.tif</v>
@@ -11408,6 +12031,9 @@
       <c r="G299" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO299" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="15" t="s">
@@ -11419,6 +12045,10 @@
       <c r="C300" s="0" t="s">
         <v>783</v>
       </c>
+      <c r="D300" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A300, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Марвел супергерои 4 верт фона.pdf</v>
+      </c>
       <c r="E300" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C300,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\marvel_ag45_tat_horiz.tif</v>
@@ -11429,6 +12059,9 @@
       <c r="G300" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO300" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="15" t="s">
@@ -11440,6 +12073,10 @@
       <c r="C301" s="0" t="s">
         <v>786</v>
       </c>
+      <c r="D301" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A301, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Русалочка поправляет прическу.pdf</v>
+      </c>
       <c r="E301" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C301,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\mermaid_dd11_tat_vert.tif</v>
@@ -11450,6 +12087,9 @@
       <c r="G301" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO301" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="15" t="s">
@@ -11461,6 +12101,10 @@
       <c r="C302" s="0" t="s">
         <v>789</v>
       </c>
+      <c r="D302" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A302, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Миньоны на банане.pdf</v>
+      </c>
       <c r="E302" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C302,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\minions_ed12_tat_horiz.tif</v>
@@ -11471,6 +12115,9 @@
       <c r="G302" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO302" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="15" t="s">
@@ -11482,6 +12129,10 @@
       <c r="C303" s="0" t="s">
         <v>792</v>
       </c>
+      <c r="D303" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A303, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Минни Маус Единорог розовый.pdf</v>
+      </c>
       <c r="E303" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C303,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\minni_mouse_ad11_tat_horiz.tif</v>
@@ -11492,6 +12143,9 @@
       <c r="G303" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO303" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="15" t="s">
@@ -11503,6 +12157,10 @@
       <c r="C304" s="0" t="s">
         <v>795</v>
       </c>
+      <c r="D304" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A304, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Сова розовая.pdf</v>
+      </c>
       <c r="E304" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C304,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\owl_ff11_tat_vert.tif</v>
@@ -11513,6 +12171,9 @@
       <c r="G304" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO304" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="15" t="s">
@@ -11524,6 +12185,10 @@
       <c r="C305" s="0" t="s">
         <v>798</v>
       </c>
+      <c r="D305" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A305, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Щенячий патруль 2 Маршал Крепыш.pdf</v>
+      </c>
       <c r="E305" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C305,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\paw_patrol_as12_tat_vert.tif</v>
@@ -11534,6 +12199,9 @@
       <c r="G305" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO305" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="16" t="s">
@@ -11545,6 +12213,10 @@
       <c r="C306" s="0" t="s">
         <v>801</v>
       </c>
+      <c r="D306" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A306, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Покемоны Пикачу и Эш Кетчум.pdf</v>
+      </c>
       <c r="E306" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C306,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\pokemon_gg44_tat_vert.tif</v>
@@ -11555,6 +12227,9 @@
       <c r="G306" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO306" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="15" t="s">
@@ -11566,6 +12241,10 @@
       <c r="C307" s="0" t="s">
         <v>804</v>
       </c>
+      <c r="D307" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A307, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Винни Пух и друзья на шаре.pdf</v>
+      </c>
       <c r="E307" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C307,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\pooh_qq11_tat_horiz.tif</v>
@@ -11576,6 +12255,9 @@
       <c r="G307" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO307" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="15" t="s">
@@ -11587,6 +12269,10 @@
       <c r="C308" s="0" t="s">
         <v>807</v>
       </c>
+      <c r="D308" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A308, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Зайчик синий комбинезон шагает.pdf</v>
+      </c>
       <c r="E308" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C308,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\rabbit_df12_vert.tif</v>
@@ -11597,6 +12283,9 @@
       <c r="G308" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO308" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="15" t="s">
@@ -11608,6 +12297,10 @@
       <c r="C309" s="0" t="s">
         <v>810</v>
       </c>
+      <c r="D309" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A309, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Зайчик ромашка в руках.pdf</v>
+      </c>
       <c r="E309" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C309,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\rabbit_we11_tat_horiz.tif</v>
@@ -11618,6 +12311,9 @@
       <c r="G309" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO309" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="15" t="s">
@@ -11629,6 +12325,10 @@
       <c r="C310" s="0" t="s">
         <v>813</v>
       </c>
+      <c r="D310" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A310, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Акула серфинг в очках.pdf</v>
+      </c>
       <c r="E310" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C310,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\shark_af45_vert.tif</v>
@@ -11639,6 +12339,9 @@
       <c r="G310" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO310" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="15" t="s">
@@ -11650,6 +12353,10 @@
       <c r="C311" s="0" t="s">
         <v>816</v>
       </c>
+      <c r="D311" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A311, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Соник Ежик бежит пис мир рука.pdf</v>
+      </c>
       <c r="E311" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C311,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\sonic_df45_tat_vert.tif</v>
@@ -11660,6 +12367,9 @@
       <c r="G311" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO311" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="15" t="s">
@@ -11671,6 +12381,10 @@
       <c r="C312" s="0" t="s">
         <v>819</v>
       </c>
+      <c r="D312" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A312, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Соник Ежик бежит синий фон краски.pdf</v>
+      </c>
       <c r="E312" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C312,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\sonic_df46_tat_horiz.tif</v>
@@ -11681,6 +12395,9 @@
       <c r="G312" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO312" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="15" t="s">
@@ -11692,6 +12409,10 @@
       <c r="C313" s="0" t="s">
         <v>822</v>
       </c>
+      <c r="D313" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A313, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Человек Паук Лого позади.pdf</v>
+      </c>
       <c r="E313" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C313,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\spider_ad12_tat_vert.tif</v>
@@ -11702,6 +12423,9 @@
       <c r="G313" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO313" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="15" t="s">
@@ -11713,6 +12437,10 @@
       <c r="C314" s="0" t="s">
         <v>825</v>
       </c>
+      <c r="D314" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A314, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Человек Паук Лого круг.pdf</v>
+      </c>
       <c r="E314" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C314,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\spider_as14_tat_vert.tif</v>
@@ -11723,6 +12451,9 @@
       <c r="G314" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO314" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="15" t="s">
@@ -11734,6 +12465,10 @@
       <c r="C315" s="0" t="s">
         <v>828</v>
       </c>
+      <c r="D315" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A315, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Человек Паук синий желтый круг.pdf</v>
+      </c>
       <c r="E315" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C315,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\spider_cg34_tat_vert.tif</v>
@@ -11744,6 +12479,9 @@
       <c r="G315" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO315" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="15" t="s">
@@ -11755,6 +12493,10 @@
       <c r="C316" s="0" t="s">
         <v>831</v>
       </c>
+      <c r="D316" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A316, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Человек Паук синий белый круг.pdf</v>
+      </c>
       <c r="E316" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C316,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\spider_df12_tat_vert.tif</v>
@@ -11765,6 +12507,9 @@
       <c r="G316" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO316" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="15" t="s">
@@ -11776,6 +12521,10 @@
       <c r="C317" s="0" t="s">
         <v>834</v>
       </c>
+      <c r="D317" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A317, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Человек Паук круг надпись снизу.pdf</v>
+      </c>
       <c r="E317" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C317,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\spider_df45_tat_vert.tif</v>
@@ -11786,6 +12535,9 @@
       <c r="G317" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO317" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="15" t="s">
@@ -11797,6 +12549,10 @@
       <c r="C318" s="0" t="s">
         <v>837</v>
       </c>
+      <c r="D318" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A318, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Человек Паук круг красный синий.pdf</v>
+      </c>
       <c r="E318" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C318,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\spider_fg56_tat_vert.tif</v>
@@ -11807,6 +12563,9 @@
       <c r="G318" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO318" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="15" t="s">
@@ -11818,6 +12577,10 @@
       <c r="C319" s="0" t="s">
         <v>840</v>
       </c>
+      <c r="D319" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A319, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Спанч Боб и друзья.pdf</v>
+      </c>
       <c r="E319" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C319,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\spunch bob_ab11_tat_vert.tif</v>
@@ -11828,6 +12591,9 @@
       <c r="G319" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO319" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="15" t="s">
@@ -11839,6 +12605,10 @@
       <c r="C320" s="0" t="s">
         <v>843</v>
       </c>
+      <c r="D320" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A320, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Спанч Боб и друзья Keep Vibes.pdf</v>
+      </c>
       <c r="E320" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C320,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\spunch bob_as12_tat_vert.tif</v>
@@ -11849,6 +12619,9 @@
       <c r="G320" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO320" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="15" t="s">
@@ -11860,6 +12633,10 @@
       <c r="C321" s="0" t="s">
         <v>846</v>
       </c>
+      <c r="D321" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A321, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Лило и Стич сидят.pdf</v>
+      </c>
       <c r="E321" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C321,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\stich_as11_tat_horiz.tif</v>
@@ -11870,6 +12647,9 @@
       <c r="G321" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO321" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="15" t="s">
@@ -11881,6 +12661,10 @@
       <c r="C322" s="0" t="s">
         <v>849</v>
       </c>
+      <c r="D322" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A322, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Единороги голубой и розовый.pdf</v>
+      </c>
       <c r="E322" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C322,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\unicorn_af41_tat_horiz.tif</v>
@@ -11891,6 +12675,9 @@
       <c r="G322" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO322" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="15" t="s">
@@ -11902,6 +12689,10 @@
       <c r="C323" s="0" t="s">
         <v>852</v>
       </c>
+      <c r="D323" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A323, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Единорог с ромашкой сердечки.pdf</v>
+      </c>
       <c r="E323" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C323,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\unicorn_er43_tat_vert.tif</v>
@@ -11912,6 +12703,9 @@
       <c r="G323" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO323" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="15" t="s">
@@ -11923,6 +12717,10 @@
       <c r="C324" s="0" t="s">
         <v>855</v>
       </c>
+      <c r="D324" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A324, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Три Миньона бегут.pdf</v>
+      </c>
       <c r="E324" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C324,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\minions_ab12_tat_horiz.tif</v>
@@ -11933,6 +12731,9 @@
       <c r="G324" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO324" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="15" t="s">
@@ -11944,6 +12745,10 @@
       <c r="C325" s="0" t="s">
         <v>858</v>
       </c>
+      <c r="D325" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A325, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Котенок с шариком сердечко.pdf</v>
+      </c>
       <c r="E325" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C325,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\cat_ag1_tat_horiz.tif</v>
@@ -11954,6 +12759,9 @@
       <c r="G325" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO325" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="15" t="s">
@@ -11965,6 +12773,10 @@
       <c r="C326" s="0" t="s">
         <v>861</v>
       </c>
+      <c r="D326" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A326, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Миньон с бананами.pdf</v>
+      </c>
       <c r="E326" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C326,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\minions_sd12_tat_horiz.tif</v>
@@ -11975,6 +12787,9 @@
       <c r="G326" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO326" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="15" t="s">
@@ -11986,6 +12801,10 @@
       <c r="C327" s="0" t="s">
         <v>864</v>
       </c>
+      <c r="D327" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A327, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Зайка балерина.pdf</v>
+      </c>
       <c r="E327" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C327,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\rabbit_ds34_tat_horiz.tif</v>
@@ -11996,6 +12815,9 @@
       <c r="G327" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO327" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="15" t="s">
@@ -12007,6 +12829,10 @@
       <c r="C328" s="0" t="s">
         <v>867</v>
       </c>
+      <c r="D328" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A328, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Динозавр в очках играет на гитаре.pdf</v>
+      </c>
       <c r="E328" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C328,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\dino_as22_tat_vert.tif</v>
@@ -12017,6 +12843,9 @@
       <c r="G328" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO328" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="15" t="s">
@@ -12028,6 +12857,10 @@
       <c r="C329" s="0" t="s">
         <v>870</v>
       </c>
+      <c r="D329" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A329, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Единорог ресницы цветы уши.pdf</v>
+      </c>
       <c r="E329" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C329,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\unicorn_ad12_tat_vert.tif</v>
@@ -12038,6 +12871,9 @@
       <c r="G329" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO329" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="15" t="s">
@@ -12049,6 +12885,10 @@
       <c r="C330" s="0" t="s">
         <v>873</v>
       </c>
+      <c r="D330" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A330, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Лисенок с кружкой.pdf</v>
+      </c>
       <c r="E330" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C330,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\fox_as22_tat_vert.tif</v>
@@ -12059,6 +12899,9 @@
       <c r="G330" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO330" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="15" t="s">
@@ -12070,6 +12913,10 @@
       <c r="C331" s="0" t="s">
         <v>876</v>
       </c>
+      <c r="D331" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A331, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Микки Маус показывает язык.pdf</v>
+      </c>
       <c r="E331" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set1\",C331,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set1\mickey_df11_tat_vert.tif</v>
@@ -12080,6 +12927,9 @@
       <c r="G331" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AO331" s="0" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="332" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="17" t="s">
@@ -12091,6 +12941,10 @@
       <c r="C332" s="0" t="s">
         <v>879</v>
       </c>
+      <c r="D332" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A332, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Одри Хепбёрн холст Vogue.pdf</v>
+      </c>
       <c r="E332" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C332,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\Audrey Hepburn_gf11_vert.tif</v>
@@ -12101,6 +12955,9 @@
       <c r="G332" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO332" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="17" t="s">
@@ -12112,6 +12969,10 @@
       <c r="C333" s="0" t="s">
         <v>882</v>
       </c>
+      <c r="D333" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A333, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Черный Кот Силует астрономия.pdf</v>
+      </c>
       <c r="E333" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C333,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\cat_df12_tat_vert.tif</v>
@@ -12122,6 +12983,9 @@
       <c r="G333" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO333" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="17" t="s">
@@ -12133,6 +12997,10 @@
       <c r="C334" s="0" t="s">
         <v>885</v>
       </c>
+      <c r="D334" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A334, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Аниме девочка белые волосы уши кошки.pdf</v>
+      </c>
       <c r="E334" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C334,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\girl_anime_gf11_vert.tif</v>
@@ -12143,6 +13011,9 @@
       <c r="G334" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO334" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="17" t="s">
@@ -12154,6 +13025,10 @@
       <c r="C335" s="0" t="s">
         <v>888</v>
       </c>
+      <c r="D335" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A335, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Аниме девочка черные очки язык.pdf</v>
+      </c>
       <c r="E335" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C335,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\girl_explicit_gf11_vert.tif</v>
@@ -12164,6 +13039,9 @@
       <c r="G335" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO335" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="17" t="s">
@@ -12175,6 +13053,10 @@
       <c r="C336" s="0" t="s">
         <v>891</v>
       </c>
+      <c r="D336" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A336, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Девушка гладиолус цветы.pdf</v>
+      </c>
       <c r="E336" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C336,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\girl_flower_af11_vert.tif</v>
@@ -12185,6 +13067,9 @@
       <c r="G336" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO336" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="17" t="s">
@@ -12196,6 +13081,10 @@
       <c r="C337" s="0" t="s">
         <v>894</v>
       </c>
+      <c r="D337" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A337, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Девушка холст растут цветы.pdf</v>
+      </c>
       <c r="E337" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C337,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\girl_flowers_gf11_vert.tif</v>
@@ -12206,6 +13095,9 @@
       <c r="G337" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO337" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="17" t="s">
@@ -12217,6 +13109,10 @@
       <c r="C338" s="0" t="s">
         <v>897</v>
       </c>
+      <c r="D338" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A338, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Девушка на закате держат руки море.pdf</v>
+      </c>
       <c r="E338" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C338,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\girl_hold_hands_gf11_vert.tif</v>
@@ -12227,6 +13123,9 @@
       <c r="G338" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO338" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="17" t="s">
@@ -12238,6 +13137,10 @@
       <c r="C339" s="0" t="s">
         <v>900</v>
       </c>
+      <c r="D339" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A339, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Леопардовое сердце розовое.pdf</v>
+      </c>
       <c r="E339" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C339,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\heart_ab11_tat_horiz.tif</v>
@@ -12248,6 +13151,9 @@
       <c r="G339" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO339" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="17" t="s">
@@ -12259,6 +13165,10 @@
       <c r="C340" s="0" t="s">
         <v>903</v>
       </c>
+      <c r="D340" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A340, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Сердце отпечаток пальца красный.pdf</v>
+      </c>
       <c r="E340" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C340,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\heart_ff11_tat_horiz.tif</v>
@@ -12269,6 +13179,9 @@
       <c r="G340" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO340" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="17" t="s">
@@ -12280,6 +13193,10 @@
       <c r="C341" s="0" t="s">
         <v>906</v>
       </c>
+      <c r="D341" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A341, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Девушка макияж Хэллоуин.pdf</v>
+      </c>
       <c r="E341" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C341,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\hellowing_q12_vert.tif</v>
@@ -12290,6 +13207,9 @@
       <c r="G341" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO341" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="17" t="s">
@@ -12301,6 +13221,10 @@
       <c r="C342" s="0" t="s">
         <v>909</v>
       </c>
+      <c r="D342" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A342, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Девушка силует обнимают природа.pdf</v>
+      </c>
       <c r="E342" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C342,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\lady_back_gf11_vert.tif</v>
@@ -12311,6 +13235,9 @@
       <c r="G342" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO342" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="17" t="s">
@@ -12322,6 +13249,10 @@
       <c r="C343" s="0" t="s">
         <v>912</v>
       </c>
+      <c r="D343" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A343, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Лев Краски Дизайн.pdf</v>
+      </c>
       <c r="E343" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C343,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\lion_dd45_tat_vert.tif</v>
@@ -12332,6 +13263,9 @@
       <c r="G343" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO343" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="17" t="s">
@@ -12343,6 +13277,10 @@
       <c r="C344" s="0" t="s">
         <v>915</v>
       </c>
+      <c r="D344" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A344, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Губы Язык Краски Дизайн.pdf</v>
+      </c>
       <c r="E344" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C344,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\lips_ss11_tat_vert.tif</v>
@@ -12353,6 +13291,9 @@
       <c r="G344" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO344" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="17" t="s">
@@ -12364,6 +13305,10 @@
       <c r="C345" s="0" t="s">
         <v>918</v>
       </c>
+      <c r="D345" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A345, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Мэрилин Монро Поп арт жвачка.pdf</v>
+      </c>
       <c r="E345" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C345,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\marylin_monroe_af11_vert.tif</v>
@@ -12374,6 +13319,9 @@
       <c r="G345" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO345" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="17" t="s">
@@ -12385,6 +13333,10 @@
       <c r="C346" s="0" t="s">
         <v>921</v>
       </c>
+      <c r="D346" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A346, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Сейлор Мун Sailor Moon радуется.pdf</v>
+      </c>
       <c r="E346" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C346,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\sailor_moon_as14_vert.tif</v>
@@ -12395,6 +13347,9 @@
       <c r="G346" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO346" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="17" t="s">
@@ -12406,6 +13361,10 @@
       <c r="C347" s="0" t="s">
         <v>924</v>
       </c>
+      <c r="D347" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A347, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Сейлор Мун Sailor Moon голубой фон.pdf</v>
+      </c>
       <c r="E347" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C347,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\sailor_moon_q12_vert.tif</v>
@@ -12416,6 +13375,9 @@
       <c r="G347" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO347" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="17" t="s">
@@ -12427,6 +13389,10 @@
       <c r="C348" s="0" t="s">
         <v>927</v>
       </c>
+      <c r="D348" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A348, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Тигр Краски Дизайн.pdf</v>
+      </c>
       <c r="E348" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C348,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\tiger_gg11_vert.tif</v>
@@ -12437,6 +13403,9 @@
       <c r="G348" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AO348" s="0" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="17" t="s">
@@ -12448,6 +13417,10 @@
       <c r="C349" s="0" t="s">
         <v>930</v>
       </c>
+      <c r="D349" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A349, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Морская Черепаха Море силует.pdf</v>
+      </c>
       <c r="E349" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set1\",C349,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set1\turtle_sd12_tat_vert.tif</v>
@@ -12458,21 +13431,1116 @@
       <c r="G349" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="AO349" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="17" t="s">
+        <v>931</v>
+      </c>
+      <c r="C350" s="0" t="s">
+        <v>932</v>
+      </c>
+      <c r="D350" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A350, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Мэрилин Монро буквы.pdf</v>
+      </c>
+      <c r="E350" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C350,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\1_vert.tif</v>
+      </c>
+      <c r="F350" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G350" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO350" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="17" t="s">
+        <v>933</v>
+      </c>
+      <c r="C351" s="0" t="s">
+        <v>934</v>
+      </c>
+      <c r="D351" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A351, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Одри Хепбёрн буквы.pdf</v>
+      </c>
+      <c r="E351" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C351,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\2_vert.tif</v>
+      </c>
+      <c r="F351" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G351" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO351" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="17" t="s">
+        <v>935</v>
+      </c>
+      <c r="C352" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="D352" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A352, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Мэрилин Монро геометрия.pdf</v>
+      </c>
+      <c r="E352" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C352,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\3_vert.tif</v>
+      </c>
+      <c r="F352" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G352" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO352" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="17" t="s">
+        <v>937</v>
+      </c>
+      <c r="C353" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="D353" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A353, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Цветы Желтый Мак.pdf</v>
+      </c>
+      <c r="E353" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C353,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\4_vert.tif</v>
+      </c>
+      <c r="F353" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G353" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO353" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="17" t="s">
+        <v>939</v>
+      </c>
+      <c r="C354" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="D354" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A354, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Цветы Розовые Лилии.pdf</v>
+      </c>
+      <c r="E354" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C354,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\5_vert.tif</v>
+      </c>
+      <c r="F354" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G354" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO354" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="18" t="s">
+        <v>941</v>
+      </c>
+      <c r="C355" s="0" t="s">
+        <v>942</v>
+      </c>
+      <c r="D355" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A355, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Инь Янь Кошки.pdf</v>
+      </c>
+      <c r="E355" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C355,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\6_vert.tif</v>
+      </c>
+      <c r="F355" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G355" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO355" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="18" t="s">
+        <v>943</v>
+      </c>
+      <c r="C356" s="0" t="s">
+        <v>944</v>
+      </c>
+      <c r="D356" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A356, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Лес Гитара Закат.pdf</v>
+      </c>
+      <c r="E356" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C356,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\7_horiz.tif</v>
+      </c>
+      <c r="F356" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G356" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO356" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="18" t="s">
+        <v>945</v>
+      </c>
+      <c r="C357" s="0" t="s">
+        <v>946</v>
+      </c>
+      <c r="D357" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A357, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Девушка лицо крылья.pdf</v>
+      </c>
+      <c r="E357" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C357,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\8_vert.tif</v>
+      </c>
+      <c r="F357" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G357" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO357" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="17" t="s">
+        <v>947</v>
+      </c>
+      <c r="C358" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="D358" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A358, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Мэрилин Монро фото буквы.pdf</v>
+      </c>
+      <c r="E358" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C358,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\9_vert.tif</v>
+      </c>
+      <c r="F358" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G358" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO358" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="18" t="s">
+        <v>949</v>
+      </c>
+      <c r="C359" s="0" t="s">
+        <v>950</v>
+      </c>
+      <c r="D359" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A359, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Девушка месяц Ван Гог.pdf</v>
+      </c>
+      <c r="E359" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C359,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\10_vert.tif</v>
+      </c>
+      <c r="F359" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G359" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO359" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="18" t="s">
+        <v>951</v>
+      </c>
+      <c r="C360" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="D360" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A359, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Девушка месяц Ван Гог.pdf</v>
+      </c>
+      <c r="E360" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C360,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\11_vert.tif</v>
+      </c>
+      <c r="F360" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G360" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO360" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="18" t="s">
+        <v>953</v>
+      </c>
+      <c r="C361" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="D361" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A360, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Цветы Розовые Ирис.pdf</v>
+      </c>
+      <c r="E361" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C361,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\13_vert.tif</v>
+      </c>
+      <c r="F361" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G361" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO361" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="18" t="s">
+        <v>955</v>
+      </c>
+      <c r="C362" s="0" t="s">
+        <v>956</v>
+      </c>
+      <c r="D362" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A362, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Сердце разынй окрас.pdf</v>
+      </c>
+      <c r="E362" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C362,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\14_vert.tif</v>
+      </c>
+      <c r="F362" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G362" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO362" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C363" s="0" t="s">
+        <v>958</v>
+      </c>
+      <c r="D363" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A363, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Сердце Love is Wild.pdf</v>
+      </c>
+      <c r="E363" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C363,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\15_vert.tif</v>
+      </c>
+      <c r="F363" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G363" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO363" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="18" t="s">
+        <v>959</v>
+      </c>
+      <c r="C364" s="0" t="s">
+        <v>960</v>
+      </c>
+      <c r="D364" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A364, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Цветы Месяц Лотос.pdf</v>
+      </c>
+      <c r="E364" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C364,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\16_vert.tif</v>
+      </c>
+      <c r="F364" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G364" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO364" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="18" t="s">
+        <v>961</v>
+      </c>
+      <c r="C365" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="D365" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A365, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Медуза Горгона черно-белый.pdf</v>
+      </c>
+      <c r="E365" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C365,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\17_vert.tif</v>
+      </c>
+      <c r="F365" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G365" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO365" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="18" t="s">
+        <v>963</v>
+      </c>
+      <c r="C366" s="0" t="s">
+        <v>964</v>
+      </c>
+      <c r="D366" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A366, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Бабочка you are free to fly.pdf</v>
+      </c>
+      <c r="E366" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C366,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\18_vert.tif</v>
+      </c>
+      <c r="F366" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G366" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO366" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="18" t="s">
+        <v>965</v>
+      </c>
+      <c r="C367" s="0" t="s">
+        <v>966</v>
+      </c>
+      <c r="D367" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A367, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Розовый фламинго цветы.pdf</v>
+      </c>
+      <c r="E367" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C367,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\19_vert.tif</v>
+      </c>
+      <c r="F367" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G367" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO367" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="18" t="s">
+        <v>967</v>
+      </c>
+      <c r="C368" s="0" t="s">
+        <v>968</v>
+      </c>
+      <c r="D368" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A368, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Девушка бабочка Ван Гог.pdf</v>
+      </c>
+      <c r="E368" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C368,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\20_vert.tif</v>
+      </c>
+      <c r="F368" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G368" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO368" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="18" t="s">
+        <v>969</v>
+      </c>
+      <c r="C369" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="D369" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A369, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Котенок розовый закат звезды.pdf</v>
+      </c>
+      <c r="E369" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C369,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\21_vert.tif</v>
+      </c>
+      <c r="F369" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G369" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO369" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="18" t="s">
+        <v>971</v>
+      </c>
+      <c r="C370" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="D370" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A370, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Кит хвост из волн море океан.pdf</v>
+      </c>
+      <c r="E370" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C370,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\22_horiz.tif</v>
+      </c>
+      <c r="F370" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G370" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO370" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="18" t="s">
+        <v>973</v>
+      </c>
+      <c r="C371" s="0" t="s">
+        <v>974</v>
+      </c>
+      <c r="D371" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A371, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Солнце Луна Звезды Астрология.pdf</v>
+      </c>
+      <c r="E371" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C371,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\23_vert.tif</v>
+      </c>
+      <c r="F371" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G371" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO371" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="18" t="s">
+        <v>975</v>
+      </c>
+      <c r="C372" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="D372" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A372, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Черный Кот Звезды Астрология.pdf</v>
+      </c>
+      <c r="E372" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C372,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\24_vert.tif</v>
+      </c>
+      <c r="F372" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G372" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO372" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="18" t="s">
+        <v>977</v>
+      </c>
+      <c r="C373" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="D373" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A373, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Подсолнух Ван Гог.pdf</v>
+      </c>
+      <c r="E373" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C373,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\28_vert.tif</v>
+      </c>
+      <c r="F373" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G373" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO373" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="18" t="s">
+        <v>979</v>
+      </c>
+      <c r="C374" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="D374" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A374, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Сердце Большая волна в Канагаве.pdf</v>
+      </c>
+      <c r="E374" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C374,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\30_vert.tif</v>
+      </c>
+      <c r="F374" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G374" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO374" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="18" t="s">
+        <v>981</v>
+      </c>
+      <c r="C375" s="0" t="s">
+        <v>982</v>
+      </c>
+      <c r="D375" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A375, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Секс в большом городе подруги.pdf</v>
+      </c>
+      <c r="E375" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C375,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\31_vert.tif</v>
+      </c>
+      <c r="F375" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G375" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO375" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="18" t="s">
+        <v>983</v>
+      </c>
+      <c r="C376" s="0" t="s">
+        <v>984</v>
+      </c>
+      <c r="D376" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A375, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Секс в большом городе подруги.pdf</v>
+      </c>
+      <c r="E376" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C376,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\32_vert.tif</v>
+      </c>
+      <c r="F376" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G376" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO376" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="17" t="s">
+        <v>985</v>
+      </c>
+      <c r="C377" s="0" t="s">
+        <v>986</v>
+      </c>
+      <c r="D377" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A376, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Давид статуя цветы.pdf</v>
+      </c>
+      <c r="E377" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C377,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\33_vert.tif</v>
+      </c>
+      <c r="F377" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G377" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO377" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="17" t="s">
+        <v>987</v>
+      </c>
+      <c r="C378" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="D378" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A377, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Мэрилин Монро Медуза Горгона.pdf</v>
+      </c>
+      <c r="E378" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C378,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\34_vert.tif</v>
+      </c>
+      <c r="F378" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G378" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO378" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="17" t="s">
+        <v>989</v>
+      </c>
+      <c r="C379" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="D379" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A378, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Череп цветы Подсолнух Ван Гог.pdf</v>
+      </c>
+      <c r="E379" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C379,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\35_vert.tif</v>
+      </c>
+      <c r="F379" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G379" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO379" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="17" t="s">
+        <v>991</v>
+      </c>
+      <c r="C380" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="D380" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A380, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Цветы Пионы надпись.pdf</v>
+      </c>
+      <c r="E380" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C380,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\36_vert.tif</v>
+      </c>
+      <c r="F380" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G380" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO380" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="17" t="s">
+        <v>993</v>
+      </c>
+      <c r="C381" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="D381" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A381, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Девушка силует туман лес птицы.pdf</v>
+      </c>
+      <c r="E381" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C381,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\37_vert.tif</v>
+      </c>
+      <c r="F381" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G381" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO381" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="17" t="s">
+        <v>995</v>
+      </c>
+      <c r="C382" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="D382" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A393, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Девушка крылья глаза круг фон.pdf</v>
+      </c>
+      <c r="E382" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C382,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\39_horiz.tif</v>
+      </c>
+      <c r="F382" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G382" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO382" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="17" t="s">
+        <v>997</v>
+      </c>
+      <c r="C383" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="D383" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A382, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Крылья красочные маслом.pdf</v>
+      </c>
+      <c r="E383" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C383,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\40_vert.tif</v>
+      </c>
+      <c r="F383" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G383" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO383" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="17" t="s">
+        <v>999</v>
+      </c>
+      <c r="C384" s="0" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D384" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A383, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Кит прягает из воды закат.pdf</v>
+      </c>
+      <c r="E384" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C384,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\41_vert.tif</v>
+      </c>
+      <c r="F384" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G384" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO384" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="17" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C385" s="0" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D385" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A385, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Синяя бабочка буквы.pdf</v>
+      </c>
+      <c r="E385" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C385,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\42_horiz.tif</v>
+      </c>
+      <c r="F385" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G385" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO385" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C386" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D386" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A386, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Микки Маус бабочки цверы силует.pdf</v>
+      </c>
+      <c r="E386" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C386,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\44_horiz.tif</v>
+      </c>
+      <c r="F386" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G386" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO386" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="17" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C387" s="0" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D387" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A387, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Тукан цветы.pdf</v>
+      </c>
+      <c r="E387" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C387,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\47_vert.tif</v>
+      </c>
+      <c r="F387" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G387" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO387" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C388" s="0" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D388" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A388, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Мопс Собачка попа секси.pdf</v>
+      </c>
+      <c r="E388" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C388,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\50_vert.tif</v>
+      </c>
+      <c r="F388" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G388" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO388" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="389" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="19" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C389" s="20" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D389" s="20" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A389, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Губы Язык Леопард Роллинг Стоунз.pdf</v>
+      </c>
+      <c r="E389" s="20" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C389,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\46_vert.tif</v>
+      </c>
+      <c r="F389" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G389" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO389" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="19" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C390" s="0" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D390" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A390, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Леопард жвачка розовые очки.pdf</v>
+      </c>
+      <c r="E390" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C390,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\48_vert.tif</v>
+      </c>
+      <c r="F390" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G390" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO390" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="19" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C391" s="0" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D391" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A391, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Леопард в зеленых очках.pdf</v>
+      </c>
+      <c r="E391" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C391,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\45_vert.tif</v>
+      </c>
+      <c r="F391" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G391" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO391" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="19" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C392" s="0" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D392" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A392, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Минни Маус сумочка.pdf</v>
+      </c>
+      <c r="E392" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C392,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\49_vert.tif</v>
+      </c>
+      <c r="F392" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G392" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO392" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="19" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C393" s="0" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D393" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A393, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Девушка крылья глаза круг фон.pdf</v>
+      </c>
+      <c r="E393" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C393,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\38_vert.tif</v>
+      </c>
+      <c r="F393" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G393" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO393" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="A144">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -12512,7 +14580,7 @@
   <dimension ref="A2:B241"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A206" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="B287:B349 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12531,7 +14599,7 @@
         <v>56</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12539,7 +14607,7 @@
         <v>59</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12547,7 +14615,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12555,7 +14623,7 @@
         <v>63</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12563,7 +14631,7 @@
         <v>65</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12571,7 +14639,7 @@
         <v>67</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12579,7 +14647,7 @@
         <v>69</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12587,7 +14655,7 @@
         <v>71</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12595,7 +14663,7 @@
         <v>73</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12603,7 +14671,7 @@
         <v>75</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12611,7 +14679,7 @@
         <v>77</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12619,7 +14687,7 @@
         <v>79</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12627,7 +14695,7 @@
         <v>81</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12635,7 +14703,7 @@
         <v>83</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12643,7 +14711,7 @@
         <v>85</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12651,7 +14719,7 @@
         <v>87</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12659,7 +14727,7 @@
         <v>89</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12667,7 +14735,7 @@
         <v>91</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12675,7 +14743,7 @@
         <v>93</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12683,7 +14751,7 @@
         <v>95</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12691,7 +14759,7 @@
         <v>97</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12699,7 +14767,7 @@
         <v>99</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12707,7 +14775,7 @@
         <v>101</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12715,7 +14783,7 @@
         <v>103</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12723,7 +14791,7 @@
         <v>105</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12731,7 +14799,7 @@
         <v>107</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12739,7 +14807,7 @@
         <v>109</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12747,7 +14815,7 @@
         <v>111</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12755,7 +14823,7 @@
         <v>113</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12763,7 +14831,7 @@
         <v>115</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12771,7 +14839,7 @@
         <v>117</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12779,7 +14847,7 @@
         <v>119</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12787,7 +14855,7 @@
         <v>121</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12795,7 +14863,7 @@
         <v>123</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12803,7 +14871,7 @@
         <v>125</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12811,7 +14879,7 @@
         <v>127</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12819,7 +14887,7 @@
         <v>129</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12827,7 +14895,7 @@
         <v>131</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12835,7 +14903,7 @@
         <v>133</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12843,7 +14911,7 @@
         <v>135</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12851,7 +14919,7 @@
         <v>137</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12859,7 +14927,7 @@
         <v>139</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12867,7 +14935,7 @@
         <v>141</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12875,7 +14943,7 @@
         <v>143</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12883,7 +14951,7 @@
         <v>145</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12891,7 +14959,7 @@
         <v>147</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12899,7 +14967,7 @@
         <v>149</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12907,7 +14975,7 @@
         <v>151</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12915,7 +14983,7 @@
         <v>153</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12923,7 +14991,7 @@
         <v>155</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12931,7 +14999,7 @@
         <v>157</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12939,7 +15007,7 @@
         <v>159</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12947,7 +15015,7 @@
         <v>161</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12955,7 +15023,7 @@
         <v>163</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12963,7 +15031,7 @@
         <v>165</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12971,7 +15039,7 @@
         <v>167</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12979,7 +15047,7 @@
         <v>169</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12987,7 +15055,7 @@
         <v>171</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12995,7 +15063,7 @@
         <v>173</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13003,7 +15071,7 @@
         <v>175</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13011,7 +15079,7 @@
         <v>177</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13019,7 +15087,7 @@
         <v>179</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13027,7 +15095,7 @@
         <v>181</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13035,7 +15103,7 @@
         <v>183</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13043,7 +15111,7 @@
         <v>185</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13051,7 +15119,7 @@
         <v>187</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13059,7 +15127,7 @@
         <v>189</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13067,7 +15135,7 @@
         <v>191</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13075,7 +15143,7 @@
         <v>193</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13083,7 +15151,7 @@
         <v>195</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13091,7 +15159,7 @@
         <v>197</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13099,7 +15167,7 @@
         <v>199</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13107,7 +15175,7 @@
         <v>201</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13115,7 +15183,7 @@
         <v>203</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13123,7 +15191,7 @@
         <v>205</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13131,7 +15199,7 @@
         <v>207</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13139,7 +15207,7 @@
         <v>209</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13147,7 +15215,7 @@
         <v>211</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13155,7 +15223,7 @@
         <v>213</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13163,7 +15231,7 @@
         <v>215</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13171,7 +15239,7 @@
         <v>217</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13179,7 +15247,7 @@
         <v>219</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13187,7 +15255,7 @@
         <v>221</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13195,7 +15263,7 @@
         <v>223</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13203,7 +15271,7 @@
         <v>225</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13211,7 +15279,7 @@
         <v>227</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13219,7 +15287,7 @@
         <v>229</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>932</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13227,7 +15295,7 @@
         <v>232</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>932</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13235,7 +15303,7 @@
         <v>234</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>932</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13243,7 +15311,7 @@
         <v>236</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>932</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13251,7 +15319,7 @@
         <v>238</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>932</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13259,7 +15327,7 @@
         <v>240</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>932</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13267,7 +15335,7 @@
         <v>242</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>932</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13275,7 +15343,7 @@
         <v>244</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>932</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13283,7 +15351,7 @@
         <v>246</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>932</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13291,7 +15359,7 @@
         <v>248</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>932</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13299,7 +15367,7 @@
         <v>250</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>932</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13307,7 +15375,7 @@
         <v>252</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>932</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13315,7 +15383,7 @@
         <v>254</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>932</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13323,7 +15391,7 @@
         <v>256</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>932</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13331,7 +15399,7 @@
         <v>258</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>932</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13339,7 +15407,7 @@
         <v>260</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13347,7 +15415,7 @@
         <v>263</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13355,7 +15423,7 @@
         <v>265</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13363,7 +15431,7 @@
         <v>267</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13371,7 +15439,7 @@
         <v>269</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13379,7 +15447,7 @@
         <v>271</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13387,7 +15455,7 @@
         <v>273</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13395,7 +15463,7 @@
         <v>275</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13403,7 +15471,7 @@
         <v>277</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13411,7 +15479,7 @@
         <v>279</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13419,7 +15487,7 @@
         <v>281</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13427,7 +15495,7 @@
         <v>283</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13435,7 +15503,7 @@
         <v>285</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13443,7 +15511,7 @@
         <v>287</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13451,7 +15519,7 @@
         <v>289</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13459,7 +15527,7 @@
         <v>291</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13467,7 +15535,7 @@
         <v>293</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13475,7 +15543,7 @@
         <v>295</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13483,7 +15551,7 @@
         <v>297</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13491,7 +15559,7 @@
         <v>299</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13499,7 +15567,7 @@
         <v>301</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13507,7 +15575,7 @@
         <v>303</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13515,7 +15583,7 @@
         <v>305</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>934</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13523,7 +15591,7 @@
         <v>308</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>934</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13531,7 +15599,7 @@
         <v>310</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>934</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13539,7 +15607,7 @@
         <v>312</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>934</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13547,7 +15615,7 @@
         <v>314</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>934</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13555,7 +15623,7 @@
         <v>316</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>934</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13563,7 +15631,7 @@
         <v>318</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>934</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13571,7 +15639,7 @@
         <v>320</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>934</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13579,7 +15647,7 @@
         <v>322</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>934</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13587,7 +15655,7 @@
         <v>324</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>934</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13595,7 +15663,7 @@
         <v>326</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>934</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13603,7 +15671,7 @@
         <v>328</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>934</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13611,7 +15679,7 @@
         <v>330</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>934</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13619,7 +15687,7 @@
         <v>332</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>934</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13627,7 +15695,7 @@
         <v>334</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>934</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13635,7 +15703,7 @@
         <v>336</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>934</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13643,7 +15711,7 @@
         <v>338</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>934</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13651,7 +15719,7 @@
         <v>340</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>934</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13659,7 +15727,7 @@
         <v>342</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13667,7 +15735,7 @@
         <v>346</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13675,7 +15743,7 @@
         <v>349</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13683,7 +15751,7 @@
         <v>352</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13691,7 +15759,7 @@
         <v>355</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13699,7 +15767,7 @@
         <v>358</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13707,7 +15775,7 @@
         <v>361</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13715,7 +15783,7 @@
         <v>364</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13723,7 +15791,7 @@
         <v>367</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13731,7 +15799,7 @@
         <v>370</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13739,7 +15807,7 @@
         <v>373</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13747,7 +15815,7 @@
         <v>376</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13755,7 +15823,7 @@
         <v>379</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13763,7 +15831,7 @@
         <v>382</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13771,7 +15839,7 @@
         <v>385</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13779,7 +15847,7 @@
         <v>388</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13787,7 +15855,7 @@
         <v>391</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13795,7 +15863,7 @@
         <v>394</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13803,7 +15871,7 @@
         <v>397</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13811,7 +15879,7 @@
         <v>400</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13819,7 +15887,7 @@
         <v>403</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13827,7 +15895,7 @@
         <v>406</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13835,7 +15903,7 @@
         <v>409</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13843,7 +15911,7 @@
         <v>412</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13851,7 +15919,7 @@
         <v>415</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13859,7 +15927,7 @@
         <v>418</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13867,7 +15935,7 @@
         <v>421</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13875,7 +15943,7 @@
         <v>424</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13883,7 +15951,7 @@
         <v>427</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13891,7 +15959,7 @@
         <v>430</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13899,7 +15967,7 @@
         <v>433</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13907,7 +15975,7 @@
         <v>436</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13915,7 +15983,7 @@
         <v>439</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13923,7 +15991,7 @@
         <v>442</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13931,7 +15999,7 @@
         <v>445</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13939,7 +16007,7 @@
         <v>448</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13947,7 +16015,7 @@
         <v>451</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13955,7 +16023,7 @@
         <v>454</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13963,7 +16031,7 @@
         <v>457</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13971,7 +16039,7 @@
         <v>460</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13979,7 +16047,7 @@
         <v>463</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13987,7 +16055,7 @@
         <v>466</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13995,7 +16063,7 @@
         <v>469</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14003,7 +16071,7 @@
         <v>472</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14011,7 +16079,7 @@
         <v>475</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14019,7 +16087,7 @@
         <v>478</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14027,7 +16095,7 @@
         <v>481</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14035,7 +16103,7 @@
         <v>484</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14043,7 +16111,7 @@
         <v>487</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14051,7 +16119,7 @@
         <v>490</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14059,7 +16127,7 @@
         <v>493</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14067,7 +16135,7 @@
         <v>496</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14075,7 +16143,7 @@
         <v>499</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>935</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14083,7 +16151,7 @@
         <v>502</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>934</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14091,7 +16159,7 @@
         <v>504</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>934</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14099,7 +16167,7 @@
         <v>506</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>934</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14107,7 +16175,7 @@
         <v>508</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>934</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14115,7 +16183,7 @@
         <v>510</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>934</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14123,7 +16191,7 @@
         <v>512</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>934</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14131,7 +16199,7 @@
         <v>514</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14139,7 +16207,7 @@
         <v>517</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14147,7 +16215,7 @@
         <v>520</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14155,7 +16223,7 @@
         <v>523</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14163,7 +16231,7 @@
         <v>526</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14171,7 +16239,7 @@
         <v>529</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14179,7 +16247,7 @@
         <v>532</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14187,7 +16255,7 @@
         <v>535</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14195,7 +16263,7 @@
         <v>538</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14203,7 +16271,7 @@
         <v>541</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14211,7 +16279,7 @@
         <v>544</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14219,7 +16287,7 @@
         <v>547</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14227,7 +16295,7 @@
         <v>550</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14235,7 +16303,7 @@
         <v>553</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14243,7 +16311,7 @@
         <v>556</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14251,7 +16319,7 @@
         <v>559</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14259,7 +16327,7 @@
         <v>562</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14267,7 +16335,7 @@
         <v>565</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14275,7 +16343,7 @@
         <v>568</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14283,7 +16351,7 @@
         <v>571</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14291,7 +16359,7 @@
         <v>574</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14299,7 +16367,7 @@
         <v>577</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14307,7 +16375,7 @@
         <v>580</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14315,7 +16383,7 @@
         <v>583</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14323,7 +16391,7 @@
         <v>586</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14331,7 +16399,7 @@
         <v>589</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14339,7 +16407,7 @@
         <v>592</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14347,7 +16415,7 @@
         <v>595</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14355,7 +16423,7 @@
         <v>598</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14363,7 +16431,7 @@
         <v>601</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14371,7 +16439,7 @@
         <v>604</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14379,7 +16447,7 @@
         <v>607</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14387,7 +16455,7 @@
         <v>610</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14395,7 +16463,7 @@
         <v>613</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14403,7 +16471,7 @@
         <v>616</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14411,7 +16479,7 @@
         <v>619</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14419,7 +16487,7 @@
         <v>622</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14427,7 +16495,7 @@
         <v>625</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14435,7 +16503,7 @@
         <v>628</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>933</v>
+        <v>1021</v>
       </c>
     </row>
   </sheetData>

--- a/barcode/Data path barcode.xlsx
+++ b/barcode/Data path barcode.xlsx
@@ -385,7 +385,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="1156">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -1271,6 +1271,9 @@
   </si>
   <si>
     <t xml:space="preserve">OZN1336986360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minni_mouse_smile</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Крокодил серфинг</t>
@@ -2806,16 +2809,16 @@
     <t xml:space="preserve">OZN1489755107</t>
   </si>
   <si>
+    <t xml:space="preserve">bart_b_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Барт Прыгает на скейте Симпсоны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1489755062</t>
+  </si>
+  <si>
     <t xml:space="preserve">bart_a_vert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Барт Прыгает на скейте Симпсоны</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1489755062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bart_b_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Принцессы дисней</t>
@@ -3597,6 +3600,9 @@
     <t xml:space="preserve">Термонаклейка Мэрилин Монро буквы</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1522021181</t>
+  </si>
+  <si>
     <t xml:space="preserve">1_vert</t>
   </si>
   <si>
@@ -3632,22 +3638,34 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">OZN1522019730</t>
+  </si>
+  <si>
     <t xml:space="preserve">2_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Мэрилин Монро геометрия</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1522020277</t>
+  </si>
+  <si>
     <t xml:space="preserve">3_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Цветы Желтый Мак</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1522020719</t>
+  </si>
+  <si>
     <t xml:space="preserve">4_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Цветы Розовые Лилии</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1522019667</t>
   </si>
   <si>
     <t xml:space="preserve">5_vert</t>
@@ -3675,22 +3693,34 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">OZN1522022092</t>
+  </si>
+  <si>
     <t xml:space="preserve">6_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Лес Гитара Закат</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1522021193</t>
+  </si>
+  <si>
     <t xml:space="preserve">7_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Девушка лицо крылья</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1522019906</t>
+  </si>
+  <si>
     <t xml:space="preserve">8_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Мэрилин Монро фото буквы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1522021003</t>
   </si>
   <si>
     <t xml:space="preserve">9_vert</t>
@@ -3718,6 +3748,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">OZN1522020629</t>
+  </si>
+  <si>
     <t xml:space="preserve">10_vert</t>
   </si>
   <si>
@@ -3743,82 +3776,124 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">OZN1522019774</t>
+  </si>
+  <si>
     <t xml:space="preserve">11_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Сердце леопардовое</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1522020059</t>
+  </si>
+  <si>
     <t xml:space="preserve">13_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Сердце разынй окрас</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1522019498</t>
+  </si>
+  <si>
     <t xml:space="preserve">14_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Сердце Love is Wild</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1522019725</t>
+  </si>
+  <si>
     <t xml:space="preserve">15_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Цветы Месяц Лотос</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1522020325</t>
+  </si>
+  <si>
     <t xml:space="preserve">16_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Медуза Горгона черно-белый</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1522019474</t>
+  </si>
+  <si>
     <t xml:space="preserve">17_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Бабочка you are free to fly</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1522019666</t>
+  </si>
+  <si>
     <t xml:space="preserve">18_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Розовый фламинго цветы</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1522020599</t>
+  </si>
+  <si>
     <t xml:space="preserve">19_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Девушка бабочка Ван Гог</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1522019613</t>
+  </si>
+  <si>
     <t xml:space="preserve">20_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Котенок розовый закат звезды</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1522019743</t>
+  </si>
+  <si>
     <t xml:space="preserve">21_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Кит хвост из волн море океан</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1522019733</t>
+  </si>
+  <si>
     <t xml:space="preserve">22_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Солнце Луна Звезды Астрология</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1522020909</t>
+  </si>
+  <si>
     <t xml:space="preserve">23_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Черный Кот Звезды Астрология</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1522019292</t>
+  </si>
+  <si>
     <t xml:space="preserve">24_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Подсолнух Ван Гог</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1522019636</t>
   </si>
   <si>
     <t xml:space="preserve">28_vert</t>
@@ -3846,10 +3921,16 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">OZN1522019647</t>
+  </si>
+  <si>
     <t xml:space="preserve">30_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Секс в большом городе подруги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1522067175</t>
   </si>
   <si>
     <t xml:space="preserve">31_vert</t>
@@ -3877,78 +3958,117 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">OZN1522019312</t>
+  </si>
+  <si>
     <t xml:space="preserve">32_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Мэрилин Монро Медуза Горгона</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1522019560</t>
+  </si>
+  <si>
     <t xml:space="preserve">33_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Череп цветы Подсолнух Ван Гог</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1522021741</t>
+  </si>
+  <si>
     <t xml:space="preserve">34_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Пантера рычит звезды розовый фон</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1522019477</t>
+  </si>
+  <si>
     <t xml:space="preserve">35_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Цветы Пионы надпись</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1522019568</t>
+  </si>
+  <si>
     <t xml:space="preserve">36_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Девушка силует туман лес птицы</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1522019374</t>
+  </si>
+  <si>
     <t xml:space="preserve">37_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Крылья красочные маслом</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1522019564</t>
+  </si>
+  <si>
     <t xml:space="preserve">39_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Кит прягает из воды закат</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1522019450</t>
+  </si>
+  <si>
     <t xml:space="preserve">40_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Кит моряк волны лодка</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1522019276</t>
+  </si>
+  <si>
     <t xml:space="preserve">41_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Синяя бабочка буквы</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1522019550</t>
+  </si>
+  <si>
     <t xml:space="preserve">42_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Микки Маус бабочки цверы силует</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1522020596</t>
+  </si>
+  <si>
     <t xml:space="preserve">44_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Тукан цветы</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1522019577</t>
+  </si>
+  <si>
     <t xml:space="preserve">47_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Мопс Собачка попа секси</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1522020897</t>
+  </si>
+  <si>
     <t xml:space="preserve">50_vert</t>
   </si>
   <si>
@@ -3980,6 +4100,282 @@
   </si>
   <si>
     <t xml:space="preserve">38_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Штрихкод I Love You</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Дисней злодеи Друзья Friends </t>
+  </si>
+  <si>
+    <t xml:space="preserve">53_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Леопард пятна сердечки голова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Матрешка цветы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Леопард пятна сердечки полностью</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Цветы Синии Амариллис</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Перья Яркие Wild Spirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Перья Украшение Ожерелье</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Сердце Бабочки летят</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Рука Фатимы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Кассета цветы Vintage Soul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Большая волна в Канагаве Солнце</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Фламинго Flamingo цветы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Инь Янь Леопарды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Змеи черная белая 2шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мишка красная гоночная машина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мишка стоит с скейтом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мишка Серфинг Волна Лето</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мишка сидит в очках Alone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мишка на Самокате</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мишка Терминатор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мишка гидроцикл волна лето</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мишка репер читает с микрофоном</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мишка Серфинг с парусом волна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мишка маска плавание лето селфи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мишка на лыжах</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мишка байкер мотоцикл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мишка велосипед</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мишка Каратэ нога вверх</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мишка скейт бежит</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мишка скейт Lets move</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Минни Маус и бабочка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Минни Маус поправляет бант</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Дисней утка Дейзи Сердечко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Дисней утка Дейзи и Минни сидят</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Дисней утка Дейзи и Минни мороженое</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Дисней утка Дейзи улыбка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Дисней утка Дейзи и Минни пис</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Дейзи и Минни Маус коктейль мороженое</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127_horiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Минни Маус целует Микки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейки Nike Найк набор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200_vert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейки Nike Adidas Reebok Vans Puma набор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201_vert</t>
   </si>
   <si>
     <t xml:space="preserve">имена</t>
@@ -4103,7 +4499,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4125,7 +4521,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
   </fills>
@@ -4174,7 +4582,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4251,11 +4659,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4307,7 +4719,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -4361,18 +4773,18 @@
   </sheetPr>
   <dimension ref="A1:AO1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A353" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D393" activeCellId="0" sqref="D393"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A389" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A443" activeCellId="0" sqref="A394:G443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="104.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="84.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="46.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="50.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="49.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.04"/>
@@ -7644,13 +8056,16 @@
       <c r="B120" s="0" t="s">
         <v>294</v>
       </c>
+      <c r="C120" s="0" t="s">
+        <v>295</v>
+      </c>
       <c r="D120" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A120, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\Термонаклейка Минни Маус улыбка.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A120, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\Термонаклейка Минни Маус улыбка.pdf</v>
       </c>
       <c r="E120" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A120,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Минни Маус улыбка_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",C120,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\minni_mouse_smile.tif</v>
       </c>
       <c r="F120" s="0" t="n">
         <v>0</v>
@@ -7664,10 +8079,10 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D121" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A121, ".pdf")</f>
@@ -7689,10 +8104,10 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D122" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A122, ".pdf")</f>
@@ -7714,10 +8129,10 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D123" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A123, ".pdf")</f>
@@ -7739,10 +8154,10 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="11" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D124" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A124, ".pdf")</f>
@@ -7764,10 +8179,10 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D125" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\", A125, ".pdf")</f>
@@ -7789,283 +8204,283 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D126" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A126, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Человек паук Spiderman р92.pdf</v>
       </c>
       <c r="AO126" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D127" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A127, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Человек паук Spiderman р98.pdf</v>
       </c>
       <c r="AO127" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D128" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A128, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Человек паук Spiderman р104.pdf</v>
       </c>
       <c r="AO128" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D129" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A129, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Человек паук Spiderman р110.pdf</v>
       </c>
       <c r="AO129" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D130" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A130, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Человек паук Spiderman р116.pdf</v>
       </c>
       <c r="AO130" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D131" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A131, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Человек паук Spiderman р122.pdf</v>
       </c>
       <c r="AO131" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D132" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A132, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Русалочка с надписью. Крылышко. р92.pdf</v>
       </c>
       <c r="AO132" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D133" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A133, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Русалочка с надписью. Крылышко. р104.pdf</v>
       </c>
       <c r="AO133" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D134" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A134, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Русалочка с надписью. Крылышко. р122.pdf</v>
       </c>
       <c r="AO134" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D135" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A135, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Русалочка с надписью. Крылышко. р98.pdf</v>
       </c>
       <c r="AO135" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D136" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A136, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Русалочка с надписью. Крылышко. р116.pdf</v>
       </c>
       <c r="AO136" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D137" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A137, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Русалочка с надписью. Крылышко. р110.pdf</v>
       </c>
       <c r="AO137" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D138" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A138, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Девочка с лошадью. Рукав крылышко. р92.pdf</v>
       </c>
       <c r="AO138" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D139" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A139, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Девочка с лошадью. Рукав крылышко. р98.pdf</v>
       </c>
       <c r="AO139" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="11" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D140" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A140, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Девочка с лошадью. Рукав крылышко. р104.pdf</v>
       </c>
       <c r="AO140" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D141" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A141, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Девочка с лошадью. Рукав крылышко. р110.pdf</v>
       </c>
       <c r="AO141" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="11" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D142" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A142, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Девочка с лошадью. Рукав крылышко. р116.pdf</v>
       </c>
       <c r="AO142" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="11" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D143" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A143, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Девочка с лошадью. Рукав крылышко. р122.pdf</v>
       </c>
       <c r="AO143" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D144" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A144, ".pdf")</f>
@@ -8082,18 +8497,18 @@
         <v>1</v>
       </c>
       <c r="AO144" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D145" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A145, ".pdf")</f>
@@ -8110,18 +8525,18 @@
         <v>1</v>
       </c>
       <c r="AO145" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D146" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A146, ".pdf")</f>
@@ -8138,18 +8553,18 @@
         <v>1</v>
       </c>
       <c r="AO146" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D147" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A147, ".pdf")</f>
@@ -8166,18 +8581,18 @@
         <v>1</v>
       </c>
       <c r="AO147" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D148" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A148, ".pdf")</f>
@@ -8194,18 +8609,18 @@
         <v>1</v>
       </c>
       <c r="AO148" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D149" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A149, ".pdf")</f>
@@ -8222,18 +8637,18 @@
         <v>1</v>
       </c>
       <c r="AO149" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D150" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A150, ".pdf")</f>
@@ -8250,18 +8665,18 @@
         <v>1</v>
       </c>
       <c r="AO150" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D151" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A151, ".pdf")</f>
@@ -8278,18 +8693,18 @@
         <v>1</v>
       </c>
       <c r="AO151" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D152" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A152, ".pdf")</f>
@@ -8306,18 +8721,18 @@
         <v>1</v>
       </c>
       <c r="AO152" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D153" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A153, ".pdf")</f>
@@ -8334,18 +8749,18 @@
         <v>1</v>
       </c>
       <c r="AO153" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D154" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A154, ".pdf")</f>
@@ -8362,18 +8777,18 @@
         <v>1</v>
       </c>
       <c r="AO154" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D155" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A155, ".pdf")</f>
@@ -8390,18 +8805,18 @@
         <v>1</v>
       </c>
       <c r="AO155" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D156" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A156, ".pdf")</f>
@@ -8418,18 +8833,18 @@
         <v>1</v>
       </c>
       <c r="AO156" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D157" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A157, ".pdf")</f>
@@ -8446,18 +8861,18 @@
         <v>1</v>
       </c>
       <c r="AO157" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D158" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A158, ".pdf")</f>
@@ -8474,18 +8889,18 @@
         <v>1</v>
       </c>
       <c r="AO158" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D159" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A159, ".pdf")</f>
@@ -8502,18 +8917,18 @@
         <v>1</v>
       </c>
       <c r="AO159" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D160" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A160, ".pdf")</f>
@@ -8530,18 +8945,18 @@
         <v>1</v>
       </c>
       <c r="AO160" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D161" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A161, ".pdf")</f>
@@ -8558,18 +8973,18 @@
         <v>1</v>
       </c>
       <c r="AO161" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D162" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A162, ".pdf")</f>
@@ -8586,18 +9001,18 @@
         <v>1</v>
       </c>
       <c r="AO162" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D163" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A163, ".pdf")</f>
@@ -8614,18 +9029,18 @@
         <v>1</v>
       </c>
       <c r="AO163" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D164" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A164, ".pdf")</f>
@@ -8642,18 +9057,18 @@
         <v>1</v>
       </c>
       <c r="AO164" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D165" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A165, ".pdf")</f>
@@ -8670,18 +9085,18 @@
         <v>1</v>
       </c>
       <c r="AO165" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D166" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A166, ".pdf")</f>
@@ -8698,18 +9113,18 @@
         <v>1</v>
       </c>
       <c r="AO166" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D167" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A167, ".pdf")</f>
@@ -8726,18 +9141,18 @@
         <v>1</v>
       </c>
       <c r="AO167" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D168" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A168, ".pdf")</f>
@@ -8754,18 +9169,18 @@
         <v>1</v>
       </c>
       <c r="AO168" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D169" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A169, ".pdf")</f>
@@ -8782,18 +9197,18 @@
         <v>1</v>
       </c>
       <c r="AO169" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="13" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D170" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A170, ".pdf")</f>
@@ -8810,18 +9225,18 @@
         <v>1</v>
       </c>
       <c r="AO170" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="13" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D171" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A171, ".pdf")</f>
@@ -8838,18 +9253,18 @@
         <v>1</v>
       </c>
       <c r="AO171" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="13" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D172" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A172, ".pdf")</f>
@@ -8866,18 +9281,18 @@
         <v>1</v>
       </c>
       <c r="AO172" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D173" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A173, ".pdf")</f>
@@ -8894,18 +9309,18 @@
         <v>1</v>
       </c>
       <c r="AO173" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="13" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D174" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A174, ".pdf")</f>
@@ -8922,18 +9337,18 @@
         <v>1</v>
       </c>
       <c r="AO174" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="13" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D175" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A175, ".pdf")</f>
@@ -8950,18 +9365,18 @@
         <v>1</v>
       </c>
       <c r="AO175" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="14" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D176" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A176, ".pdf")</f>
@@ -8978,18 +9393,18 @@
         <v>1</v>
       </c>
       <c r="AO176" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="13" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D177" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A177, ".pdf")</f>
@@ -9006,18 +9421,18 @@
         <v>1</v>
       </c>
       <c r="AO177" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="14" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D178" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A178, ".pdf")</f>
@@ -9034,18 +9449,18 @@
         <v>1</v>
       </c>
       <c r="AO178" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="13" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D179" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A179, ".pdf")</f>
@@ -9062,18 +9477,18 @@
         <v>1</v>
       </c>
       <c r="AO179" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="14" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D180" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A180, ".pdf")</f>
@@ -9090,18 +9505,18 @@
         <v>1</v>
       </c>
       <c r="AO180" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="14" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D181" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A181, ".pdf")</f>
@@ -9118,18 +9533,18 @@
         <v>1</v>
       </c>
       <c r="AO181" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="14" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D182" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A182, ".pdf")</f>
@@ -9146,18 +9561,18 @@
         <v>1</v>
       </c>
       <c r="AO182" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="14" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D183" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A183, ".pdf")</f>
@@ -9174,18 +9589,18 @@
         <v>1</v>
       </c>
       <c r="AO183" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="14" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D184" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A184, ".pdf")</f>
@@ -9202,18 +9617,18 @@
         <v>1</v>
       </c>
       <c r="AO184" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="14" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D185" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A185, ".pdf")</f>
@@ -9230,18 +9645,18 @@
         <v>1</v>
       </c>
       <c r="AO185" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="14" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D186" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A186, ".pdf")</f>
@@ -9258,18 +9673,18 @@
         <v>1</v>
       </c>
       <c r="AO186" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="13" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D187" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A187, ".pdf")</f>
@@ -9286,18 +9701,18 @@
         <v>1</v>
       </c>
       <c r="AO187" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="14" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D188" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A188, ".pdf")</f>
@@ -9314,18 +9729,18 @@
         <v>1</v>
       </c>
       <c r="AO188" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="14" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D189" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A189, ".pdf")</f>
@@ -9342,18 +9757,18 @@
         <v>1</v>
       </c>
       <c r="AO189" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="14" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D190" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A190, ".pdf")</f>
@@ -9370,18 +9785,18 @@
         <v>1</v>
       </c>
       <c r="AO190" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="14" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D191" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A191, ".pdf")</f>
@@ -9398,18 +9813,18 @@
         <v>1</v>
       </c>
       <c r="AO191" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="14" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D192" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A192, ".pdf")</f>
@@ -9426,18 +9841,18 @@
         <v>1</v>
       </c>
       <c r="AO192" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="14" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D193" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A193, ".pdf")</f>
@@ -9454,18 +9869,18 @@
         <v>1</v>
       </c>
       <c r="AO193" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="14" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D194" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A194, ".pdf")</f>
@@ -9482,18 +9897,18 @@
         <v>1</v>
       </c>
       <c r="AO194" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="14" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D195" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A195, ".pdf")</f>
@@ -9510,18 +9925,18 @@
         <v>1</v>
       </c>
       <c r="AO195" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="14" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D196" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка\A4\", A196, ".pdf")</f>
@@ -9538,108 +9953,108 @@
         <v>1</v>
       </c>
       <c r="AO196" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="11" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D197" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A197, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Рукав крылышко. р92.pdf</v>
       </c>
       <c r="AO197" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="11" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D198" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A198, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Рукав крылышко. р98.pdf</v>
       </c>
       <c r="AO198" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="11" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D199" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A199, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Рукав крылышко. р104.pdf</v>
       </c>
       <c r="AO199" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="11" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D200" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A200, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Рукав крылышко. р110.pdf</v>
       </c>
       <c r="AO200" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="11" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D201" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A201, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Рукав крылышко. р116.pdf</v>
       </c>
       <c r="AO201" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="11" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D202" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A202, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Рукав крылышко. р122.pdf</v>
       </c>
       <c r="AO202" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="12" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D203" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A203, ".pdf")</f>
@@ -9661,13 +10076,13 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="12" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D204" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A204, ".pdf")</f>
@@ -9689,13 +10104,13 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="12" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D205" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A205, ".pdf")</f>
@@ -9717,13 +10132,13 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="12" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D206" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A206, ".pdf")</f>
@@ -9745,13 +10160,13 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="12" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D207" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A207, ".pdf")</f>
@@ -9773,13 +10188,13 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="12" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D208" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A208, ".pdf")</f>
@@ -9801,13 +10216,13 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="12" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D209" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A209, ".pdf")</f>
@@ -9829,13 +10244,13 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="12" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D210" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A210, ".pdf")</f>
@@ -9857,13 +10272,13 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="12" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D211" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A211, ".pdf")</f>
@@ -9885,13 +10300,13 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="12" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D212" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A212, ".pdf")</f>
@@ -9913,13 +10328,13 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="12" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D213" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A213, ".pdf")</f>
@@ -9941,13 +10356,13 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="12" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D214" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A214, ".pdf")</f>
@@ -9969,13 +10384,13 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="12" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D215" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A215, ".pdf")</f>
@@ -9997,13 +10412,13 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="12" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D216" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A216, ".pdf")</f>
@@ -10025,13 +10440,13 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="12" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D217" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A217, ".pdf")</f>
@@ -10053,13 +10468,13 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="12" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D218" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A218, ".pdf")</f>
@@ -10081,13 +10496,13 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="12" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D219" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A219, ".pdf")</f>
@@ -10109,13 +10524,13 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="12" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D220" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A220, ".pdf")</f>
@@ -10137,13 +10552,13 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="12" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D221" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A221, ".pdf")</f>
@@ -10165,13 +10580,13 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="12" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D222" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A222, ".pdf")</f>
@@ -10193,13 +10608,13 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="12" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D223" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A223, ".pdf")</f>
@@ -10221,13 +10636,13 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="12" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D224" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A224, ".pdf")</f>
@@ -10249,13 +10664,13 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="12" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D225" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A225, ".pdf")</f>
@@ -10277,13 +10692,13 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="12" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D226" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A226, ".pdf")</f>
@@ -10305,13 +10720,13 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="12" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D227" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A227, ".pdf")</f>
@@ -10333,13 +10748,13 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="12" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D228" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A228, ".pdf")</f>
@@ -10361,13 +10776,13 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="12" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D229" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A229, ".pdf")</f>
@@ -10389,13 +10804,13 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="12" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D230" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A230, ".pdf")</f>
@@ -10417,13 +10832,13 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="12" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D231" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A231, ".pdf")</f>
@@ -10445,13 +10860,13 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="12" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D232" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A232, ".pdf")</f>
@@ -10473,13 +10888,13 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="12" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D233" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A233, ".pdf")</f>
@@ -10501,13 +10916,13 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="12" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D234" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A234, ".pdf")</f>
@@ -10529,13 +10944,13 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="12" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D235" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A235, ".pdf")</f>
@@ -10557,13 +10972,13 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="12" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D236" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A236, ".pdf")</f>
@@ -10585,13 +11000,13 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="12" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D237" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A237, ".pdf")</f>
@@ -10613,13 +11028,13 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="12" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D238" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A238, ".pdf")</f>
@@ -10641,13 +11056,13 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="12" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D239" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A239, ".pdf")</f>
@@ -10669,13 +11084,13 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="12" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D240" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A240, ".pdf")</f>
@@ -10697,13 +11112,13 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="12" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D241" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set2\", A241, ".pdf")</f>
@@ -10725,373 +11140,373 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="11" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D242" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A242, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза и Анна. Рукав крылышко. Р92.pdf</v>
       </c>
       <c r="AO242" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="11" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D243" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A243, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза и Анна. Рукав крылышко. Р98.pdf</v>
       </c>
       <c r="AO243" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="11" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D244" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A244, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза и Анна. Рукав крылышко. Р104.pdf</v>
       </c>
       <c r="AO244" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="11" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D245" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A245, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза и Анна. Рукав крылышко. Р110.pdf</v>
       </c>
       <c r="AO245" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="11" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D246" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A246, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза и Анна. Рукав крылышко. Р116.pdf</v>
       </c>
       <c r="AO246" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="11" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D247" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A247, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза и Анна. Рукав крылышко. Р122.pdf</v>
       </c>
       <c r="AO247" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="11" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D248" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A248, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза. Холодное сердце. Рукав крыл. Р92.pdf</v>
       </c>
       <c r="AO248" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="11" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D249" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A249, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза. Холодное сердце. Рукав крыл. Р98.pdf</v>
       </c>
       <c r="AO249" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="11" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D250" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A250, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза. Холодное сердце. Рукав крыл. Р104.pdf</v>
       </c>
       <c r="AO250" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="11" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D251" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A251, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза. Холодное сердце. Рукав крыл. Р110.pdf</v>
       </c>
       <c r="AO251" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="11" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D252" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A252, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза. Холодное сердце. Рукав крыл. Р116.pdf</v>
       </c>
       <c r="AO252" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="11" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D253" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A253, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Эльза. Холодное сердце. Рукав крыл. Р122.pdf</v>
       </c>
       <c r="AO253" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="11" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D254" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A254, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Очки сердечки. Рукав крыл. Р92.pdf</v>
       </c>
       <c r="AO254" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="11" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D255" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A255, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Очки сердечки. Рукав крыл. Р98.pdf</v>
       </c>
       <c r="AO255" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="11" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D256" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A256, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Очки сердечки. Рукав крыл. Р104.pdf</v>
       </c>
       <c r="AO256" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="11" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D257" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A257, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Очки сердечки. Рукав крыл. Р110.pdf</v>
       </c>
       <c r="AO257" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="11" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D258" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A258, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Очки сердечки. Рукав крыл. Р116.pdf</v>
       </c>
       <c r="AO258" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="11" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D259" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A259, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Единорог. Очки сердечки. Рукав крыл. Р122.pdf</v>
       </c>
       <c r="AO259" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="11" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D260" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A260, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Минни Маус. Улыбка. Рукав крыл. Р92.pdf</v>
       </c>
       <c r="AO260" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="11" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D261" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A261, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Минни Маус. Улыбка. Рукав крыл. Р98.pdf</v>
       </c>
       <c r="AO261" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="11" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D262" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A262, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Минни Маус. Улыбка. Рукав крыл. Р104.pdf</v>
       </c>
       <c r="AO262" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="11" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D263" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A263, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Минни Маус. Улыбка. Рукав крыл. Р110.pdf</v>
       </c>
       <c r="AO263" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="11" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D264" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A264, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Минни Маус. Улыбка. Рукав крыл. Р116.pdf</v>
       </c>
       <c r="AO264" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="11" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D265" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A265, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\Футболка Минни Маус. Улыбка. Рукав крыл. Р122.pdf</v>
       </c>
       <c r="AO265" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="12" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D266" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A266, ".pdf")</f>
@@ -11113,13 +11528,13 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="12" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D267" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A267, ".pdf")</f>
@@ -11127,7 +11542,7 @@
       </c>
       <c r="E267" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C267,".tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack3\bart_a_vert.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack3\bart_b_horiz.tif</v>
       </c>
       <c r="F267" s="0" t="n">
         <v>0</v>
@@ -11141,13 +11556,13 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="12" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D268" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A268, ".pdf")</f>
@@ -11155,7 +11570,7 @@
       </c>
       <c r="E268" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\pack3\",C268,".tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack3\bart_b_horiz.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\dtf_a5\pack3\bart_a_vert.tif</v>
       </c>
       <c r="F268" s="0" t="n">
         <v>0</v>
@@ -11169,13 +11584,13 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="12" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D269" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A269, ".pdf")</f>
@@ -11197,13 +11612,13 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="12" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D270" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A270, ".pdf")</f>
@@ -11225,13 +11640,13 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="12" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D271" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A271, ".pdf")</f>
@@ -11253,13 +11668,13 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="12" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D272" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A272, ".pdf")</f>
@@ -11281,13 +11696,13 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="12" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D273" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A273, ".pdf")</f>
@@ -11309,13 +11724,13 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="12" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D274" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A274, ".pdf")</f>
@@ -11337,13 +11752,13 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="12" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D275" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A275, ".pdf")</f>
@@ -11365,13 +11780,13 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="12" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D276" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A276, ".pdf")</f>
@@ -11393,13 +11808,13 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="12" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D277" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A277, ".pdf")</f>
@@ -11421,13 +11836,13 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="12" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D278" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A278, ".pdf")</f>
@@ -11449,13 +11864,13 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="12" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D279" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A279, ".pdf")</f>
@@ -11477,13 +11892,13 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="12" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D280" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A280, ".pdf")</f>
@@ -11505,13 +11920,13 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="12" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D281" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A281, ".pdf")</f>
@@ -11533,13 +11948,13 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="12" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D282" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A282, ".pdf")</f>
@@ -11561,13 +11976,13 @@
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="12" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D283" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A283, ".pdf")</f>
@@ -11589,13 +12004,13 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="12" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D284" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A284, ".pdf")</f>
@@ -11617,13 +12032,13 @@
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="12" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D285" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A285, ".pdf")</f>
@@ -11645,13 +12060,13 @@
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="12" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D286" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклейка A5\set3\", A286, ".pdf")</f>
@@ -11673,13 +12088,13 @@
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="15" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D287" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A287, ".pdf")</f>
@@ -11701,13 +12116,13 @@
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="15" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D288" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A288, ".pdf")</f>
@@ -11729,13 +12144,13 @@
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="15" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D289" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A289, ".pdf")</f>
@@ -11757,13 +12172,13 @@
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="15" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C290" s="0" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D290" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A290, ".pdf")</f>
@@ -11785,13 +12200,13 @@
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="15" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D291" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A291, ".pdf")</f>
@@ -11813,13 +12228,13 @@
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="15" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D292" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A292, ".pdf")</f>
@@ -11841,13 +12256,13 @@
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="15" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D293" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A293, ".pdf")</f>
@@ -11869,13 +12284,13 @@
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="15" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D294" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A294, ".pdf")</f>
@@ -11897,13 +12312,13 @@
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="15" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D295" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A295, ".pdf")</f>
@@ -11925,13 +12340,13 @@
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="15" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C296" s="0" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D296" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A296, ".pdf")</f>
@@ -11953,13 +12368,13 @@
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="15" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C297" s="0" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D297" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A297, ".pdf")</f>
@@ -11981,13 +12396,13 @@
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="15" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D298" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A298, ".pdf")</f>
@@ -12009,13 +12424,13 @@
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="15" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D299" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A299, ".pdf")</f>
@@ -12037,13 +12452,13 @@
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="15" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D300" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A300, ".pdf")</f>
@@ -12065,13 +12480,13 @@
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="15" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C301" s="0" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D301" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A301, ".pdf")</f>
@@ -12093,13 +12508,13 @@
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="15" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C302" s="0" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D302" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A302, ".pdf")</f>
@@ -12121,13 +12536,13 @@
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="15" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D303" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A303, ".pdf")</f>
@@ -12149,13 +12564,13 @@
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="15" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D304" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A304, ".pdf")</f>
@@ -12177,13 +12592,13 @@
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="15" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C305" s="0" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D305" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A305, ".pdf")</f>
@@ -12205,13 +12620,13 @@
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="16" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C306" s="0" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D306" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A306, ".pdf")</f>
@@ -12233,13 +12648,13 @@
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="15" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D307" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A307, ".pdf")</f>
@@ -12261,13 +12676,13 @@
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="15" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D308" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A308, ".pdf")</f>
@@ -12289,13 +12704,13 @@
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="15" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D309" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A309, ".pdf")</f>
@@ -12317,13 +12732,13 @@
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="15" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D310" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A310, ".pdf")</f>
@@ -12345,13 +12760,13 @@
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="15" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C311" s="0" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D311" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A311, ".pdf")</f>
@@ -12373,13 +12788,13 @@
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="15" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D312" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A312, ".pdf")</f>
@@ -12401,13 +12816,13 @@
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="15" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D313" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A313, ".pdf")</f>
@@ -12429,13 +12844,13 @@
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="15" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D314" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A314, ".pdf")</f>
@@ -12457,13 +12872,13 @@
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="15" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D315" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A315, ".pdf")</f>
@@ -12485,13 +12900,13 @@
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="15" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D316" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A316, ".pdf")</f>
@@ -12513,13 +12928,13 @@
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="15" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D317" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A317, ".pdf")</f>
@@ -12541,13 +12956,13 @@
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="15" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D318" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A318, ".pdf")</f>
@@ -12569,13 +12984,13 @@
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="15" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D319" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A319, ".pdf")</f>
@@ -12597,13 +13012,13 @@
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="15" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D320" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A320, ".pdf")</f>
@@ -12625,13 +13040,13 @@
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="15" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D321" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A321, ".pdf")</f>
@@ -12653,13 +13068,13 @@
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="15" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D322" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A322, ".pdf")</f>
@@ -12681,13 +13096,13 @@
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="15" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D323" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A323, ".pdf")</f>
@@ -12709,13 +13124,13 @@
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="15" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D324" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A324, ".pdf")</f>
@@ -12737,13 +13152,13 @@
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="15" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D325" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A325, ".pdf")</f>
@@ -12765,13 +13180,13 @@
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="15" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D326" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A326, ".pdf")</f>
@@ -12793,13 +13208,13 @@
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="15" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D327" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A327, ".pdf")</f>
@@ -12821,13 +13236,13 @@
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="15" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D328" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A328, ".pdf")</f>
@@ -12849,13 +13264,13 @@
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="15" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D329" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A329, ".pdf")</f>
@@ -12877,13 +13292,13 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="15" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D330" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A330, ".pdf")</f>
@@ -12905,13 +13320,13 @@
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="15" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D331" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A331, ".pdf")</f>
@@ -12933,13 +13348,13 @@
     </row>
     <row r="332" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="17" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D332" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A332, ".pdf")</f>
@@ -12956,18 +13371,18 @@
         <v>1</v>
       </c>
       <c r="AO332" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="17" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D333" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A333, ".pdf")</f>
@@ -12984,18 +13399,18 @@
         <v>1</v>
       </c>
       <c r="AO333" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="17" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D334" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A334, ".pdf")</f>
@@ -13012,18 +13427,18 @@
         <v>1</v>
       </c>
       <c r="AO334" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="17" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D335" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A335, ".pdf")</f>
@@ -13040,18 +13455,18 @@
         <v>1</v>
       </c>
       <c r="AO335" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="17" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D336" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A336, ".pdf")</f>
@@ -13068,18 +13483,18 @@
         <v>1</v>
       </c>
       <c r="AO336" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="17" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="D337" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A337, ".pdf")</f>
@@ -13096,18 +13511,18 @@
         <v>1</v>
       </c>
       <c r="AO337" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="17" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C338" s="0" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D338" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A338, ".pdf")</f>
@@ -13124,18 +13539,18 @@
         <v>1</v>
       </c>
       <c r="AO338" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="17" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D339" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A339, ".pdf")</f>
@@ -13152,18 +13567,18 @@
         <v>1</v>
       </c>
       <c r="AO339" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="17" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D340" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A340, ".pdf")</f>
@@ -13180,18 +13595,18 @@
         <v>1</v>
       </c>
       <c r="AO340" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="17" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D341" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A341, ".pdf")</f>
@@ -13208,18 +13623,18 @@
         <v>1</v>
       </c>
       <c r="AO341" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="17" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D342" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A342, ".pdf")</f>
@@ -13236,18 +13651,18 @@
         <v>1</v>
       </c>
       <c r="AO342" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="17" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D343" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A343, ".pdf")</f>
@@ -13264,18 +13679,18 @@
         <v>1</v>
       </c>
       <c r="AO343" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="17" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D344" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A344, ".pdf")</f>
@@ -13292,18 +13707,18 @@
         <v>1</v>
       </c>
       <c r="AO344" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="17" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D345" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A345, ".pdf")</f>
@@ -13320,18 +13735,18 @@
         <v>1</v>
       </c>
       <c r="AO345" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="17" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D346" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A346, ".pdf")</f>
@@ -13348,18 +13763,18 @@
         <v>1</v>
       </c>
       <c r="AO346" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="17" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D347" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A347, ".pdf")</f>
@@ -13376,18 +13791,18 @@
         <v>1</v>
       </c>
       <c r="AO347" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="17" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D348" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A348, ".pdf")</f>
@@ -13404,18 +13819,18 @@
         <v>1</v>
       </c>
       <c r="AO348" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="17" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D349" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A349, ".pdf")</f>
@@ -13432,19 +13847,22 @@
         <v>1</v>
       </c>
       <c r="AO349" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="17" t="s">
-        <v>931</v>
+        <v>932</v>
+      </c>
+      <c r="B350" s="0" t="s">
+        <v>933</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="D350" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A350, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Мэрилин Монро буквы.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A350, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Мэрилин Монро буквы.pdf</v>
       </c>
       <c r="E350" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C350,".tif")</f>
@@ -13457,19 +13875,22 @@
         <v>1</v>
       </c>
       <c r="AO350" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="17" t="s">
-        <v>933</v>
+        <v>935</v>
+      </c>
+      <c r="B351" s="0" t="s">
+        <v>936</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="D351" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A351, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Одри Хепбёрн буквы.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A351, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Одри Хепбёрн буквы.pdf</v>
       </c>
       <c r="E351" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C351,".tif")</f>
@@ -13482,19 +13903,22 @@
         <v>1</v>
       </c>
       <c r="AO351" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="17" t="s">
-        <v>935</v>
+        <v>938</v>
+      </c>
+      <c r="B352" s="0" t="s">
+        <v>939</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="D352" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A352, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Мэрилин Монро геометрия.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A352, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Мэрилин Монро геометрия.pdf</v>
       </c>
       <c r="E352" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C352,".tif")</f>
@@ -13507,19 +13931,22 @@
         <v>1</v>
       </c>
       <c r="AO352" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="17" t="s">
-        <v>937</v>
+        <v>941</v>
+      </c>
+      <c r="B353" s="0" t="s">
+        <v>942</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="D353" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A353, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Цветы Желтый Мак.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A353, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Цветы Желтый Мак.pdf</v>
       </c>
       <c r="E353" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C353,".tif")</f>
@@ -13532,19 +13959,22 @@
         <v>1</v>
       </c>
       <c r="AO353" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="17" t="s">
-        <v>939</v>
+        <v>944</v>
+      </c>
+      <c r="B354" s="0" t="s">
+        <v>945</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="D354" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A354, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Цветы Розовые Лилии.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A354, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Цветы Розовые Лилии.pdf</v>
       </c>
       <c r="E354" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C354,".tif")</f>
@@ -13557,19 +13987,22 @@
         <v>1</v>
       </c>
       <c r="AO354" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="18" t="s">
-        <v>941</v>
+        <v>947</v>
+      </c>
+      <c r="B355" s="0" t="s">
+        <v>948</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>942</v>
+        <v>949</v>
       </c>
       <c r="D355" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A355, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Инь Янь Кошки.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A355, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Инь Янь Кошки.pdf</v>
       </c>
       <c r="E355" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C355,".tif")</f>
@@ -13582,19 +14015,22 @@
         <v>1</v>
       </c>
       <c r="AO355" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="18" t="s">
-        <v>943</v>
+        <v>950</v>
+      </c>
+      <c r="B356" s="0" t="s">
+        <v>951</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
       <c r="D356" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A356, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Лес Гитара Закат.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A356, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Лес Гитара Закат.pdf</v>
       </c>
       <c r="E356" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C356,".tif")</f>
@@ -13607,19 +14043,22 @@
         <v>1</v>
       </c>
       <c r="AO356" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="18" t="s">
-        <v>945</v>
+        <v>953</v>
+      </c>
+      <c r="B357" s="0" t="s">
+        <v>954</v>
       </c>
       <c r="C357" s="0" t="s">
-        <v>946</v>
+        <v>955</v>
       </c>
       <c r="D357" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A357, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Девушка лицо крылья.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A357, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Девушка лицо крылья.pdf</v>
       </c>
       <c r="E357" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C357,".tif")</f>
@@ -13632,19 +14071,22 @@
         <v>1</v>
       </c>
       <c r="AO357" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="17" t="s">
-        <v>947</v>
+        <v>956</v>
+      </c>
+      <c r="B358" s="0" t="s">
+        <v>957</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>948</v>
+        <v>958</v>
       </c>
       <c r="D358" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A358, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Мэрилин Монро фото буквы.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A358, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Мэрилин Монро фото буквы.pdf</v>
       </c>
       <c r="E358" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C358,".tif")</f>
@@ -13657,19 +14099,22 @@
         <v>1</v>
       </c>
       <c r="AO358" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="18" t="s">
-        <v>949</v>
+        <v>959</v>
+      </c>
+      <c r="B359" s="0" t="s">
+        <v>960</v>
       </c>
       <c r="C359" s="0" t="s">
-        <v>950</v>
+        <v>961</v>
       </c>
       <c r="D359" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A359, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Девушка месяц Ван Гог.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A359, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Девушка месяц Ван Гог.pdf</v>
       </c>
       <c r="E359" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C359,".tif")</f>
@@ -13682,19 +14127,22 @@
         <v>1</v>
       </c>
       <c r="AO359" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="18" t="s">
-        <v>951</v>
+        <v>962</v>
+      </c>
+      <c r="B360" s="0" t="s">
+        <v>963</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>952</v>
+        <v>964</v>
       </c>
       <c r="D360" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A359, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Девушка месяц Ван Гог.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A360, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Цветы Розовые Ирис.pdf</v>
       </c>
       <c r="E360" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C360,".tif")</f>
@@ -13707,19 +14155,22 @@
         <v>1</v>
       </c>
       <c r="AO360" s="0" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="18" t="s">
-        <v>953</v>
+        <v>965</v>
+      </c>
+      <c r="B361" s="0" t="s">
+        <v>966</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>954</v>
+        <v>967</v>
       </c>
       <c r="D361" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A360, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Цветы Розовые Ирис.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A361, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Сердце леопардовое.pdf</v>
       </c>
       <c r="E361" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C361,".tif")</f>
@@ -13732,19 +14183,22 @@
         <v>1</v>
       </c>
       <c r="AO361" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="18" t="s">
-        <v>955</v>
+        <v>968</v>
+      </c>
+      <c r="B362" s="0" t="s">
+        <v>969</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>956</v>
+        <v>970</v>
       </c>
       <c r="D362" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A362, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Сердце разынй окрас.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A362, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Сердце разынй окрас.pdf</v>
       </c>
       <c r="E362" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C362,".tif")</f>
@@ -13757,19 +14211,22 @@
         <v>1</v>
       </c>
       <c r="AO362" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="18" t="s">
-        <v>957</v>
+        <v>971</v>
+      </c>
+      <c r="B363" s="0" t="s">
+        <v>972</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>958</v>
+        <v>973</v>
       </c>
       <c r="D363" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A363, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Сердце Love is Wild.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A363, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Сердце Love is Wild.pdf</v>
       </c>
       <c r="E363" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C363,".tif")</f>
@@ -13782,19 +14239,22 @@
         <v>1</v>
       </c>
       <c r="AO363" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="18" t="s">
-        <v>959</v>
+        <v>974</v>
+      </c>
+      <c r="B364" s="0" t="s">
+        <v>975</v>
       </c>
       <c r="C364" s="0" t="s">
-        <v>960</v>
+        <v>976</v>
       </c>
       <c r="D364" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A364, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Цветы Месяц Лотос.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A364, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Цветы Месяц Лотос.pdf</v>
       </c>
       <c r="E364" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C364,".tif")</f>
@@ -13807,19 +14267,22 @@
         <v>1</v>
       </c>
       <c r="AO364" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="18" t="s">
-        <v>961</v>
+        <v>977</v>
+      </c>
+      <c r="B365" s="0" t="s">
+        <v>978</v>
       </c>
       <c r="C365" s="0" t="s">
-        <v>962</v>
+        <v>979</v>
       </c>
       <c r="D365" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A365, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Медуза Горгона черно-белый.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A365, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Медуза Горгона черно-белый.pdf</v>
       </c>
       <c r="E365" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C365,".tif")</f>
@@ -13832,19 +14295,22 @@
         <v>1</v>
       </c>
       <c r="AO365" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="18" t="s">
-        <v>963</v>
+        <v>980</v>
+      </c>
+      <c r="B366" s="0" t="s">
+        <v>981</v>
       </c>
       <c r="C366" s="0" t="s">
-        <v>964</v>
+        <v>982</v>
       </c>
       <c r="D366" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A366, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Бабочка you are free to fly.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A366, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Бабочка you are free to fly.pdf</v>
       </c>
       <c r="E366" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C366,".tif")</f>
@@ -13857,19 +14323,22 @@
         <v>1</v>
       </c>
       <c r="AO366" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="18" t="s">
-        <v>965</v>
+        <v>983</v>
+      </c>
+      <c r="B367" s="0" t="s">
+        <v>984</v>
       </c>
       <c r="C367" s="0" t="s">
-        <v>966</v>
+        <v>985</v>
       </c>
       <c r="D367" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A367, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Розовый фламинго цветы.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A367, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Розовый фламинго цветы.pdf</v>
       </c>
       <c r="E367" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C367,".tif")</f>
@@ -13882,19 +14351,22 @@
         <v>1</v>
       </c>
       <c r="AO367" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="18" t="s">
-        <v>967</v>
+        <v>986</v>
+      </c>
+      <c r="B368" s="0" t="s">
+        <v>987</v>
       </c>
       <c r="C368" s="0" t="s">
-        <v>968</v>
+        <v>988</v>
       </c>
       <c r="D368" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A368, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Девушка бабочка Ван Гог.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A368, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Девушка бабочка Ван Гог.pdf</v>
       </c>
       <c r="E368" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C368,".tif")</f>
@@ -13907,19 +14379,22 @@
         <v>1</v>
       </c>
       <c r="AO368" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="18" t="s">
-        <v>969</v>
+        <v>989</v>
+      </c>
+      <c r="B369" s="0" t="s">
+        <v>990</v>
       </c>
       <c r="C369" s="0" t="s">
-        <v>970</v>
+        <v>991</v>
       </c>
       <c r="D369" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A369, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Котенок розовый закат звезды.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A369, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Котенок розовый закат звезды.pdf</v>
       </c>
       <c r="E369" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C369,".tif")</f>
@@ -13932,19 +14407,22 @@
         <v>1</v>
       </c>
       <c r="AO369" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="18" t="s">
-        <v>971</v>
+        <v>992</v>
+      </c>
+      <c r="B370" s="0" t="s">
+        <v>993</v>
       </c>
       <c r="C370" s="0" t="s">
-        <v>972</v>
+        <v>994</v>
       </c>
       <c r="D370" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A370, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Кит хвост из волн море океан.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A370, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Кит хвост из волн море океан.pdf</v>
       </c>
       <c r="E370" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C370,".tif")</f>
@@ -13957,19 +14435,22 @@
         <v>1</v>
       </c>
       <c r="AO370" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="18" t="s">
-        <v>973</v>
+        <v>995</v>
+      </c>
+      <c r="B371" s="0" t="s">
+        <v>996</v>
       </c>
       <c r="C371" s="0" t="s">
-        <v>974</v>
+        <v>997</v>
       </c>
       <c r="D371" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A371, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Солнце Луна Звезды Астрология.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A371, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Солнце Луна Звезды Астрология.pdf</v>
       </c>
       <c r="E371" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C371,".tif")</f>
@@ -13982,19 +14463,22 @@
         <v>1</v>
       </c>
       <c r="AO371" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="18" t="s">
-        <v>975</v>
+        <v>998</v>
+      </c>
+      <c r="B372" s="0" t="s">
+        <v>999</v>
       </c>
       <c r="C372" s="0" t="s">
-        <v>976</v>
+        <v>1000</v>
       </c>
       <c r="D372" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A372, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Черный Кот Звезды Астрология.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A372, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Черный Кот Звезды Астрология.pdf</v>
       </c>
       <c r="E372" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C372,".tif")</f>
@@ -14007,19 +14491,22 @@
         <v>1</v>
       </c>
       <c r="AO372" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="18" t="s">
-        <v>977</v>
+        <v>1001</v>
+      </c>
+      <c r="B373" s="0" t="s">
+        <v>1002</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>978</v>
+        <v>1003</v>
       </c>
       <c r="D373" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A373, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Подсолнух Ван Гог.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A373, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Подсолнух Ван Гог.pdf</v>
       </c>
       <c r="E373" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C373,".tif")</f>
@@ -14032,19 +14519,22 @@
         <v>1</v>
       </c>
       <c r="AO373" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="18" t="s">
-        <v>979</v>
+        <v>1004</v>
+      </c>
+      <c r="B374" s="0" t="s">
+        <v>1005</v>
       </c>
       <c r="C374" s="0" t="s">
-        <v>980</v>
+        <v>1006</v>
       </c>
       <c r="D374" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A374, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Сердце Большая волна в Канагаве.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A374, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Сердце Большая волна в Канагаве.pdf</v>
       </c>
       <c r="E374" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C374,".tif")</f>
@@ -14057,19 +14547,22 @@
         <v>1</v>
       </c>
       <c r="AO374" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="18" t="s">
-        <v>981</v>
+        <v>1007</v>
+      </c>
+      <c r="B375" s="0" t="s">
+        <v>1008</v>
       </c>
       <c r="C375" s="0" t="s">
-        <v>982</v>
+        <v>1009</v>
       </c>
       <c r="D375" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A375, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Секс в большом городе подруги.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A375, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Секс в большом городе подруги.pdf</v>
       </c>
       <c r="E375" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C375,".tif")</f>
@@ -14082,19 +14575,22 @@
         <v>1</v>
       </c>
       <c r="AO375" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="18" t="s">
-        <v>983</v>
+        <v>1010</v>
+      </c>
+      <c r="B376" s="0" t="s">
+        <v>1011</v>
       </c>
       <c r="C376" s="0" t="s">
-        <v>984</v>
+        <v>1012</v>
       </c>
       <c r="D376" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A375, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Секс в большом городе подруги.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A376, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Давид статуя цветы.pdf</v>
       </c>
       <c r="E376" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C376,".tif")</f>
@@ -14107,19 +14603,22 @@
         <v>1</v>
       </c>
       <c r="AO376" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="17" t="s">
-        <v>985</v>
+        <v>1013</v>
+      </c>
+      <c r="B377" s="0" t="s">
+        <v>1014</v>
       </c>
       <c r="C377" s="0" t="s">
-        <v>986</v>
+        <v>1015</v>
       </c>
       <c r="D377" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A376, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Давид статуя цветы.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A377, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Мэрилин Монро Медуза Горгона.pdf</v>
       </c>
       <c r="E377" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C377,".tif")</f>
@@ -14132,19 +14631,22 @@
         <v>1</v>
       </c>
       <c r="AO377" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="17" t="s">
-        <v>987</v>
+        <v>1016</v>
+      </c>
+      <c r="B378" s="0" t="s">
+        <v>1017</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>988</v>
+        <v>1018</v>
       </c>
       <c r="D378" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A377, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Мэрилин Монро Медуза Горгона.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A378, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Череп цветы Подсолнух Ван Гог.pdf</v>
       </c>
       <c r="E378" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C378,".tif")</f>
@@ -14157,19 +14659,22 @@
         <v>1</v>
       </c>
       <c r="AO378" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="17" t="s">
-        <v>989</v>
+        <v>1019</v>
+      </c>
+      <c r="B379" s="0" t="s">
+        <v>1020</v>
       </c>
       <c r="C379" s="0" t="s">
-        <v>990</v>
+        <v>1021</v>
       </c>
       <c r="D379" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A378, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Череп цветы Подсолнух Ван Гог.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A379, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Пантера рычит звезды розовый фон.pdf</v>
       </c>
       <c r="E379" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C379,".tif")</f>
@@ -14182,19 +14687,22 @@
         <v>1</v>
       </c>
       <c r="AO379" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="17" t="s">
-        <v>991</v>
+        <v>1022</v>
+      </c>
+      <c r="B380" s="0" t="s">
+        <v>1023</v>
       </c>
       <c r="C380" s="0" t="s">
-        <v>992</v>
+        <v>1024</v>
       </c>
       <c r="D380" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A380, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Цветы Пионы надпись.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A380, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Цветы Пионы надпись.pdf</v>
       </c>
       <c r="E380" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C380,".tif")</f>
@@ -14207,19 +14715,22 @@
         <v>1</v>
       </c>
       <c r="AO380" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="17" t="s">
-        <v>993</v>
+        <v>1025</v>
+      </c>
+      <c r="B381" s="0" t="s">
+        <v>1026</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>994</v>
+        <v>1027</v>
       </c>
       <c r="D381" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A381, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Девушка силует туман лес птицы.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A381, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Девушка силует туман лес птицы.pdf</v>
       </c>
       <c r="E381" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C381,".tif")</f>
@@ -14232,19 +14743,22 @@
         <v>1</v>
       </c>
       <c r="AO381" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="17" t="s">
-        <v>995</v>
+        <v>1028</v>
+      </c>
+      <c r="B382" s="0" t="s">
+        <v>1029</v>
       </c>
       <c r="C382" s="0" t="s">
-        <v>996</v>
+        <v>1030</v>
       </c>
       <c r="D382" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A393, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Девушка крылья глаза круг фон.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A382, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Крылья красочные маслом.pdf</v>
       </c>
       <c r="E382" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C382,".tif")</f>
@@ -14257,19 +14771,22 @@
         <v>1</v>
       </c>
       <c r="AO382" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="17" t="s">
-        <v>997</v>
+        <v>1031</v>
+      </c>
+      <c r="B383" s="0" t="s">
+        <v>1032</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>998</v>
+        <v>1033</v>
       </c>
       <c r="D383" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A382, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Крылья красочные маслом.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A383, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Кит прягает из воды закат.pdf</v>
       </c>
       <c r="E383" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C383,".tif")</f>
@@ -14282,19 +14799,22 @@
         <v>1</v>
       </c>
       <c r="AO383" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="17" t="s">
-        <v>999</v>
+        <v>1034</v>
+      </c>
+      <c r="B384" s="0" t="s">
+        <v>1035</v>
       </c>
       <c r="C384" s="0" t="s">
-        <v>1000</v>
+        <v>1036</v>
       </c>
       <c r="D384" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A383, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Кит прягает из воды закат.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A384, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Кит моряк волны лодка.pdf</v>
       </c>
       <c r="E384" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C384,".tif")</f>
@@ -14307,19 +14827,22 @@
         <v>1</v>
       </c>
       <c r="AO384" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="17" t="s">
-        <v>1001</v>
+        <v>1037</v>
+      </c>
+      <c r="B385" s="0" t="s">
+        <v>1038</v>
       </c>
       <c r="C385" s="0" t="s">
-        <v>1002</v>
+        <v>1039</v>
       </c>
       <c r="D385" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A385, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Синяя бабочка буквы.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A385, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Синяя бабочка буквы.pdf</v>
       </c>
       <c r="E385" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C385,".tif")</f>
@@ -14332,19 +14855,22 @@
         <v>1</v>
       </c>
       <c r="AO385" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="17" t="s">
-        <v>1003</v>
+        <v>1040</v>
+      </c>
+      <c r="B386" s="0" t="s">
+        <v>1041</v>
       </c>
       <c r="C386" s="0" t="s">
-        <v>1004</v>
+        <v>1042</v>
       </c>
       <c r="D386" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A386, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Микки Маус бабочки цверы силует.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A386, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Микки Маус бабочки цверы силует.pdf</v>
       </c>
       <c r="E386" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C386,".tif")</f>
@@ -14357,19 +14883,22 @@
         <v>1</v>
       </c>
       <c r="AO386" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="17" t="s">
-        <v>1005</v>
+        <v>1043</v>
+      </c>
+      <c r="B387" s="0" t="s">
+        <v>1044</v>
       </c>
       <c r="C387" s="0" t="s">
-        <v>1006</v>
+        <v>1045</v>
       </c>
       <c r="D387" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A387, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Тукан цветы.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A387, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Тукан цветы.pdf</v>
       </c>
       <c r="E387" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C387,".tif")</f>
@@ -14382,19 +14911,22 @@
         <v>1</v>
       </c>
       <c r="AO387" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="18" t="s">
-        <v>1007</v>
+        <v>1046</v>
+      </c>
+      <c r="B388" s="0" t="s">
+        <v>1047</v>
       </c>
       <c r="C388" s="0" t="s">
-        <v>1008</v>
+        <v>1048</v>
       </c>
       <c r="D388" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A388, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Мопс Собачка попа секси.pdf</v>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\", A388, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\set2\Термонаклейка Мопс Собачка попа секси.pdf</v>
       </c>
       <c r="E388" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C388,".tif")</f>
@@ -14407,40 +14939,40 @@
         <v>1</v>
       </c>
       <c r="AO388" s="0" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="389" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="19" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C389" s="20" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D389" s="20" t="str">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="14" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C389" s="0" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D389" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A389, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Губы Язык Леопард Роллинг Стоунз.pdf</v>
       </c>
-      <c r="E389" s="20" t="str">
+      <c r="E389" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set2\",C389,".tif")</f>
         <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set2\46_vert.tif</v>
       </c>
-      <c r="F389" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G389" s="20" t="n">
+      <c r="F389" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G389" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AO389" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="19" t="s">
-        <v>1011</v>
+      <c r="A390" s="14" t="s">
+        <v>1051</v>
       </c>
       <c r="C390" s="0" t="s">
-        <v>1012</v>
+        <v>1052</v>
       </c>
       <c r="D390" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A390, ".pdf")</f>
@@ -14457,15 +14989,15 @@
         <v>1</v>
       </c>
       <c r="AO390" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="19" t="s">
-        <v>1013</v>
+      <c r="A391" s="14" t="s">
+        <v>1053</v>
       </c>
       <c r="C391" s="0" t="s">
-        <v>1014</v>
+        <v>1054</v>
       </c>
       <c r="D391" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A391, ".pdf")</f>
@@ -14482,15 +15014,15 @@
         <v>1</v>
       </c>
       <c r="AO391" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="19" t="s">
-        <v>1015</v>
+      <c r="A392" s="14" t="s">
+        <v>1055</v>
       </c>
       <c r="C392" s="0" t="s">
-        <v>1016</v>
+        <v>1056</v>
       </c>
       <c r="D392" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A392, ".pdf")</f>
@@ -14511,11 +15043,11 @@
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="19" t="s">
-        <v>1017</v>
+      <c r="A393" s="14" t="s">
+        <v>1057</v>
       </c>
       <c r="C393" s="0" t="s">
-        <v>1018</v>
+        <v>1058</v>
       </c>
       <c r="D393" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A393, ".pdf")</f>
@@ -14532,9 +15064,1094 @@
         <v>1</v>
       </c>
       <c r="AO393" s="0" t="s">
-        <v>345</v>
-      </c>
-    </row>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="19" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C394" s="0" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D394" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A394, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Штрихкод I Love You.pdf</v>
+      </c>
+      <c r="E394" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set3\",C394,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set3\52_horiz.tif</v>
+      </c>
+      <c r="F394" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G394" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="19" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C395" s="0" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D395" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A395, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Дисней злодеи Друзья Friends .pdf</v>
+      </c>
+      <c r="E395" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set3\",C395,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set3\53_horiz.tif</v>
+      </c>
+      <c r="F395" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G395" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="19" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C396" s="0" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D396" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A396, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Леопард пятна сердечки голова.pdf</v>
+      </c>
+      <c r="E396" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set3\",C396,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set3\54_vert.tif</v>
+      </c>
+      <c r="F396" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G396" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="19" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C397" s="0" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D397" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A397, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Матрешка цветы.pdf</v>
+      </c>
+      <c r="E397" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set3\",C397,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set3\55_vert.tif</v>
+      </c>
+      <c r="F397" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G397" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C398" s="0" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D398" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A398, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Леопард пятна сердечки полностью.pdf</v>
+      </c>
+      <c r="E398" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set3\",C398,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set3\56_vert.tif</v>
+      </c>
+      <c r="F398" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G398" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="19" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C399" s="0" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D399" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A399, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Цветы Синии Амариллис.pdf</v>
+      </c>
+      <c r="E399" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set3\",C399,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set3\57_vert.tif</v>
+      </c>
+      <c r="F399" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G399" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="19" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C400" s="0" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D400" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A400, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Перья Яркие Wild Spirit.pdf</v>
+      </c>
+      <c r="E400" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set3\",C400,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set3\58_horiz.tif</v>
+      </c>
+      <c r="F400" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G400" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="19" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C401" s="0" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D401" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A401, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Перья Украшение Ожерелье.pdf</v>
+      </c>
+      <c r="E401" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set3\",C401,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set3\59_horiz.tif</v>
+      </c>
+      <c r="F401" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G401" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="19" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C402" s="0" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D402" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A402, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Сердце Бабочки летят.pdf</v>
+      </c>
+      <c r="E402" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set3\",C402,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set3\60_vert.tif</v>
+      </c>
+      <c r="F402" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G402" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="19" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C403" s="0" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D403" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A403, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Рука Фатимы.pdf</v>
+      </c>
+      <c r="E403" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set3\",C403,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set3\62_vert.tif</v>
+      </c>
+      <c r="F403" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G403" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="19" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C404" s="0" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D404" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A404, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Кассета цветы Vintage Soul.pdf</v>
+      </c>
+      <c r="E404" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set3\",C404,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set3\64_vert.tif</v>
+      </c>
+      <c r="F404" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G404" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="19" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C405" s="0" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D405" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A405, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Большая волна в Канагаве Солнце.pdf</v>
+      </c>
+      <c r="E405" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set3\",C405,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set3\65_vert.tif</v>
+      </c>
+      <c r="F405" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G405" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="19" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C406" s="0" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D406" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A406, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Фламинго Flamingo цветы.pdf</v>
+      </c>
+      <c r="E406" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set3\",C406,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set3\66_vert.tif</v>
+      </c>
+      <c r="F406" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G406" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="19" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C407" s="0" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D407" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A407, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Инь Янь Леопарды.pdf</v>
+      </c>
+      <c r="E407" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set3\",C407,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set3\69_vert.tif</v>
+      </c>
+      <c r="F407" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G407" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="19" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C408" s="0" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D408" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A408, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Змеи черная белая 2шт.pdf</v>
+      </c>
+      <c r="E408" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set3\",C408,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set3\70_vert.tif</v>
+      </c>
+      <c r="F408" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G408" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="20" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C409" s="20" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E409" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set3\",C409,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\set3\71_vert.tif</v>
+      </c>
+      <c r="F409" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G409" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="19" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C410" s="0" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D410" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A410, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Мишка красная гоночная машина.pdf</v>
+      </c>
+      <c r="E410" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set2\",C410,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set2\72_horiz.tif</v>
+      </c>
+      <c r="F410" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G410" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="19" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C411" s="0" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D411" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A411, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Мишка стоит с скейтом.pdf</v>
+      </c>
+      <c r="E411" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set2\",C411,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set2\73_vert.tif</v>
+      </c>
+      <c r="F411" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G411" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="19" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C412" s="0" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D412" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A412, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Мишка Серфинг Волна Лето.pdf</v>
+      </c>
+      <c r="E412" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set2\",C412,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set2\74_vert.tif</v>
+      </c>
+      <c r="F412" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G412" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="19" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C413" s="0" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D413" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A413, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Мишка сидит в очках Alone.pdf</v>
+      </c>
+      <c r="E413" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set2\",C413,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set2\75_vert.tif</v>
+      </c>
+      <c r="F413" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G413" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="21" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C414" s="21" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E414" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set2\",C414,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set2\76_vert.tif</v>
+      </c>
+      <c r="F414" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G414" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="19" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C415" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D415" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A415, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Мишка на Самокате.pdf</v>
+      </c>
+      <c r="E415" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set2\",C415,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set2\77_vert.tif</v>
+      </c>
+      <c r="F415" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G415" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="21" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C416" s="21" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E416" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set2\",C416,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set2\78_vert.tif</v>
+      </c>
+      <c r="F416" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G416" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="19" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C417" s="0" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D417" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A417, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Мишка Терминатор.pdf</v>
+      </c>
+      <c r="E417" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set2\",C417,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set2\79_vert.tif</v>
+      </c>
+      <c r="F417" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G417" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="19" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C418" s="0" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D418" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A418, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Мишка гидроцикл волна лето.pdf</v>
+      </c>
+      <c r="E418" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set2\",C418,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set2\80_horiz.tif</v>
+      </c>
+      <c r="F418" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G418" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="19" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C419" s="0" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D419" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A419, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Мишка репер читает с микрофоном.pdf</v>
+      </c>
+      <c r="E419" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set2\",C419,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set2\81_vert.tif</v>
+      </c>
+      <c r="F419" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G419" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="19" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C420" s="0" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D420" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A420, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Мишка Серфинг с парусом волна.pdf</v>
+      </c>
+      <c r="E420" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set2\",C420,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set2\82_vert.tif</v>
+      </c>
+      <c r="F420" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G420" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="21" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C421" s="21" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E421" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set2\",C421,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set2\83_vert.tif</v>
+      </c>
+      <c r="F421" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G421" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="19" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C422" s="0" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D422" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A422, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Мишка маска плавание лето селфи.pdf</v>
+      </c>
+      <c r="E422" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set2\",C422,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set2\84_vert.tif</v>
+      </c>
+      <c r="F422" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G422" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="21" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C423" s="21" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E423" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set2\",C423,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set2\85_vert.tif</v>
+      </c>
+      <c r="F423" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G423" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A424" s="21" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C424" s="21" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E424" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set2\",C424,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set2\86_vert.tif</v>
+      </c>
+      <c r="F424" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G424" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="19" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C425" s="0" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D425" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A425, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Мишка на лыжах.pdf</v>
+      </c>
+      <c r="E425" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set2\",C425,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set2\87_vert.tif</v>
+      </c>
+      <c r="F425" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G425" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="19" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C426" s="0" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D426" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A426, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Мишка байкер мотоцикл.pdf</v>
+      </c>
+      <c r="E426" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set2\",C426,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set2\88_horiz.tif</v>
+      </c>
+      <c r="F426" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G426" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="19" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C427" s="0" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D427" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A427, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Мишка велосипед.pdf</v>
+      </c>
+      <c r="E427" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set2\",C427,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set2\89_vert.tif</v>
+      </c>
+      <c r="F427" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G427" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="19" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C428" s="0" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D428" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A428, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Мишка Каратэ нога вверх.pdf</v>
+      </c>
+      <c r="E428" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set2\",C428,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set2\90_vert.tif</v>
+      </c>
+      <c r="F428" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G428" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="21" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C429" s="21" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E429" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set2\",C429,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set2\91_vert.tif</v>
+      </c>
+      <c r="F429" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G429" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="19" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C430" s="0" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D430" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A430, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Мишка скейт бежит.pdf</v>
+      </c>
+      <c r="E430" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set2\",C430,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set2\92_vert.tif</v>
+      </c>
+      <c r="F430" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G430" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="19" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C431" s="0" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D431" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A431, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Мишка скейт Lets move.pdf</v>
+      </c>
+      <c r="E431" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set2\",C431,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set2\93_vert.tif</v>
+      </c>
+      <c r="F431" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G431" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="19" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C432" s="0" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D432" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A432, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Минни Маус и бабочка.pdf</v>
+      </c>
+      <c r="E432" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set2\",C432,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set2\120_vert.tif</v>
+      </c>
+      <c r="F432" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G432" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="19" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C433" s="0" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D433" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A433, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Минни Маус поправляет бант.pdf</v>
+      </c>
+      <c r="E433" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set2\",C433,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set2\121_vert.tif</v>
+      </c>
+      <c r="F433" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G433" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="19" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C434" s="0" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D434" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A434, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Дисней утка Дейзи Сердечко.pdf</v>
+      </c>
+      <c r="E434" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set2\",C434,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set2\122_horiz.tif</v>
+      </c>
+      <c r="F434" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G434" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="19" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C435" s="0" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D435" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A435, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Дисней утка Дейзи и Минни сидят.pdf</v>
+      </c>
+      <c r="E435" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set2\",C435,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set2\123_horiz.tif</v>
+      </c>
+      <c r="F435" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G435" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C436" s="0" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D436" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A436, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Дисней утка Дейзи и Минни мороженое.pdf</v>
+      </c>
+      <c r="E436" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set2\",C436,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set2\124_horiz.tif</v>
+      </c>
+      <c r="F436" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G436" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="19" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C437" s="0" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D437" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A437, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Дисней утка Дейзи улыбка.pdf</v>
+      </c>
+      <c r="E437" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set2\",C437,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set2\125_vert.tif</v>
+      </c>
+      <c r="F437" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G437" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="19" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C438" s="0" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D438" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A438, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Дисней утка Дейзи и Минни пис.pdf</v>
+      </c>
+      <c r="E438" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set2\",C438,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set2\126_horiz.tif</v>
+      </c>
+      <c r="F438" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G438" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="19" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C439" s="0" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D439" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A439, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Дейзи и Минни Маус коктейль мороженое.pdf</v>
+      </c>
+      <c r="E439" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set2\",C439,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set2\127_horiz.tif</v>
+      </c>
+      <c r="F439" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G439" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="21" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C440" s="21" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E440" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set2\",C440,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set2\128_vert.tif</v>
+      </c>
+      <c r="F440" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G440" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="19" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C441" s="0" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D441" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A441, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Минни Маус целует Микки.pdf</v>
+      </c>
+      <c r="E441" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set2\",C441,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A5\set2\129_vert.tif</v>
+      </c>
+      <c r="F441" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G441" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="19" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C442" s="0" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D442" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A442, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейки Nike Найк набор.pdf</v>
+      </c>
+      <c r="E442" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\logos\",C442,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\logos\200_vert.tif</v>
+      </c>
+      <c r="F442" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G442" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="19" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C443" s="0" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D443" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A443, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейки Nike Adidas Reebok Vans Puma набор.pdf</v>
+      </c>
+      <c r="E443" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\logos\",C443,".tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\tatyana\A4\logos\201_vert.tif</v>
+      </c>
+      <c r="F443" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G443" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -14580,7 +16197,7 @@
   <dimension ref="A2:B241"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A206" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A394:G443 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14599,7 +16216,7 @@
         <v>56</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14607,7 +16224,7 @@
         <v>59</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14615,7 +16232,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14623,7 +16240,7 @@
         <v>63</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14631,7 +16248,7 @@
         <v>65</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14639,7 +16256,7 @@
         <v>67</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14647,7 +16264,7 @@
         <v>69</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14655,7 +16272,7 @@
         <v>71</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14663,7 +16280,7 @@
         <v>73</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14671,7 +16288,7 @@
         <v>75</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14679,7 +16296,7 @@
         <v>77</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14687,7 +16304,7 @@
         <v>79</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14695,7 +16312,7 @@
         <v>81</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14703,7 +16320,7 @@
         <v>83</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14711,7 +16328,7 @@
         <v>85</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14719,7 +16336,7 @@
         <v>87</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14727,7 +16344,7 @@
         <v>89</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14735,7 +16352,7 @@
         <v>91</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14743,7 +16360,7 @@
         <v>93</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14751,7 +16368,7 @@
         <v>95</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14759,7 +16376,7 @@
         <v>97</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14767,7 +16384,7 @@
         <v>99</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14775,7 +16392,7 @@
         <v>101</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14783,7 +16400,7 @@
         <v>103</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14791,7 +16408,7 @@
         <v>105</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14799,7 +16416,7 @@
         <v>107</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14807,7 +16424,7 @@
         <v>109</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14815,7 +16432,7 @@
         <v>111</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14823,7 +16440,7 @@
         <v>113</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14831,7 +16448,7 @@
         <v>115</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14839,7 +16456,7 @@
         <v>117</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14847,7 +16464,7 @@
         <v>119</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14855,7 +16472,7 @@
         <v>121</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14863,7 +16480,7 @@
         <v>123</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14871,7 +16488,7 @@
         <v>125</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14879,7 +16496,7 @@
         <v>127</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14887,7 +16504,7 @@
         <v>129</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14895,7 +16512,7 @@
         <v>131</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14903,7 +16520,7 @@
         <v>133</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14911,7 +16528,7 @@
         <v>135</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14919,7 +16536,7 @@
         <v>137</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14927,7 +16544,7 @@
         <v>139</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14935,7 +16552,7 @@
         <v>141</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14943,7 +16560,7 @@
         <v>143</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14951,7 +16568,7 @@
         <v>145</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14959,7 +16576,7 @@
         <v>147</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14967,7 +16584,7 @@
         <v>149</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14975,7 +16592,7 @@
         <v>151</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14983,7 +16600,7 @@
         <v>153</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14991,7 +16608,7 @@
         <v>155</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14999,7 +16616,7 @@
         <v>157</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15007,7 +16624,7 @@
         <v>159</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15015,7 +16632,7 @@
         <v>161</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15023,7 +16640,7 @@
         <v>163</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15031,7 +16648,7 @@
         <v>165</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15039,7 +16656,7 @@
         <v>167</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15047,7 +16664,7 @@
         <v>169</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15055,7 +16672,7 @@
         <v>171</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15063,7 +16680,7 @@
         <v>173</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15071,7 +16688,7 @@
         <v>175</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15079,7 +16696,7 @@
         <v>177</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15087,7 +16704,7 @@
         <v>179</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15095,7 +16712,7 @@
         <v>181</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15103,7 +16720,7 @@
         <v>183</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15111,7 +16728,7 @@
         <v>185</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15119,7 +16736,7 @@
         <v>187</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15127,7 +16744,7 @@
         <v>189</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15135,7 +16752,7 @@
         <v>191</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15143,7 +16760,7 @@
         <v>193</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15151,7 +16768,7 @@
         <v>195</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15159,7 +16776,7 @@
         <v>197</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15167,7 +16784,7 @@
         <v>199</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15175,7 +16792,7 @@
         <v>201</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15183,7 +16800,7 @@
         <v>203</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15191,7 +16808,7 @@
         <v>205</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15199,7 +16816,7 @@
         <v>207</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15207,7 +16824,7 @@
         <v>209</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15215,7 +16832,7 @@
         <v>211</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15223,7 +16840,7 @@
         <v>213</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15231,7 +16848,7 @@
         <v>215</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15239,7 +16856,7 @@
         <v>217</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15247,7 +16864,7 @@
         <v>219</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15255,7 +16872,7 @@
         <v>221</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15263,7 +16880,7 @@
         <v>223</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15271,7 +16888,7 @@
         <v>225</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15279,7 +16896,7 @@
         <v>227</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>1019</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15287,7 +16904,7 @@
         <v>229</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>1020</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15295,7 +16912,7 @@
         <v>232</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>1020</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15303,7 +16920,7 @@
         <v>234</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>1020</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15311,7 +16928,7 @@
         <v>236</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>1020</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15319,7 +16936,7 @@
         <v>238</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>1020</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15327,7 +16944,7 @@
         <v>240</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>1020</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15335,7 +16952,7 @@
         <v>242</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>1020</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15343,7 +16960,7 @@
         <v>244</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>1020</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15351,7 +16968,7 @@
         <v>246</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>1020</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15359,7 +16976,7 @@
         <v>248</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>1020</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15367,7 +16984,7 @@
         <v>250</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>1020</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15375,7 +16992,7 @@
         <v>252</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>1020</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15383,7 +17000,7 @@
         <v>254</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>1020</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15391,7 +17008,7 @@
         <v>256</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>1020</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15399,7 +17016,7 @@
         <v>258</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>1020</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15407,7 +17024,7 @@
         <v>260</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15415,7 +17032,7 @@
         <v>263</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15423,7 +17040,7 @@
         <v>265</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15431,7 +17048,7 @@
         <v>267</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15439,7 +17056,7 @@
         <v>269</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15447,7 +17064,7 @@
         <v>271</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15455,7 +17072,7 @@
         <v>273</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15463,7 +17080,7 @@
         <v>275</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15471,7 +17088,7 @@
         <v>277</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15479,7 +17096,7 @@
         <v>279</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15487,7 +17104,7 @@
         <v>281</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15495,7 +17112,7 @@
         <v>283</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15503,7 +17120,7 @@
         <v>285</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15511,7 +17128,7 @@
         <v>287</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15519,7 +17136,7 @@
         <v>289</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15527,7 +17144,7 @@
         <v>291</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15535,975 +17152,975 @@
         <v>293</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="11" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>1022</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>1022</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>1022</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>1022</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>1022</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>1022</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>1022</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>1022</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>1022</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>1022</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>1022</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>1022</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>1022</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>1022</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="11" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>1022</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>1022</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="11" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>1022</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="11" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>1022</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="13" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="13" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="13" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="13" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="13" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="14" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="13" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="14" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="13" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="14" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="14" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="14" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="14" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="14" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="14" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="14" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="13" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="14" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="14" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="14" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="14" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="14" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="14" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="14" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="14" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="14" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>1023</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="11" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>1022</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="11" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>1022</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="11" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>1022</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="11" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>1022</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="11" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>1022</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="11" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>1022</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="12" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="12" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="12" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="12" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="12" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="12" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="12" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="12" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="12" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="12" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="12" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="12" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="12" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="12" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="12" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="12" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="12" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="12" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="12" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="12" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="12" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="12" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="12" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="12" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="12" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="12" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="12" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="12" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="12" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="12" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="12" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="12" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="12" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="12" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="12" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="12" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="12" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="12" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="12" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>1021</v>
+        <v>1153</v>
       </c>
     </row>
   </sheetData>

--- a/barcode/Data path barcode.xlsx
+++ b/barcode/Data path barcode.xlsx
@@ -4108,7 +4108,7 @@
     <t xml:space="preserve">52_horiz</t>
   </si>
   <si>
-    <t xml:space="preserve">Термонаклейка Дисней злодеи Друзья Friends </t>
+    <t xml:space="preserve">Термонаклейка Дисней злодеи Друзья Friends</t>
   </si>
   <si>
     <t xml:space="preserve">53_horiz</t>
@@ -4351,7 +4351,7 @@
     <t xml:space="preserve">126_horiz</t>
   </si>
   <si>
-    <t xml:space="preserve">Термонаклейка Дейзи и Минни Маус коктейль мороженое</t>
+    <t xml:space="preserve">Термонаклейка Дейзи и Минни Маус коктейль</t>
   </si>
   <si>
     <t xml:space="preserve">127_horiz</t>
@@ -4773,8 +4773,8 @@
   </sheetPr>
   <dimension ref="A1:AO1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A389" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A443" activeCellId="0" sqref="A394:G443"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A382" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A394" activeCellId="0" sqref="A394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4782,9 +4782,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="46.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="91.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="50.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="49.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.04"/>
@@ -15098,7 +15098,7 @@
       </c>
       <c r="D395" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\", A395, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Дисней злодеи Друзья Friends .pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A4\Термонаклейка Дисней злодеи Друзья Friends.pdf</v>
       </c>
       <c r="E395" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A4\set3\",C395,".tif")</f>
@@ -16038,7 +16038,7 @@
       </c>
       <c r="D439" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A439, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Дейзи и Минни Маус коктейль мороженое.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Дейзи и Минни Маус коктейль.pdf</v>
       </c>
       <c r="E439" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set2\",C439,".tif")</f>
@@ -16197,7 +16197,7 @@
   <dimension ref="A2:B241"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A206" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A394:G443 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/barcode/Data path barcode.xlsx
+++ b/barcode/Data path barcode.xlsx
@@ -5167,8 +5167,8 @@
   </sheetPr>
   <dimension ref="A1:AO1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A185" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C217" activeCellId="0" sqref="C217"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A303" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A328" activeCellId="0" sqref="A328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/barcode/Data path barcode.xlsx
+++ b/barcode/Data path barcode.xlsx
@@ -4780,25 +4780,25 @@
     <t xml:space="preserve">201_vert</t>
   </si>
   <si>
-    <t xml:space="preserve">Термонаклейка на одежду Формы термозаплатка</t>
+    <t xml:space="preserve">Термонаклейка Формы термозаплатка</t>
   </si>
   <si>
     <t xml:space="preserve">patch_a</t>
   </si>
   <si>
-    <t xml:space="preserve">Термонаклейка на одежду Сердечки термозаплатка</t>
+    <t xml:space="preserve">Термонаклейка Сердечки термозаплатка</t>
   </si>
   <si>
     <t xml:space="preserve">patch_hearts_black</t>
   </si>
   <si>
-    <t xml:space="preserve">Термонаклейка на одежду Звезды Черные термозаплатка</t>
+    <t xml:space="preserve">Термонаклейка Звезды Черные термозаплатка</t>
   </si>
   <si>
     <t xml:space="preserve">patch_stars_black</t>
   </si>
   <si>
-    <t xml:space="preserve">Термонаклейка на одежду Звезды Белые термозаплатка</t>
+    <t xml:space="preserve">Термонаклейка Звезды Белые термозаплатка</t>
   </si>
   <si>
     <t xml:space="preserve">patch_stars_white</t>
@@ -5204,7 +5204,7 @@
   <dimension ref="A1:AO1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A426" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D442" activeCellId="0" sqref="D442"/>
+      <selection pane="topLeft" activeCell="C448" activeCellId="0" sqref="C448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17130,7 +17130,7 @@
       </c>
       <c r="D446" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A446, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка на одежду Формы термозаплатка.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Формы термозаплатка.pdf</v>
       </c>
       <c r="E446" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set3\",C446,".tif")</f>
@@ -17152,7 +17152,7 @@
       </c>
       <c r="D447" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A447, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка на одежду Сердечки термозаплатка.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Сердечки термозаплатка.pdf</v>
       </c>
       <c r="E447" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set3\",C447,".tif")</f>
@@ -17174,7 +17174,7 @@
       </c>
       <c r="D448" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A448, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка на одежду Звезды Черные термозаплатка.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Звезды Черные термозаплатка.pdf</v>
       </c>
       <c r="E448" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set3\",C448,".tif")</f>
@@ -17196,7 +17196,7 @@
       </c>
       <c r="D449" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\", A449, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка на одежду Звезды Белые термозаплатка.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\Tatulya\barcode\A5\Термонаклейка Звезды Белые термозаплатка.pdf</v>
       </c>
       <c r="E449" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\tatyana\A5\set3\",C449,".tif")</f>

--- a/barcode/Data path barcode.xlsx
+++ b/barcode/Data path barcode.xlsx
@@ -385,7 +385,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="1298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="1302">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -4783,22 +4783,34 @@
     <t xml:space="preserve">Термонаклейка Формы термозаплатка</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1563383294</t>
+  </si>
+  <si>
     <t xml:space="preserve">patch_a</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Сердечки термозаплатка</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1563383107</t>
+  </si>
+  <si>
     <t xml:space="preserve">patch_hearts_black</t>
   </si>
   <si>
     <t xml:space="preserve">Тер